--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB748F86-D768-4BC7-B3FA-82F8E357CDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D40CA54-F8AB-4BAE-A14A-16FB2025A656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
@@ -984,7 +984,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1064,19 +1064,19 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>-0.8</v>
+      </c>
+      <c r="E3">
         <v>-0.1</v>
-      </c>
-      <c r="E3">
-        <v>-0.8</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
+        <v>-2</v>
+      </c>
+      <c r="H3">
         <v>0.3</v>
-      </c>
-      <c r="H3">
-        <v>-2</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
@@ -1157,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="D6">
         <v>-2</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -1280,6 +1280,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D40CA54-F8AB-4BAE-A14A-16FB2025A656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D0D89-42D8-46C8-81A5-2260D97DFFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="planes" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="slides" sheetId="4" r:id="rId4"/>
     <sheet name="flicks" sheetId="5" r:id="rId5"/>
     <sheet name="stars" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +119,6 @@
     <t>Linear</t>
   </si>
   <si>
-    <t>Sin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,13 +127,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UpperCir</t>
+    <t>每拍时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,8 +197,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA789EFB-BCA3-4FCA-98D4-565CD71AE543}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -533,13 +557,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="E2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -547,19 +571,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>1.246</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -567,19 +591,19 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>1.246</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>3.246</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -587,16 +611,16 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>3.246</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>6.4450000000000003</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -604,42 +628,42 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>1.246</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>6.4450000000000003</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>6.4450000000000003</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>8.0259999999999998</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -647,18 +671,218 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>6.4450000000000003</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>8.0259999999999998</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8.0259999999999998</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>10.036000000000001</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>8.0259999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>10.036000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10.036000000000001</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>10.135999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>10.036000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>10.135999999999999</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>10.135999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>13.236000000000004</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>10.135999999999999</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>13.236000000000004</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>13.236000000000004</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>13.336</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>13.236000000000004</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>13.336</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>13.336</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10000</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>13.336</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -671,10 +895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -695,13 +919,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>5.4690000000000003</v>
       </c>
       <c r="B2">
-        <v>-1.8</v>
+        <v>1.2</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -709,41 +933,41 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.2</v>
+        <v>5.569</v>
       </c>
       <c r="B3">
-        <v>1.6</v>
+        <v>-0.3</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.4</v>
+        <v>5.6689999999999996</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C4">
         <v>0.6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.6</v>
+        <v>5.7689999999999992</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <v>-1.2</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -751,69 +975,69 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.8</v>
+        <v>8.4359999999999999</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>-1</v>
       </c>
       <c r="C6">
         <v>0.8</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
+        <v>8.4359999999999999</v>
       </c>
       <c r="B7">
-        <v>-1.8</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2.2000000000000002</v>
+        <v>8.5359999999999996</v>
       </c>
       <c r="B8">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2.4</v>
+        <v>8.5359999999999996</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2.6</v>
+        <v>8.7359999999999989</v>
       </c>
       <c r="B10">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="C10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -821,10 +1045,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2.8</v>
+        <v>8.7359999999999989</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0.8</v>
@@ -835,13 +1059,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3</v>
+        <v>8.9359999999999982</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C12">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -849,127 +1073,298 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>6</v>
+        <v>8.9359999999999982</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>6.2</v>
+        <v>9.1359999999999975</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="C14">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>6.4</v>
+        <v>9.1359999999999975</v>
       </c>
       <c r="B15">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>6.6</v>
+        <v>9.2359999999999971</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C16">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>6.8</v>
+        <v>9.2359999999999971</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>7</v>
+        <v>10.636000000000001</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="C18">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>7.2</v>
+        <v>10.936</v>
       </c>
       <c r="B19">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>7.4</v>
+        <v>11.235999999999999</v>
       </c>
       <c r="B20">
-        <v>-1.8</v>
+        <v>-1</v>
       </c>
       <c r="C20">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>7.6</v>
+        <v>11.535999999999998</v>
       </c>
       <c r="B21">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0.8</v>
       </c>
       <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>12.035999999999996</v>
+      </c>
+      <c r="B22">
+        <v>-1.2</v>
+      </c>
+      <c r="C22">
+        <v>0.6</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>12.135999999999996</v>
+      </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23">
+        <v>0.6</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>12.335999999999995</v>
+      </c>
+      <c r="B24">
+        <v>-1.7</v>
+      </c>
+      <c r="C24">
+        <v>0.6</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>12.335999999999995</v>
+      </c>
+      <c r="B25">
+        <v>0.8</v>
+      </c>
+      <c r="C25">
+        <v>0.6</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>12.635999999999994</v>
+      </c>
+      <c r="B26">
+        <v>-0.4</v>
+      </c>
+      <c r="C26">
+        <v>0.6</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>12.735999999999994</v>
+      </c>
+      <c r="B27">
+        <v>0.3</v>
+      </c>
+      <c r="C27">
+        <v>0.6</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>12.835999999999993</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0.6</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>13.035999999999992</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
+        <v>0.6</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>13.836000000000004</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.8</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>14.136000000000003</v>
+      </c>
+      <c r="B31">
+        <v>-1</v>
+      </c>
+      <c r="C31">
+        <v>0.8</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>14.436000000000002</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0.8</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>14.736000000000001</v>
+      </c>
+      <c r="B33">
+        <v>-1</v>
+      </c>
+      <c r="C33">
+        <v>0.8</v>
+      </c>
+      <c r="D33">
         <v>2</v>
       </c>
     </row>
@@ -981,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1029,28 +1424,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="E2">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1.246</v>
       </c>
       <c r="G2">
-        <v>-0.3</v>
+        <v>-1</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1058,31 +1453,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1.246</v>
       </c>
       <c r="D3">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>3.206</v>
       </c>
       <c r="G3">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H3">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1090,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3.6360000000000015</v>
       </c>
       <c r="D4">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>3.7990000000000008</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>-1.2</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
@@ -1125,28 +1520,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>3.6360000000000015</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>3.7990000000000008</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1157,25 +1552,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.5</v>
+        <v>3.9620000000000002</v>
       </c>
       <c r="D6">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>4.1059999999999999</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>-1.2</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
@@ -1183,34 +1578,34 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>3.9620000000000002</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F7">
-        <v>8.5</v>
+        <v>4.1059999999999999</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1218,31 +1613,31 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>4.25</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>-1.8</v>
       </c>
       <c r="E8">
-        <v>0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>4.399</v>
       </c>
       <c r="G8">
-        <v>-0.3</v>
+        <v>-1.8</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>-1.2</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1250,31 +1645,255 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
+        <v>4.25</v>
+      </c>
+      <c r="D9">
+        <v>1.2</v>
+      </c>
+      <c r="E9">
+        <v>1.8</v>
+      </c>
+      <c r="F9">
+        <v>4.399</v>
+      </c>
+      <c r="G9">
+        <v>1.2</v>
+      </c>
+      <c r="H9">
+        <v>1.8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>4.548</v>
+      </c>
+      <c r="D10">
+        <v>-0.6</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4.7059999999999995</v>
+      </c>
+      <c r="G10">
+        <v>-0.6</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>-0.1</v>
-      </c>
-      <c r="E9">
-        <v>-0.8</v>
-      </c>
-      <c r="F9">
+      <c r="C11">
+        <v>4.548</v>
+      </c>
+      <c r="D11">
+        <v>1.2</v>
+      </c>
+      <c r="E11">
+        <v>1.8</v>
+      </c>
+      <c r="F11">
+        <v>4.7059999999999995</v>
+      </c>
+      <c r="G11">
+        <v>1.2</v>
+      </c>
+      <c r="H11">
+        <v>1.8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="G9">
+      <c r="C12">
+        <v>4.8639999999999999</v>
+      </c>
+      <c r="D12">
+        <v>-1.8</v>
+      </c>
+      <c r="E12">
+        <v>-1.2</v>
+      </c>
+      <c r="F12">
+        <v>5.0219999999999994</v>
+      </c>
+      <c r="G12">
+        <v>-1.8</v>
+      </c>
+      <c r="H12">
+        <v>-1.2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>4.8639999999999999</v>
+      </c>
+      <c r="D13">
+        <v>1.2</v>
+      </c>
+      <c r="E13">
+        <v>1.8</v>
+      </c>
+      <c r="F13">
+        <v>5.0219999999999994</v>
+      </c>
+      <c r="G13">
+        <v>1.2</v>
+      </c>
+      <c r="H13">
+        <v>1.8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>5.8689999999999998</v>
+      </c>
+      <c r="D14">
+        <v>-1.8</v>
+      </c>
+      <c r="E14">
+        <v>-1.2</v>
+      </c>
+      <c r="F14">
+        <v>8.0259999999999998</v>
+      </c>
+      <c r="G14">
+        <v>-2</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>5.8689999999999998</v>
+      </c>
+      <c r="D15">
+        <v>1.2</v>
+      </c>
+      <c r="E15">
+        <v>1.8</v>
+      </c>
+      <c r="F15">
+        <v>8.0259999999999998</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>6.4450000000000003</v>
+      </c>
+      <c r="D16">
+        <v>-0.3</v>
+      </c>
+      <c r="E16">
         <v>0.3</v>
       </c>
-      <c r="H9">
-        <v>-2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
+      <c r="F16">
+        <v>8.0259999999999998</v>
+      </c>
+      <c r="G16">
+        <v>-0.5</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1286,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76DC57-EF49-44CE-8A21-D4353938F627}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1310,55 +1929,55 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="B2">
-        <v>-1.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>8.1</v>
+      <c r="A3" s="1">
+        <v>2.427</v>
       </c>
       <c r="B3">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.68</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>8.1999999999999993</v>
+      <c r="A4" s="1">
+        <v>2.7149999999999999</v>
       </c>
       <c r="B4">
-        <v>-1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>8.3000000000000007</v>
+      <c r="A5" s="1">
+        <v>2.9289999999999998</v>
       </c>
       <c r="B5">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1366,83 +1985,83 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>8.4</v>
+        <v>3.2360000000000002</v>
       </c>
       <c r="B6">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="C6">
-        <v>0.92</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>8.5</v>
+      <c r="A7" s="1">
+        <v>3.3026666666666671</v>
       </c>
       <c r="B7">
-        <v>-0.2</v>
+        <v>-0.9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8.6</v>
+      <c r="A8" s="1">
+        <v>3.369333333333334</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="C8">
-        <v>1.08</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8.6999999999999993</v>
+      <c r="A9" s="1">
+        <v>3.4360000000000008</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
-        <v>1.1599999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8.8000000000000007</v>
+      <c r="A10" s="1">
+        <v>3.5026666666666677</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="C10">
-        <v>1.24</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8.9</v>
+      <c r="A11" s="1">
+        <v>3.5693333333333346</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C11">
-        <v>1.32</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1450,15 +2069,43 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9</v>
+        <v>9.636000000000001</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.8</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11.835999999999997</v>
+      </c>
+      <c r="B13">
         <v>1.3</v>
       </c>
-      <c r="C12">
-        <v>1.4</v>
-      </c>
-      <c r="D12">
+      <c r="C13">
+        <v>0.6</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11.885999999999999</v>
+      </c>
+      <c r="B14">
+        <v>1.7</v>
+      </c>
+      <c r="C14">
+        <v>0.6</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
     </row>
@@ -1471,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F96158-71D4-4C19-99F5-47E7932AF572}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1498,13 +2145,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>7</v>
+        <v>10.036000000000001</v>
       </c>
       <c r="B2">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1515,16 +2162,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.2</v>
+        <v>10.036000000000001</v>
       </c>
       <c r="B3">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1532,53 +2179,36 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7.4</v>
+        <v>13.236000000000004</v>
       </c>
       <c r="B4">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.6</v>
+        <v>13.236000000000004</v>
       </c>
       <c r="B5">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="D5">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>7.8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1.3</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1589,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192095B2-1BEA-4365-B4DE-88EEBB6E4423}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1631,31 +2261,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10.436000000000002</v>
       </c>
       <c r="D2">
-        <v>9.5</v>
+        <v>10.436000000000002</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>10.536000000000001</v>
       </c>
       <c r="F2">
         <v>-1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>-1.6</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -1663,34 +2293,803 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
+        <v>10.736000000000001</v>
+      </c>
+      <c r="D3">
+        <v>10.736000000000001</v>
+      </c>
+      <c r="E3">
+        <v>10.836</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>-0.4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>11.036</v>
+      </c>
+      <c r="D4">
+        <v>11.036</v>
+      </c>
+      <c r="E4">
+        <v>11.135999999999999</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>-1.6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>11.335999999999999</v>
+      </c>
+      <c r="D5">
+        <v>11.335999999999999</v>
+      </c>
+      <c r="E5">
+        <v>11.435999999999998</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>-0.4</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>11.635999999999997</v>
+      </c>
+      <c r="D6">
+        <v>11.635999999999997</v>
+      </c>
+      <c r="E6">
+        <v>11.735999999999997</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>-1.6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>13.636000000000005</v>
+      </c>
+      <c r="D7">
+        <v>13.636000000000005</v>
+      </c>
+      <c r="E7">
+        <v>13.736000000000004</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1.6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>13.936000000000003</v>
+      </c>
+      <c r="D8">
+        <v>13.936000000000003</v>
+      </c>
+      <c r="E8">
+        <v>14.036000000000003</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.4</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>14.236000000000002</v>
+      </c>
+      <c r="D9">
+        <v>14.236000000000002</v>
+      </c>
+      <c r="E9">
+        <v>14.336000000000002</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.6</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="C10">
+        <v>14.536000000000001</v>
+      </c>
+      <c r="D10">
+        <v>14.536000000000001</v>
+      </c>
+      <c r="E10">
+        <v>14.636000000000001</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.4</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>10.5</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="C11">
+        <v>14.836</v>
+      </c>
+      <c r="D11">
+        <v>14.836</v>
+      </c>
+      <c r="E11">
+        <v>14.936</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1.6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7596AC-A6F6-4FB8-B823-5B4B1777330C}">
+  <dimension ref="A1:N60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="K2">
+        <v>0.4</v>
+      </c>
+      <c r="L2">
+        <f>K2/2</f>
+        <v>0.2</v>
+      </c>
+      <c r="M2">
+        <f>L2/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="1">
+        <f>L2/3</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8.4359999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A43" si="0">A3+$K$2</f>
+        <v>8.8360000000000003</v>
+      </c>
+      <c r="L4">
+        <v>3.6360000000000001</v>
+      </c>
+      <c r="M4">
+        <v>5.4690000000000003</v>
+      </c>
+      <c r="N4">
+        <v>3.2360000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>9.2360000000000007</v>
+      </c>
+      <c r="L5">
+        <f>L4+$L$2</f>
+        <v>3.8360000000000003</v>
+      </c>
+      <c r="M5">
+        <f>M4+$M$2</f>
+        <v>5.569</v>
+      </c>
+      <c r="N5" s="1">
+        <f>N4+$N$2</f>
+        <v>3.3026666666666671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>9.636000000000001</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L13" si="1">L5+$L$2</f>
+        <v>4.0360000000000005</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M8" si="2">M5+$M$2</f>
+        <v>5.6689999999999996</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6:N10" si="3">N5+$N$2</f>
+        <v>3.369333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>10.036000000000001</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>4.2360000000000007</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>5.7689999999999992</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4360000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>10.436000000000002</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>4.4360000000000008</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>5.8689999999999989</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5026666666666677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>10.836000000000002</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>4.636000000000001</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5693333333333346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>11.236000000000002</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>4.8360000000000012</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6360000000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>11.636000000000003</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>5.0360000000000014</v>
+      </c>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>12.036000000000003</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>5.2360000000000015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12.436000000000003</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>5.4360000000000017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12.836000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13.236000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13.636000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14.036000000000005</v>
+      </c>
+      <c r="M17">
+        <v>6.4450000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>14.436000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>14.836000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>15.236000000000006</v>
+      </c>
+      <c r="M20">
+        <v>8.4359999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>15.636000000000006</v>
+      </c>
+      <c r="M21">
+        <f>M20+$M$2</f>
+        <v>8.5359999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>16.036000000000005</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M31" si="4">M21+$M$2</f>
+        <v>8.6359999999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>16.436000000000003</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>8.7359999999999989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>16.836000000000002</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>8.8359999999999985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>17.236000000000001</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>8.9359999999999982</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>17.635999999999999</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>9.0359999999999978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>9.1359999999999975</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>9.2359999999999971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>10.436000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <f>M30+$M$2</f>
+        <v>10.536000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <f t="shared" ref="M32:M60" si="5">M31+$M$2</f>
+        <v>10.636000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>10.736000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>10.836</v>
+      </c>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>10.936</v>
+      </c>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>11.036</v>
+      </c>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>11.135999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>11.235999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>11.335999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>11.435999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>11.535999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>11.635999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>11.735999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>11.835999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>11.935999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>12.035999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>12.135999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>12.235999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>12.335999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>12.435999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>12.535999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>12.635999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>12.735999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>12.835999999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <f t="shared" si="5"/>
+        <v>12.935999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <f t="shared" si="5"/>
+        <v>13.035999999999992</v>
+      </c>
+    </row>
+    <row r="57" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <f t="shared" si="5"/>
+        <v>13.135999999999992</v>
+      </c>
+    </row>
+    <row r="58" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <f t="shared" si="5"/>
+        <v>13.235999999999992</v>
+      </c>
+    </row>
+    <row r="59" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <f t="shared" si="5"/>
+        <v>13.335999999999991</v>
+      </c>
+    </row>
+    <row r="60" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <f t="shared" si="5"/>
+        <v>13.435999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Xenody-master\Assets\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D0D89-42D8-46C8-81A5-2260D97DFFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E9F1C9-481A-4386-B8D6-B27E8DF4C575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="planes" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,26 @@
     <sheet name="stars" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +157,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA789EFB-BCA3-4FCA-98D4-565CD71AE543}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -857,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>10000</v>
+        <v>16.435999999999989</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -877,12 +890,272 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <v>16.435999999999989</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>16.435999999999989</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>16.536000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>16.435999999999989</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>16.536000000000001</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>16.536000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>19.635999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>16.536000000000001</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>19.635999999999999</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>19.635999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>20.036000000000001</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>19.635999999999999</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>20.036000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>20.036000000000001</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>20.436</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>20.036000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>20.436</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>20.436</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <v>20.835999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>20.436</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <v>20.835999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>20.835999999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.25</v>
+      </c>
+      <c r="D29">
+        <v>21.236000000000001</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>20.835999999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.25</v>
+      </c>
+      <c r="D30">
+        <v>21.236000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>21.236000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>10000</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -895,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1419,7 @@
         <v>10.636000000000001</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0.8</v>
@@ -1174,7 +1447,7 @@
         <v>11.235999999999999</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0.8</v>
@@ -1331,7 +1604,7 @@
         <v>14.136000000000003</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0.8</v>
@@ -1359,27 +1632,798 @@
         <v>14.736000000000001</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0.8</v>
       </c>
       <c r="D33">
         <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>15.435999999999984</v>
+      </c>
+      <c r="B34">
+        <v>0.8</v>
+      </c>
+      <c r="C34">
+        <v>0.6</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>15.535999999999984</v>
+      </c>
+      <c r="B35">
+        <v>-0.4</v>
+      </c>
+      <c r="C35">
+        <v>0.6</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>15.735999999999983</v>
+      </c>
+      <c r="B36">
+        <v>1.7</v>
+      </c>
+      <c r="C36">
+        <v>0.6</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>15.835999999999983</v>
+      </c>
+      <c r="B37">
+        <v>-1.4</v>
+      </c>
+      <c r="C37">
+        <v>0.6</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>15.935999999999982</v>
+      </c>
+      <c r="B38">
+        <v>0.8</v>
+      </c>
+      <c r="C38">
+        <v>0.6</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>16.035999999999984</v>
+      </c>
+      <c r="B39">
+        <v>-0.5</v>
+      </c>
+      <c r="C39">
+        <v>0.6</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>16.135999999999985</v>
+      </c>
+      <c r="B40">
+        <v>1.5</v>
+      </c>
+      <c r="C40">
+        <v>0.6</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>16.235999999999986</v>
+      </c>
+      <c r="B41">
+        <v>-1.5</v>
+      </c>
+      <c r="C41">
+        <v>0.6</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>16.335999999999988</v>
+      </c>
+      <c r="B42">
+        <v>1.7</v>
+      </c>
+      <c r="C42">
+        <v>0.6</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>17.035999999999998</v>
+      </c>
+      <c r="B43">
+        <v>-1</v>
+      </c>
+      <c r="C43">
+        <v>0.8</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>17.336000000000002</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0.8</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>17.636000000000006</v>
+      </c>
+      <c r="B45">
+        <v>-1</v>
+      </c>
+      <c r="C45">
+        <v>0.8</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>17.936000000000011</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0.8</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>18.236000000000015</v>
+      </c>
+      <c r="B47">
+        <v>0.3</v>
+      </c>
+      <c r="C47">
+        <v>0.6</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>18.436000000000018</v>
+      </c>
+      <c r="B48">
+        <v>-1.7</v>
+      </c>
+      <c r="C48">
+        <v>0.6</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>18.536000000000019</v>
+      </c>
+      <c r="B49">
+        <v>1.7</v>
+      </c>
+      <c r="C49">
+        <v>0.6</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>18.736000000000022</v>
+      </c>
+      <c r="B50">
+        <v>-0.7</v>
+      </c>
+      <c r="C50">
+        <v>0.6</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>18.736000000000022</v>
+      </c>
+      <c r="B51">
+        <v>0.5</v>
+      </c>
+      <c r="C51">
+        <v>0.6</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>19.236000000000029</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0.6</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>19.33600000000003</v>
+      </c>
+      <c r="B53">
+        <v>1.2</v>
+      </c>
+      <c r="C53">
+        <v>0.6</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>19.536000000000033</v>
+      </c>
+      <c r="B54">
+        <v>1.7</v>
+      </c>
+      <c r="C54">
+        <v>0.6</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>21.236000000000001</v>
+      </c>
+      <c r="B55">
+        <v>-1.5</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>21.236000000000001</v>
+      </c>
+      <c r="B56">
+        <v>1.5</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>21.651</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0.5</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>21.731999999999999</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0.5</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>21.81</v>
+      </c>
+      <c r="B59">
+        <v>0.5</v>
+      </c>
+      <c r="C59">
+        <v>0.5</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>21.898</v>
+      </c>
+      <c r="B60">
+        <v>-0.5</v>
+      </c>
+      <c r="C60">
+        <v>0.7</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>21.969000000000001</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0.7</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>22.036000000000001</v>
+      </c>
+      <c r="B62">
+        <v>-0.2</v>
+      </c>
+      <c r="C62">
+        <v>0.7</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>22.136000000000003</v>
+      </c>
+      <c r="B63">
+        <v>0.8</v>
+      </c>
+      <c r="C63">
+        <v>0.7</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>22.336000000000006</v>
+      </c>
+      <c r="B64">
+        <v>1.4</v>
+      </c>
+      <c r="C64">
+        <v>0.7</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>22.536000000000008</v>
+      </c>
+      <c r="B65">
+        <v>-1</v>
+      </c>
+      <c r="C65">
+        <v>0.8</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>22.63600000000001</v>
+      </c>
+      <c r="B66">
+        <v>0.6</v>
+      </c>
+      <c r="C66">
+        <v>0.8</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>23.036000000000001</v>
+      </c>
+      <c r="B67">
+        <v>-0.8</v>
+      </c>
+      <c r="C67">
+        <v>1.2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>23.036000000000001</v>
+      </c>
+      <c r="B68">
+        <v>0.8</v>
+      </c>
+      <c r="C68">
+        <v>1.2</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>23.33600000000002</v>
+      </c>
+      <c r="B69">
+        <v>-1.4</v>
+      </c>
+      <c r="C69">
+        <v>1.2</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>23.33600000000002</v>
+      </c>
+      <c r="B70">
+        <v>0.2</v>
+      </c>
+      <c r="C70">
+        <v>1.2</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>23.536000000000023</v>
+      </c>
+      <c r="B71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C71">
+        <v>1.2</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>23.636000000000024</v>
+      </c>
+      <c r="B72">
+        <v>-0.2</v>
+      </c>
+      <c r="C72">
+        <v>1.2</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>23.636000000000024</v>
+      </c>
+      <c r="B73">
+        <v>1.4</v>
+      </c>
+      <c r="C73">
+        <v>1.2</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>23.836000000000027</v>
+      </c>
+      <c r="B74">
+        <v>-0.8</v>
+      </c>
+      <c r="C74">
+        <v>1.2</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>23.836000000000027</v>
+      </c>
+      <c r="B75">
+        <v>0.8</v>
+      </c>
+      <c r="C75">
+        <v>1.2</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>24.03600000000003</v>
+      </c>
+      <c r="B76">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C76">
+        <v>1.2</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>24.03600000000003</v>
+      </c>
+      <c r="B77">
+        <v>0.5</v>
+      </c>
+      <c r="C77">
+        <v>1.2</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>24.136000000000031</v>
+      </c>
+      <c r="B78">
+        <v>-1.4</v>
+      </c>
+      <c r="C78">
+        <v>1.2</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>24.136000000000031</v>
+      </c>
+      <c r="B79">
+        <v>0.2</v>
+      </c>
+      <c r="C79">
+        <v>1.2</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>24.336000000000034</v>
+      </c>
+      <c r="B80">
+        <v>-0.8</v>
+      </c>
+      <c r="C80">
+        <v>1.2</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>24.336000000000034</v>
+      </c>
+      <c r="B81">
+        <v>0.8</v>
+      </c>
+      <c r="C81">
+        <v>1.2</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>24.636000000000038</v>
+      </c>
+      <c r="B82">
+        <v>1.4</v>
+      </c>
+      <c r="C82">
+        <v>1.2</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>24.73600000000004</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1.2</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>24.936000000000043</v>
+      </c>
+      <c r="B84">
+        <v>-1.2</v>
+      </c>
+      <c r="C84">
+        <v>1.2</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>25.036000000000044</v>
+      </c>
+      <c r="B85">
+        <v>0.7</v>
+      </c>
+      <c r="C85">
+        <v>1.2</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>25.136000000000045</v>
+      </c>
+      <c r="B86">
+        <v>0.5</v>
+      </c>
+      <c r="C86">
+        <v>1.2</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>25.336000000000048</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>1.2</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>25.43600000000005</v>
+      </c>
+      <c r="B88">
+        <v>-0.2</v>
+      </c>
+      <c r="C88">
+        <v>1.2</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1893,6 +2937,294 @@
         <v>25</v>
       </c>
       <c r="J16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>19.635999999999999</v>
+      </c>
+      <c r="D17">
+        <v>1.2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>20.036000000000001</v>
+      </c>
+      <c r="G17">
+        <v>-1.6</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>20.036000000000001</v>
+      </c>
+      <c r="D18">
+        <v>-1.6</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <v>20.436</v>
+      </c>
+      <c r="G18">
+        <v>-2</v>
+      </c>
+      <c r="H18">
+        <v>-1.6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>20.436</v>
+      </c>
+      <c r="D19">
+        <v>-2</v>
+      </c>
+      <c r="E19">
+        <v>-1.6</v>
+      </c>
+      <c r="F19">
+        <v>20.736000000000001</v>
+      </c>
+      <c r="G19">
+        <v>-1.6</v>
+      </c>
+      <c r="H19">
+        <v>-1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>20.736000000000001</v>
+      </c>
+      <c r="D20">
+        <v>-1.6</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <v>21.036000000000001</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>19.635999999999999</v>
+      </c>
+      <c r="D21">
+        <v>-2</v>
+      </c>
+      <c r="E21">
+        <v>-1.2</v>
+      </c>
+      <c r="F21">
+        <v>20.036000000000001</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1.6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>20.036000000000001</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1.6</v>
+      </c>
+      <c r="F22">
+        <v>20.436</v>
+      </c>
+      <c r="G22">
+        <v>1.6</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>20.436</v>
+      </c>
+      <c r="D23">
+        <v>1.6</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>20.736000000000001</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1.6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>20.736000000000001</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1.6</v>
+      </c>
+      <c r="F24">
+        <v>21.036000000000001</v>
+      </c>
+      <c r="G24">
+        <v>-2</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>25.036000000000044</v>
+      </c>
+      <c r="D25">
+        <v>-2</v>
+      </c>
+      <c r="E25">
+        <v>-0.6</v>
+      </c>
+      <c r="F25">
+        <v>25.43600000000005</v>
+      </c>
+      <c r="G25">
+        <v>-2</v>
+      </c>
+      <c r="H25">
+        <v>-0.6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1905,10 +3237,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76DC57-EF49-44CE-8A21-D4353938F627}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2106,6 +3438,118 @@
         <v>0.6</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15.035999999999985</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.6</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15.085999999999986</v>
+      </c>
+      <c r="B16">
+        <v>-0.4</v>
+      </c>
+      <c r="C16">
+        <v>0.6</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15.135999999999987</v>
+      </c>
+      <c r="B17">
+        <v>-0.8</v>
+      </c>
+      <c r="C17">
+        <v>0.6</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15.185999999999988</v>
+      </c>
+      <c r="B18">
+        <v>-1.2</v>
+      </c>
+      <c r="C18">
+        <v>0.6</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15.235999999999988</v>
+      </c>
+      <c r="B19">
+        <v>-1.6</v>
+      </c>
+      <c r="C19">
+        <v>0.6</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18.936000000000025</v>
+      </c>
+      <c r="B20">
+        <v>1.5</v>
+      </c>
+      <c r="C20">
+        <v>0.6</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18.986000000000001</v>
+      </c>
+      <c r="B21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19.036000000000026</v>
+      </c>
+      <c r="B22">
+        <v>0.7</v>
+      </c>
+      <c r="C22">
+        <v>0.6</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
     </row>
@@ -2118,10 +3562,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F96158-71D4-4C19-99F5-47E7932AF572}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2208,6 +3652,74 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16.435999999999989</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>1.6</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>16.435999999999989</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>22.835999999999999</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>1.6</v>
+      </c>
+      <c r="D8">
+        <v>0.75</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>22.835999999999999</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.6</v>
+      </c>
+      <c r="D9">
+        <v>0.25</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
@@ -2219,10 +3731,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192095B2-1BEA-4365-B4DE-88EEBB6E4423}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2579,18 +4091,179 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>16.835999999999995</v>
+      </c>
+      <c r="D12">
+        <v>16.835999999999995</v>
+      </c>
+      <c r="E12">
+        <v>16.935999999999996</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>-1.6</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>17.135999999999999</v>
+      </c>
+      <c r="D13">
+        <v>17.135999999999999</v>
+      </c>
+      <c r="E13">
+        <v>17.236000000000001</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1.6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>17.436000000000003</v>
+      </c>
+      <c r="D14">
+        <v>17.436000000000003</v>
+      </c>
+      <c r="E14">
+        <v>17.536000000000005</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>-1.6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>17.736000000000008</v>
+      </c>
+      <c r="D15">
+        <v>17.736000000000008</v>
+      </c>
+      <c r="E15">
+        <v>17.836000000000009</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1.6</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>18.036000000000012</v>
+      </c>
+      <c r="D16">
+        <v>18.036000000000012</v>
+      </c>
+      <c r="E16">
+        <v>18.136000000000013</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>-1.6</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7596AC-A6F6-4FB8-B823-5B4B1777330C}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M37" activeCellId="1" sqref="M33:M35 M37:M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2632,8 +4305,7 @@
         <v>0.1</v>
       </c>
       <c r="N2" s="1">
-        <f>L2/3</f>
-        <v>6.6666666666666666E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2643,14 +4315,14 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A43" si="0">A3+$K$2</f>
+        <f t="shared" ref="A4:A26" si="0">A3+$K$2</f>
         <v>8.8360000000000003</v>
       </c>
       <c r="L4">
         <v>3.6360000000000001</v>
       </c>
       <c r="M4">
-        <v>5.4690000000000003</v>
+        <v>22.036000000000001</v>
       </c>
       <c r="N4">
         <v>3.2360000000000002</v>
@@ -2666,12 +4338,12 @@
         <v>3.8360000000000003</v>
       </c>
       <c r="M5">
-        <f>M4+$M$2</f>
-        <v>5.569</v>
+        <f>M4+0.1</f>
+        <v>22.136000000000003</v>
       </c>
       <c r="N5" s="1">
         <f>N4+$N$2</f>
-        <v>3.3026666666666671</v>
+        <v>3.3030000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2684,12 +4356,12 @@
         <v>4.0360000000000005</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M8" si="2">M5+$M$2</f>
-        <v>5.6689999999999996</v>
+        <f t="shared" ref="M6:M41" si="2">M5+0.1</f>
+        <v>22.236000000000004</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6:N10" si="3">N5+$N$2</f>
-        <v>3.369333333333334</v>
+        <v>3.3700000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2703,11 +4375,11 @@
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>5.7689999999999992</v>
+        <v>22.336000000000006</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>3.4360000000000008</v>
+        <v>3.4370000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2721,11 +4393,11 @@
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>5.8689999999999989</v>
+        <v>22.436000000000007</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
-        <v>3.5026666666666677</v>
+        <v>3.5040000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2737,9 +4409,13 @@
         <f t="shared" si="1"/>
         <v>4.636000000000001</v>
       </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>22.536000000000008</v>
+      </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
-        <v>3.5693333333333346</v>
+        <v>3.5710000000000011</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2751,9 +4427,13 @@
         <f t="shared" si="1"/>
         <v>4.8360000000000012</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>22.63600000000001</v>
+      </c>
       <c r="N10" s="1">
         <f t="shared" si="3"/>
-        <v>3.6360000000000015</v>
+        <v>3.6380000000000012</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2765,6 +4445,10 @@
         <f t="shared" si="1"/>
         <v>5.0360000000000014</v>
       </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>22.736000000000011</v>
+      </c>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -2776,6 +4460,10 @@
         <f t="shared" si="1"/>
         <v>5.2360000000000015</v>
       </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>22.836000000000013</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -2786,24 +4474,51 @@
         <f t="shared" si="1"/>
         <v>5.4360000000000017</v>
       </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>22.936000000000014</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12.836000000000004</v>
       </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>23.036000000000016</v>
+      </c>
+      <c r="N14">
+        <v>21.635999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13.236000000000004</v>
       </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>23.136000000000017</v>
+      </c>
+      <c r="N15">
+        <f>N14+$N$2</f>
+        <v>21.702999999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13.636000000000005</v>
       </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>23.236000000000018</v>
+      </c>
+      <c r="N16">
+        <f>N15+$N$2</f>
+        <v>21.77</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -2811,7 +4526,8 @@
         <v>14.036000000000005</v>
       </c>
       <c r="M17">
-        <v>6.4450000000000003</v>
+        <f t="shared" si="2"/>
+        <v>23.33600000000002</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -2819,12 +4535,20 @@
         <f t="shared" si="0"/>
         <v>14.436000000000005</v>
       </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>23.436000000000021</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>14.836000000000006</v>
       </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>23.536000000000023</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -2832,7 +4556,8 @@
         <v>15.236000000000006</v>
       </c>
       <c r="M20">
-        <v>8.4359999999999999</v>
+        <f t="shared" si="2"/>
+        <v>23.636000000000024</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -2841,8 +4566,8 @@
         <v>15.636000000000006</v>
       </c>
       <c r="M21">
-        <f>M20+$M$2</f>
-        <v>8.5359999999999996</v>
+        <f t="shared" si="2"/>
+        <v>23.736000000000026</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -2851,8 +4576,8 @@
         <v>16.036000000000005</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="M22:M31" si="4">M21+$M$2</f>
-        <v>8.6359999999999992</v>
+        <f t="shared" si="2"/>
+        <v>23.836000000000027</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -2861,8 +4586,8 @@
         <v>16.436000000000003</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
-        <v>8.7359999999999989</v>
+        <f t="shared" si="2"/>
+        <v>23.936000000000028</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -2871,8 +4596,8 @@
         <v>16.836000000000002</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
-        <v>8.8359999999999985</v>
+        <f t="shared" si="2"/>
+        <v>24.03600000000003</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -2881,8 +4606,8 @@
         <v>17.236000000000001</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
-        <v>8.9359999999999982</v>
+        <f t="shared" si="2"/>
+        <v>24.136000000000031</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -2891,209 +4616,145 @@
         <v>17.635999999999999</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
-        <v>9.0359999999999978</v>
+        <f t="shared" si="2"/>
+        <v>24.236000000000033</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M27">
-        <f t="shared" si="4"/>
-        <v>9.1359999999999975</v>
+        <f t="shared" si="2"/>
+        <v>24.336000000000034</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>19.635999999999999</v>
+      </c>
       <c r="M28">
-        <f t="shared" si="4"/>
-        <v>9.2359999999999971</v>
+        <f t="shared" si="2"/>
+        <v>24.436000000000035</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20.036000000000001</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>24.536000000000037</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20.436</v>
+      </c>
       <c r="M30">
-        <v>10.436000000000002</v>
+        <f t="shared" si="2"/>
+        <v>24.636000000000038</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20.835999999999999</v>
+      </c>
       <c r="M31">
-        <f>M30+$M$2</f>
-        <v>10.536000000000001</v>
+        <f t="shared" si="2"/>
+        <v>24.73600000000004</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>21.236000000000001</v>
+      </c>
       <c r="M32">
-        <f t="shared" ref="M32:M60" si="5">M31+$M$2</f>
-        <v>10.636000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>24.836000000000041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>21.635999999999999</v>
+      </c>
       <c r="M33">
-        <f t="shared" si="5"/>
-        <v>10.736000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>24.936000000000043</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>22.036000000000001</v>
+      </c>
       <c r="M34">
-        <f t="shared" si="5"/>
-        <v>10.836</v>
-      </c>
-    </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>25.036000000000044</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>22.436</v>
+      </c>
       <c r="M35">
-        <f t="shared" si="5"/>
-        <v>10.936</v>
-      </c>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>25.136000000000045</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>22.835999999999999</v>
+      </c>
       <c r="M36">
-        <f t="shared" si="5"/>
-        <v>11.036</v>
-      </c>
-    </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>25.236000000000047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>23.236000000000001</v>
+      </c>
       <c r="M37">
-        <f t="shared" si="5"/>
-        <v>11.135999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="13:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>25.336000000000048</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>23.635999999999999</v>
+      </c>
       <c r="M38">
-        <f t="shared" si="5"/>
-        <v>11.235999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="13:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>25.43600000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>24.036000000000001</v>
+      </c>
       <c r="M39">
-        <f t="shared" si="5"/>
-        <v>11.335999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="13:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>25.536000000000051</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>24.436</v>
+      </c>
       <c r="M40">
-        <f t="shared" si="5"/>
-        <v>11.435999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="13:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>25.636000000000053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>24.835999999999999</v>
+      </c>
       <c r="M41">
-        <f t="shared" si="5"/>
-        <v>11.535999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M42">
-        <f t="shared" si="5"/>
-        <v>11.635999999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M43">
-        <f t="shared" si="5"/>
-        <v>11.735999999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M44">
-        <f t="shared" si="5"/>
-        <v>11.835999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M45">
-        <f t="shared" si="5"/>
-        <v>11.935999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M46">
-        <f t="shared" si="5"/>
-        <v>12.035999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M47">
-        <f t="shared" si="5"/>
-        <v>12.135999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M48">
-        <f t="shared" si="5"/>
-        <v>12.235999999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M49">
-        <f t="shared" si="5"/>
-        <v>12.335999999999995</v>
-      </c>
-    </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M50">
-        <f t="shared" si="5"/>
-        <v>12.435999999999995</v>
-      </c>
-    </row>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M51">
-        <f t="shared" si="5"/>
-        <v>12.535999999999994</v>
-      </c>
-    </row>
-    <row r="52" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M52">
-        <f t="shared" si="5"/>
-        <v>12.635999999999994</v>
-      </c>
-    </row>
-    <row r="53" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M53">
-        <f t="shared" si="5"/>
-        <v>12.735999999999994</v>
-      </c>
-    </row>
-    <row r="54" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M54">
-        <f t="shared" si="5"/>
-        <v>12.835999999999993</v>
-      </c>
-    </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M55">
-        <f t="shared" si="5"/>
-        <v>12.935999999999993</v>
-      </c>
-    </row>
-    <row r="56" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M56">
-        <f t="shared" si="5"/>
-        <v>13.035999999999992</v>
-      </c>
-    </row>
-    <row r="57" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M57">
-        <f t="shared" si="5"/>
-        <v>13.135999999999992</v>
-      </c>
-    </row>
-    <row r="58" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M58">
-        <f t="shared" si="5"/>
-        <v>13.235999999999992</v>
-      </c>
-    </row>
-    <row r="59" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M59">
-        <f t="shared" si="5"/>
-        <v>13.335999999999991</v>
-      </c>
-    </row>
-    <row r="60" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M60">
-        <f t="shared" si="5"/>
-        <v>13.435999999999991</v>
+        <f t="shared" si="2"/>
+        <v>25.736000000000054</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xenody-master\Assets\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E9F1C9-481A-4386-B8D6-B27E8DF4C575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050C755E-3838-4135-AD32-1BCC6ED2D49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="planes" sheetId="1" r:id="rId1"/>
@@ -21,26 +21,17 @@
     <sheet name="stars" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,7 +525,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -576,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -596,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1168,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1730,7 +1721,7 @@
         <v>16.135999999999985</v>
       </c>
       <c r="B40">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="C40">
         <v>0.6</v>
@@ -1758,7 +1749,7 @@
         <v>16.335999999999988</v>
       </c>
       <c r="B42">
-        <v>1.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C42">
         <v>0.6</v>
@@ -1898,7 +1889,7 @@
         <v>19.236000000000029</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="C52">
         <v>0.6</v>
@@ -1912,7 +1903,7 @@
         <v>19.33600000000003</v>
       </c>
       <c r="B53">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="C53">
         <v>0.6</v>
@@ -2013,7 +2004,7 @@
         <v>-0.5</v>
       </c>
       <c r="C60">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2027,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2038,10 +2029,10 @@
         <v>22.036000000000001</v>
       </c>
       <c r="B62">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="C62">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2055,7 +2046,7 @@
         <v>0.8</v>
       </c>
       <c r="C63">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2083,7 +2074,7 @@
         <v>-1</v>
       </c>
       <c r="C65">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2097,7 +2088,7 @@
         <v>0.6</v>
       </c>
       <c r="C66">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2111,7 +2102,7 @@
         <v>-0.8</v>
       </c>
       <c r="C67">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2125,7 +2116,7 @@
         <v>0.8</v>
       </c>
       <c r="C68">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -2139,7 +2130,7 @@
         <v>-1.4</v>
       </c>
       <c r="C69">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2153,7 +2144,7 @@
         <v>0.2</v>
       </c>
       <c r="C70">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2167,7 +2158,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C71">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2181,7 +2172,7 @@
         <v>-0.2</v>
       </c>
       <c r="C72">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2195,7 +2186,7 @@
         <v>1.4</v>
       </c>
       <c r="C73">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2209,7 +2200,7 @@
         <v>-0.8</v>
       </c>
       <c r="C74">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2223,7 +2214,7 @@
         <v>0.8</v>
       </c>
       <c r="C75">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2234,10 +2225,10 @@
         <v>24.03600000000003</v>
       </c>
       <c r="B76">
-        <v>-1.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="C76">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2251,7 +2242,7 @@
         <v>0.5</v>
       </c>
       <c r="C77">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2262,10 +2253,10 @@
         <v>24.136000000000031</v>
       </c>
       <c r="B78">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="C78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2276,10 +2267,10 @@
         <v>24.136000000000031</v>
       </c>
       <c r="B79">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2293,7 +2284,7 @@
         <v>-0.8</v>
       </c>
       <c r="C80">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2307,7 +2298,7 @@
         <v>0.8</v>
       </c>
       <c r="C81">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2321,7 +2312,7 @@
         <v>1.4</v>
       </c>
       <c r="C82">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2335,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2349,7 +2340,7 @@
         <v>-1.2</v>
       </c>
       <c r="C84">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2363,7 +2354,7 @@
         <v>0.7</v>
       </c>
       <c r="C85">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2374,10 +2365,10 @@
         <v>25.136000000000045</v>
       </c>
       <c r="B86">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C86">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2391,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2402,12 +2393,726 @@
         <v>25.43600000000005</v>
       </c>
       <c r="B88">
+        <v>-0.4</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>26.236000000000001</v>
+      </c>
+      <c r="B89">
+        <v>-0.8</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>26.236000000000001</v>
+      </c>
+      <c r="B90">
+        <v>0.8</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>26.536000000000001</v>
+      </c>
+      <c r="B91">
         <v>-0.2</v>
       </c>
-      <c r="C88">
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>26.536000000000001</v>
+      </c>
+      <c r="B92">
+        <v>1.4</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>26.736000000000001</v>
+      </c>
+      <c r="B93">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>26.835999999999999</v>
+      </c>
+      <c r="B94">
+        <v>-1.4</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>26.835999999999999</v>
+      </c>
+      <c r="B95">
+        <v>0.2</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>27.036000000000001</v>
+      </c>
+      <c r="B96">
+        <v>-0.8</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>27.036000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.8</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>27.236000000000001</v>
+      </c>
+      <c r="B98">
+        <v>1.5</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>27.335999999999999</v>
+      </c>
+      <c r="B99">
+        <v>0.5</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>27.436</v>
+      </c>
+      <c r="B100">
+        <v>1.5</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>27.635999999999999</v>
+      </c>
+      <c r="B101">
+        <v>-1.2</v>
+      </c>
+      <c r="C101">
+        <v>1.6</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>27.635999999999999</v>
+      </c>
+      <c r="B102">
+        <v>0.5</v>
+      </c>
+      <c r="C102">
+        <v>1.6</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>27.736000000000082</v>
+      </c>
+      <c r="B103">
+        <v>-0.9</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>27.836000000000084</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0.8</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>27.936000000000085</v>
+      </c>
+      <c r="B105">
+        <v>-1.5</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>28.036000000000087</v>
+      </c>
+      <c r="B106">
+        <v>0.5</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>28.136000000000088</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>0.8</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>28.236000000000089</v>
+      </c>
+      <c r="B108">
+        <v>-0.2</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>28.336000000000091</v>
+      </c>
+      <c r="B109">
+        <v>-0.8</v>
+      </c>
+      <c r="C109">
+        <v>0.8</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>28.436000000000092</v>
+      </c>
+      <c r="B110">
+        <v>0.4</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>28.536000000000094</v>
+      </c>
+      <c r="B111">
+        <v>-0.4</v>
+      </c>
+      <c r="C111">
+        <v>0.8</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>28.636000000000095</v>
+      </c>
+      <c r="B112">
+        <v>1.5</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>28.736000000000097</v>
+      </c>
+      <c r="B113">
+        <v>-1.5</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>28.836000000000098</v>
+      </c>
+      <c r="B114">
+        <v>-0.9</v>
+      </c>
+      <c r="C114">
+        <v>0.8</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>28.936000000000099</v>
+      </c>
+      <c r="B115">
+        <v>0.5</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>29.036000000000101</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0.8</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>29.136000000000102</v>
+      </c>
+      <c r="B117">
+        <v>-1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>29.436</v>
+      </c>
+      <c r="B118">
+        <v>0.8</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>29.436</v>
+      </c>
+      <c r="B119">
+        <v>-0.8</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>29.736000000000018</v>
+      </c>
+      <c r="B120">
+        <v>1.4</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>29.736000000000018</v>
+      </c>
+      <c r="B121">
+        <v>-0.2</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>29.936000000000021</v>
+      </c>
+      <c r="B122">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>30.036000000000023</v>
+      </c>
+      <c r="B123">
+        <v>0.2</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>30.036000000000023</v>
+      </c>
+      <c r="B124">
+        <v>-1.4</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>30.236000000000026</v>
+      </c>
+      <c r="B125">
+        <v>0.8</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>30.236000000000026</v>
+      </c>
+      <c r="B126">
+        <v>-0.8</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>30.436000000000028</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>30.436000000000028</v>
+      </c>
+      <c r="B128">
+        <v>-0.5</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>30.53600000000003</v>
+      </c>
+      <c r="B129">
+        <v>1.5</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>30.53600000000003</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>30.736000000000033</v>
+      </c>
+      <c r="B131">
+        <v>0.8</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>30.736000000000033</v>
+      </c>
+      <c r="B132">
+        <v>-0.8</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>31.036000000000037</v>
+      </c>
+      <c r="B133">
+        <v>-1.4</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>31.136000000000038</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>31.336000000000041</v>
+      </c>
+      <c r="B135">
         <v>1.2</v>
       </c>
-      <c r="D88">
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>31.436000000000043</v>
+      </c>
+      <c r="B136">
+        <v>-0.7</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="B137">
+        <v>-0.3</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>31.736000000000001</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>31.835999999999999</v>
+      </c>
+      <c r="B139">
+        <v>0.4</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
         <v>1</v>
       </c>
     </row>
@@ -2420,10 +3125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3210,7 +3915,7 @@
         <v>-2</v>
       </c>
       <c r="E25">
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="F25">
         <v>25.43600000000005</v>
@@ -3219,12 +3924,172 @@
         <v>-2</v>
       </c>
       <c r="H25">
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="I25" t="s">
         <v>25</v>
       </c>
       <c r="J25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>25.635999999999999</v>
+      </c>
+      <c r="D26">
+        <v>-2</v>
+      </c>
+      <c r="E26">
+        <v>-0.5</v>
+      </c>
+      <c r="F26">
+        <v>25.936</v>
+      </c>
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>25.635999999999999</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1.5</v>
+      </c>
+      <c r="F27">
+        <v>25.936</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>31.436</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>31.835999999999999</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>32.036000000000001</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>32.335999999999999</v>
+      </c>
+      <c r="G29">
+        <v>-2</v>
+      </c>
+      <c r="H29">
+        <v>-0.5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>32.036000000000001</v>
+      </c>
+      <c r="D30">
+        <v>-1.5</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>32.335999999999999</v>
+      </c>
+      <c r="G30">
+        <v>-2</v>
+      </c>
+      <c r="H30">
+        <v>-0.5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3562,10 +4427,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F96158-71D4-4C19-99F5-47E7932AF572}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3720,6 +4585,108 @@
         <v>0.25</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>26.036000000000001</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>1.6</v>
+      </c>
+      <c r="D10">
+        <v>0.75</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>26.036000000000001</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1.6</v>
+      </c>
+      <c r="D11">
+        <v>0.25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>29.236000000000001</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>1.6</v>
+      </c>
+      <c r="D12">
+        <v>0.75</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>29.236000000000001</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1.6</v>
+      </c>
+      <c r="D13">
+        <v>0.25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>32.436</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>1.6</v>
+      </c>
+      <c r="D14">
+        <v>0.75</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>32.436</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1.6</v>
+      </c>
+      <c r="D15">
+        <v>0.25</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
     </row>
@@ -4260,10 +5227,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7596AC-A6F6-4FB8-B823-5B4B1777330C}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M37" activeCellId="1" sqref="M33:M35 M37:M38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4322,7 +5289,7 @@
         <v>3.6360000000000001</v>
       </c>
       <c r="M4">
-        <v>22.036000000000001</v>
+        <v>29.236000000000001</v>
       </c>
       <c r="N4">
         <v>3.2360000000000002</v>
@@ -4338,8 +5305,7 @@
         <v>3.8360000000000003</v>
       </c>
       <c r="M5">
-        <f>M4+0.1</f>
-        <v>22.136000000000003</v>
+        <v>29.335999999999999</v>
       </c>
       <c r="N5" s="1">
         <f>N4+$N$2</f>
@@ -4356,11 +5322,10 @@
         <v>4.0360000000000005</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M41" si="2">M5+0.1</f>
-        <v>22.236000000000004</v>
+        <v>29.436</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" ref="N6:N10" si="3">N5+$N$2</f>
+        <f t="shared" ref="N6:N10" si="2">N5+$N$2</f>
         <v>3.3700000000000006</v>
       </c>
     </row>
@@ -4374,11 +5339,10 @@
         <v>4.2360000000000007</v>
       </c>
       <c r="M7">
+        <v>29.536000000000001</v>
+      </c>
+      <c r="N7" s="1">
         <f t="shared" si="2"/>
-        <v>22.336000000000006</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="3"/>
         <v>3.4370000000000007</v>
       </c>
     </row>
@@ -4392,11 +5356,10 @@
         <v>4.4360000000000008</v>
       </c>
       <c r="M8">
+        <v>29.635999999999999</v>
+      </c>
+      <c r="N8" s="1">
         <f t="shared" si="2"/>
-        <v>22.436000000000007</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="3"/>
         <v>3.5040000000000009</v>
       </c>
     </row>
@@ -4410,11 +5373,10 @@
         <v>4.636000000000001</v>
       </c>
       <c r="M9">
+        <v>29.736000000000001</v>
+      </c>
+      <c r="N9" s="1">
         <f t="shared" si="2"/>
-        <v>22.536000000000008</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="3"/>
         <v>3.5710000000000011</v>
       </c>
     </row>
@@ -4428,11 +5390,10 @@
         <v>4.8360000000000012</v>
       </c>
       <c r="M10">
+        <v>29.835999999999999</v>
+      </c>
+      <c r="N10" s="1">
         <f t="shared" si="2"/>
-        <v>22.63600000000001</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="3"/>
         <v>3.6380000000000012</v>
       </c>
     </row>
@@ -4446,8 +5407,7 @@
         <v>5.0360000000000014</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>22.736000000000011</v>
+        <v>29.936</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -4461,8 +5421,7 @@
         <v>5.2360000000000015</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
-        <v>22.836000000000013</v>
+        <v>30.036000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -4475,8 +5434,7 @@
         <v>5.4360000000000017</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
-        <v>22.936000000000014</v>
+        <v>30.135999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -4485,8 +5443,7 @@
         <v>12.836000000000004</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
-        <v>23.036000000000016</v>
+        <v>30.236000000000001</v>
       </c>
       <c r="N14">
         <v>21.635999999999999</v>
@@ -4498,8 +5455,7 @@
         <v>13.236000000000004</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
-        <v>23.136000000000017</v>
+        <v>30.335999999999999</v>
       </c>
       <c r="N15">
         <f>N14+$N$2</f>
@@ -4512,8 +5468,7 @@
         <v>13.636000000000005</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
-        <v>23.236000000000018</v>
+        <v>30.436</v>
       </c>
       <c r="N16">
         <f>N15+$N$2</f>
@@ -4526,8 +5481,7 @@
         <v>14.036000000000005</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
-        <v>23.33600000000002</v>
+        <v>30.536000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -4536,8 +5490,7 @@
         <v>14.436000000000005</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
-        <v>23.436000000000021</v>
+        <v>30.635999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -4546,8 +5499,7 @@
         <v>14.836000000000006</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
-        <v>23.536000000000023</v>
+        <v>30.736000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -4556,8 +5508,7 @@
         <v>15.236000000000006</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
-        <v>23.636000000000024</v>
+        <v>30.835999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -4566,8 +5517,7 @@
         <v>15.636000000000006</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
-        <v>23.736000000000026</v>
+        <v>30.936</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -4576,8 +5526,7 @@
         <v>16.036000000000005</v>
       </c>
       <c r="M22">
-        <f t="shared" si="2"/>
-        <v>23.836000000000027</v>
+        <v>31.036000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -4586,8 +5535,7 @@
         <v>16.436000000000003</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
-        <v>23.936000000000028</v>
+        <v>31.135999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -4596,8 +5544,7 @@
         <v>16.836000000000002</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
-        <v>24.03600000000003</v>
+        <v>31.236000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -4606,8 +5553,7 @@
         <v>17.236000000000001</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
-        <v>24.136000000000031</v>
+        <v>31.335999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -4616,14 +5562,12 @@
         <v>17.635999999999999</v>
       </c>
       <c r="M26">
-        <f t="shared" si="2"/>
-        <v>24.236000000000033</v>
+        <v>31.436</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M27">
-        <f t="shared" si="2"/>
-        <v>24.336000000000034</v>
+        <v>31.536000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -4631,8 +5575,7 @@
         <v>19.635999999999999</v>
       </c>
       <c r="M28">
-        <f t="shared" si="2"/>
-        <v>24.436000000000035</v>
+        <v>31.6359999999999</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -4640,8 +5583,7 @@
         <v>20.036000000000001</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
-        <v>24.536000000000037</v>
+        <v>31.736000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -4649,8 +5591,7 @@
         <v>20.436</v>
       </c>
       <c r="M30">
-        <f t="shared" si="2"/>
-        <v>24.636000000000038</v>
+        <v>31.835999999999899</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -4658,8 +5599,7 @@
         <v>20.835999999999999</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
-        <v>24.73600000000004</v>
+        <v>31.9359999999999</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -4667,8 +5607,7 @@
         <v>21.236000000000001</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
-        <v>24.836000000000041</v>
+        <v>32.035999999999902</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -4676,8 +5615,7 @@
         <v>21.635999999999999</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
-        <v>24.936000000000043</v>
+        <v>32.135999999999903</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -4685,8 +5623,7 @@
         <v>22.036000000000001</v>
       </c>
       <c r="M34">
-        <f t="shared" si="2"/>
-        <v>25.036000000000044</v>
+        <v>32.235999999999898</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -4694,8 +5631,7 @@
         <v>22.436</v>
       </c>
       <c r="M35">
-        <f t="shared" si="2"/>
-        <v>25.136000000000045</v>
+        <v>32.335999999999899</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -4703,8 +5639,7 @@
         <v>22.835999999999999</v>
       </c>
       <c r="M36">
-        <f t="shared" si="2"/>
-        <v>25.236000000000047</v>
+        <v>32.4359999999999</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -4712,8 +5647,7 @@
         <v>23.236000000000001</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
-        <v>25.336000000000048</v>
+        <v>32.535999999999902</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -4721,8 +5655,7 @@
         <v>23.635999999999999</v>
       </c>
       <c r="M38">
-        <f t="shared" si="2"/>
-        <v>25.43600000000005</v>
+        <v>32.635999999999903</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -4730,8 +5663,7 @@
         <v>24.036000000000001</v>
       </c>
       <c r="M39">
-        <f t="shared" si="2"/>
-        <v>25.536000000000051</v>
+        <v>32.735999999999898</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -4739,8 +5671,7 @@
         <v>24.436</v>
       </c>
       <c r="M40">
-        <f t="shared" si="2"/>
-        <v>25.636000000000053</v>
+        <v>32.835999999999899</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -4748,8 +5679,122 @@
         <v>24.835999999999999</v>
       </c>
       <c r="M41">
-        <f t="shared" si="2"/>
-        <v>25.736000000000054</v>
+        <v>32.9359999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>25.236000000000001</v>
+      </c>
+      <c r="M42">
+        <v>33.035999999999902</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>25.635999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>26.036000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>26.436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>26.835999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>27.236000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>27.635999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>28.036000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>28.436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>28.835999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>29.236000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>29.635999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>30.036000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>30.436</v>
+      </c>
+    </row>
+    <row r="77" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M77">
+        <f>M4+0.1</f>
+        <v>29.336000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M78">
+        <f t="shared" ref="M78:M83" si="3">M77+0.1</f>
+        <v>29.436000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M79">
+        <f t="shared" si="3"/>
+        <v>29.536000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M80">
+        <f t="shared" si="3"/>
+        <v>29.636000000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M81">
+        <f t="shared" si="3"/>
+        <v>29.736000000000008</v>
+      </c>
+    </row>
+    <row r="82" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M82">
+        <f t="shared" si="3"/>
+        <v>29.836000000000009</v>
+      </c>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M83">
+        <f t="shared" si="3"/>
+        <v>29.936000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Xenody-master\Assets\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050C755E-3838-4135-AD32-1BCC6ED2D49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA28C80F-67CA-446E-8800-832C310BF9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="planes" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,26 @@
     <sheet name="stars" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA789EFB-BCA3-4FCA-98D4-565CD71AE543}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1147,6 +1156,326 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>35.536000000000001</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>36.335999999999999</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>36.335999999999999</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>37.135999999999996</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>36.335999999999999</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>37.135999999999996</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>37.135999999999996</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>37.935999999999993</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>37.135999999999996</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>37.935999999999993</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>37.935999999999993</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>38.73599999999999</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>37.935999999999993</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>38.73599999999999</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>38.73599999999999</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>39.535999999999987</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>38.73599999999999</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>39.535999999999987</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>39.535999999999987</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>40.335999999999984</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>39.535999999999987</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>40.335999999999984</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>40.335999999999984</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>41.135999999999981</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>40.335999999999984</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>41.135999999999981</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>41.135999999999981</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>41.935999999999979</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>41.135999999999981</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>41.935999999999979</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>41.935999999999979</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>42.735999999999976</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1159,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1763,7 +2092,7 @@
         <v>17.035999999999998</v>
       </c>
       <c r="B43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="C43">
         <v>0.8</v>
@@ -1777,7 +2106,7 @@
         <v>17.336000000000002</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>-0.8</v>
       </c>
       <c r="C44">
         <v>0.8</v>
@@ -1791,7 +2120,7 @@
         <v>17.636000000000006</v>
       </c>
       <c r="B45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="C45">
         <v>0.8</v>
@@ -1805,7 +2134,7 @@
         <v>17.936000000000011</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>-0.8</v>
       </c>
       <c r="C46">
         <v>0.8</v>
@@ -3113,6 +3442,188 @@
         <v>1</v>
       </c>
       <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>32.835999999999999</v>
+      </c>
+      <c r="B140">
+        <v>-1.5</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>33.136000000000003</v>
+      </c>
+      <c r="B141">
+        <v>-0.5</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>33.235999999999997</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>33.436</v>
+      </c>
+      <c r="B143">
+        <v>0.75</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>34.036000000000001</v>
+      </c>
+      <c r="B144">
+        <v>-1.2</v>
+      </c>
+      <c r="C144">
+        <v>1.6</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>34.136000000000003</v>
+      </c>
+      <c r="B145">
+        <v>-1</v>
+      </c>
+      <c r="C145">
+        <v>0.8</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>34.335999999999999</v>
+      </c>
+      <c r="B146">
+        <v>1.6</v>
+      </c>
+      <c r="C146">
+        <v>0.8</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>34.536000000000001</v>
+      </c>
+      <c r="B147">
+        <v>-1.6</v>
+      </c>
+      <c r="C147">
+        <v>0.8</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>34.735999999999997</v>
+      </c>
+      <c r="B148">
+        <v>1.2</v>
+      </c>
+      <c r="C148">
+        <v>0.8</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>34.936</v>
+      </c>
+      <c r="B149">
+        <v>-1.2</v>
+      </c>
+      <c r="C149">
+        <v>0.8</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>35.136000000000003</v>
+      </c>
+      <c r="B150">
+        <v>1.2</v>
+      </c>
+      <c r="C150">
+        <v>0.8</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>35.235999999999997</v>
+      </c>
+      <c r="B151">
+        <v>-1.2</v>
+      </c>
+      <c r="C151">
+        <v>0.8</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>35.436</v>
+      </c>
+      <c r="B152">
+        <v>-1.6</v>
+      </c>
+      <c r="C152">
+        <v>0.8</v>
+      </c>
+      <c r="D152">
         <v>1</v>
       </c>
     </row>
@@ -3125,10 +3636,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4090,6 +4601,230 @@
         <v>25</v>
       </c>
       <c r="J30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>32.436</v>
+      </c>
+      <c r="D31">
+        <v>-2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>33.835999999999999</v>
+      </c>
+      <c r="G31">
+        <v>-0.5</v>
+      </c>
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>34.036000000000001</v>
+      </c>
+      <c r="D32">
+        <v>0.4</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>34.335999999999999</v>
+      </c>
+      <c r="G32">
+        <v>-2</v>
+      </c>
+      <c r="H32">
+        <v>-1.2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>34.335999999999999</v>
+      </c>
+      <c r="D33">
+        <v>-2</v>
+      </c>
+      <c r="E33">
+        <v>-1.2</v>
+      </c>
+      <c r="F33">
+        <v>34.536000000000001</v>
+      </c>
+      <c r="G33">
+        <v>1.2</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>34.536000000000001</v>
+      </c>
+      <c r="D34">
+        <v>1.2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>34.735999999999997</v>
+      </c>
+      <c r="G34">
+        <v>-1.6</v>
+      </c>
+      <c r="H34">
+        <v>-0.8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>34.735999999999997</v>
+      </c>
+      <c r="D35">
+        <v>-1.6</v>
+      </c>
+      <c r="E35">
+        <v>-0.8</v>
+      </c>
+      <c r="F35">
+        <v>34.936</v>
+      </c>
+      <c r="G35">
+        <v>0.8</v>
+      </c>
+      <c r="H35">
+        <v>1.6</v>
+      </c>
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>34.936</v>
+      </c>
+      <c r="D36">
+        <v>0.8</v>
+      </c>
+      <c r="E36">
+        <v>1.6</v>
+      </c>
+      <c r="F36">
+        <v>35.136000000000003</v>
+      </c>
+      <c r="G36">
+        <v>-1.6</v>
+      </c>
+      <c r="H36">
+        <v>-0.8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>35.536000000000001</v>
+      </c>
+      <c r="D37">
+        <v>-2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>10000</v>
+      </c>
+      <c r="G37">
+        <v>-2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4102,10 +4837,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76DC57-EF49-44CE-8A21-D4353938F627}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4272,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -4415,6 +5150,48 @@
         <v>0.6</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>33.636000000000003</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>33.735999999999997</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>33.835999999999999</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
     </row>
@@ -4427,10 +5204,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F96158-71D4-4C19-99F5-47E7932AF572}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4653,40 +5430,6 @@
         <v>0.25</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>32.436</v>
-      </c>
-      <c r="B14">
-        <v>-1</v>
-      </c>
-      <c r="C14">
-        <v>1.6</v>
-      </c>
-      <c r="D14">
-        <v>0.75</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>32.436</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1.6</v>
-      </c>
-      <c r="D15">
-        <v>0.25</v>
-      </c>
-      <c r="E15">
         <v>1</v>
       </c>
     </row>
@@ -4701,7 +5444,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5075,13 +5818,13 @@
         <v>16.935999999999996</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>-1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -5107,13 +5850,13 @@
         <v>17.236000000000001</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -5139,13 +5882,13 @@
         <v>17.536000000000005</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>-1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -5171,13 +5914,13 @@
         <v>17.836000000000009</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -5203,13 +5946,13 @@
         <v>18.136000000000013</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>-1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5230,7 +5973,7 @@
   <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J8" sqref="J8:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5285,6 +6028,12 @@
         <f t="shared" ref="A4:A26" si="0">A3+$K$2</f>
         <v>8.8360000000000003</v>
       </c>
+      <c r="J4">
+        <v>35.536000000000001</v>
+      </c>
+      <c r="K4">
+        <v>35.536000000000001</v>
+      </c>
       <c r="L4">
         <v>3.6360000000000001</v>
       </c>
@@ -5300,6 +6049,14 @@
         <f t="shared" si="0"/>
         <v>9.2360000000000007</v>
       </c>
+      <c r="J5">
+        <f>J4+$K$2*2</f>
+        <v>36.335999999999999</v>
+      </c>
+      <c r="K5">
+        <f>K4+$K$2</f>
+        <v>35.936</v>
+      </c>
       <c r="L5">
         <f>L4+$L$2</f>
         <v>3.8360000000000003</v>
@@ -5317,15 +6074,22 @@
         <f t="shared" si="0"/>
         <v>9.636000000000001</v>
       </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J23" si="1">J5+$K$2*2</f>
+        <v>37.135999999999996</v>
+      </c>
+      <c r="K6">
+        <v>36.536000000000001</v>
+      </c>
       <c r="L6">
-        <f t="shared" ref="L6:L13" si="1">L5+$L$2</f>
+        <f t="shared" ref="L6:L13" si="2">L5+$L$2</f>
         <v>4.0360000000000005</v>
       </c>
       <c r="M6">
         <v>29.436</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" ref="N6:N10" si="2">N5+$N$2</f>
+        <f t="shared" ref="N6:N10" si="3">N5+$N$2</f>
         <v>3.3700000000000006</v>
       </c>
     </row>
@@ -5334,15 +6098,23 @@
         <f t="shared" si="0"/>
         <v>10.036000000000001</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>37.935999999999993</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="J7:K23" si="4">K6+$K$2</f>
+        <v>36.936</v>
+      </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2360000000000007</v>
       </c>
       <c r="M7">
         <v>29.536000000000001</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4370000000000007</v>
       </c>
     </row>
@@ -5351,15 +6123,22 @@
         <f t="shared" si="0"/>
         <v>10.436000000000002</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>38.73599999999999</v>
+      </c>
+      <c r="K8">
+        <v>37.536000000000001</v>
+      </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4360000000000008</v>
       </c>
       <c r="M8">
         <v>29.635999999999999</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5040000000000009</v>
       </c>
     </row>
@@ -5368,15 +6147,23 @@
         <f t="shared" si="0"/>
         <v>10.836000000000002</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>39.535999999999987</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="J9:K23" si="5">K8+$K$2</f>
+        <v>37.936</v>
+      </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.636000000000001</v>
       </c>
       <c r="M9">
         <v>29.736000000000001</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5710000000000011</v>
       </c>
     </row>
@@ -5385,15 +6172,22 @@
         <f t="shared" si="0"/>
         <v>11.236000000000002</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>40.335999999999984</v>
+      </c>
+      <c r="K10">
+        <v>38.536000000000001</v>
+      </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8360000000000012</v>
       </c>
       <c r="M10">
         <v>29.835999999999999</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6380000000000012</v>
       </c>
     </row>
@@ -5402,8 +6196,16 @@
         <f t="shared" si="0"/>
         <v>11.636000000000003</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>41.135999999999981</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="J11:K23" si="6">K10+$K$2</f>
+        <v>38.936</v>
+      </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0360000000000014</v>
       </c>
       <c r="M11">
@@ -5416,8 +6218,15 @@
         <f t="shared" si="0"/>
         <v>12.036000000000003</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>41.935999999999979</v>
+      </c>
+      <c r="K12">
+        <v>39.536000000000001</v>
+      </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2360000000000015</v>
       </c>
       <c r="M12">
@@ -5429,8 +6238,16 @@
         <f t="shared" si="0"/>
         <v>12.436000000000003</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>42.735999999999976</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="J13:K23" si="7">K12+$K$2</f>
+        <v>39.936</v>
+      </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4360000000000017</v>
       </c>
       <c r="M13">
@@ -5442,6 +6259,13 @@
         <f t="shared" si="0"/>
         <v>12.836000000000004</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>43.535999999999973</v>
+      </c>
+      <c r="K14">
+        <v>40.536000000000001</v>
+      </c>
       <c r="M14">
         <v>30.236000000000001</v>
       </c>
@@ -5454,6 +6278,14 @@
         <f t="shared" si="0"/>
         <v>13.236000000000004</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>44.33599999999997</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="J15:K23" si="8">K14+$K$2</f>
+        <v>40.936</v>
+      </c>
       <c r="M15">
         <v>30.335999999999999</v>
       </c>
@@ -5467,6 +6299,13 @@
         <f t="shared" si="0"/>
         <v>13.636000000000005</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>45.135999999999967</v>
+      </c>
+      <c r="K16">
+        <v>41.536000000000001</v>
+      </c>
       <c r="M16">
         <v>30.436</v>
       </c>
@@ -5480,6 +6319,14 @@
         <f t="shared" si="0"/>
         <v>14.036000000000005</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>45.935999999999964</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="J17:K23" si="9">K16+$K$2</f>
+        <v>41.936</v>
+      </c>
       <c r="M17">
         <v>30.536000000000001</v>
       </c>
@@ -5489,6 +6336,13 @@
         <f t="shared" si="0"/>
         <v>14.436000000000005</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>46.735999999999962</v>
+      </c>
+      <c r="K18">
+        <v>42.536000000000001</v>
+      </c>
       <c r="M18">
         <v>30.635999999999999</v>
       </c>
@@ -5498,6 +6352,14 @@
         <f t="shared" si="0"/>
         <v>14.836000000000006</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>47.535999999999959</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="J19:K23" si="10">K18+$K$2</f>
+        <v>42.936</v>
+      </c>
       <c r="M19">
         <v>30.736000000000001</v>
       </c>
@@ -5507,6 +6369,13 @@
         <f t="shared" si="0"/>
         <v>15.236000000000006</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>48.335999999999956</v>
+      </c>
+      <c r="K20">
+        <v>43.536000000000001</v>
+      </c>
       <c r="M20">
         <v>30.835999999999999</v>
       </c>
@@ -5516,6 +6385,14 @@
         <f t="shared" si="0"/>
         <v>15.636000000000006</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>49.135999999999953</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="J21:K23" si="11">K20+$K$2</f>
+        <v>43.936</v>
+      </c>
       <c r="M21">
         <v>30.936</v>
       </c>
@@ -5525,6 +6402,13 @@
         <f t="shared" si="0"/>
         <v>16.036000000000005</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>49.93599999999995</v>
+      </c>
+      <c r="K22">
+        <v>44.536000000000001</v>
+      </c>
       <c r="M22">
         <v>31.036000000000001</v>
       </c>
@@ -5534,6 +6418,14 @@
         <f t="shared" si="0"/>
         <v>16.436000000000003</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>50.735999999999947</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="J23:K23" si="12">K22+$K$2</f>
+        <v>44.936</v>
+      </c>
       <c r="M23">
         <v>31.135999999999999</v>
       </c>
@@ -5763,37 +6655,37 @@
     </row>
     <row r="78" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M78">
-        <f t="shared" ref="M78:M83" si="3">M77+0.1</f>
+        <f t="shared" ref="M78:M83" si="13">M77+0.1</f>
         <v>29.436000000000003</v>
       </c>
     </row>
     <row r="79" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>29.536000000000005</v>
       </c>
     </row>
     <row r="80" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>29.636000000000006</v>
       </c>
     </row>
     <row r="81" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>29.736000000000008</v>
       </c>
     </row>
     <row r="82" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>29.836000000000009</v>
       </c>
     </row>
     <row r="83" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>29.936000000000011</v>
       </c>
     </row>

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xenody-master\Assets\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA28C80F-67CA-446E-8800-832C310BF9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8467604-B2BD-436E-9988-7B885C25EC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="planes" sheetId="1" r:id="rId1"/>
@@ -21,26 +21,17 @@
     <sheet name="stars" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +152,14 @@
   </si>
   <si>
     <t>Sin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LowerCir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpperCir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +533,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1164,13 +1163,13 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>35.536000000000001</v>
+        <v>35.636000000000003</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>36.335999999999999</v>
+        <v>36.036000000000001</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1184,13 +1183,13 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>36.335999999999999</v>
+        <v>36.036000000000001</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>37.135999999999996</v>
+        <v>37.235999999999997</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1204,13 +1203,13 @@
         <v>4</v>
       </c>
       <c r="B34">
-        <v>36.335999999999999</v>
+        <v>36.436</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>37.135999999999996</v>
+        <v>36.835999999999999</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1224,13 +1223,13 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>37.135999999999996</v>
+        <v>36.835999999999999</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>37.935999999999993</v>
+        <v>38.035999999999994</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1244,13 +1243,13 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>37.135999999999996</v>
+        <v>37.235999999999997</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>37.935999999999993</v>
+        <v>37.636000000000003</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1264,13 +1263,13 @@
         <v>5</v>
       </c>
       <c r="B37">
-        <v>37.935999999999993</v>
+        <v>37.636000000000003</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>38.73599999999999</v>
+        <v>38.835999999999991</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1284,13 +1283,13 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>37.935999999999993</v>
+        <v>38.035999999999994</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>38.73599999999999</v>
+        <v>38.436</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1304,13 +1303,13 @@
         <v>6</v>
       </c>
       <c r="B39">
-        <v>38.73599999999999</v>
+        <v>38.436</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>39.535999999999987</v>
+        <v>39.635999999999989</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1324,13 +1323,13 @@
         <v>7</v>
       </c>
       <c r="B40">
-        <v>38.73599999999999</v>
+        <v>38.835999999999991</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>39.535999999999987</v>
+        <v>39.236000000000004</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1344,13 +1343,13 @@
         <v>7</v>
       </c>
       <c r="B41">
-        <v>39.535999999999987</v>
+        <v>39.236000000000004</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>40.335999999999984</v>
+        <v>40.435999999999986</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1364,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="B42">
-        <v>39.535999999999987</v>
+        <v>39.635999999999989</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>40.335999999999984</v>
+        <v>40.036000000000001</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1384,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="B43">
-        <v>40.335999999999984</v>
+        <v>40.036000000000001</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>41.135999999999981</v>
+        <v>41.235999999999983</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1404,13 +1403,13 @@
         <v>9</v>
       </c>
       <c r="B44">
-        <v>40.335999999999984</v>
+        <v>40.435999999999986</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>41.135999999999981</v>
+        <v>40.835999999999999</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1424,13 +1423,13 @@
         <v>9</v>
       </c>
       <c r="B45">
-        <v>41.135999999999981</v>
+        <v>40.835999999999999</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>41.935999999999979</v>
+        <v>42.03599999999998</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1444,13 +1443,13 @@
         <v>10</v>
       </c>
       <c r="B46">
-        <v>41.135999999999981</v>
+        <v>41.235999999999983</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>41.935999999999979</v>
+        <v>41.636000000000003</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1464,13 +1463,13 @@
         <v>10</v>
       </c>
       <c r="B47">
-        <v>41.935999999999979</v>
+        <v>41.636000000000003</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>42.735999999999976</v>
+        <v>42.835999999999977</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1488,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3618,12 +3617,236 @@
         <v>35.436</v>
       </c>
       <c r="B152">
-        <v>-1.6</v>
+        <v>1.6</v>
       </c>
       <c r="C152">
         <v>0.8</v>
       </c>
       <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>35.536000000000001</v>
+      </c>
+      <c r="B153">
+        <v>-1.6</v>
+      </c>
+      <c r="C153">
+        <v>0.8</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>36.235999999999997</v>
+      </c>
+      <c r="B154">
+        <v>0.8</v>
+      </c>
+      <c r="C154">
+        <v>0.8</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>36.436</v>
+      </c>
+      <c r="B155">
+        <v>1.6</v>
+      </c>
+      <c r="C155">
+        <v>0.8</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>36.735999999999997</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>0.8</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>40.436</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>1.4</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>40.735999999999997</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>1.4</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>41.036000000000001</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>1.4</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>41.436</v>
+      </c>
+      <c r="B160">
+        <v>-1.5</v>
+      </c>
+      <c r="C160">
+        <v>0.8</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>41.536000000000001</v>
+      </c>
+      <c r="B161">
+        <v>-0.5</v>
+      </c>
+      <c r="C161">
+        <v>0.8</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>41.636000000000003</v>
+      </c>
+      <c r="B162">
+        <v>-1.5</v>
+      </c>
+      <c r="C162">
+        <v>0.8</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>41.936</v>
+      </c>
+      <c r="B163">
+        <v>0.5</v>
+      </c>
+      <c r="C163">
+        <v>0.8</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>42.036000000000001</v>
+      </c>
+      <c r="B164">
+        <v>1.5</v>
+      </c>
+      <c r="C164">
+        <v>0.8</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>42.335999999999999</v>
+      </c>
+      <c r="B165">
+        <v>-0.5</v>
+      </c>
+      <c r="C165">
+        <v>0.8</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>42.436</v>
+      </c>
+      <c r="B166">
+        <v>-1.5</v>
+      </c>
+      <c r="C166">
+        <v>0.8</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>42.735999999999997</v>
+      </c>
+      <c r="B167">
+        <v>0.5</v>
+      </c>
+      <c r="C167">
+        <v>0.8</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>42.835999999999999</v>
+      </c>
+      <c r="B168">
+        <v>1.5</v>
+      </c>
+      <c r="C168">
+        <v>0.8</v>
+      </c>
+      <c r="D168">
         <v>1</v>
       </c>
     </row>
@@ -3636,10 +3859,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4798,34 +5021,194 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37">
         <v>25</v>
       </c>
       <c r="C37">
-        <v>35.536000000000001</v>
+        <v>35.636000000000003</v>
       </c>
       <c r="D37">
+        <v>-0.4</v>
+      </c>
+      <c r="E37">
+        <v>0.4</v>
+      </c>
+      <c r="F37">
+        <v>36.036000000000001</v>
+      </c>
+      <c r="G37">
+        <v>1.2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>36.436</v>
+      </c>
+      <c r="D38">
+        <v>-0.4</v>
+      </c>
+      <c r="E38">
+        <v>0.4</v>
+      </c>
+      <c r="F38">
+        <v>36.835999999999999</v>
+      </c>
+      <c r="G38">
         <v>-2</v>
       </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>10000</v>
-      </c>
-      <c r="G37">
+      <c r="H38">
+        <v>-1.2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>37.235999999999997</v>
+      </c>
+      <c r="D39">
+        <v>-0.4</v>
+      </c>
+      <c r="E39">
+        <v>0.4</v>
+      </c>
+      <c r="F39">
+        <v>37.636000000000003</v>
+      </c>
+      <c r="G39">
+        <v>1.2</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>38.036000000000001</v>
+      </c>
+      <c r="D40">
+        <v>-0.4</v>
+      </c>
+      <c r="E40">
+        <v>0.4</v>
+      </c>
+      <c r="F40">
+        <v>38.436</v>
+      </c>
+      <c r="G40">
         <v>-2</v>
       </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" t="s">
-        <v>25</v>
+      <c r="H40">
+        <v>-1.2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <v>38.835999999999999</v>
+      </c>
+      <c r="D41">
+        <v>-0.4</v>
+      </c>
+      <c r="E41">
+        <v>0.4</v>
+      </c>
+      <c r="F41">
+        <v>39.235999999999997</v>
+      </c>
+      <c r="G41">
+        <v>1.2</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>39.636000000000003</v>
+      </c>
+      <c r="D42">
+        <v>-0.4</v>
+      </c>
+      <c r="E42">
+        <v>0.4</v>
+      </c>
+      <c r="F42">
+        <v>40.036000000000001</v>
+      </c>
+      <c r="G42">
+        <v>-2</v>
+      </c>
+      <c r="H42">
+        <v>-1.2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4837,10 +5220,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76DC57-EF49-44CE-8A21-D4353938F627}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5192,6 +5575,48 @@
         <v>1</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>38.235999999999997</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.8</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>38.335999999999999</v>
+      </c>
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <v>0.8</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>38.436</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0.8</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
     </row>
@@ -5204,10 +5629,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F96158-71D4-4C19-99F5-47E7932AF572}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5430,6 +5855,74 @@
         <v>0.25</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>36.036000000000001</v>
+      </c>
+      <c r="B14">
+        <v>1.6</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>36.835999999999999</v>
+      </c>
+      <c r="B15">
+        <v>-1.6</v>
+      </c>
+      <c r="C15">
+        <v>0.8</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>37.636000000000003</v>
+      </c>
+      <c r="B16">
+        <v>1.6</v>
+      </c>
+      <c r="C16">
+        <v>0.8</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>40.835999999999999</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
     </row>
@@ -5441,10 +5934,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192095B2-1BEA-4365-B4DE-88EEBB6E4423}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5958,6 +6451,262 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>37.036000000000001</v>
+      </c>
+      <c r="D17">
+        <v>37.235999999999997</v>
+      </c>
+      <c r="E17">
+        <v>37.636000000000003</v>
+      </c>
+      <c r="F17">
+        <v>-1.2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>37.036000000000001</v>
+      </c>
+      <c r="D18">
+        <v>37.636000000000003</v>
+      </c>
+      <c r="E18">
+        <v>38.036000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>-1.2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>38.636000000000003</v>
+      </c>
+      <c r="D19">
+        <v>38.835999999999999</v>
+      </c>
+      <c r="E19">
+        <v>39.235999999999997</v>
+      </c>
+      <c r="F19">
+        <v>-1.2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>39.436</v>
+      </c>
+      <c r="D20">
+        <v>39.636000000000003</v>
+      </c>
+      <c r="E20">
+        <v>40.036000000000001</v>
+      </c>
+      <c r="F20">
+        <v>1.2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>39.436</v>
+      </c>
+      <c r="D21">
+        <v>40.036000000000001</v>
+      </c>
+      <c r="E21">
+        <v>40.436</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1.2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>41.835999999999999</v>
+      </c>
+      <c r="D22">
+        <v>42.036000000000001</v>
+      </c>
+      <c r="E22">
+        <v>42.136000000000003</v>
+      </c>
+      <c r="F22">
+        <v>1.5</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>42.235999999999997</v>
+      </c>
+      <c r="D23">
+        <v>42.436</v>
+      </c>
+      <c r="E23">
+        <v>42.536000000000001</v>
+      </c>
+      <c r="F23">
+        <v>-1.5</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>42.636000000000003</v>
+      </c>
+      <c r="D24">
+        <v>42.835999999999999</v>
+      </c>
+      <c r="E24">
+        <v>42.936</v>
+      </c>
+      <c r="F24">
+        <v>1.5</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5973,7 +6722,7 @@
   <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J23"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6103,7 +6852,7 @@
         <v>37.935999999999993</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="J7:K23" si="4">K6+$K$2</f>
+        <f t="shared" ref="K7" si="4">K6+$K$2</f>
         <v>36.936</v>
       </c>
       <c r="L7">
@@ -6152,7 +6901,7 @@
         <v>39.535999999999987</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="J9:K23" si="5">K8+$K$2</f>
+        <f t="shared" ref="K9" si="5">K8+$K$2</f>
         <v>37.936</v>
       </c>
       <c r="L9">
@@ -6201,7 +6950,7 @@
         <v>41.135999999999981</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="J11:K23" si="6">K10+$K$2</f>
+        <f t="shared" ref="K11" si="6">K10+$K$2</f>
         <v>38.936</v>
       </c>
       <c r="L11">
@@ -6243,7 +6992,7 @@
         <v>42.735999999999976</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="J13:K23" si="7">K12+$K$2</f>
+        <f t="shared" ref="K13" si="7">K12+$K$2</f>
         <v>39.936</v>
       </c>
       <c r="L13">
@@ -6283,7 +7032,7 @@
         <v>44.33599999999997</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="J15:K23" si="8">K14+$K$2</f>
+        <f t="shared" ref="K15" si="8">K14+$K$2</f>
         <v>40.936</v>
       </c>
       <c r="M15">
@@ -6324,7 +7073,7 @@
         <v>45.935999999999964</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="J17:K23" si="9">K16+$K$2</f>
+        <f t="shared" ref="K17" si="9">K16+$K$2</f>
         <v>41.936</v>
       </c>
       <c r="M17">
@@ -6357,7 +7106,7 @@
         <v>47.535999999999959</v>
       </c>
       <c r="K19">
-        <f t="shared" ref="J19:K23" si="10">K18+$K$2</f>
+        <f t="shared" ref="K19" si="10">K18+$K$2</f>
         <v>42.936</v>
       </c>
       <c r="M19">
@@ -6390,7 +7139,7 @@
         <v>49.135999999999953</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="J21:K23" si="11">K20+$K$2</f>
+        <f t="shared" ref="K21" si="11">K20+$K$2</f>
         <v>43.936</v>
       </c>
       <c r="M21">
@@ -6423,7 +7172,7 @@
         <v>50.735999999999947</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="J23:K23" si="12">K22+$K$2</f>
+        <f t="shared" ref="K23" si="12">K22+$K$2</f>
         <v>44.936</v>
       </c>
       <c r="M23">

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8467604-B2BD-436E-9988-7B885C25EC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4239C662-A1B4-4BAB-8D38-313CDBBB86D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="planes" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA789EFB-BCA3-4FCA-98D4-565CD71AE543}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>37.235999999999997</v>
+        <v>10000</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1220,36 +1220,36 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>36.835999999999999</v>
+        <v>37.235999999999997</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>38.035999999999994</v>
+        <v>37.636000000000003</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>37.235999999999997</v>
+        <v>38.035999999999994</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>37.636000000000003</v>
+        <v>38.436</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1260,36 +1260,36 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>37.636000000000003</v>
+        <v>38.835999999999991</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>38.835999999999991</v>
+        <v>39.236000000000004</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>38.035999999999994</v>
+        <v>39.635999999999989</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>38.436</v>
+        <v>40.036000000000001</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1300,36 +1300,36 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>38.436</v>
+        <v>40.435999999999986</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>39.635999999999989</v>
+        <v>40.835999999999999</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>38.835999999999991</v>
+        <v>41.235999999999983</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>39.236000000000004</v>
+        <v>41.636000000000003</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1340,36 +1340,36 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>39.236000000000004</v>
+        <v>42.036000000000001</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>40.435999999999986</v>
+        <v>42.436</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>39.635999999999989</v>
+        <v>42.835999999999999</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>40.036000000000001</v>
+        <v>43.235999999999997</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1380,36 +1380,36 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>40.036000000000001</v>
+        <v>43.636000000000003</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>41.235999999999983</v>
+        <v>44.036000000000001</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>40.435999999999986</v>
+        <v>44.436</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>40.835999999999999</v>
+        <v>44.835999999999999</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1420,62 +1420,42 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>40.835999999999999</v>
+        <v>45.235999999999997</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>42.03599999999998</v>
+        <v>45.636000000000003</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>41.235999999999983</v>
+        <v>46.036000000000001</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>41.636000000000003</v>
+        <v>46.436</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>10</v>
-      </c>
-      <c r="B47">
-        <v>41.636000000000003</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>42.835999999999977</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1487,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="H166" sqref="H166"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="I216" sqref="I216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3735,7 +3715,7 @@
         <v>0.8</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -3743,13 +3723,13 @@
         <v>41.536000000000001</v>
       </c>
       <c r="B161">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="C161">
         <v>0.8</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -3763,7 +3743,7 @@
         <v>0.8</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -3771,13 +3751,13 @@
         <v>41.936</v>
       </c>
       <c r="B163">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C163">
         <v>0.8</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -3791,7 +3771,7 @@
         <v>0.8</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -3799,13 +3779,13 @@
         <v>42.335999999999999</v>
       </c>
       <c r="B165">
-        <v>-0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C165">
         <v>0.8</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -3813,13 +3793,13 @@
         <v>42.436</v>
       </c>
       <c r="B166">
-        <v>-1.5</v>
+        <v>-0.3</v>
       </c>
       <c r="C166">
         <v>0.8</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -3827,13 +3807,13 @@
         <v>42.735999999999997</v>
       </c>
       <c r="B167">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C167">
         <v>0.8</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -3847,6 +3827,762 @@
         <v>0.8</v>
       </c>
       <c r="D168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>43.536000000000001</v>
+      </c>
+      <c r="B169">
+        <v>-0.3</v>
+      </c>
+      <c r="C169">
+        <v>0.8</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>43.636000000000003</v>
+      </c>
+      <c r="B170">
+        <v>-1.5</v>
+      </c>
+      <c r="C170">
+        <v>0.8</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>43.936</v>
+      </c>
+      <c r="B171">
+        <v>-0.9</v>
+      </c>
+      <c r="C171">
+        <v>0.8</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>44.036000000000001</v>
+      </c>
+      <c r="B172">
+        <v>0.3</v>
+      </c>
+      <c r="C172">
+        <v>0.8</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>44.335999999999999</v>
+      </c>
+      <c r="B173">
+        <v>-0.3</v>
+      </c>
+      <c r="C173">
+        <v>0.8</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>44.436</v>
+      </c>
+      <c r="B174">
+        <v>-1.5</v>
+      </c>
+      <c r="C174">
+        <v>0.8</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>44.636000000000003</v>
+      </c>
+      <c r="B175">
+        <v>1.2</v>
+      </c>
+      <c r="C175">
+        <v>0.8</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>44.735999999999997</v>
+      </c>
+      <c r="B176">
+        <v>-0.5</v>
+      </c>
+      <c r="C176">
+        <v>0.8</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>45.036000000000001</v>
+      </c>
+      <c r="B177">
+        <v>-1.6</v>
+      </c>
+      <c r="C177">
+        <v>0.8</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>45.036000000000001</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0.8</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>45.235999999999997</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0.8</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>46.835999999999999</v>
+      </c>
+      <c r="B180">
+        <v>1.7</v>
+      </c>
+      <c r="C180">
+        <v>0.6</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>46.936</v>
+      </c>
+      <c r="B181">
+        <v>0.5</v>
+      </c>
+      <c r="C181">
+        <v>0.6</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>47.036000000000001</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>0.6</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>47.136000000000003</v>
+      </c>
+      <c r="B183">
+        <v>-0.2</v>
+      </c>
+      <c r="C183">
+        <v>0.6</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>47.235999999999997</v>
+      </c>
+      <c r="B184">
+        <v>1.2</v>
+      </c>
+      <c r="C184">
+        <v>0.7</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>47.335999999999999</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0.7</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>47.436</v>
+      </c>
+      <c r="B186">
+        <v>0.5</v>
+      </c>
+      <c r="C186">
+        <v>0.7</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>47.536000000000001</v>
+      </c>
+      <c r="B187">
+        <v>-0.7</v>
+      </c>
+      <c r="C187">
+        <v>0.7</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>47.636000000000003</v>
+      </c>
+      <c r="B188">
+        <v>0.7</v>
+      </c>
+      <c r="C188">
+        <v>0.8</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>47.735999999999997</v>
+      </c>
+      <c r="B189">
+        <v>-0.5</v>
+      </c>
+      <c r="C189">
+        <v>0.8</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>47.835999999999999</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0.8</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>47.936</v>
+      </c>
+      <c r="B191">
+        <v>-1.2</v>
+      </c>
+      <c r="C191">
+        <v>0.8</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>48.036000000000001</v>
+      </c>
+      <c r="B192">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="C192">
+        <v>0.9</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>48.136000000000003</v>
+      </c>
+      <c r="B193">
+        <v>-1</v>
+      </c>
+      <c r="C193">
+        <v>0.9</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>48.235999999999997</v>
+      </c>
+      <c r="B194">
+        <v>-0.5</v>
+      </c>
+      <c r="C194">
+        <v>0.9</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>48.335999999999999</v>
+      </c>
+      <c r="B195">
+        <v>-1.5</v>
+      </c>
+      <c r="C195">
+        <v>0.9</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>48.436</v>
+      </c>
+      <c r="B196">
+        <v>-1.5</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>48.636000000000003</v>
+      </c>
+      <c r="B197">
+        <v>-1.5</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>50.235999999999997</v>
+      </c>
+      <c r="B198">
+        <v>-1.5</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>51.235999999999997</v>
+      </c>
+      <c r="B199">
+        <v>1.5</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>51.436</v>
+      </c>
+      <c r="B200">
+        <v>-1.5</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>51.436</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>51.835999999999999</v>
+      </c>
+      <c r="B202">
+        <v>1.5</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>53.436</v>
+      </c>
+      <c r="B203">
+        <v>1.5</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>54.436</v>
+      </c>
+      <c r="B204">
+        <v>-1.5</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>54.636000000000003</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>54.636000000000003</v>
+      </c>
+      <c r="B206">
+        <v>1.5</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>55.035999999999994</v>
+      </c>
+      <c r="B207">
+        <v>-1.5</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>56.635999999999996</v>
+      </c>
+      <c r="B208">
+        <v>1.5</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>58.235999999999997</v>
+      </c>
+      <c r="B209">
+        <v>-1.5</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>59.436</v>
+      </c>
+      <c r="B210">
+        <v>1.5</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>59.636000000000003</v>
+      </c>
+      <c r="B211">
+        <v>-1</v>
+      </c>
+      <c r="C211">
+        <v>0.8</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>59.636000000000003</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>0.8</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>59.736000000000004</v>
+      </c>
+      <c r="B213">
+        <v>-1</v>
+      </c>
+      <c r="C213">
+        <v>0.8</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>59.736000000000004</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>0.8</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>59.936</v>
+      </c>
+      <c r="B215">
+        <v>-1</v>
+      </c>
+      <c r="C215">
+        <v>0.8</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>59.936</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>0.8</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>60.136000000000003</v>
+      </c>
+      <c r="B217">
+        <v>-1</v>
+      </c>
+      <c r="C217">
+        <v>0.8</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>60.136000000000003</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>0.8</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>60.335999999999999</v>
+      </c>
+      <c r="B219">
+        <v>-1</v>
+      </c>
+      <c r="C219">
+        <v>0.8</v>
+      </c>
+      <c r="D219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>60.335999999999999</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>0.8</v>
+      </c>
+      <c r="D220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>60.436</v>
+      </c>
+      <c r="B221">
+        <v>-1</v>
+      </c>
+      <c r="C221">
+        <v>0.8</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>60.436</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>0.8</v>
+      </c>
+      <c r="D222">
         <v>1</v>
       </c>
     </row>
@@ -3859,10 +4595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5209,6 +5945,742 @@
       </c>
       <c r="J42" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>48.436</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>48.636000000000003</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>32</v>
+      </c>
+      <c r="C44">
+        <v>49.436</v>
+      </c>
+      <c r="D44">
+        <v>-0.5</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>49.636000000000003</v>
+      </c>
+      <c r="G44">
+        <v>-0.5</v>
+      </c>
+      <c r="H44">
+        <v>0.5</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>33</v>
+      </c>
+      <c r="C45">
+        <v>49.636000000000003</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>49.835999999999999</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>49.835999999999999</v>
+      </c>
+      <c r="D46">
+        <v>-2</v>
+      </c>
+      <c r="E46">
+        <v>-1</v>
+      </c>
+      <c r="F46">
+        <v>50.036000000000001</v>
+      </c>
+      <c r="G46">
+        <v>-2</v>
+      </c>
+      <c r="H46">
+        <v>-1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>35</v>
+      </c>
+      <c r="C47">
+        <v>50.036000000000001</v>
+      </c>
+      <c r="D47">
+        <v>-0.5</v>
+      </c>
+      <c r="E47">
+        <v>0.5</v>
+      </c>
+      <c r="F47">
+        <v>50.235999999999997</v>
+      </c>
+      <c r="G47">
+        <v>-0.5</v>
+      </c>
+      <c r="H47">
+        <v>0.5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>36</v>
+      </c>
+      <c r="C48">
+        <v>51.036000000000001</v>
+      </c>
+      <c r="D48">
+        <v>-0.5</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <v>51.235999999999997</v>
+      </c>
+      <c r="G48">
+        <v>-0.5</v>
+      </c>
+      <c r="H48">
+        <v>0.5</v>
+      </c>
+      <c r="I48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>37</v>
+      </c>
+      <c r="C49">
+        <v>51.636000000000003</v>
+      </c>
+      <c r="D49">
+        <v>-2</v>
+      </c>
+      <c r="E49">
+        <v>-1</v>
+      </c>
+      <c r="F49">
+        <v>51.835999999999999</v>
+      </c>
+      <c r="G49">
+        <v>-2</v>
+      </c>
+      <c r="H49">
+        <v>-1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>38</v>
+      </c>
+      <c r="C50">
+        <v>52.636000000000003</v>
+      </c>
+      <c r="D50">
+        <v>-0.5</v>
+      </c>
+      <c r="E50">
+        <v>0.5</v>
+      </c>
+      <c r="F50">
+        <v>52.835999999999999</v>
+      </c>
+      <c r="G50">
+        <v>-0.5</v>
+      </c>
+      <c r="H50">
+        <v>0.5</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>39</v>
+      </c>
+      <c r="C51">
+        <v>52.835999999999999</v>
+      </c>
+      <c r="D51">
+        <v>-2</v>
+      </c>
+      <c r="E51">
+        <v>-1</v>
+      </c>
+      <c r="F51">
+        <v>53.036000000000001</v>
+      </c>
+      <c r="G51">
+        <v>-2</v>
+      </c>
+      <c r="H51">
+        <v>-1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>53.036000000000001</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>53.235999999999997</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>53.235999999999997</v>
+      </c>
+      <c r="D53">
+        <v>-0.5</v>
+      </c>
+      <c r="E53">
+        <v>0.5</v>
+      </c>
+      <c r="F53">
+        <v>53.436</v>
+      </c>
+      <c r="G53">
+        <v>-0.5</v>
+      </c>
+      <c r="H53">
+        <v>0.5</v>
+      </c>
+      <c r="I53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>42</v>
+      </c>
+      <c r="C54">
+        <v>54.235999999999997</v>
+      </c>
+      <c r="D54">
+        <v>-0.5</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54">
+        <v>54.436</v>
+      </c>
+      <c r="G54">
+        <v>-0.5</v>
+      </c>
+      <c r="H54">
+        <v>0.5</v>
+      </c>
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>54.835999999999999</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>55.035999999999994</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>44</v>
+      </c>
+      <c r="C56">
+        <v>55.835999999999999</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>56.035999999999994</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>45</v>
+      </c>
+      <c r="C57">
+        <v>56.035999999999994</v>
+      </c>
+      <c r="D57">
+        <v>-2</v>
+      </c>
+      <c r="E57">
+        <v>-1</v>
+      </c>
+      <c r="F57">
+        <v>56.235999999999997</v>
+      </c>
+      <c r="G57">
+        <v>-1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>46</v>
+      </c>
+      <c r="C58">
+        <v>56.235999999999997</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>56.436</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>47</v>
+      </c>
+      <c r="C59">
+        <v>56.436</v>
+      </c>
+      <c r="D59">
+        <v>-2</v>
+      </c>
+      <c r="E59">
+        <v>-1</v>
+      </c>
+      <c r="F59">
+        <v>56.635999999999996</v>
+      </c>
+      <c r="G59">
+        <v>-1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>48</v>
+      </c>
+      <c r="C60">
+        <v>57.436</v>
+      </c>
+      <c r="D60">
+        <v>-1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>57.635999999999996</v>
+      </c>
+      <c r="G60">
+        <v>-2</v>
+      </c>
+      <c r="H60">
+        <v>-1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>49</v>
+      </c>
+      <c r="C61">
+        <v>57.635999999999996</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>57.835999999999999</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>57.835999999999999</v>
+      </c>
+      <c r="D62">
+        <v>-1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>58.035999999999994</v>
+      </c>
+      <c r="G62">
+        <v>-2</v>
+      </c>
+      <c r="H62">
+        <v>-1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>51</v>
+      </c>
+      <c r="C63">
+        <v>58.035999999999994</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>58.235999999999997</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>52</v>
+      </c>
+      <c r="C64">
+        <v>59.036000000000001</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>59.235999999999997</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>53</v>
+      </c>
+      <c r="C65">
+        <v>59.235999999999997</v>
+      </c>
+      <c r="D65">
+        <v>-1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>59.436</v>
+      </c>
+      <c r="G65">
+        <v>-2</v>
+      </c>
+      <c r="H65">
+        <v>-1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5629,10 +7101,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F96158-71D4-4C19-99F5-47E7932AF572}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5889,7 +7361,7 @@
         <v>0.5</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5906,24 +7378,313 @@
         <v>0.5</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>38.436</v>
+      </c>
+      <c r="B17">
+        <v>-1.6</v>
+      </c>
+      <c r="C17">
+        <v>0.8</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>39.235999999999997</v>
+      </c>
+      <c r="B18">
+        <v>1.6</v>
+      </c>
+      <c r="C18">
+        <v>0.8</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>40.036000000000001</v>
+      </c>
+      <c r="B19">
+        <v>-1.6</v>
+      </c>
+      <c r="C19">
+        <v>0.8</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>40.835999999999999</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>49.036000000000001</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>49.036000000000001</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.75</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>50.636000000000003</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>50.636000000000003</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.75</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>52.235999999999997</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>52.235999999999997</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>53.835999999999999</v>
+      </c>
+      <c r="B27">
+        <v>-1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>53.835999999999999</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.25</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>55.436</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>55.436</v>
+      </c>
+      <c r="B30">
+        <v>1.5</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.25</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>57.035999999999994</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>57.035999999999994</v>
+      </c>
+      <c r="B32">
+        <v>-1.5</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.75</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>58.536000000000001</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>58.536000000000001</v>
+      </c>
+      <c r="B34">
+        <v>1.5</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.25</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5934,10 +7695,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192095B2-1BEA-4365-B4DE-88EEBB6E4423}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:I28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6616,7 +8377,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -6634,13 +8395,13 @@
         <v>1.5</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
@@ -6648,7 +8409,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -6663,16 +8424,16 @@
         <v>42.536000000000001</v>
       </c>
       <c r="F23">
-        <v>-1.5</v>
+        <v>-0.3</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
@@ -6680,7 +8441,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -6692,22 +8453,758 @@
         <v>42.835999999999999</v>
       </c>
       <c r="E24">
-        <v>42.936</v>
+        <v>43.036000000000001</v>
       </c>
       <c r="F24">
         <v>1.5</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>42.636000000000003</v>
+      </c>
+      <c r="D25">
+        <v>43.036000000000001</v>
+      </c>
+      <c r="E25">
+        <v>43.235999999999997</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1.5</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>43.436</v>
+      </c>
+      <c r="D26">
+        <v>43.636000000000003</v>
+      </c>
+      <c r="E26">
+        <v>43.735999999999997</v>
+      </c>
+      <c r="F26">
+        <v>-1.5</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>43.835999999999999</v>
+      </c>
+      <c r="D27">
+        <v>44.036000000000001</v>
+      </c>
+      <c r="E27">
+        <v>44.136000000000003</v>
+      </c>
+      <c r="F27">
+        <v>0.3</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0.8</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>44.235999999999997</v>
+      </c>
+      <c r="D28">
+        <v>44.436</v>
+      </c>
+      <c r="E28">
+        <v>44.536000000000001</v>
+      </c>
+      <c r="F28">
+        <v>-1.5</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>45.235999999999997</v>
+      </c>
+      <c r="D29">
+        <v>45.436</v>
+      </c>
+      <c r="E29">
+        <v>45.835999999999999</v>
+      </c>
+      <c r="F29">
+        <v>1.6</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>-1.6</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>45.835999999999999</v>
+      </c>
+      <c r="D30">
+        <v>45.835999999999999</v>
+      </c>
+      <c r="E30">
+        <v>46.235999999999997</v>
+      </c>
+      <c r="F30">
+        <v>-1.6</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>46.235999999999997</v>
+      </c>
+      <c r="D31">
+        <v>46.235999999999997</v>
+      </c>
+      <c r="E31">
+        <v>46.636000000000003</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1.6</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>45.835999999999999</v>
+      </c>
+      <c r="D32">
+        <v>45.835999999999999</v>
+      </c>
+      <c r="E32">
+        <v>46.235999999999997</v>
+      </c>
+      <c r="F32">
+        <v>-1.5</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>46.235999999999997</v>
+      </c>
+      <c r="D33">
+        <v>46.235999999999997</v>
+      </c>
+      <c r="E33">
+        <v>46.636000000000003</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>48.735999999999997</v>
+      </c>
+      <c r="D34">
+        <v>49.036000000000001</v>
+      </c>
+      <c r="E34">
+        <v>49.235999999999997</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>-0.2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <v>48.735999999999997</v>
+      </c>
+      <c r="D35">
+        <v>49.235999999999997</v>
+      </c>
+      <c r="E35">
+        <v>49.436</v>
+      </c>
+      <c r="F35">
+        <v>-0.2</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>-1.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>50.335999999999999</v>
+      </c>
+      <c r="D36">
+        <v>50.636000000000003</v>
+      </c>
+      <c r="E36">
+        <v>50.835999999999999</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>-0.2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <v>50.335999999999999</v>
+      </c>
+      <c r="D37">
+        <v>50.835999999999999</v>
+      </c>
+      <c r="E37">
+        <v>51.036000000000001</v>
+      </c>
+      <c r="F37">
+        <v>-0.2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>-1.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>51.936</v>
+      </c>
+      <c r="D38">
+        <v>52.235999999999997</v>
+      </c>
+      <c r="E38">
+        <v>52.436</v>
+      </c>
+      <c r="F38">
+        <v>-1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0.2</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>51.936</v>
+      </c>
+      <c r="D39">
+        <v>52.436</v>
+      </c>
+      <c r="E39">
+        <v>52.636000000000003</v>
+      </c>
+      <c r="F39">
+        <v>0.2</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>53.536000000000001</v>
+      </c>
+      <c r="D40">
+        <v>53.835999999999999</v>
+      </c>
+      <c r="E40">
+        <v>54.036000000000001</v>
+      </c>
+      <c r="F40">
+        <v>-1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>53.536000000000001</v>
+      </c>
+      <c r="D41">
+        <v>54.036000000000001</v>
+      </c>
+      <c r="E41">
+        <v>54.235999999999997</v>
+      </c>
+      <c r="F41">
+        <v>0.2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>55.135999999999996</v>
+      </c>
+      <c r="D42">
+        <v>55.436</v>
+      </c>
+      <c r="E42">
+        <v>55.635999999999996</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>-1.5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>55.135999999999996</v>
+      </c>
+      <c r="D43">
+        <v>55.635999999999996</v>
+      </c>
+      <c r="E43">
+        <v>55.835999999999999</v>
+      </c>
+      <c r="F43">
+        <v>-1.5</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>32</v>
+      </c>
+      <c r="C44">
+        <v>56.735999999999997</v>
+      </c>
+      <c r="D44">
+        <v>57.035999999999994</v>
+      </c>
+      <c r="E44">
+        <v>57.235999999999997</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>56.735999999999997</v>
+      </c>
+      <c r="D45">
+        <v>57.235999999999997</v>
+      </c>
+      <c r="E45">
+        <v>57.436</v>
+      </c>
+      <c r="F45">
+        <v>1.5</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>58.335999999999999</v>
+      </c>
+      <c r="D46">
+        <v>58.636000000000003</v>
+      </c>
+      <c r="E46">
+        <v>58.835999999999999</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>-1.5</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>58.335999999999999</v>
+      </c>
+      <c r="D47">
+        <v>58.835999999999999</v>
+      </c>
+      <c r="E47">
+        <v>59.036000000000001</v>
+      </c>
+      <c r="F47">
+        <v>-1.5</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6722,7 +9219,7 @@
   <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M4" sqref="M4:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6787,7 +9284,7 @@
         <v>3.6360000000000001</v>
       </c>
       <c r="M4">
-        <v>29.236000000000001</v>
+        <v>46.835999999999999</v>
       </c>
       <c r="N4">
         <v>3.2360000000000002</v>
@@ -6811,7 +9308,7 @@
         <v>3.8360000000000003</v>
       </c>
       <c r="M5">
-        <v>29.335999999999999</v>
+        <v>46.936</v>
       </c>
       <c r="N5" s="1">
         <f>N4+$N$2</f>
@@ -6835,7 +9332,7 @@
         <v>4.0360000000000005</v>
       </c>
       <c r="M6">
-        <v>29.436</v>
+        <v>47.036000000000001</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6:N10" si="3">N5+$N$2</f>
@@ -6860,7 +9357,7 @@
         <v>4.2360000000000007</v>
       </c>
       <c r="M7">
-        <v>29.536000000000001</v>
+        <v>47.136000000000003</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
@@ -6884,7 +9381,7 @@
         <v>4.4360000000000008</v>
       </c>
       <c r="M8">
-        <v>29.635999999999999</v>
+        <v>47.235999999999997</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
@@ -6909,7 +9406,7 @@
         <v>4.636000000000001</v>
       </c>
       <c r="M9">
-        <v>29.736000000000001</v>
+        <v>47.335999999999999</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
@@ -6933,7 +9430,7 @@
         <v>4.8360000000000012</v>
       </c>
       <c r="M10">
-        <v>29.835999999999999</v>
+        <v>47.436</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="3"/>
@@ -6958,7 +9455,7 @@
         <v>5.0360000000000014</v>
       </c>
       <c r="M11">
-        <v>29.936</v>
+        <v>47.536000000000001</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -6979,7 +9476,7 @@
         <v>5.2360000000000015</v>
       </c>
       <c r="M12">
-        <v>30.036000000000001</v>
+        <v>47.636000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -7000,7 +9497,7 @@
         <v>5.4360000000000017</v>
       </c>
       <c r="M13">
-        <v>30.135999999999999</v>
+        <v>47.735999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -7016,7 +9513,7 @@
         <v>40.536000000000001</v>
       </c>
       <c r="M14">
-        <v>30.236000000000001</v>
+        <v>47.835999999999999</v>
       </c>
       <c r="N14">
         <v>21.635999999999999</v>
@@ -7036,7 +9533,7 @@
         <v>40.936</v>
       </c>
       <c r="M15">
-        <v>30.335999999999999</v>
+        <v>47.936</v>
       </c>
       <c r="N15">
         <f>N14+$N$2</f>
@@ -7056,7 +9553,7 @@
         <v>41.536000000000001</v>
       </c>
       <c r="M16">
-        <v>30.436</v>
+        <v>48.036000000000001</v>
       </c>
       <c r="N16">
         <f>N15+$N$2</f>
@@ -7077,7 +9574,7 @@
         <v>41.936</v>
       </c>
       <c r="M17">
-        <v>30.536000000000001</v>
+        <v>48.136000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -7093,7 +9590,7 @@
         <v>42.536000000000001</v>
       </c>
       <c r="M18">
-        <v>30.635999999999999</v>
+        <v>48.235999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -7110,7 +9607,7 @@
         <v>42.936</v>
       </c>
       <c r="M19">
-        <v>30.736000000000001</v>
+        <v>48.335999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -7126,7 +9623,7 @@
         <v>43.536000000000001</v>
       </c>
       <c r="M20">
-        <v>30.835999999999999</v>
+        <v>48.436</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -7143,7 +9640,7 @@
         <v>43.936</v>
       </c>
       <c r="M21">
-        <v>30.936</v>
+        <v>48.536000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -7159,7 +9656,7 @@
         <v>44.536000000000001</v>
       </c>
       <c r="M22">
-        <v>31.036000000000001</v>
+        <v>48.636000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -7176,7 +9673,7 @@
         <v>44.936</v>
       </c>
       <c r="M23">
-        <v>31.135999999999999</v>
+        <v>48.735999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -7185,7 +9682,7 @@
         <v>16.836000000000002</v>
       </c>
       <c r="M24">
-        <v>31.236000000000001</v>
+        <v>48.835999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -7194,7 +9691,7 @@
         <v>17.236000000000001</v>
       </c>
       <c r="M25">
-        <v>31.335999999999999</v>
+        <v>48.936</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -7203,12 +9700,12 @@
         <v>17.635999999999999</v>
       </c>
       <c r="M26">
-        <v>31.436</v>
+        <v>49.036000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M27">
-        <v>31.536000000000001</v>
+        <v>49.136000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -7216,7 +9713,7 @@
         <v>19.635999999999999</v>
       </c>
       <c r="M28">
-        <v>31.6359999999999</v>
+        <v>49.235999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -7224,7 +9721,7 @@
         <v>20.036000000000001</v>
       </c>
       <c r="M29">
-        <v>31.736000000000001</v>
+        <v>49.335999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -7232,7 +9729,7 @@
         <v>20.436</v>
       </c>
       <c r="M30">
-        <v>31.835999999999899</v>
+        <v>49.436</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -7240,7 +9737,7 @@
         <v>20.835999999999999</v>
       </c>
       <c r="M31">
-        <v>31.9359999999999</v>
+        <v>49.536000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -7248,7 +9745,7 @@
         <v>21.236000000000001</v>
       </c>
       <c r="M32">
-        <v>32.035999999999902</v>
+        <v>49.636000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -7256,7 +9753,7 @@
         <v>21.635999999999999</v>
       </c>
       <c r="M33">
-        <v>32.135999999999903</v>
+        <v>49.735999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -7264,72 +9761,48 @@
         <v>22.036000000000001</v>
       </c>
       <c r="M34">
-        <v>32.235999999999898</v>
+        <v>49.835999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>22.436</v>
       </c>
-      <c r="M35">
-        <v>32.335999999999899</v>
-      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>22.835999999999999</v>
       </c>
-      <c r="M36">
-        <v>32.4359999999999</v>
-      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>23.236000000000001</v>
       </c>
-      <c r="M37">
-        <v>32.535999999999902</v>
-      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>23.635999999999999</v>
       </c>
-      <c r="M38">
-        <v>32.635999999999903</v>
-      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>24.036000000000001</v>
       </c>
-      <c r="M39">
-        <v>32.735999999999898</v>
-      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>24.436</v>
       </c>
-      <c r="M40">
-        <v>32.835999999999899</v>
-      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>24.835999999999999</v>
       </c>
-      <c r="M41">
-        <v>32.9359999999999</v>
-      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>25.236000000000001</v>
       </c>
-      <c r="M42">
-        <v>33.035999999999902</v>
-      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -7399,43 +9872,43 @@
     <row r="77" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M77">
         <f>M4+0.1</f>
-        <v>29.336000000000002</v>
+        <v>46.936</v>
       </c>
     </row>
     <row r="78" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M78">
         <f t="shared" ref="M78:M83" si="13">M77+0.1</f>
-        <v>29.436000000000003</v>
+        <v>47.036000000000001</v>
       </c>
     </row>
     <row r="79" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M79">
         <f t="shared" si="13"/>
-        <v>29.536000000000005</v>
+        <v>47.136000000000003</v>
       </c>
     </row>
     <row r="80" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M80">
         <f t="shared" si="13"/>
-        <v>29.636000000000006</v>
+        <v>47.236000000000004</v>
       </c>
     </row>
     <row r="81" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M81">
         <f t="shared" si="13"/>
-        <v>29.736000000000008</v>
+        <v>47.336000000000006</v>
       </c>
     </row>
     <row r="82" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M82">
         <f t="shared" si="13"/>
-        <v>29.836000000000009</v>
+        <v>47.436000000000007</v>
       </c>
     </row>
     <row r="83" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M83">
         <f t="shared" si="13"/>
-        <v>29.936000000000011</v>
+        <v>47.536000000000008</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4239C662-A1B4-4BAB-8D38-313CDBBB86D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A13D292-219B-4F15-8F9F-29F0303FFC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="planes" sheetId="1" r:id="rId1"/>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
   <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="I216" sqref="I216"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2309,7 +2309,7 @@
         <v>21.898</v>
       </c>
       <c r="B60">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="C60">
         <v>0.6</v>
@@ -2337,7 +2337,7 @@
         <v>22.036000000000001</v>
       </c>
       <c r="B62">
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="C62">
         <v>0.6</v>
@@ -4597,8 +4597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5205,10 +5205,10 @@
         <v>-1</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -5333,10 +5333,10 @@
         <v>1.6</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -6692,10 +6692,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76DC57-EF49-44CE-8A21-D4353938F627}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6869,39 +6869,39 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11.835999999999997</v>
+      <c r="A13" s="1">
+        <v>9.6859999999999999</v>
       </c>
       <c r="B13">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
         <v>0.6</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11.885999999999999</v>
+      <c r="A14" s="1">
+        <v>9.7360000000000007</v>
       </c>
       <c r="B14">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>15.035999999999985</v>
+      <c r="A15" s="1">
+        <v>9.6859999999999999</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="C15">
         <v>0.6</v>
@@ -6911,14 +6911,14 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15.085999999999986</v>
+      <c r="A16" s="1">
+        <v>9.7360000000000007</v>
       </c>
       <c r="B16">
-        <v>-0.4</v>
+        <v>-1.2</v>
       </c>
       <c r="C16">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -6926,38 +6926,38 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15.135999999999987</v>
+        <v>11.835999999999997</v>
       </c>
       <c r="B17">
-        <v>-0.8</v>
+        <v>1.3</v>
       </c>
       <c r="C17">
         <v>0.6</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>15.185999999999988</v>
+        <v>11.885999999999999</v>
       </c>
       <c r="B18">
-        <v>-1.2</v>
+        <v>1.7</v>
       </c>
       <c r="C18">
         <v>0.6</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>15.235999999999988</v>
+        <v>15.035999999999985</v>
       </c>
       <c r="B19">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0.6</v>
@@ -6968,69 +6968,69 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18.936000000000025</v>
+        <v>15.085999999999986</v>
       </c>
       <c r="B20">
-        <v>1.5</v>
+        <v>-0.4</v>
       </c>
       <c r="C20">
         <v>0.6</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>18.986000000000001</v>
+        <v>15.135999999999987</v>
       </c>
       <c r="B21">
-        <v>1.1000000000000001</v>
+        <v>-0.8</v>
       </c>
       <c r="C21">
         <v>0.6</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>19.036000000000026</v>
+        <v>15.185999999999988</v>
       </c>
       <c r="B22">
-        <v>0.7</v>
+        <v>-1.2</v>
       </c>
       <c r="C22">
         <v>0.6</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>33.636000000000003</v>
+        <v>15.235999999999988</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>-1.6</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>33.735999999999997</v>
+        <v>18.936000000000025</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -7038,13 +7038,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>33.835999999999999</v>
+        <v>18.986000000000001</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -7052,13 +7052,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>38.235999999999997</v>
+        <v>19.036000000000026</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C26">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -7066,13 +7066,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>38.335999999999999</v>
+        <v>33.636000000000003</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -7080,16 +7080,142 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
+        <v>33.735999999999997</v>
+      </c>
+      <c r="B28">
+        <v>0.5</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>33.835999999999999</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>38.235999999999997</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0.8</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>38.335999999999999</v>
+      </c>
+      <c r="B31">
+        <v>0.5</v>
+      </c>
+      <c r="C31">
+        <v>0.8</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>38.436</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0.8</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0.8</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>60.836000000000006</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1.5</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>60.886000000000003</v>
+      </c>
+      <c r="B34">
+        <v>0.8</v>
+      </c>
+      <c r="C34">
+        <v>0.6</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>60.936000000000007</v>
+      </c>
+      <c r="B35">
+        <v>1.2</v>
+      </c>
+      <c r="C35">
+        <v>0.4</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>60.886000000000003</v>
+      </c>
+      <c r="B36">
+        <v>-0.8</v>
+      </c>
+      <c r="C36">
+        <v>0.6</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>60.936000000000007</v>
+      </c>
+      <c r="B37">
+        <v>-1.2</v>
+      </c>
+      <c r="C37">
+        <v>0.4</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7103,8 +7229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F96158-71D4-4C19-99F5-47E7932AF572}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7460,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -7528,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E25">
         <v>3</v>

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A13D292-219B-4F15-8F9F-29F0303FFC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01088EEA-0AA1-4967-9DFB-EC962B4BB204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA789EFB-BCA3-4FCA-98D4-565CD71AE543}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>10000</v>
+        <v>66.036000000000001</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1200,76 +1200,76 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>36.436</v>
+        <v>66.036000000000001</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>36.835999999999999</v>
+        <v>66.635999999999996</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>37.235999999999997</v>
+        <v>66.635999999999996</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>37.636000000000003</v>
+        <v>70.835999999999999</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>38.035999999999994</v>
+        <v>70.835999999999999</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>38.436</v>
+        <v>10000</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B37">
-        <v>38.835999999999991</v>
+        <v>36.436</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>39.236000000000004</v>
+        <v>36.835999999999999</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1280,16 +1280,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>39.635999999999989</v>
+        <v>37.235999999999997</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>40.036000000000001</v>
+        <v>37.636000000000003</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B39">
-        <v>40.435999999999986</v>
+        <v>38.035999999999994</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>40.835999999999999</v>
+        <v>38.436</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1320,16 +1320,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B40">
-        <v>41.235999999999983</v>
+        <v>38.835999999999991</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>41.636000000000003</v>
+        <v>39.236000000000004</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1340,16 +1340,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B41">
-        <v>42.036000000000001</v>
+        <v>39.635999999999989</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>42.436</v>
+        <v>40.036000000000001</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1360,16 +1360,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B42">
-        <v>42.835999999999999</v>
+        <v>40.435999999999986</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>43.235999999999997</v>
+        <v>40.835999999999999</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1380,16 +1380,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>43.636000000000003</v>
+        <v>41.235999999999983</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>44.036000000000001</v>
+        <v>41.636000000000003</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B44">
-        <v>44.436</v>
+        <v>42.036000000000001</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>44.835999999999999</v>
+        <v>42.436</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1420,16 +1420,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>45.235999999999997</v>
+        <v>42.835999999999999</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>45.636000000000003</v>
+        <v>43.235999999999997</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1440,21 +1440,81 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>43.636000000000003</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>44.036000000000001</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>44.436</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>44.835999999999999</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>45.235999999999997</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>45.636000000000003</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>16</v>
       </c>
-      <c r="B46">
+      <c r="B49">
         <v>46.036000000000001</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>46.436</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1467,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
-  <dimension ref="A1:F222"/>
+  <dimension ref="A1:F294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="M289" sqref="M289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4584,6 +4644,1014 @@
       </c>
       <c r="D222">
         <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>61.235999999999997</v>
+      </c>
+      <c r="B223">
+        <v>-1</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>61.235999999999997</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>61.636000000000003</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0.6</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>61.7</v>
+      </c>
+      <c r="B226">
+        <v>0.8</v>
+      </c>
+      <c r="C226">
+        <v>0.6</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>61.767000000000003</v>
+      </c>
+      <c r="B227">
+        <v>-0.7</v>
+      </c>
+      <c r="C227">
+        <v>0.6</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>61.835999999999999</v>
+      </c>
+      <c r="B228">
+        <v>0.3</v>
+      </c>
+      <c r="C228">
+        <v>0.7</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>61.936</v>
+      </c>
+      <c r="B229">
+        <v>-1.5</v>
+      </c>
+      <c r="C229">
+        <v>0.7</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>62.335999999999999</v>
+      </c>
+      <c r="B230">
+        <v>0.2</v>
+      </c>
+      <c r="C230">
+        <v>0.7</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>62.636000000000003</v>
+      </c>
+      <c r="B231">
+        <v>-1.5</v>
+      </c>
+      <c r="C231">
+        <v>0.7</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>62.835999999999999</v>
+      </c>
+      <c r="B232">
+        <v>-0.5</v>
+      </c>
+      <c r="C232">
+        <v>0.7</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>63.136000000000003</v>
+      </c>
+      <c r="B233">
+        <v>-1.3</v>
+      </c>
+      <c r="C233">
+        <v>0.7</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>63.636000000000003</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>0.7</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>63.835999999999999</v>
+      </c>
+      <c r="B235">
+        <v>0.8</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>63.936</v>
+      </c>
+      <c r="B236">
+        <v>0.8</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>64.135999999999996</v>
+      </c>
+      <c r="B237">
+        <v>-0.8</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>64.23599999999999</v>
+      </c>
+      <c r="B238">
+        <v>-0.8</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>64.436000000000007</v>
+      </c>
+      <c r="B239">
+        <v>-1</v>
+      </c>
+      <c r="C239">
+        <v>1.5</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>64.436000000000007</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>1.5</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>64.836000000000013</v>
+      </c>
+      <c r="B241">
+        <v>1.2</v>
+      </c>
+      <c r="C241">
+        <v>0.7</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>64.936000000000007</v>
+      </c>
+      <c r="B242">
+        <v>0.7</v>
+      </c>
+      <c r="C242">
+        <v>0.7</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>65.036000000000001</v>
+      </c>
+      <c r="B243">
+        <v>-0.3</v>
+      </c>
+      <c r="C243">
+        <v>0.7</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>65.135999999999996</v>
+      </c>
+      <c r="B244">
+        <v>0.7</v>
+      </c>
+      <c r="C244">
+        <v>0.7</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>65.236000000000004</v>
+      </c>
+      <c r="B245">
+        <v>1.2</v>
+      </c>
+      <c r="C245">
+        <v>0.7</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>65.536000000000001</v>
+      </c>
+      <c r="B246">
+        <v>-0.2</v>
+      </c>
+      <c r="C246">
+        <v>0.7</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>65.836000000000013</v>
+      </c>
+      <c r="B247">
+        <v>0.5</v>
+      </c>
+      <c r="C247">
+        <v>0.7</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>66.036000000000001</v>
+      </c>
+      <c r="B248">
+        <v>1.5</v>
+      </c>
+      <c r="C248">
+        <v>0.7</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>66.336000000000013</v>
+      </c>
+      <c r="B249">
+        <v>-0.2</v>
+      </c>
+      <c r="C249">
+        <v>0.7</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>66.635999999999996</v>
+      </c>
+      <c r="B250">
+        <v>0.5</v>
+      </c>
+      <c r="C250">
+        <v>0.7</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>66.835999999999999</v>
+      </c>
+      <c r="B251">
+        <v>1.5</v>
+      </c>
+      <c r="C251">
+        <v>0.7</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>66.835999999999999</v>
+      </c>
+      <c r="B252">
+        <v>-0.8</v>
+      </c>
+      <c r="C252">
+        <v>0.7</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>67.236000000000004</v>
+      </c>
+      <c r="B253">
+        <v>-1.5</v>
+      </c>
+      <c r="C253">
+        <v>0.7</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>67.236000000000004</v>
+      </c>
+      <c r="B254">
+        <v>0.8</v>
+      </c>
+      <c r="C254">
+        <v>0.7</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>67.635999999999996</v>
+      </c>
+      <c r="B255">
+        <v>1.4</v>
+      </c>
+      <c r="C255">
+        <v>1.2</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>67.736000000000004</v>
+      </c>
+      <c r="B256">
+        <v>-1.4</v>
+      </c>
+      <c r="C256">
+        <v>0.7</v>
+      </c>
+      <c r="D256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>67.835999999999999</v>
+      </c>
+      <c r="B257">
+        <v>0.5</v>
+      </c>
+      <c r="C257">
+        <v>0.7</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>67.936000000000007</v>
+      </c>
+      <c r="B258">
+        <v>-0.5</v>
+      </c>
+      <c r="C258">
+        <v>0.7</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>68.036000000000001</v>
+      </c>
+      <c r="B259">
+        <v>-1.35</v>
+      </c>
+      <c r="C259">
+        <v>1.3</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>68.135999999999996</v>
+      </c>
+      <c r="B260">
+        <v>1.2</v>
+      </c>
+      <c r="C260">
+        <v>0.7</v>
+      </c>
+      <c r="D260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>68.236000000000004</v>
+      </c>
+      <c r="B261">
+        <v>-0.6</v>
+      </c>
+      <c r="C261">
+        <v>0.7</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>68.335999999999999</v>
+      </c>
+      <c r="B262">
+        <v>0.4</v>
+      </c>
+      <c r="C262">
+        <v>0.7</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>68.436000000000007</v>
+      </c>
+      <c r="B263">
+        <v>1.3</v>
+      </c>
+      <c r="C263">
+        <v>1.4</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>68.535999999999902</v>
+      </c>
+      <c r="B264">
+        <v>-1</v>
+      </c>
+      <c r="C264">
+        <v>0.7</v>
+      </c>
+      <c r="D264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>68.635999999999896</v>
+      </c>
+      <c r="B265">
+        <v>0.7</v>
+      </c>
+      <c r="C265">
+        <v>0.7</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>68.735999999999905</v>
+      </c>
+      <c r="B266">
+        <v>-0.3</v>
+      </c>
+      <c r="C266">
+        <v>0.7</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>68.835999999999899</v>
+      </c>
+      <c r="B267">
+        <v>-1.25</v>
+      </c>
+      <c r="C267">
+        <v>1.5</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>68.935999999999893</v>
+      </c>
+      <c r="B268">
+        <v>0.8</v>
+      </c>
+      <c r="C268">
+        <v>0.7</v>
+      </c>
+      <c r="D268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>69.035999999999902</v>
+      </c>
+      <c r="B269">
+        <v>-0.8</v>
+      </c>
+      <c r="C269">
+        <v>0.7</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>69.135999999999896</v>
+      </c>
+      <c r="B270">
+        <v>0.2</v>
+      </c>
+      <c r="C270">
+        <v>0.7</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>69.235999999999905</v>
+      </c>
+      <c r="B271">
+        <v>1.2</v>
+      </c>
+      <c r="C271">
+        <v>1.6</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>69.335999999999899</v>
+      </c>
+      <c r="B272">
+        <v>-0.6</v>
+      </c>
+      <c r="C272">
+        <v>0.8</v>
+      </c>
+      <c r="D272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>69.435999999999893</v>
+      </c>
+      <c r="B273">
+        <v>0.9</v>
+      </c>
+      <c r="C273">
+        <v>0.8</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>69.535999999999902</v>
+      </c>
+      <c r="B274">
+        <v>-0.1</v>
+      </c>
+      <c r="C274">
+        <v>0.8</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>69.635999999999896</v>
+      </c>
+      <c r="B275">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="C275">
+        <v>1.7</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>69.735999999999805</v>
+      </c>
+      <c r="B276">
+        <v>0.4</v>
+      </c>
+      <c r="C276">
+        <v>0.8</v>
+      </c>
+      <c r="D276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>69.8359999999998</v>
+      </c>
+      <c r="B277">
+        <v>-1</v>
+      </c>
+      <c r="C277">
+        <v>0.8</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>69.935999999999794</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>0.8</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>70.035999999999802</v>
+      </c>
+      <c r="B279">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C279">
+        <v>1.8</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>70.135999999999797</v>
+      </c>
+      <c r="B280">
+        <v>-0.2</v>
+      </c>
+      <c r="C280">
+        <v>0.8</v>
+      </c>
+      <c r="D280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>70.235999999999805</v>
+      </c>
+      <c r="B281">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C281">
+        <v>0.8</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>70.3359999999998</v>
+      </c>
+      <c r="B282">
+        <v>0.1</v>
+      </c>
+      <c r="C282">
+        <v>0.8</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>70.435999999999794</v>
+      </c>
+      <c r="B283">
+        <v>-1.05</v>
+      </c>
+      <c r="C283">
+        <v>1.9</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>70.535999999999802</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>0.8</v>
+      </c>
+      <c r="D284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>70.635999999999797</v>
+      </c>
+      <c r="B285">
+        <v>-1.2</v>
+      </c>
+      <c r="C285">
+        <v>0.8</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>70.735999999999706</v>
+      </c>
+      <c r="B286">
+        <v>0.2</v>
+      </c>
+      <c r="C286">
+        <v>0.8</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>70.835999999999999</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>71.036000000000001</v>
+      </c>
+      <c r="B288">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>71.236000000000004</v>
+      </c>
+      <c r="B289">
+        <v>-0.33300000000000002</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>71.436000000000007</v>
+      </c>
+      <c r="B290">
+        <v>-1</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>71.635999999999996</v>
+      </c>
+      <c r="B291">
+        <v>-1</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>71.835999999999999</v>
+      </c>
+      <c r="B292">
+        <v>-0.33300000000000002</v>
+      </c>
+      <c r="C292">
+        <v>2</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>72.036000000000001</v>
+      </c>
+      <c r="B293">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+      <c r="D293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>72.236000000000004</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4595,10 +5663,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6680,6 +7748,262 @@
         <v>25</v>
       </c>
       <c r="J65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>54</v>
+      </c>
+      <c r="C66">
+        <v>70.936000000000007</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1.8</v>
+      </c>
+      <c r="F66">
+        <v>71.036000000000001</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1.8</v>
+      </c>
+      <c r="I66" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>55</v>
+      </c>
+      <c r="C67">
+        <v>71.135999999999996</v>
+      </c>
+      <c r="D67">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E67">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F67">
+        <v>71.236000000000004</v>
+      </c>
+      <c r="G67">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H67">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I67" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>56</v>
+      </c>
+      <c r="C68">
+        <v>71.335999999999999</v>
+      </c>
+      <c r="D68">
+        <v>-0.86699999999999999</v>
+      </c>
+      <c r="E68">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="F68">
+        <v>71.436000000000007</v>
+      </c>
+      <c r="G68">
+        <v>-0.86699999999999999</v>
+      </c>
+      <c r="H68">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>57</v>
+      </c>
+      <c r="C69">
+        <v>71.536000000000001</v>
+      </c>
+      <c r="D69">
+        <v>-1.8</v>
+      </c>
+      <c r="E69">
+        <v>-1</v>
+      </c>
+      <c r="F69">
+        <v>71.635999999999996</v>
+      </c>
+      <c r="G69">
+        <v>-1.8</v>
+      </c>
+      <c r="H69">
+        <v>-1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>25</v>
+      </c>
+      <c r="J69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>58</v>
+      </c>
+      <c r="C70">
+        <v>71.736000000000004</v>
+      </c>
+      <c r="D70">
+        <v>-1.8</v>
+      </c>
+      <c r="E70">
+        <v>-1</v>
+      </c>
+      <c r="F70">
+        <v>71.835999999999999</v>
+      </c>
+      <c r="G70">
+        <v>-1.8</v>
+      </c>
+      <c r="H70">
+        <v>-1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>59</v>
+      </c>
+      <c r="C71">
+        <v>71.936000000000007</v>
+      </c>
+      <c r="D71">
+        <v>-0.86699999999999999</v>
+      </c>
+      <c r="E71">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="F71">
+        <v>72.036000000000001</v>
+      </c>
+      <c r="G71">
+        <v>-0.86699999999999999</v>
+      </c>
+      <c r="H71">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>25</v>
+      </c>
+      <c r="J71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>60</v>
+      </c>
+      <c r="C72">
+        <v>72.135999999999996</v>
+      </c>
+      <c r="D72">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E72">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F72">
+        <v>72.236000000000004</v>
+      </c>
+      <c r="G72">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H72">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I72" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>61</v>
+      </c>
+      <c r="C73">
+        <v>72.335999999999999</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1.8</v>
+      </c>
+      <c r="F73">
+        <v>72.436000000000007</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1.8</v>
+      </c>
+      <c r="I73" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6692,10 +8016,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76DC57-EF49-44CE-8A21-D4353938F627}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7159,7 +8483,7 @@
         <v>1.5</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -7173,7 +8497,7 @@
         <v>0.6</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -7187,7 +8511,7 @@
         <v>0.4</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7201,7 +8525,7 @@
         <v>0.6</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -7215,7 +8539,63 @@
         <v>0.4</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>62.366</v>
+      </c>
+      <c r="B38">
+        <v>0.7</v>
+      </c>
+      <c r="C38">
+        <v>0.6</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>63.298999999999999</v>
+      </c>
+      <c r="B39">
+        <v>-1.7</v>
+      </c>
+      <c r="C39">
+        <v>0.6</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>63.343000000000004</v>
+      </c>
+      <c r="B40">
+        <v>-1.4</v>
+      </c>
+      <c r="C40">
+        <v>0.6</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>63.436</v>
+      </c>
+      <c r="B41">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.6</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7227,10 +8607,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F96158-71D4-4C19-99F5-47E7932AF572}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7810,6 +9190,176 @@
         <v>0.25</v>
       </c>
       <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>62.036000000000001</v>
+      </c>
+      <c r="B35">
+        <v>1.5</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.375</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>62.436</v>
+      </c>
+      <c r="B36">
+        <v>1.5</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.375</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>62.835999999999999</v>
+      </c>
+      <c r="B37">
+        <v>1.5</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.375</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>63.235999999999997</v>
+      </c>
+      <c r="B38">
+        <v>1.5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.375</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>63.636000000000003</v>
+      </c>
+      <c r="B39">
+        <v>1.5</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.375</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>64.836000000000013</v>
+      </c>
+      <c r="B40">
+        <v>-1.5</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.625</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>65.236000000000004</v>
+      </c>
+      <c r="B41">
+        <v>-1.5</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.625</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>65.635999999999996</v>
+      </c>
+      <c r="B42">
+        <v>-1.5</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0.625</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>66.036000000000001</v>
+      </c>
+      <c r="B43">
+        <v>-1.5</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.625</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>66.436000000000007</v>
+      </c>
+      <c r="B44">
+        <v>-1.5</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.625</v>
+      </c>
+      <c r="E44">
         <v>3</v>
       </c>
     </row>
@@ -9345,7 +10895,7 @@
   <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M19"/>
+      <selection activeCell="M5" sqref="M5:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9410,7 +10960,7 @@
         <v>3.6360000000000001</v>
       </c>
       <c r="M4">
-        <v>46.835999999999999</v>
+        <v>61.636000000000003</v>
       </c>
       <c r="N4">
         <v>3.2360000000000002</v>
@@ -9434,7 +10984,7 @@
         <v>3.8360000000000003</v>
       </c>
       <c r="M5">
-        <v>46.936</v>
+        <v>61.735999999999997</v>
       </c>
       <c r="N5" s="1">
         <f>N4+$N$2</f>
@@ -9458,7 +11008,7 @@
         <v>4.0360000000000005</v>
       </c>
       <c r="M6">
-        <v>47.036000000000001</v>
+        <v>61.835999999999999</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6:N10" si="3">N5+$N$2</f>
@@ -9483,7 +11033,7 @@
         <v>4.2360000000000007</v>
       </c>
       <c r="M7">
-        <v>47.136000000000003</v>
+        <v>61.936</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
@@ -9507,7 +11057,7 @@
         <v>4.4360000000000008</v>
       </c>
       <c r="M8">
-        <v>47.235999999999997</v>
+        <v>62.036000000000001</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
@@ -9532,7 +11082,7 @@
         <v>4.636000000000001</v>
       </c>
       <c r="M9">
-        <v>47.335999999999999</v>
+        <v>62.136000000000003</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
@@ -9556,7 +11106,7 @@
         <v>4.8360000000000012</v>
       </c>
       <c r="M10">
-        <v>47.436</v>
+        <v>62.235999999999997</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="3"/>
@@ -9581,7 +11131,7 @@
         <v>5.0360000000000014</v>
       </c>
       <c r="M11">
-        <v>47.536000000000001</v>
+        <v>62.335999999999999</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -9602,7 +11152,7 @@
         <v>5.2360000000000015</v>
       </c>
       <c r="M12">
-        <v>47.636000000000003</v>
+        <v>62.436</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -9623,7 +11173,7 @@
         <v>5.4360000000000017</v>
       </c>
       <c r="M13">
-        <v>47.735999999999997</v>
+        <v>62.536000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -9639,7 +11189,7 @@
         <v>40.536000000000001</v>
       </c>
       <c r="M14">
-        <v>47.835999999999999</v>
+        <v>62.635999999999903</v>
       </c>
       <c r="N14">
         <v>21.635999999999999</v>
@@ -9659,7 +11209,7 @@
         <v>40.936</v>
       </c>
       <c r="M15">
-        <v>47.936</v>
+        <v>62.735999999999898</v>
       </c>
       <c r="N15">
         <f>N14+$N$2</f>
@@ -9679,7 +11229,7 @@
         <v>41.536000000000001</v>
       </c>
       <c r="M16">
-        <v>48.036000000000001</v>
+        <v>62.835999999999899</v>
       </c>
       <c r="N16">
         <f>N15+$N$2</f>
@@ -9700,7 +11250,7 @@
         <v>41.936</v>
       </c>
       <c r="M17">
-        <v>48.136000000000003</v>
+        <v>62.9359999999999</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -9716,7 +11266,7 @@
         <v>42.536000000000001</v>
       </c>
       <c r="M18">
-        <v>48.235999999999997</v>
+        <v>63.035999999999902</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -9733,7 +11283,7 @@
         <v>42.936</v>
       </c>
       <c r="M19">
-        <v>48.335999999999999</v>
+        <v>63.135999999999903</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -9749,7 +11299,7 @@
         <v>43.536000000000001</v>
       </c>
       <c r="M20">
-        <v>48.436</v>
+        <v>63.235999999999898</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -9766,7 +11316,7 @@
         <v>43.936</v>
       </c>
       <c r="M21">
-        <v>48.536000000000001</v>
+        <v>63.335999999999899</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -9782,7 +11332,7 @@
         <v>44.536000000000001</v>
       </c>
       <c r="M22">
-        <v>48.636000000000003</v>
+        <v>63.4359999999999</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -9799,7 +11349,7 @@
         <v>44.936</v>
       </c>
       <c r="M23">
-        <v>48.735999999999997</v>
+        <v>63.535999999999902</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -9808,7 +11358,7 @@
         <v>16.836000000000002</v>
       </c>
       <c r="M24">
-        <v>48.835999999999999</v>
+        <v>63.635999999999903</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -9817,7 +11367,7 @@
         <v>17.236000000000001</v>
       </c>
       <c r="M25">
-        <v>48.936</v>
+        <v>63.735999999999898</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -9826,12 +11376,12 @@
         <v>17.635999999999999</v>
       </c>
       <c r="M26">
-        <v>49.036000000000001</v>
+        <v>63.835999999999899</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M27">
-        <v>49.136000000000003</v>
+        <v>63.9359999999999</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -9839,7 +11389,7 @@
         <v>19.635999999999999</v>
       </c>
       <c r="M28">
-        <v>49.235999999999997</v>
+        <v>64.035999999999902</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -9847,7 +11397,7 @@
         <v>20.036000000000001</v>
       </c>
       <c r="M29">
-        <v>49.335999999999999</v>
+        <v>64.135999999999896</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -9855,7 +11405,7 @@
         <v>20.436</v>
       </c>
       <c r="M30">
-        <v>49.436</v>
+        <v>64.235999999999805</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -9863,7 +11413,7 @@
         <v>20.835999999999999</v>
       </c>
       <c r="M31">
-        <v>49.536000000000001</v>
+        <v>64.335999999999899</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -9871,7 +11421,7 @@
         <v>21.236000000000001</v>
       </c>
       <c r="M32">
-        <v>49.636000000000003</v>
+        <v>64.435999999999794</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -9879,7 +11429,7 @@
         <v>21.635999999999999</v>
       </c>
       <c r="M33">
-        <v>49.735999999999997</v>
+        <v>64.535999999999802</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -9887,18 +11437,24 @@
         <v>22.036000000000001</v>
       </c>
       <c r="M34">
-        <v>49.835999999999999</v>
+        <v>64.635999999999797</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>22.436</v>
       </c>
+      <c r="M35">
+        <v>64.735999999999805</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>22.835999999999999</v>
       </c>
+      <c r="M36">
+        <v>64.8359999999998</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -9998,43 +11554,43 @@
     <row r="77" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M77">
         <f>M4+0.1</f>
-        <v>46.936</v>
+        <v>61.736000000000004</v>
       </c>
     </row>
     <row r="78" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M78">
         <f t="shared" ref="M78:M83" si="13">M77+0.1</f>
-        <v>47.036000000000001</v>
+        <v>61.836000000000006</v>
       </c>
     </row>
     <row r="79" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M79">
         <f t="shared" si="13"/>
-        <v>47.136000000000003</v>
+        <v>61.936000000000007</v>
       </c>
     </row>
     <row r="80" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M80">
         <f t="shared" si="13"/>
-        <v>47.236000000000004</v>
+        <v>62.036000000000008</v>
       </c>
     </row>
     <row r="81" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M81">
         <f t="shared" si="13"/>
-        <v>47.336000000000006</v>
+        <v>62.13600000000001</v>
       </c>
     </row>
     <row r="82" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M82">
         <f t="shared" si="13"/>
-        <v>47.436000000000007</v>
+        <v>62.236000000000011</v>
       </c>
     </row>
     <row r="83" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M83">
         <f t="shared" si="13"/>
-        <v>47.536000000000008</v>
+        <v>62.336000000000013</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01088EEA-0AA1-4967-9DFB-EC962B4BB204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCB4F06-0BA1-40F7-BFD5-CEAEAD5CDC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="planes" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>24分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -530,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA789EFB-BCA3-4FCA-98D4-565CD71AE543}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -709,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>10.036000000000001</v>
+        <v>10.036</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -729,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.036000000000001</v>
+        <v>10.036</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -743,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>10.036000000000001</v>
+        <v>10.036</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -763,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>10.036000000000001</v>
+        <v>10.036</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -789,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.236000000000004</v>
+        <v>13.236000000000001</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -809,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>13.236000000000004</v>
+        <v>13.236000000000001</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -823,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>13.236000000000004</v>
+        <v>13.236000000000001</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -843,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>13.236000000000004</v>
+        <v>13.236000000000001</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -869,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>16.435999999999989</v>
+        <v>16.436</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -889,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>16.435999999999989</v>
+        <v>16.436</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -903,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>16.435999999999989</v>
+        <v>16.436</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -923,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>16.435999999999989</v>
+        <v>16.436</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1035,7 +1031,7 @@
         <v>0.5</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1055,7 +1051,7 @@
         <v>0.5</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1149,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>10000</v>
+        <v>72.635999999999996</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1175,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1249,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>10000</v>
+        <v>72.635999999999996</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1275,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1295,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1303,7 +1299,7 @@
         <v>6</v>
       </c>
       <c r="B39">
-        <v>38.035999999999994</v>
+        <v>38.036000000000001</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1315,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1323,19 +1319,19 @@
         <v>7</v>
       </c>
       <c r="B40">
-        <v>38.835999999999991</v>
+        <v>38.835999999999999</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>39.236000000000004</v>
+        <v>39.235999999999997</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1343,7 +1339,7 @@
         <v>8</v>
       </c>
       <c r="B41">
-        <v>39.635999999999989</v>
+        <v>39.636000000000003</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1355,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1363,7 +1359,7 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <v>40.435999999999986</v>
+        <v>40.436</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1375,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1383,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="B43">
-        <v>41.235999999999983</v>
+        <v>41.235999999999997</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1395,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1415,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1435,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1455,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1475,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1495,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1515,7 +1511,687 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>72.635999999999996</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>72.835999999999999</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>72.635999999999996</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>72.835999999999999</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>72.835999999999999</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>73.036000000000001</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>72.835999999999999</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>73.036000000000001</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>73.036000000000001</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>73.236000000000004</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>73.036000000000001</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>73.236000000000004</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>17</v>
+      </c>
+      <c r="B56">
+        <v>73.036000000000001</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>73.236000000000004</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>73.236000000000004</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>73.436000000000007</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="B58">
+        <v>73.236000000000004</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>73.436000000000007</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>73.436000000000007</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>73.635999999999996</v>
+      </c>
+      <c r="E59">
+        <v>0.5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>17</v>
+      </c>
+      <c r="B60">
+        <v>73.436000000000007</v>
+      </c>
+      <c r="C60">
+        <v>0.5</v>
+      </c>
+      <c r="D60">
+        <v>73.635999999999996</v>
+      </c>
+      <c r="E60">
+        <v>0.5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>73.635999999999996</v>
+      </c>
+      <c r="C61">
+        <v>0.5</v>
+      </c>
+      <c r="D61">
+        <v>74.036000000000001</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <v>73.635999999999996</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="D62">
+        <v>73.835999999999999</v>
+      </c>
+      <c r="E62">
+        <v>1.3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>73.835999999999999</v>
+      </c>
+      <c r="C63">
+        <v>1.3</v>
+      </c>
+      <c r="D63">
+        <v>74.036000000000001</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>74.036000000000001</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>76.436000000000007</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>17</v>
+      </c>
+      <c r="B65">
+        <v>74.036000000000001</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>76.436000000000007</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>76.436000000000007</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>76.835999999999999</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>76.436000000000007</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>76.835999999999999</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>76.835999999999999</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>17</v>
+      </c>
+      <c r="B69">
+        <v>76.835999999999999</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>82.835999999999999</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>17</v>
+      </c>
+      <c r="B71">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>82.835999999999999</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>82.835999999999999</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>83.236000000000004</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>17</v>
+      </c>
+      <c r="B73">
+        <v>82.835999999999999</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>83.236000000000004</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>83.236000000000004</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>83.635999999999996</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>83.236000000000004</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>83.635999999999996</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>83.635999999999996</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>86.036000000000001</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>17</v>
+      </c>
+      <c r="B77">
+        <v>83.635999999999996</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>85.236000000000004</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>17</v>
+      </c>
+      <c r="B78">
+        <v>85.236000000000004</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>86.036000000000001</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>86.036000000000001</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>86.436000000000007</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>17</v>
+      </c>
+      <c r="B80">
+        <v>86.036000000000001</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>86.436000000000007</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>86.436000000000007</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>86.835999999999999</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>86.835999999999999</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>10000</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>17</v>
+      </c>
+      <c r="B83">
+        <v>86.436000000000007</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>10000</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1527,10 +2203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
-  <dimension ref="A1:F294"/>
+  <dimension ref="A1:D343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="M289" sqref="M289"/>
+    <sheetView topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="A343" sqref="A343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1593,7 +2269,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5.7689999999999992</v>
+        <v>5.7690000000000001</v>
       </c>
       <c r="B5">
         <v>-1.2</v>
@@ -1663,7 +2339,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8.7359999999999989</v>
+        <v>8.7360000000000007</v>
       </c>
       <c r="B10">
         <v>-1</v>
@@ -1677,7 +2353,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8.7359999999999989</v>
+        <v>8.7360000000000007</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1691,7 +2367,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>8.9359999999999982</v>
+        <v>8.9359999999999999</v>
       </c>
       <c r="B12">
         <v>-1</v>
@@ -1705,7 +2381,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>8.9359999999999982</v>
+        <v>8.9359999999999999</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1719,7 +2395,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>9.1359999999999975</v>
+        <v>9.1359999999999992</v>
       </c>
       <c r="B14">
         <v>-1</v>
@@ -1733,7 +2409,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>9.1359999999999975</v>
+        <v>9.1359999999999992</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1747,7 +2423,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>9.2359999999999971</v>
+        <v>9.2360000000000007</v>
       </c>
       <c r="B16">
         <v>-1</v>
@@ -1759,9 +2435,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>9.2359999999999971</v>
+        <v>9.2360000000000007</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1773,9 +2449,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>10.636000000000001</v>
+        <v>10.635999999999999</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1787,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10.936</v>
       </c>
@@ -1801,9 +2477,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>11.235999999999999</v>
+        <v>11.236000000000001</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1815,9 +2491,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>11.535999999999998</v>
+        <v>11.536</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1829,9 +2505,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>12.035999999999996</v>
+        <v>12.036</v>
       </c>
       <c r="B22">
         <v>-1.2</v>
@@ -1843,9 +2519,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>12.135999999999996</v>
+        <v>12.135999999999999</v>
       </c>
       <c r="B23">
         <v>0.2</v>
@@ -1857,9 +2533,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>12.335999999999995</v>
+        <v>12.336</v>
       </c>
       <c r="B24">
         <v>-1.7</v>
@@ -1871,9 +2547,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>12.335999999999995</v>
+        <v>12.336</v>
       </c>
       <c r="B25">
         <v>0.8</v>
@@ -1885,9 +2561,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>12.635999999999994</v>
+        <v>12.635999999999999</v>
       </c>
       <c r="B26">
         <v>-0.4</v>
@@ -1899,9 +2575,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>12.735999999999994</v>
+        <v>12.736000000000001</v>
       </c>
       <c r="B27">
         <v>0.3</v>
@@ -1913,9 +2589,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>12.835999999999993</v>
+        <v>12.836</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1927,9 +2603,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>13.035999999999992</v>
+        <v>13.036</v>
       </c>
       <c r="B29">
         <v>-1</v>
@@ -1940,13 +2616,10 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>13.836000000000004</v>
+        <v>13.836</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1958,9 +2631,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>14.136000000000003</v>
+        <v>14.135999999999999</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1972,9 +2645,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>14.436000000000002</v>
+        <v>14.436</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2002,7 +2675,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>15.435999999999984</v>
+        <v>15.436</v>
       </c>
       <c r="B34">
         <v>0.8</v>
@@ -2016,7 +2689,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>15.535999999999984</v>
+        <v>15.536</v>
       </c>
       <c r="B35">
         <v>-0.4</v>
@@ -2030,7 +2703,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>15.735999999999983</v>
+        <v>15.736000000000001</v>
       </c>
       <c r="B36">
         <v>1.7</v>
@@ -2044,7 +2717,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>15.835999999999983</v>
+        <v>15.836</v>
       </c>
       <c r="B37">
         <v>-1.4</v>
@@ -2058,7 +2731,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>15.935999999999982</v>
+        <v>15.936</v>
       </c>
       <c r="B38">
         <v>0.8</v>
@@ -2072,7 +2745,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>16.035999999999984</v>
+        <v>16.036000000000001</v>
       </c>
       <c r="B39">
         <v>-0.5</v>
@@ -2086,7 +2759,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>16.135999999999985</v>
+        <v>16.135999999999999</v>
       </c>
       <c r="B40">
         <v>1.7</v>
@@ -2100,7 +2773,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>16.235999999999986</v>
+        <v>16.236000000000001</v>
       </c>
       <c r="B41">
         <v>-1.5</v>
@@ -2114,7 +2787,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>16.335999999999988</v>
+        <v>16.335999999999999</v>
       </c>
       <c r="B42">
         <v>1.1000000000000001</v>
@@ -2128,7 +2801,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>17.035999999999998</v>
+        <v>17.036000000000001</v>
       </c>
       <c r="B43">
         <v>0.8</v>
@@ -2142,7 +2815,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>17.336000000000002</v>
+        <v>17.335999999999999</v>
       </c>
       <c r="B44">
         <v>-0.8</v>
@@ -2156,7 +2829,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>17.636000000000006</v>
+        <v>17.635999999999999</v>
       </c>
       <c r="B45">
         <v>0.8</v>
@@ -2170,7 +2843,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>17.936000000000011</v>
+        <v>17.936</v>
       </c>
       <c r="B46">
         <v>-0.8</v>
@@ -2184,7 +2857,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>18.236000000000015</v>
+        <v>18.236000000000001</v>
       </c>
       <c r="B47">
         <v>0.3</v>
@@ -2198,7 +2871,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>18.436000000000018</v>
+        <v>18.436</v>
       </c>
       <c r="B48">
         <v>-1.7</v>
@@ -2212,7 +2885,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>18.536000000000019</v>
+        <v>18.536000000000001</v>
       </c>
       <c r="B49">
         <v>1.7</v>
@@ -2226,7 +2899,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>18.736000000000022</v>
+        <v>18.736000000000001</v>
       </c>
       <c r="B50">
         <v>-0.7</v>
@@ -2240,7 +2913,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>18.736000000000022</v>
+        <v>18.736000000000001</v>
       </c>
       <c r="B51">
         <v>0.5</v>
@@ -2254,7 +2927,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>19.236000000000029</v>
+        <v>19.236000000000001</v>
       </c>
       <c r="B52">
         <v>-0.7</v>
@@ -2268,7 +2941,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>19.33600000000003</v>
+        <v>19.335999999999999</v>
       </c>
       <c r="B53">
         <v>0.5</v>
@@ -2282,7 +2955,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>19.536000000000033</v>
+        <v>19.536000000000001</v>
       </c>
       <c r="B54">
         <v>1.7</v>
@@ -2408,7 +3081,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>22.136000000000003</v>
+        <v>22.135999999999999</v>
       </c>
       <c r="B63">
         <v>0.8</v>
@@ -2422,7 +3095,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>22.336000000000006</v>
+        <v>22.335999999999999</v>
       </c>
       <c r="B64">
         <v>1.4</v>
@@ -2436,7 +3109,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>22.536000000000008</v>
+        <v>22.536000000000001</v>
       </c>
       <c r="B65">
         <v>-1</v>
@@ -2450,7 +3123,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>22.63600000000001</v>
+        <v>22.635999999999999</v>
       </c>
       <c r="B66">
         <v>0.6</v>
@@ -2492,7 +3165,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>23.33600000000002</v>
+        <v>23.335999999999999</v>
       </c>
       <c r="B69">
         <v>-1.4</v>
@@ -2506,7 +3179,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>23.33600000000002</v>
+        <v>23.335999999999999</v>
       </c>
       <c r="B70">
         <v>0.2</v>
@@ -2520,7 +3193,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>23.536000000000023</v>
+        <v>23.536000000000001</v>
       </c>
       <c r="B71">
         <v>1.1000000000000001</v>
@@ -2534,7 +3207,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>23.636000000000024</v>
+        <v>23.635999999999999</v>
       </c>
       <c r="B72">
         <v>-0.2</v>
@@ -2548,7 +3221,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>23.636000000000024</v>
+        <v>23.635999999999999</v>
       </c>
       <c r="B73">
         <v>1.4</v>
@@ -2562,7 +3235,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>23.836000000000027</v>
+        <v>23.835999999999999</v>
       </c>
       <c r="B74">
         <v>-0.8</v>
@@ -2576,7 +3249,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>23.836000000000027</v>
+        <v>23.835999999999999</v>
       </c>
       <c r="B75">
         <v>0.8</v>
@@ -2590,7 +3263,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>24.03600000000003</v>
+        <v>24.036000000000001</v>
       </c>
       <c r="B76">
         <v>-1</v>
@@ -2604,7 +3277,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>24.03600000000003</v>
+        <v>24.036000000000001</v>
       </c>
       <c r="B77">
         <v>0.5</v>
@@ -2618,7 +3291,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>24.136000000000031</v>
+        <v>24.135999999999999</v>
       </c>
       <c r="B78">
         <v>-1.5</v>
@@ -2632,7 +3305,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>24.136000000000031</v>
+        <v>24.135999999999999</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2646,7 +3319,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>24.336000000000034</v>
+        <v>24.335999999999999</v>
       </c>
       <c r="B80">
         <v>-0.8</v>
@@ -2660,7 +3333,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>24.336000000000034</v>
+        <v>24.335999999999999</v>
       </c>
       <c r="B81">
         <v>0.8</v>
@@ -2674,7 +3347,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>24.636000000000038</v>
+        <v>24.635999999999999</v>
       </c>
       <c r="B82">
         <v>1.4</v>
@@ -2688,7 +3361,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>24.73600000000004</v>
+        <v>24.736000000000001</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2702,7 +3375,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>24.936000000000043</v>
+        <v>24.936</v>
       </c>
       <c r="B84">
         <v>-1.2</v>
@@ -2716,7 +3389,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>25.036000000000044</v>
+        <v>25.036000000000001</v>
       </c>
       <c r="B85">
         <v>0.7</v>
@@ -2730,7 +3403,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>25.136000000000045</v>
+        <v>25.135999999999999</v>
       </c>
       <c r="B86">
         <v>0.3</v>
@@ -2744,7 +3417,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>25.336000000000048</v>
+        <v>25.335999999999999</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2758,7 +3431,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>25.43600000000005</v>
+        <v>25.436</v>
       </c>
       <c r="B88">
         <v>-0.4</v>
@@ -2968,7 +3641,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>27.736000000000082</v>
+        <v>27.736000000000001</v>
       </c>
       <c r="B103">
         <v>-0.9</v>
@@ -2982,7 +3655,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>27.836000000000084</v>
+        <v>27.835999999999999</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2996,7 +3669,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>27.936000000000085</v>
+        <v>27.936</v>
       </c>
       <c r="B105">
         <v>-1.5</v>
@@ -3010,7 +3683,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>28.036000000000087</v>
+        <v>28.036000000000001</v>
       </c>
       <c r="B106">
         <v>0.5</v>
@@ -3024,7 +3697,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>28.136000000000088</v>
+        <v>28.135999999999999</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -3038,7 +3711,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>28.236000000000089</v>
+        <v>28.236000000000001</v>
       </c>
       <c r="B108">
         <v>-0.2</v>
@@ -3052,7 +3725,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>28.336000000000091</v>
+        <v>28.335999999999999</v>
       </c>
       <c r="B109">
         <v>-0.8</v>
@@ -3066,7 +3739,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>28.436000000000092</v>
+        <v>28.436</v>
       </c>
       <c r="B110">
         <v>0.4</v>
@@ -3080,7 +3753,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>28.536000000000094</v>
+        <v>28.536000000000001</v>
       </c>
       <c r="B111">
         <v>-0.4</v>
@@ -3094,7 +3767,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>28.636000000000095</v>
+        <v>28.635999999999999</v>
       </c>
       <c r="B112">
         <v>1.5</v>
@@ -3108,7 +3781,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>28.736000000000097</v>
+        <v>28.736000000000001</v>
       </c>
       <c r="B113">
         <v>-1.5</v>
@@ -3122,7 +3795,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>28.836000000000098</v>
+        <v>28.835999999999999</v>
       </c>
       <c r="B114">
         <v>-0.9</v>
@@ -3136,7 +3809,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>28.936000000000099</v>
+        <v>28.936</v>
       </c>
       <c r="B115">
         <v>0.5</v>
@@ -3150,7 +3823,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>29.036000000000101</v>
+        <v>29.036000000000001</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -3164,7 +3837,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>29.136000000000102</v>
+        <v>29.135999999999999</v>
       </c>
       <c r="B117">
         <v>-1</v>
@@ -3206,7 +3879,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>29.736000000000018</v>
+        <v>29.736000000000001</v>
       </c>
       <c r="B120">
         <v>1.4</v>
@@ -3220,7 +3893,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>29.736000000000018</v>
+        <v>29.736000000000001</v>
       </c>
       <c r="B121">
         <v>-0.2</v>
@@ -3234,7 +3907,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>29.936000000000021</v>
+        <v>29.936</v>
       </c>
       <c r="B122">
         <v>-1.1000000000000001</v>
@@ -3248,7 +3921,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>30.036000000000023</v>
+        <v>30.036000000000001</v>
       </c>
       <c r="B123">
         <v>0.2</v>
@@ -3262,7 +3935,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>30.036000000000023</v>
+        <v>30.036000000000001</v>
       </c>
       <c r="B124">
         <v>-1.4</v>
@@ -3276,7 +3949,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>30.236000000000026</v>
+        <v>30.236000000000001</v>
       </c>
       <c r="B125">
         <v>0.8</v>
@@ -3290,7 +3963,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>30.236000000000026</v>
+        <v>30.236000000000001</v>
       </c>
       <c r="B126">
         <v>-0.8</v>
@@ -3304,7 +3977,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>30.436000000000028</v>
+        <v>30.436</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -3318,7 +3991,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>30.436000000000028</v>
+        <v>30.436</v>
       </c>
       <c r="B128">
         <v>-0.5</v>
@@ -3332,7 +4005,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>30.53600000000003</v>
+        <v>30.536000000000001</v>
       </c>
       <c r="B129">
         <v>1.5</v>
@@ -3346,7 +4019,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>30.53600000000003</v>
+        <v>30.536000000000001</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3360,7 +4033,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>30.736000000000033</v>
+        <v>30.736000000000001</v>
       </c>
       <c r="B131">
         <v>0.8</v>
@@ -3374,7 +4047,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>30.736000000000033</v>
+        <v>30.736000000000001</v>
       </c>
       <c r="B132">
         <v>-0.8</v>
@@ -3388,7 +4061,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>31.036000000000037</v>
+        <v>31.036000000000001</v>
       </c>
       <c r="B133">
         <v>-1.4</v>
@@ -3402,7 +4075,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>31.136000000000038</v>
+        <v>31.135999999999999</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3416,7 +4089,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>31.336000000000041</v>
+        <v>31.335999999999999</v>
       </c>
       <c r="B135">
         <v>1.2</v>
@@ -3430,7 +4103,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>31.436000000000043</v>
+        <v>31.436</v>
       </c>
       <c r="B136">
         <v>-0.7</v>
@@ -4424,7 +5097,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>55.035999999999994</v>
+        <v>55.036000000000001</v>
       </c>
       <c r="B207">
         <v>-1.5</v>
@@ -4438,7 +5111,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>56.635999999999996</v>
+        <v>56.636000000000003</v>
       </c>
       <c r="B208">
         <v>1.5</v>
@@ -4508,7 +5181,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>59.736000000000004</v>
+        <v>59.735999999999997</v>
       </c>
       <c r="B213">
         <v>-1</v>
@@ -4522,7 +5195,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>59.736000000000004</v>
+        <v>59.735999999999997</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -4654,7 +5327,7 @@
         <v>-1</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -4668,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -4679,7 +5352,7 @@
         <v>61.636000000000003</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C225">
         <v>0.6</v>
@@ -4693,7 +5366,7 @@
         <v>61.7</v>
       </c>
       <c r="B226">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="C226">
         <v>0.6</v>
@@ -4721,7 +5394,7 @@
         <v>61.835999999999999</v>
       </c>
       <c r="B228">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="C228">
         <v>0.7</v>
@@ -4735,7 +5408,7 @@
         <v>61.936</v>
       </c>
       <c r="B229">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="C229">
         <v>0.7</v>
@@ -4749,7 +5422,7 @@
         <v>62.335999999999999</v>
       </c>
       <c r="B230">
-        <v>0.2</v>
+        <v>-1.5</v>
       </c>
       <c r="C230">
         <v>0.7</v>
@@ -4763,7 +5436,7 @@
         <v>62.636000000000003</v>
       </c>
       <c r="B231">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C231">
         <v>0.7</v>
@@ -4777,7 +5450,7 @@
         <v>62.835999999999999</v>
       </c>
       <c r="B232">
-        <v>-0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C232">
         <v>0.7</v>
@@ -4858,7 +5531,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>64.23599999999999</v>
+        <v>64.236000000000004</v>
       </c>
       <c r="B238">
         <v>-0.8</v>
@@ -4900,7 +5573,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>64.836000000000013</v>
+        <v>64.835999999999999</v>
       </c>
       <c r="B241">
         <v>1.2</v>
@@ -4984,7 +5657,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>65.836000000000013</v>
+        <v>65.835999999999999</v>
       </c>
       <c r="B247">
         <v>0.5</v>
@@ -5012,7 +5685,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>66.336000000000013</v>
+        <v>66.335999999999999</v>
       </c>
       <c r="B249">
         <v>-0.2</v>
@@ -5057,7 +5730,7 @@
         <v>66.835999999999999</v>
       </c>
       <c r="B252">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="C252">
         <v>0.7</v>
@@ -5085,7 +5758,7 @@
         <v>67.236000000000004</v>
       </c>
       <c r="B254">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C254">
         <v>0.7</v>
@@ -5222,7 +5895,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>68.535999999999902</v>
+        <v>68.536000000000001</v>
       </c>
       <c r="B264">
         <v>-1</v>
@@ -5236,7 +5909,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>68.635999999999896</v>
+        <v>68.635999999999996</v>
       </c>
       <c r="B265">
         <v>0.7</v>
@@ -5250,7 +5923,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>68.735999999999905</v>
+        <v>68.736000000000004</v>
       </c>
       <c r="B266">
         <v>-0.3</v>
@@ -5264,7 +5937,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>68.835999999999899</v>
+        <v>68.835999999999999</v>
       </c>
       <c r="B267">
         <v>-1.25</v>
@@ -5278,7 +5951,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>68.935999999999893</v>
+        <v>68.936000000000007</v>
       </c>
       <c r="B268">
         <v>0.8</v>
@@ -5292,7 +5965,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>69.035999999999902</v>
+        <v>69.036000000000001</v>
       </c>
       <c r="B269">
         <v>-0.8</v>
@@ -5306,7 +5979,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>69.135999999999896</v>
+        <v>69.135999999999996</v>
       </c>
       <c r="B270">
         <v>0.2</v>
@@ -5320,7 +5993,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>69.235999999999905</v>
+        <v>69.236000000000004</v>
       </c>
       <c r="B271">
         <v>1.2</v>
@@ -5334,7 +6007,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>69.335999999999899</v>
+        <v>69.335999999999999</v>
       </c>
       <c r="B272">
         <v>-0.6</v>
@@ -5348,7 +6021,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>69.435999999999893</v>
+        <v>69.436000000000007</v>
       </c>
       <c r="B273">
         <v>0.9</v>
@@ -5362,7 +6035,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>69.535999999999902</v>
+        <v>69.536000000000001</v>
       </c>
       <c r="B274">
         <v>-0.1</v>
@@ -5376,7 +6049,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>69.635999999999896</v>
+        <v>69.635999999999996</v>
       </c>
       <c r="B275">
         <v>-1.1499999999999999</v>
@@ -5390,7 +6063,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>69.735999999999805</v>
+        <v>69.736000000000004</v>
       </c>
       <c r="B276">
         <v>0.4</v>
@@ -5404,7 +6077,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>69.8359999999998</v>
+        <v>69.835999999999999</v>
       </c>
       <c r="B277">
         <v>-1</v>
@@ -5418,7 +6091,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>69.935999999999794</v>
+        <v>69.936000000000007</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -5432,7 +6105,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>70.035999999999802</v>
+        <v>70.036000000000001</v>
       </c>
       <c r="B279">
         <v>1.1000000000000001</v>
@@ -5446,7 +6119,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>70.135999999999797</v>
+        <v>70.135999999999996</v>
       </c>
       <c r="B280">
         <v>-0.2</v>
@@ -5460,7 +6133,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>70.235999999999805</v>
+        <v>70.236000000000004</v>
       </c>
       <c r="B281">
         <v>1.1000000000000001</v>
@@ -5474,7 +6147,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>70.3359999999998</v>
+        <v>70.335999999999999</v>
       </c>
       <c r="B282">
         <v>0.1</v>
@@ -5488,7 +6161,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>70.435999999999794</v>
+        <v>70.436000000000007</v>
       </c>
       <c r="B283">
         <v>-1.05</v>
@@ -5502,7 +6175,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>70.535999999999802</v>
+        <v>70.536000000000001</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -5516,7 +6189,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>70.635999999999797</v>
+        <v>70.635999999999996</v>
       </c>
       <c r="B285">
         <v>-1.2</v>
@@ -5530,7 +6203,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>70.735999999999706</v>
+        <v>70.736000000000004</v>
       </c>
       <c r="B286">
         <v>0.2</v>
@@ -5652,6 +6325,692 @@
       </c>
       <c r="D294">
         <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>74.436000000000007</v>
+      </c>
+      <c r="B295">
+        <v>-0.2</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>74.536000000000001</v>
+      </c>
+      <c r="B296">
+        <v>-0.2</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>74.635999999999996</v>
+      </c>
+      <c r="B297">
+        <v>-1.2</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>74.736000000000004</v>
+      </c>
+      <c r="B298">
+        <v>-1.2</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>75.036000000000001</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>75.335999999999999</v>
+      </c>
+      <c r="B300">
+        <v>-1</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>75.835999999999999</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>76.135999999999996</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>76.835999999999999</v>
+      </c>
+      <c r="B303">
+        <v>1.2</v>
+      </c>
+      <c r="C303">
+        <v>1.6</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>77.635999999999996</v>
+      </c>
+      <c r="B304">
+        <v>-1.2</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>77.736000000000004</v>
+      </c>
+      <c r="B305">
+        <v>-1.2</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>77.835999999999999</v>
+      </c>
+      <c r="B306">
+        <v>1.2</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>77.936000000000007</v>
+      </c>
+      <c r="B307">
+        <v>1.2</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>78.236000000000004</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>78.536000000000001</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>79.036000000000001</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>79.335999999999999</v>
+      </c>
+      <c r="B311">
+        <v>-1</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>79.635999999999996</v>
+      </c>
+      <c r="B312">
+        <v>-1.2</v>
+      </c>
+      <c r="C312">
+        <v>0.8</v>
+      </c>
+      <c r="D312">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>79.736000000000004</v>
+      </c>
+      <c r="B313">
+        <v>0.6</v>
+      </c>
+      <c r="C313">
+        <v>0.8</v>
+      </c>
+      <c r="D313">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>79.835999999999999</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>0.8</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>79.936000000000007</v>
+      </c>
+      <c r="B315">
+        <v>-0.6</v>
+      </c>
+      <c r="C315">
+        <v>0.8</v>
+      </c>
+      <c r="D315">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>80.036000000000001</v>
+      </c>
+      <c r="B316">
+        <v>-1.2</v>
+      </c>
+      <c r="C316">
+        <v>0.8</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>80.135999999999996</v>
+      </c>
+      <c r="B317">
+        <v>1.2</v>
+      </c>
+      <c r="C317">
+        <v>0.8</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>80.236000000000004</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>0.8</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>80.335999999999999</v>
+      </c>
+      <c r="B319">
+        <v>-0.1</v>
+      </c>
+      <c r="C319">
+        <v>0.8</v>
+      </c>
+      <c r="D319">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>80.835999999999999</v>
+      </c>
+      <c r="B320">
+        <v>-0.2</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>80.936000000000007</v>
+      </c>
+      <c r="B321">
+        <v>-0.2</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>81.036000000000001</v>
+      </c>
+      <c r="B322">
+        <v>1.2</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>81.135999999999996</v>
+      </c>
+      <c r="B323">
+        <v>1.2</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>81.436000000000007</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>81.736000000000004</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>82.236000000000004</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>82.536000000000001</v>
+      </c>
+      <c r="B327">
+        <v>-1</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>83.236000000000004</v>
+      </c>
+      <c r="B328">
+        <v>-1.2</v>
+      </c>
+      <c r="C328">
+        <v>1.6</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>84.036000000000001</v>
+      </c>
+      <c r="B329">
+        <v>1.2</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>84.135999999999996</v>
+      </c>
+      <c r="B330">
+        <v>1.2</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>84.236000000000004</v>
+      </c>
+      <c r="B331">
+        <v>-1.2</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>84.335999999999999</v>
+      </c>
+      <c r="B332">
+        <v>-1.2</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>84.635999999999996</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>84.936000000000007</v>
+      </c>
+      <c r="B334">
+        <v>-1</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>85.236000000000004</v>
+      </c>
+      <c r="B335">
+        <v>-0.7</v>
+      </c>
+      <c r="C335">
+        <v>0.8</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>85.335999999999999</v>
+      </c>
+      <c r="B336">
+        <v>0.2</v>
+      </c>
+      <c r="C336">
+        <v>0.8</v>
+      </c>
+      <c r="D336">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>85.436000000000007</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>0.8</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>85.536000000000001</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>0.8</v>
+      </c>
+      <c r="D338">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>85.635999999999996</v>
+      </c>
+      <c r="B339">
+        <v>-0.7</v>
+      </c>
+      <c r="C339">
+        <v>0.8</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>85.736000000000004</v>
+      </c>
+      <c r="B340">
+        <v>1.6</v>
+      </c>
+      <c r="C340">
+        <v>0.8</v>
+      </c>
+      <c r="D340">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>85.835999999999999</v>
+      </c>
+      <c r="B341">
+        <v>-1.25</v>
+      </c>
+      <c r="C341">
+        <v>1.5</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>85.936000000000007</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>1.5</v>
+      </c>
+      <c r="D342">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>86.036000000000001</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>1.5</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5663,10 +7022,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5775,7 +7134,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3.6360000000000015</v>
+        <v>3.6360000000000001</v>
       </c>
       <c r="D4">
         <v>-1.8</v>
@@ -5784,7 +7143,7 @@
         <v>-1.2</v>
       </c>
       <c r="F4">
-        <v>3.7990000000000008</v>
+        <v>3.7989999999999999</v>
       </c>
       <c r="G4">
         <v>-1.8</v>
@@ -5807,7 +7166,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3.6360000000000015</v>
+        <v>3.6360000000000001</v>
       </c>
       <c r="D5">
         <v>1.2</v>
@@ -5816,7 +7175,7 @@
         <v>1.8</v>
       </c>
       <c r="F5">
-        <v>3.7990000000000008</v>
+        <v>3.7989999999999999</v>
       </c>
       <c r="G5">
         <v>1.2</v>
@@ -5976,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.7059999999999995</v>
+        <v>4.7060000000000004</v>
       </c>
       <c r="G10">
         <v>-0.6</v>
@@ -6008,7 +7367,7 @@
         <v>1.8</v>
       </c>
       <c r="F11">
-        <v>4.7059999999999995</v>
+        <v>4.7060000000000004</v>
       </c>
       <c r="G11">
         <v>1.2</v>
@@ -6040,7 +7399,7 @@
         <v>-1.2</v>
       </c>
       <c r="F12">
-        <v>5.0219999999999994</v>
+        <v>5.0220000000000002</v>
       </c>
       <c r="G12">
         <v>-1.8</v>
@@ -6072,7 +7431,7 @@
         <v>1.8</v>
       </c>
       <c r="F13">
-        <v>5.0219999999999994</v>
+        <v>5.0220000000000002</v>
       </c>
       <c r="G13">
         <v>1.2</v>
@@ -6209,10 +7568,10 @@
         <v>-1</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -6337,10 +7696,10 @@
         <v>1.6</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -6447,7 +7806,7 @@
         <v>17</v>
       </c>
       <c r="C25">
-        <v>25.036000000000044</v>
+        <v>25.036000000000001</v>
       </c>
       <c r="D25">
         <v>-2</v>
@@ -6456,7 +7815,7 @@
         <v>-1</v>
       </c>
       <c r="F25">
-        <v>25.43600000000005</v>
+        <v>25.436</v>
       </c>
       <c r="G25">
         <v>-2</v>
@@ -6657,10 +8016,10 @@
         <v>0.5</v>
       </c>
       <c r="I31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -6849,10 +8208,10 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -6881,10 +8240,10 @@
         <v>-1.2</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -6913,10 +8272,10 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -6945,10 +8304,10 @@
         <v>-1.2</v>
       </c>
       <c r="I40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -6977,10 +8336,10 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -7009,10 +8368,10 @@
         <v>-1.2</v>
       </c>
       <c r="I42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -7416,7 +8775,7 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <v>55.035999999999994</v>
+        <v>55.036000000000001</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -7448,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>56.035999999999994</v>
+        <v>56.036000000000001</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -7471,7 +8830,7 @@
         <v>45</v>
       </c>
       <c r="C57">
-        <v>56.035999999999994</v>
+        <v>56.036000000000001</v>
       </c>
       <c r="D57">
         <v>-2</v>
@@ -7544,7 +8903,7 @@
         <v>-1</v>
       </c>
       <c r="F59">
-        <v>56.635999999999996</v>
+        <v>56.636000000000003</v>
       </c>
       <c r="G59">
         <v>-1</v>
@@ -7576,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>57.635999999999996</v>
+        <v>57.636000000000003</v>
       </c>
       <c r="G60">
         <v>-2</v>
@@ -7599,7 +8958,7 @@
         <v>49</v>
       </c>
       <c r="C61">
-        <v>57.635999999999996</v>
+        <v>57.636000000000003</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -7640,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>58.035999999999994</v>
+        <v>58.036000000000001</v>
       </c>
       <c r="G62">
         <v>-2</v>
@@ -7663,7 +9022,7 @@
         <v>51</v>
       </c>
       <c r="C63">
-        <v>58.035999999999994</v>
+        <v>58.036000000000001</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -8005,6 +9364,1030 @@
       </c>
       <c r="J73" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>62</v>
+      </c>
+      <c r="C74">
+        <v>74.036000000000001</v>
+      </c>
+      <c r="D74">
+        <v>-0.2</v>
+      </c>
+      <c r="E74">
+        <v>1.8</v>
+      </c>
+      <c r="F74">
+        <v>74.186000000000007</v>
+      </c>
+      <c r="G74">
+        <v>-1</v>
+      </c>
+      <c r="H74">
+        <v>-0.2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>25</v>
+      </c>
+      <c r="J74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>62</v>
+      </c>
+      <c r="C75">
+        <v>74.186000000000007</v>
+      </c>
+      <c r="D75">
+        <v>-1</v>
+      </c>
+      <c r="E75">
+        <v>-0.2</v>
+      </c>
+      <c r="F75">
+        <v>74.335999999999999</v>
+      </c>
+      <c r="G75">
+        <v>-1</v>
+      </c>
+      <c r="H75">
+        <v>-0.2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>63</v>
+      </c>
+      <c r="C76">
+        <v>74.036000000000001</v>
+      </c>
+      <c r="D76">
+        <v>-1.2</v>
+      </c>
+      <c r="E76">
+        <v>0.8</v>
+      </c>
+      <c r="F76">
+        <v>74.186000000000007</v>
+      </c>
+      <c r="G76">
+        <v>-2</v>
+      </c>
+      <c r="H76">
+        <v>-1.2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>17</v>
+      </c>
+      <c r="B77">
+        <v>63</v>
+      </c>
+      <c r="C77">
+        <v>74.186000000000007</v>
+      </c>
+      <c r="D77">
+        <v>-2</v>
+      </c>
+      <c r="E77">
+        <v>-1.2</v>
+      </c>
+      <c r="F77">
+        <v>74.536000000000001</v>
+      </c>
+      <c r="G77">
+        <v>-2</v>
+      </c>
+      <c r="H77">
+        <v>-1.2</v>
+      </c>
+      <c r="I77" t="s">
+        <v>25</v>
+      </c>
+      <c r="J77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>17</v>
+      </c>
+      <c r="B78">
+        <v>64</v>
+      </c>
+      <c r="C78">
+        <v>74.835999999999999</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>75.036000000000001</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>25</v>
+      </c>
+      <c r="J78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>65</v>
+      </c>
+      <c r="C79">
+        <v>75.135999999999996</v>
+      </c>
+      <c r="D79">
+        <v>0.25</v>
+      </c>
+      <c r="E79">
+        <v>1.25</v>
+      </c>
+      <c r="F79">
+        <v>75.335999999999999</v>
+      </c>
+      <c r="G79">
+        <v>0.25</v>
+      </c>
+      <c r="H79">
+        <v>1.25</v>
+      </c>
+      <c r="I79" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>17</v>
+      </c>
+      <c r="B80">
+        <v>66</v>
+      </c>
+      <c r="C80">
+        <v>75.436000000000007</v>
+      </c>
+      <c r="D80">
+        <v>-0.5</v>
+      </c>
+      <c r="E80">
+        <v>0.5</v>
+      </c>
+      <c r="F80">
+        <v>75.635999999999996</v>
+      </c>
+      <c r="G80">
+        <v>-0.5</v>
+      </c>
+      <c r="H80">
+        <v>0.5</v>
+      </c>
+      <c r="I80" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>17</v>
+      </c>
+      <c r="B81">
+        <v>67</v>
+      </c>
+      <c r="C81">
+        <v>75.635999999999996</v>
+      </c>
+      <c r="D81">
+        <v>-2</v>
+      </c>
+      <c r="E81">
+        <v>-1</v>
+      </c>
+      <c r="F81">
+        <v>75.835999999999999</v>
+      </c>
+      <c r="G81">
+        <v>-2</v>
+      </c>
+      <c r="H81">
+        <v>-1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>68</v>
+      </c>
+      <c r="C82">
+        <v>75.936000000000007</v>
+      </c>
+      <c r="D82">
+        <v>-1.25</v>
+      </c>
+      <c r="E82">
+        <v>-0.25</v>
+      </c>
+      <c r="F82">
+        <v>76.135999999999996</v>
+      </c>
+      <c r="G82">
+        <v>-1.25</v>
+      </c>
+      <c r="H82">
+        <v>-0.25</v>
+      </c>
+      <c r="I82" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>17</v>
+      </c>
+      <c r="B83">
+        <v>69</v>
+      </c>
+      <c r="C83">
+        <v>76.236000000000004</v>
+      </c>
+      <c r="D83">
+        <v>-0.5</v>
+      </c>
+      <c r="E83">
+        <v>0.5</v>
+      </c>
+      <c r="F83">
+        <v>76.436000000000007</v>
+      </c>
+      <c r="G83">
+        <v>-0.5</v>
+      </c>
+      <c r="H83">
+        <v>0.5</v>
+      </c>
+      <c r="I83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>17</v>
+      </c>
+      <c r="B84">
+        <v>70</v>
+      </c>
+      <c r="C84">
+        <v>78.036000000000001</v>
+      </c>
+      <c r="D84">
+        <v>-2</v>
+      </c>
+      <c r="E84">
+        <v>-1</v>
+      </c>
+      <c r="F84">
+        <v>78.236000000000004</v>
+      </c>
+      <c r="G84">
+        <v>-2</v>
+      </c>
+      <c r="H84">
+        <v>-1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>25</v>
+      </c>
+      <c r="J84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>71</v>
+      </c>
+      <c r="C85">
+        <v>78.335999999999999</v>
+      </c>
+      <c r="D85">
+        <v>-1.25</v>
+      </c>
+      <c r="E85">
+        <v>-0.25</v>
+      </c>
+      <c r="F85">
+        <v>78.536000000000001</v>
+      </c>
+      <c r="G85">
+        <v>-1.25</v>
+      </c>
+      <c r="H85">
+        <v>-0.25</v>
+      </c>
+      <c r="I85" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>17</v>
+      </c>
+      <c r="B86">
+        <v>72</v>
+      </c>
+      <c r="C86">
+        <v>78.635999999999996</v>
+      </c>
+      <c r="D86">
+        <v>-0.5</v>
+      </c>
+      <c r="E86">
+        <v>0.5</v>
+      </c>
+      <c r="F86">
+        <v>78.835999999999999</v>
+      </c>
+      <c r="G86">
+        <v>-0.5</v>
+      </c>
+      <c r="H86">
+        <v>0.5</v>
+      </c>
+      <c r="I86" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>17</v>
+      </c>
+      <c r="B87">
+        <v>73</v>
+      </c>
+      <c r="C87">
+        <v>78.835999999999999</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>79.036000000000001</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>74</v>
+      </c>
+      <c r="C88">
+        <v>79.135999999999996</v>
+      </c>
+      <c r="D88">
+        <v>0.25</v>
+      </c>
+      <c r="E88">
+        <v>1.25</v>
+      </c>
+      <c r="F88">
+        <v>79.335999999999999</v>
+      </c>
+      <c r="G88">
+        <v>0.25</v>
+      </c>
+      <c r="H88">
+        <v>1.25</v>
+      </c>
+      <c r="I88" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>17</v>
+      </c>
+      <c r="B89">
+        <v>75</v>
+      </c>
+      <c r="C89">
+        <v>79.436000000000007</v>
+      </c>
+      <c r="D89">
+        <v>-0.5</v>
+      </c>
+      <c r="E89">
+        <v>0.5</v>
+      </c>
+      <c r="F89">
+        <v>79.635999999999996</v>
+      </c>
+      <c r="G89">
+        <v>-0.5</v>
+      </c>
+      <c r="H89">
+        <v>0.5</v>
+      </c>
+      <c r="I89" t="s">
+        <v>25</v>
+      </c>
+      <c r="J89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>76</v>
+      </c>
+      <c r="C90">
+        <v>80.436000000000007</v>
+      </c>
+      <c r="D90">
+        <v>-1.8</v>
+      </c>
+      <c r="E90">
+        <v>0.2</v>
+      </c>
+      <c r="F90">
+        <v>80.585999999999999</v>
+      </c>
+      <c r="G90">
+        <v>0.2</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>25</v>
+      </c>
+      <c r="J90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>76</v>
+      </c>
+      <c r="C91">
+        <v>80.585999999999999</v>
+      </c>
+      <c r="D91">
+        <v>0.2</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>80.736000000000004</v>
+      </c>
+      <c r="G91">
+        <v>0.2</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>25</v>
+      </c>
+      <c r="J91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>17</v>
+      </c>
+      <c r="B92">
+        <v>77</v>
+      </c>
+      <c r="C92">
+        <v>80.436000000000007</v>
+      </c>
+      <c r="D92">
+        <v>-0.8</v>
+      </c>
+      <c r="E92">
+        <v>1.2</v>
+      </c>
+      <c r="F92">
+        <v>80.585999999999999</v>
+      </c>
+      <c r="G92">
+        <v>1.2</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92" t="s">
+        <v>25</v>
+      </c>
+      <c r="J92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>17</v>
+      </c>
+      <c r="B93">
+        <v>77</v>
+      </c>
+      <c r="C93">
+        <v>80.585999999999999</v>
+      </c>
+      <c r="D93">
+        <v>1.2</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>80.936000000000007</v>
+      </c>
+      <c r="G93">
+        <v>1.2</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93" t="s">
+        <v>25</v>
+      </c>
+      <c r="J93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94">
+        <v>78</v>
+      </c>
+      <c r="C94">
+        <v>81.236000000000004</v>
+      </c>
+      <c r="D94">
+        <v>-2</v>
+      </c>
+      <c r="E94">
+        <v>-1</v>
+      </c>
+      <c r="F94">
+        <v>81.436000000000007</v>
+      </c>
+      <c r="G94">
+        <v>-2</v>
+      </c>
+      <c r="H94">
+        <v>-1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>25</v>
+      </c>
+      <c r="J94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>79</v>
+      </c>
+      <c r="C95">
+        <v>81.536000000000001</v>
+      </c>
+      <c r="D95">
+        <v>-1.25</v>
+      </c>
+      <c r="E95">
+        <v>-0.25</v>
+      </c>
+      <c r="F95">
+        <v>81.736000000000004</v>
+      </c>
+      <c r="G95">
+        <v>-1.25</v>
+      </c>
+      <c r="H95">
+        <v>-0.25</v>
+      </c>
+      <c r="I95" t="s">
+        <v>25</v>
+      </c>
+      <c r="J95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>17</v>
+      </c>
+      <c r="B96">
+        <v>80</v>
+      </c>
+      <c r="C96">
+        <v>81.835999999999999</v>
+      </c>
+      <c r="D96">
+        <v>-0.5</v>
+      </c>
+      <c r="E96">
+        <v>0.5</v>
+      </c>
+      <c r="F96">
+        <v>82.036000000000001</v>
+      </c>
+      <c r="G96">
+        <v>-0.5</v>
+      </c>
+      <c r="H96">
+        <v>0.5</v>
+      </c>
+      <c r="I96" t="s">
+        <v>25</v>
+      </c>
+      <c r="J96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>17</v>
+      </c>
+      <c r="B97">
+        <v>81</v>
+      </c>
+      <c r="C97">
+        <v>82.036000000000001</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>82.236000000000004</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>25</v>
+      </c>
+      <c r="J97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>82</v>
+      </c>
+      <c r="C98">
+        <v>82.335999999999999</v>
+      </c>
+      <c r="D98">
+        <v>0.25</v>
+      </c>
+      <c r="E98">
+        <v>1.25</v>
+      </c>
+      <c r="F98">
+        <v>82.536000000000001</v>
+      </c>
+      <c r="G98">
+        <v>0.25</v>
+      </c>
+      <c r="H98">
+        <v>1.25</v>
+      </c>
+      <c r="I98" t="s">
+        <v>25</v>
+      </c>
+      <c r="J98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>17</v>
+      </c>
+      <c r="B99">
+        <v>83</v>
+      </c>
+      <c r="C99">
+        <v>82.635999999999996</v>
+      </c>
+      <c r="D99">
+        <v>-0.5</v>
+      </c>
+      <c r="E99">
+        <v>0.5</v>
+      </c>
+      <c r="F99">
+        <v>82.835999999999999</v>
+      </c>
+      <c r="G99">
+        <v>-0.5</v>
+      </c>
+      <c r="H99">
+        <v>0.5</v>
+      </c>
+      <c r="I99" t="s">
+        <v>25</v>
+      </c>
+      <c r="J99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>17</v>
+      </c>
+      <c r="B100">
+        <v>84</v>
+      </c>
+      <c r="C100">
+        <v>84.436000000000007</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>84.635999999999996</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>25</v>
+      </c>
+      <c r="J100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>85</v>
+      </c>
+      <c r="C101">
+        <v>84.736000000000004</v>
+      </c>
+      <c r="D101">
+        <v>0.25</v>
+      </c>
+      <c r="E101">
+        <v>1.25</v>
+      </c>
+      <c r="F101">
+        <v>84.936000000000007</v>
+      </c>
+      <c r="G101">
+        <v>0.25</v>
+      </c>
+      <c r="H101">
+        <v>1.25</v>
+      </c>
+      <c r="I101" t="s">
+        <v>25</v>
+      </c>
+      <c r="J101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>17</v>
+      </c>
+      <c r="B102">
+        <v>86</v>
+      </c>
+      <c r="C102">
+        <v>85.036000000000001</v>
+      </c>
+      <c r="D102">
+        <v>-0.5</v>
+      </c>
+      <c r="E102">
+        <v>0.5</v>
+      </c>
+      <c r="F102">
+        <v>85.236000000000004</v>
+      </c>
+      <c r="G102">
+        <v>-0.5</v>
+      </c>
+      <c r="H102">
+        <v>0.5</v>
+      </c>
+      <c r="I102" t="s">
+        <v>25</v>
+      </c>
+      <c r="J102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>17</v>
+      </c>
+      <c r="B103">
+        <v>87</v>
+      </c>
+      <c r="C103">
+        <v>86.036000000000001</v>
+      </c>
+      <c r="D103">
+        <v>-2</v>
+      </c>
+      <c r="E103">
+        <v>-1</v>
+      </c>
+      <c r="F103">
+        <v>86.436000000000007</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103" t="s">
+        <v>31</v>
+      </c>
+      <c r="J103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>17</v>
+      </c>
+      <c r="B104">
+        <v>87</v>
+      </c>
+      <c r="C104">
+        <v>86.436000000000007</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>86.835999999999999</v>
+      </c>
+      <c r="G104">
+        <v>-2</v>
+      </c>
+      <c r="H104">
+        <v>-1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>24</v>
+      </c>
+      <c r="J104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>88</v>
+      </c>
+      <c r="C105">
+        <v>86.436000000000007</v>
+      </c>
+      <c r="D105">
+        <v>-2</v>
+      </c>
+      <c r="E105">
+        <v>-1</v>
+      </c>
+      <c r="F105">
+        <v>86.835999999999999</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105" t="s">
+        <v>24</v>
+      </c>
+      <c r="J105" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -8016,10 +10399,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76DC57-EF49-44CE-8A21-D4353938F627}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8110,7 +10493,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>3.3026666666666671</v>
+        <v>3.3029999999999999</v>
       </c>
       <c r="B7">
         <v>-0.9</v>
@@ -8124,7 +10507,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>3.369333333333334</v>
+        <v>3.3690000000000002</v>
       </c>
       <c r="B8">
         <v>-0.3</v>
@@ -8138,7 +10521,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>3.4360000000000008</v>
+        <v>3.4359999999999999</v>
       </c>
       <c r="B9">
         <v>0.3</v>
@@ -8152,7 +10535,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>3.5026666666666677</v>
+        <v>3.5030000000000001</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -8166,7 +10549,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>3.5693333333333346</v>
+        <v>3.569</v>
       </c>
       <c r="B11">
         <v>1.5</v>
@@ -8180,7 +10563,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9.636000000000001</v>
+        <v>9.6359999999999992</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8250,7 +10633,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>11.835999999999997</v>
+        <v>11.836</v>
       </c>
       <c r="B17">
         <v>1.3</v>
@@ -8278,7 +10661,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>15.035999999999985</v>
+        <v>15.036</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -8292,7 +10675,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>15.085999999999986</v>
+        <v>15.086</v>
       </c>
       <c r="B20">
         <v>-0.4</v>
@@ -8306,7 +10689,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>15.135999999999987</v>
+        <v>15.135999999999999</v>
       </c>
       <c r="B21">
         <v>-0.8</v>
@@ -8320,7 +10703,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>15.185999999999988</v>
+        <v>15.186</v>
       </c>
       <c r="B22">
         <v>-1.2</v>
@@ -8334,7 +10717,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>15.235999999999988</v>
+        <v>15.236000000000001</v>
       </c>
       <c r="B23">
         <v>-1.6</v>
@@ -8348,7 +10731,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>18.936000000000025</v>
+        <v>18.936</v>
       </c>
       <c r="B24">
         <v>1.5</v>
@@ -8376,7 +10759,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>19.036000000000026</v>
+        <v>19.036000000000001</v>
       </c>
       <c r="B26">
         <v>0.7</v>
@@ -8474,7 +10857,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>60.836000000000006</v>
+        <v>60.835999999999999</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8502,7 +10885,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>60.936000000000007</v>
+        <v>60.936</v>
       </c>
       <c r="B35">
         <v>1.2</v>
@@ -8530,7 +10913,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>60.936000000000007</v>
+        <v>60.936</v>
       </c>
       <c r="B37">
         <v>-1.2</v>
@@ -8547,7 +10930,7 @@
         <v>62.366</v>
       </c>
       <c r="B38">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="C38">
         <v>0.6</v>
@@ -8595,6 +10978,706 @@
         <v>0.6</v>
       </c>
       <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>76.436000000000007</v>
+      </c>
+      <c r="B42">
+        <v>1.6</v>
+      </c>
+      <c r="C42">
+        <v>0.8</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>76.486000000000004</v>
+      </c>
+      <c r="B43">
+        <v>1.25</v>
+      </c>
+      <c r="C43">
+        <v>0.9</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>76.536000000000001</v>
+      </c>
+      <c r="B44">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>76.585999999999999</v>
+      </c>
+      <c r="B45">
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="C45">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>76.635999999999996</v>
+      </c>
+      <c r="B46">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="C46">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="D46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>76.686000000000007</v>
+      </c>
+      <c r="B47">
+        <v>-0.14999999999999991</v>
+      </c>
+      <c r="C47">
+        <v>1.3</v>
+      </c>
+      <c r="D47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>76.736000000000004</v>
+      </c>
+      <c r="B48">
+        <v>-0.49999999999999956</v>
+      </c>
+      <c r="C48">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="D48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>76.786000000000001</v>
+      </c>
+      <c r="B49">
+        <v>-0.84999999999999964</v>
+      </c>
+      <c r="C49">
+        <v>1.5</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>76.835999999999999</v>
+      </c>
+      <c r="B50">
+        <v>-1.1999999999999997</v>
+      </c>
+      <c r="C50">
+        <v>1.6</v>
+      </c>
+      <c r="D50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>76.885999999999996</v>
+      </c>
+      <c r="B51">
+        <v>-0.84999999999999976</v>
+      </c>
+      <c r="C51">
+        <v>1.5</v>
+      </c>
+      <c r="D51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>76.936000000000007</v>
+      </c>
+      <c r="B52">
+        <v>-0.49999999999999978</v>
+      </c>
+      <c r="C52">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="D52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>76.986000000000004</v>
+      </c>
+      <c r="B53">
+        <v>-0.14999999999999991</v>
+      </c>
+      <c r="C53">
+        <v>1.3</v>
+      </c>
+      <c r="D53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>77.036000000000001</v>
+      </c>
+      <c r="B54">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="C54">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>77.085999999999999</v>
+      </c>
+      <c r="B55">
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="C55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>77.135999999999996</v>
+      </c>
+      <c r="B56">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>77.186000000000007</v>
+      </c>
+      <c r="B57">
+        <v>1.25</v>
+      </c>
+      <c r="C57">
+        <v>0.9</v>
+      </c>
+      <c r="D57">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="B58">
+        <v>1.6</v>
+      </c>
+      <c r="C58">
+        <v>0.8</v>
+      </c>
+      <c r="D58">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>76.885999999999996</v>
+      </c>
+      <c r="B59">
+        <v>0.85</v>
+      </c>
+      <c r="C59">
+        <v>1.5</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>76.936000000000007</v>
+      </c>
+      <c r="B60">
+        <v>0.5</v>
+      </c>
+      <c r="C60">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>76.986000000000004</v>
+      </c>
+      <c r="B61">
+        <v>0.15000000000000013</v>
+      </c>
+      <c r="C61">
+        <v>1.3</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>77.036000000000001</v>
+      </c>
+      <c r="B62">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="C62">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>77.085999999999999</v>
+      </c>
+      <c r="B63">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>77.135999999999996</v>
+      </c>
+      <c r="B64">
+        <v>-0.89999999999999969</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>77.186000000000007</v>
+      </c>
+      <c r="B65">
+        <v>-1.2499999999999998</v>
+      </c>
+      <c r="C65">
+        <v>0.9</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="B66">
+        <v>-1.5999999999999999</v>
+      </c>
+      <c r="C66">
+        <v>0.8</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>82.835999999999999</v>
+      </c>
+      <c r="B67">
+        <v>-1.6</v>
+      </c>
+      <c r="C67">
+        <v>0.8</v>
+      </c>
+      <c r="D67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>82.885999999999996</v>
+      </c>
+      <c r="B68">
+        <v>-1.25</v>
+      </c>
+      <c r="C68">
+        <v>0.9</v>
+      </c>
+      <c r="D68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>82.936000000000007</v>
+      </c>
+      <c r="B69">
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>82.986000000000004</v>
+      </c>
+      <c r="B70">
+        <v>-0.55000000000000027</v>
+      </c>
+      <c r="C70">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D70">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>83.036000000000001</v>
+      </c>
+      <c r="B71">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="C71">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="D71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>83.085999999999999</v>
+      </c>
+      <c r="B72">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="C72">
+        <v>1.3</v>
+      </c>
+      <c r="D72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>83.135999999999996</v>
+      </c>
+      <c r="B73">
+        <v>0.49999999999999956</v>
+      </c>
+      <c r="C73">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="D73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>83.186000000000007</v>
+      </c>
+      <c r="B74">
+        <v>0.84999999999999964</v>
+      </c>
+      <c r="C74">
+        <v>1.5</v>
+      </c>
+      <c r="D74">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>83.236000000000004</v>
+      </c>
+      <c r="B75">
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="C75">
+        <v>1.6</v>
+      </c>
+      <c r="D75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>83.286000000000001</v>
+      </c>
+      <c r="B76">
+        <v>0.84999999999999976</v>
+      </c>
+      <c r="C76">
+        <v>1.5</v>
+      </c>
+      <c r="D76">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>83.335999999999999</v>
+      </c>
+      <c r="B77">
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="C77">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="D77">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>83.385999999999996</v>
+      </c>
+      <c r="B78">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="C78">
+        <v>1.3</v>
+      </c>
+      <c r="D78">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>83.436000000000007</v>
+      </c>
+      <c r="B79">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="C79">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="D79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>83.486000000000004</v>
+      </c>
+      <c r="B80">
+        <v>-0.55000000000000027</v>
+      </c>
+      <c r="C80">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D80">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>83.536000000000001</v>
+      </c>
+      <c r="B81">
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>83.585999999999999</v>
+      </c>
+      <c r="B82">
+        <v>-1.25</v>
+      </c>
+      <c r="C82">
+        <v>0.9</v>
+      </c>
+      <c r="D82">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>83.635999999999996</v>
+      </c>
+      <c r="B83">
+        <v>-1.6</v>
+      </c>
+      <c r="C83">
+        <v>0.8</v>
+      </c>
+      <c r="D83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83.286000000000001</v>
+      </c>
+      <c r="B84">
+        <v>-0.85</v>
+      </c>
+      <c r="C84">
+        <v>1.5</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83.335999999999999</v>
+      </c>
+      <c r="B85">
+        <v>-0.5</v>
+      </c>
+      <c r="C85">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>83.385999999999996</v>
+      </c>
+      <c r="B86">
+        <v>-0.15000000000000013</v>
+      </c>
+      <c r="C86">
+        <v>1.3</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>83.436000000000007</v>
+      </c>
+      <c r="B87">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="C87">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>83.486000000000004</v>
+      </c>
+      <c r="B88">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C88">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>83.536000000000001</v>
+      </c>
+      <c r="B89">
+        <v>0.89999999999999969</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>83.585999999999999</v>
+      </c>
+      <c r="B90">
+        <v>1.2499999999999998</v>
+      </c>
+      <c r="C90">
+        <v>0.9</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>83.635999999999996</v>
+      </c>
+      <c r="B91">
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="C91">
+        <v>0.8</v>
+      </c>
+      <c r="D91">
         <v>1</v>
       </c>
     </row>
@@ -8609,8 +11692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F96158-71D4-4C19-99F5-47E7932AF572}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9204,7 +12287,7 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -9221,7 +12304,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -9238,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -9255,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -9272,7 +12355,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -9289,7 +12372,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -9306,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -9323,7 +12406,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -9340,7 +12423,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -9357,7 +12440,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -9920,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -9952,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -9984,7 +13067,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -10016,7 +13099,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -10048,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -10144,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -10176,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -10496,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -10528,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -10624,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -10656,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -10720,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -10752,7 +13835,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -10784,7 +13867,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -10816,7 +13899,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -10848,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -10880,7 +13963,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xenody-master\Assets\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D1873A-408A-45EC-97A8-C2A9CC795522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AD529D-F14D-476E-A01A-D499FBA916EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="planes" sheetId="1" r:id="rId1"/>
@@ -21,26 +21,20 @@
     <sheet name="stars" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">stars!$O$52:$O$54</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,14 +208,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,10 +530,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA789EFB-BCA3-4FCA-98D4-565CD71AE543}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K146" sqref="K146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3038,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>10000</v>
+        <v>123.652</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -3098,12 +3089,492 @@
         <v>0</v>
       </c>
       <c r="D128">
+        <v>137.636</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>17</v>
+      </c>
+      <c r="B129">
+        <v>123.652</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>125.152</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>17</v>
+      </c>
+      <c r="B130">
+        <v>125.152</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>125.97199999999999</v>
+      </c>
+      <c r="E130">
+        <v>1.5</v>
+      </c>
+      <c r="F130" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>17</v>
+      </c>
+      <c r="B131">
+        <v>125.97199999999999</v>
+      </c>
+      <c r="C131">
+        <v>1.5</v>
+      </c>
+      <c r="D131">
+        <v>128.447</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>18</v>
+      </c>
+      <c r="B132">
+        <v>125.152</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>125.97199999999999</v>
+      </c>
+      <c r="E132">
+        <v>0.75</v>
+      </c>
+      <c r="F132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>18</v>
+      </c>
+      <c r="B133">
+        <v>125.97199999999999</v>
+      </c>
+      <c r="C133">
+        <v>0.75</v>
+      </c>
+      <c r="D133">
+        <v>128.447</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>17</v>
+      </c>
+      <c r="B134">
+        <v>128.447</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>129.267</v>
+      </c>
+      <c r="E134">
+        <v>1.2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>17</v>
+      </c>
+      <c r="B135">
+        <v>129.267</v>
+      </c>
+      <c r="C135">
+        <v>1.2</v>
+      </c>
+      <c r="D135">
+        <v>131.637</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>18</v>
+      </c>
+      <c r="B136">
+        <v>128.447</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>129.267</v>
+      </c>
+      <c r="E136">
+        <v>0.6</v>
+      </c>
+      <c r="F136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>18</v>
+      </c>
+      <c r="B137">
+        <v>129.267</v>
+      </c>
+      <c r="C137">
+        <v>0.6</v>
+      </c>
+      <c r="D137">
+        <v>131.637</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>17</v>
+      </c>
+      <c r="B138">
+        <v>131.637</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>132.45699999999999</v>
+      </c>
+      <c r="E138">
+        <v>1.2</v>
+      </c>
+      <c r="F138" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>17</v>
+      </c>
+      <c r="B139">
+        <v>132.45699999999999</v>
+      </c>
+      <c r="C139">
+        <v>1.2</v>
+      </c>
+      <c r="D139">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>18</v>
+      </c>
+      <c r="B140">
+        <v>131.637</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>132.45699999999999</v>
+      </c>
+      <c r="E140">
+        <v>0.6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>18</v>
+      </c>
+      <c r="B141">
+        <v>132.45699999999999</v>
+      </c>
+      <c r="C141">
+        <v>0.6</v>
+      </c>
+      <c r="D141">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>17</v>
+      </c>
+      <c r="B142">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>135.43600000000004</v>
+      </c>
+      <c r="E142">
+        <v>1.5</v>
+      </c>
+      <c r="F142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>17</v>
+      </c>
+      <c r="B143">
+        <v>135.43600000000004</v>
+      </c>
+      <c r="C143">
+        <v>1.5</v>
+      </c>
+      <c r="D143">
+        <v>136.03600000000006</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>17</v>
+      </c>
+      <c r="B144">
+        <v>136.03600000000006</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>141.23599999999999</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>137.636</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>138.036</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>138.036</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>138.23599999999999</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>138.23599999999999</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>138.636</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>138.636</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>141.23599999999999</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>17</v>
+      </c>
+      <c r="B149">
+        <v>141.23599999999999</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>141.636</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>141.23599999999999</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>141.636</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>17</v>
+      </c>
+      <c r="B151">
+        <v>141.636</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
         <v>10000</v>
       </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>141.636</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>10000</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3117,10 +3588,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="J467" sqref="J467"/>
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="F537" sqref="F537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6532,7 +7003,7 @@
         <v>65.135999999999996</v>
       </c>
       <c r="B244">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C244">
         <v>0.7</v>
@@ -6543,10 +7014,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>65.236000000000004</v>
+        <v>65.536000000000001</v>
       </c>
       <c r="B245">
-        <v>1.1000000000000001</v>
+        <v>-0.2</v>
       </c>
       <c r="C245">
         <v>0.7</v>
@@ -6557,10 +7028,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>65.536000000000001</v>
+        <v>65.835999999999999</v>
       </c>
       <c r="B246">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C246">
         <v>0.7</v>
@@ -6571,10 +7042,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>65.835999999999999</v>
+        <v>66.036000000000001</v>
       </c>
       <c r="B247">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C247">
         <v>0.7</v>
@@ -6585,10 +7056,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>66.036000000000001</v>
+        <v>66.335999999999999</v>
       </c>
       <c r="B248">
-        <v>1.5</v>
+        <v>-0.2</v>
       </c>
       <c r="C248">
         <v>0.7</v>
@@ -6599,10 +7070,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>66.335999999999999</v>
+        <v>66.635999999999996</v>
       </c>
       <c r="B249">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C249">
         <v>0.7</v>
@@ -6613,10 +7084,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>66.635999999999996</v>
+        <v>66.835999999999999</v>
       </c>
       <c r="B250">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C250">
         <v>0.7</v>
@@ -6630,7 +7101,7 @@
         <v>66.835999999999999</v>
       </c>
       <c r="B251">
-        <v>1.5</v>
+        <v>-0.2</v>
       </c>
       <c r="C251">
         <v>0.7</v>
@@ -6641,10 +7112,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>66.835999999999999</v>
+        <v>67.236000000000004</v>
       </c>
       <c r="B252">
-        <v>-0.2</v>
+        <v>-1.5</v>
       </c>
       <c r="C252">
         <v>0.7</v>
@@ -6658,7 +7129,7 @@
         <v>67.236000000000004</v>
       </c>
       <c r="B253">
-        <v>-1.5</v>
+        <v>0.2</v>
       </c>
       <c r="C253">
         <v>0.7</v>
@@ -6669,13 +7140,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>67.236000000000004</v>
+        <v>67.635999999999996</v>
       </c>
       <c r="B254">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="C254">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -6683,38 +7154,38 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>67.635999999999996</v>
+        <v>67.736000000000004</v>
       </c>
       <c r="B255">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="C255">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>67.736000000000004</v>
+        <v>67.835999999999999</v>
       </c>
       <c r="B256">
-        <v>-1.4</v>
+        <v>0.5</v>
       </c>
       <c r="C256">
         <v>0.7</v>
       </c>
       <c r="D256">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>67.835999999999999</v>
+        <v>67.936000000000007</v>
       </c>
       <c r="B257">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C257">
         <v>0.7</v>
@@ -6725,13 +7196,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>67.936000000000007</v>
+        <v>68.036000000000001</v>
       </c>
       <c r="B258">
-        <v>-0.5</v>
+        <v>-1.35</v>
       </c>
       <c r="C258">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -6739,38 +7210,38 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>68.036000000000001</v>
+        <v>68.135999999999996</v>
       </c>
       <c r="B259">
-        <v>-1.35</v>
+        <v>1.2</v>
       </c>
       <c r="C259">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>68.135999999999996</v>
+        <v>68.236000000000004</v>
       </c>
       <c r="B260">
-        <v>1.2</v>
+        <v>-0.6</v>
       </c>
       <c r="C260">
         <v>0.7</v>
       </c>
       <c r="D260">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>68.236000000000004</v>
+        <v>68.335999999999999</v>
       </c>
       <c r="B261">
-        <v>-0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C261">
         <v>0.7</v>
@@ -6781,13 +7252,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>68.335999999999999</v>
+        <v>68.436000000000007</v>
       </c>
       <c r="B262">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="C262">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -6795,38 +7266,38 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>68.436000000000007</v>
+        <v>68.536000000000001</v>
       </c>
       <c r="B263">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="C263">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>68.536000000000001</v>
+        <v>68.635999999999996</v>
       </c>
       <c r="B264">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="C264">
         <v>0.7</v>
       </c>
       <c r="D264">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>68.635999999999996</v>
+        <v>68.736000000000004</v>
       </c>
       <c r="B265">
-        <v>0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="C265">
         <v>0.7</v>
@@ -6837,13 +7308,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>68.736000000000004</v>
+        <v>68.835999999999999</v>
       </c>
       <c r="B266">
-        <v>-0.3</v>
+        <v>-1.25</v>
       </c>
       <c r="C266">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -6851,38 +7322,38 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>68.835999999999999</v>
+        <v>68.936000000000007</v>
       </c>
       <c r="B267">
-        <v>-1.25</v>
+        <v>0.8</v>
       </c>
       <c r="C267">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>68.936000000000007</v>
+        <v>69.036000000000001</v>
       </c>
       <c r="B268">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="C268">
         <v>0.7</v>
       </c>
       <c r="D268">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>69.036000000000001</v>
+        <v>69.135999999999996</v>
       </c>
       <c r="B269">
-        <v>-0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C269">
         <v>0.7</v>
@@ -6893,13 +7364,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>69.135999999999996</v>
+        <v>69.236000000000004</v>
       </c>
       <c r="B270">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="C270">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -6907,38 +7378,38 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>69.236000000000004</v>
+        <v>69.335999999999999</v>
       </c>
       <c r="B271">
-        <v>1.2</v>
+        <v>-0.6</v>
       </c>
       <c r="C271">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>69.335999999999999</v>
+        <v>69.436000000000007</v>
       </c>
       <c r="B272">
-        <v>-0.6</v>
+        <v>0.9</v>
       </c>
       <c r="C272">
         <v>0.8</v>
       </c>
       <c r="D272">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>69.436000000000007</v>
+        <v>69.536000000000001</v>
       </c>
       <c r="B273">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
       <c r="C273">
         <v>0.8</v>
@@ -6949,13 +7420,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>69.536000000000001</v>
+        <v>69.635999999999996</v>
       </c>
       <c r="B274">
-        <v>-0.1</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="C274">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -6963,38 +7434,38 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>69.635999999999996</v>
+        <v>69.736000000000004</v>
       </c>
       <c r="B275">
-        <v>-1.1499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="C275">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>69.736000000000004</v>
+        <v>69.835999999999999</v>
       </c>
       <c r="B276">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="C276">
         <v>0.8</v>
       </c>
       <c r="D276">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>69.835999999999999</v>
+        <v>69.936000000000007</v>
       </c>
       <c r="B277">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C277">
         <v>0.8</v>
@@ -7005,13 +7476,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>69.936000000000007</v>
+        <v>70.036000000000001</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C278">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -7019,38 +7490,38 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>70.036000000000001</v>
+        <v>70.135999999999996</v>
       </c>
       <c r="B279">
-        <v>1.1000000000000001</v>
+        <v>-0.2</v>
       </c>
       <c r="C279">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>70.135999999999996</v>
+        <v>70.236000000000004</v>
       </c>
       <c r="B280">
-        <v>-0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C280">
         <v>0.8</v>
       </c>
       <c r="D280">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>70.236000000000004</v>
+        <v>70.335999999999999</v>
       </c>
       <c r="B281">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C281">
         <v>0.8</v>
@@ -7061,13 +7532,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>70.335999999999999</v>
+        <v>70.436000000000007</v>
       </c>
       <c r="B282">
-        <v>0.1</v>
+        <v>-1.05</v>
       </c>
       <c r="C282">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -7075,38 +7546,38 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>70.436000000000007</v>
+        <v>70.536000000000001</v>
       </c>
       <c r="B283">
-        <v>-1.05</v>
+        <v>0</v>
       </c>
       <c r="C283">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>70.536000000000001</v>
+        <v>70.635999999999996</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="C284">
         <v>0.8</v>
       </c>
       <c r="D284">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>70.635999999999996</v>
+        <v>70.736000000000004</v>
       </c>
       <c r="B285">
-        <v>-1.2</v>
+        <v>0.2</v>
       </c>
       <c r="C285">
         <v>0.8</v>
@@ -7117,13 +7588,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>70.736000000000004</v>
+        <v>70.835999999999999</v>
       </c>
       <c r="B286">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C286">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -7131,10 +7602,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>70.835999999999999</v>
+        <v>71.036000000000001</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C287">
         <v>2</v>
@@ -7145,10 +7616,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>71.036000000000001</v>
+        <v>71.236000000000004</v>
       </c>
       <c r="B288">
-        <v>0.33300000000000002</v>
+        <v>-0.33300000000000002</v>
       </c>
       <c r="C288">
         <v>2</v>
@@ -7159,10 +7630,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>71.236000000000004</v>
+        <v>71.436000000000007</v>
       </c>
       <c r="B289">
-        <v>-0.33300000000000002</v>
+        <v>-1</v>
       </c>
       <c r="C289">
         <v>2</v>
@@ -7173,7 +7644,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>71.436000000000007</v>
+        <v>71.635999999999996</v>
       </c>
       <c r="B290">
         <v>-1</v>
@@ -7182,15 +7653,15 @@
         <v>2</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>71.635999999999996</v>
+        <v>71.835999999999999</v>
       </c>
       <c r="B291">
-        <v>-1</v>
+        <v>-0.33300000000000002</v>
       </c>
       <c r="C291">
         <v>2</v>
@@ -7201,10 +7672,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>71.835999999999999</v>
+        <v>72.036000000000001</v>
       </c>
       <c r="B292">
-        <v>-0.33300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C292">
         <v>2</v>
@@ -7215,10 +7686,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>72.036000000000001</v>
+        <v>72.236000000000004</v>
       </c>
       <c r="B293">
-        <v>0.33300000000000002</v>
+        <v>1</v>
       </c>
       <c r="C293">
         <v>2</v>
@@ -7229,21 +7700,21 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>72.236000000000004</v>
+        <v>74.436000000000007</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>-0.2</v>
       </c>
       <c r="C294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D294">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>74.436000000000007</v>
+        <v>74.536000000000001</v>
       </c>
       <c r="B295">
         <v>-0.2</v>
@@ -7257,21 +7728,21 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>74.536000000000001</v>
+        <v>74.635999999999996</v>
       </c>
       <c r="B296">
-        <v>-0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>74.635999999999996</v>
+        <v>74.736000000000004</v>
       </c>
       <c r="B297">
         <v>-1.2</v>
@@ -7285,10 +7756,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>74.736000000000004</v>
+        <v>75.036000000000001</v>
       </c>
       <c r="B298">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -7299,83 +7770,83 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>75.036000000000001</v>
+        <v>75.335999999999999</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>75.335999999999999</v>
+        <v>75.835999999999999</v>
       </c>
       <c r="B300">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>75.835999999999999</v>
+        <v>76.135999999999996</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>76.135999999999996</v>
+        <v>76.436000000000007</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>76.436000000000007</v>
+        <v>76.835999999999999</v>
       </c>
       <c r="B303">
+        <v>1.2</v>
+      </c>
+      <c r="C303">
         <v>1.6</v>
       </c>
-      <c r="C303">
-        <v>0.8</v>
-      </c>
       <c r="D303">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>76.835999999999999</v>
+        <v>77.635999999999996</v>
       </c>
       <c r="B304">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="C304">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -7383,7 +7854,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>77.635999999999996</v>
+        <v>77.736000000000004</v>
       </c>
       <c r="B305">
         <v>-1.2</v>
@@ -7397,21 +7868,21 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>77.736000000000004</v>
+        <v>77.835999999999999</v>
       </c>
       <c r="B306">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>77.835999999999999</v>
+        <v>77.936000000000007</v>
       </c>
       <c r="B307">
         <v>1.2</v>
@@ -7425,10 +7896,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>77.936000000000007</v>
+        <v>78.236000000000004</v>
       </c>
       <c r="B308">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -7439,66 +7910,66 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>78.236000000000004</v>
+        <v>78.536000000000001</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>78.536000000000001</v>
+        <v>79.036000000000001</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>79.036000000000001</v>
+        <v>79.335999999999999</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>79.335999999999999</v>
+        <v>79.635999999999996</v>
       </c>
       <c r="B312">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>79.635999999999996</v>
+        <v>79.736000000000004</v>
       </c>
       <c r="B313">
-        <v>-1.2</v>
+        <v>0.6</v>
       </c>
       <c r="C313">
         <v>0.8</v>
@@ -7509,52 +7980,52 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>79.736000000000004</v>
+        <v>79.835999999999999</v>
       </c>
       <c r="B314">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C314">
         <v>0.8</v>
       </c>
       <c r="D314">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>79.835999999999999</v>
+        <v>79.936000000000007</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="C315">
         <v>0.8</v>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>79.936000000000007</v>
+        <v>80.036000000000001</v>
       </c>
       <c r="B316">
-        <v>-0.6</v>
+        <v>-1.2</v>
       </c>
       <c r="C316">
         <v>0.8</v>
       </c>
       <c r="D316">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>80.036000000000001</v>
+        <v>80.135999999999996</v>
       </c>
       <c r="B317">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
       <c r="C317">
         <v>0.8</v>
@@ -7565,10 +8036,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>80.135999999999996</v>
+        <v>80.236000000000004</v>
       </c>
       <c r="B318">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="C318">
         <v>0.8</v>
@@ -7579,35 +8050,35 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>80.236000000000004</v>
+        <v>80.335999999999999</v>
       </c>
       <c r="B319">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C319">
         <v>0.8</v>
       </c>
       <c r="D319">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>80.335999999999999</v>
+        <v>80.835999999999999</v>
       </c>
       <c r="B320">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="C320">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D320">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>80.835999999999999</v>
+        <v>80.936000000000007</v>
       </c>
       <c r="B321">
         <v>-0.2</v>
@@ -7621,21 +8092,21 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>80.936000000000007</v>
+        <v>81.036000000000001</v>
       </c>
       <c r="B322">
-        <v>-0.2</v>
+        <v>1.2</v>
       </c>
       <c r="C322">
         <v>1</v>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>81.036000000000001</v>
+        <v>81.135999999999996</v>
       </c>
       <c r="B323">
         <v>1.2</v>
@@ -7649,10 +8120,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>81.135999999999996</v>
+        <v>81.436000000000007</v>
       </c>
       <c r="B324">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -7663,83 +8134,83 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>81.436000000000007</v>
+        <v>81.736000000000004</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325">
         <v>1</v>
       </c>
       <c r="D325">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>81.736000000000004</v>
+        <v>82.236000000000004</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326">
         <v>1</v>
       </c>
       <c r="D326">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>82.236000000000004</v>
+        <v>82.536000000000001</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C327">
         <v>1</v>
       </c>
       <c r="D327">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>82.536000000000001</v>
+        <v>82.835999999999999</v>
       </c>
       <c r="B328">
-        <v>-1</v>
+        <v>-1.6</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D328">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>82.835999999999999</v>
+        <v>83.236000000000004</v>
       </c>
       <c r="B329">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="C329">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="D329">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>83.236000000000004</v>
+        <v>84.036000000000001</v>
       </c>
       <c r="B330">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
       <c r="C330">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D330">
         <v>1</v>
@@ -7747,7 +8218,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>84.036000000000001</v>
+        <v>84.135999999999996</v>
       </c>
       <c r="B331">
         <v>1.2</v>
@@ -7761,21 +8232,21 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>84.135999999999996</v>
+        <v>84.236000000000004</v>
       </c>
       <c r="B332">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="C332">
         <v>1</v>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>84.236000000000004</v>
+        <v>84.335999999999999</v>
       </c>
       <c r="B333">
         <v>-1.2</v>
@@ -7789,10 +8260,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>84.335999999999999</v>
+        <v>84.635999999999996</v>
       </c>
       <c r="B334">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -7803,27 +8274,27 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>84.635999999999996</v>
+        <v>84.936000000000007</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C335">
         <v>1</v>
       </c>
       <c r="D335">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>84.936000000000007</v>
+        <v>85.236000000000004</v>
       </c>
       <c r="B336">
-        <v>-1</v>
+        <v>-0.7</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -7831,105 +8302,105 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>85.236000000000004</v>
+        <v>85.335999999999999</v>
       </c>
       <c r="B337">
-        <v>-0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C337">
         <v>0.8</v>
       </c>
       <c r="D337">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>85.335999999999999</v>
+        <v>85.436000000000007</v>
       </c>
       <c r="B338">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C338">
         <v>0.8</v>
       </c>
       <c r="D338">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>85.436000000000007</v>
+        <v>85.536000000000001</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339">
         <v>0.8</v>
       </c>
       <c r="D339">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>85.536000000000001</v>
+        <v>85.635999999999996</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>-0.7</v>
       </c>
       <c r="C340">
         <v>0.8</v>
       </c>
       <c r="D340">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>85.635999999999996</v>
+        <v>85.736000000000004</v>
       </c>
       <c r="B341">
-        <v>-0.7</v>
+        <v>1.6</v>
       </c>
       <c r="C341">
         <v>0.8</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>85.736000000000004</v>
+        <v>85.835999999999999</v>
       </c>
       <c r="B342">
-        <v>1.6</v>
+        <v>-1.25</v>
       </c>
       <c r="C342">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="D342">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>85.835999999999999</v>
+        <v>85.936000000000007</v>
       </c>
       <c r="B343">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="C343">
         <v>1.5</v>
       </c>
       <c r="D343">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>85.936000000000007</v>
+        <v>86.036000000000001</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -7938,18 +8409,18 @@
         <v>1.5</v>
       </c>
       <c r="D344">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>86.036000000000001</v>
+        <v>87.236000000000004</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C345">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D345">
         <v>1</v>
@@ -7957,7 +8428,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>87.236000000000004</v>
+        <v>87.335999999999999</v>
       </c>
       <c r="B346">
         <v>0.4</v>
@@ -7971,21 +8442,21 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>87.335999999999999</v>
+        <v>87.436000000000007</v>
       </c>
       <c r="B347">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="C347">
         <v>1</v>
       </c>
       <c r="D347">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>87.436000000000007</v>
+        <v>87.536000000000001</v>
       </c>
       <c r="B348">
         <v>-0.4</v>
@@ -7999,21 +8470,21 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>87.536000000000001</v>
+        <v>90.436000000000007</v>
       </c>
       <c r="B349">
-        <v>-0.4</v>
+        <v>-1.2</v>
       </c>
       <c r="C349">
         <v>1</v>
       </c>
       <c r="D349">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>90.436000000000007</v>
+        <v>90.536000000000001</v>
       </c>
       <c r="B350">
         <v>-1.2</v>
@@ -8027,21 +8498,21 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>90.536000000000001</v>
+        <v>90.635999999999996</v>
       </c>
       <c r="B351">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
       <c r="C351">
         <v>1</v>
       </c>
       <c r="D351">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>90.635999999999996</v>
+        <v>90.736000000000004</v>
       </c>
       <c r="B352">
         <v>1.2</v>
@@ -8055,10 +8526,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>90.736000000000004</v>
+        <v>92.635999999999996</v>
       </c>
       <c r="B353">
-        <v>1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -8069,10 +8540,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>92.635999999999996</v>
+        <v>93.036000000000001</v>
       </c>
       <c r="B354">
-        <v>-0.8</v>
+        <v>-1.5</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -8086,7 +8557,7 @@
         <v>93.036000000000001</v>
       </c>
       <c r="B355">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -8097,16 +8568,16 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>93.036000000000001</v>
+        <v>93.236000000000004</v>
       </c>
       <c r="B356">
+        <v>-1.2</v>
+      </c>
+      <c r="C356">
         <v>1.5</v>
       </c>
-      <c r="C356">
-        <v>1</v>
-      </c>
       <c r="D356">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -8114,7 +8585,7 @@
         <v>93.236000000000004</v>
       </c>
       <c r="B357">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
       <c r="C357">
         <v>1.5</v>
@@ -8125,13 +8596,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>93.236000000000004</v>
+        <v>93.635999999999996</v>
       </c>
       <c r="B358">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="C358">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D358">
         <v>1</v>
@@ -8139,7 +8610,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>93.635999999999996</v>
+        <v>93.736000000000004</v>
       </c>
       <c r="B359">
         <v>-1.2</v>
@@ -8153,21 +8624,21 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>93.736000000000004</v>
+        <v>93.835999999999999</v>
       </c>
       <c r="B360">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
       <c r="C360">
         <v>1</v>
       </c>
       <c r="D360">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>93.835999999999999</v>
+        <v>93.936000000000007</v>
       </c>
       <c r="B361">
         <v>1.2</v>
@@ -8181,7 +8652,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>93.936000000000007</v>
+        <v>96.835999999999999</v>
       </c>
       <c r="B362">
         <v>1.2</v>
@@ -8190,12 +8661,12 @@
         <v>1</v>
       </c>
       <c r="D362">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>96.835999999999999</v>
+        <v>96.936000000000007</v>
       </c>
       <c r="B363">
         <v>1.2</v>
@@ -8209,10 +8680,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>96.936000000000007</v>
+        <v>97.036000000000001</v>
       </c>
       <c r="B364">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -8223,7 +8694,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>97.036000000000001</v>
+        <v>97.135999999999996</v>
       </c>
       <c r="B365">
         <v>-1.2</v>
@@ -8237,24 +8708,24 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>97.135999999999996</v>
+        <v>98.835999999999999</v>
       </c>
       <c r="B366">
-        <v>-1.2</v>
+        <v>0.7</v>
       </c>
       <c r="C366">
         <v>1</v>
       </c>
       <c r="D366">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>98.835999999999999</v>
+        <v>98.936000000000007</v>
       </c>
       <c r="B367">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -8265,21 +8736,21 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>98.936000000000007</v>
+        <v>100.036</v>
       </c>
       <c r="B368">
-        <v>-0.7</v>
+        <v>1</v>
       </c>
       <c r="C368">
         <v>1</v>
       </c>
       <c r="D368">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>100.036</v>
+        <v>100.136</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -8293,10 +8764,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
-        <v>100.136</v>
+        <v>100.236</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -8307,7 +8778,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
-        <v>100.236</v>
+        <v>100.336</v>
       </c>
       <c r="B371">
         <v>-1</v>
@@ -8321,7 +8792,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
-        <v>100.336</v>
+        <v>100.636</v>
       </c>
       <c r="B372">
         <v>-1</v>
@@ -8330,15 +8801,15 @@
         <v>1</v>
       </c>
       <c r="D372">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
-        <v>100.636</v>
+        <v>100.93600000000001</v>
       </c>
       <c r="B373">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -8349,13 +8820,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
-        <v>100.93600000000001</v>
+        <v>101.43600000000001</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D374">
         <v>17</v>
@@ -8363,13 +8834,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
-        <v>101.43600000000001</v>
+        <v>101.536</v>
       </c>
       <c r="B375">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="C375">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D375">
         <v>17</v>
@@ -8377,10 +8848,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>101.536</v>
+        <v>102.836</v>
       </c>
       <c r="B376">
-        <v>1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -8391,13 +8862,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
-        <v>101.636</v>
+        <v>103.236</v>
       </c>
       <c r="B377">
-        <v>1.2</v>
+        <v>-0.5</v>
       </c>
       <c r="C377">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D377">
         <v>17</v>
@@ -8405,13 +8876,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
-        <v>102.836</v>
+        <v>103.336</v>
       </c>
       <c r="B378">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C378">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D378">
         <v>17</v>
@@ -8419,13 +8890,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
-        <v>103.236</v>
+        <v>103.836</v>
       </c>
       <c r="B379">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="C379">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D379">
         <v>17</v>
@@ -8433,13 +8904,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
-        <v>103.336</v>
+        <v>104.43600000000001</v>
       </c>
       <c r="B380">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="C380">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D380">
         <v>17</v>
@@ -8447,10 +8918,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
-        <v>103.836</v>
+        <v>104.536</v>
       </c>
       <c r="B381">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -8461,21 +8932,21 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
-        <v>104.43600000000001</v>
+        <v>104.636</v>
       </c>
       <c r="B382">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C382">
         <v>1</v>
       </c>
       <c r="D382">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
-        <v>104.536</v>
+        <v>104.736</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -8489,55 +8960,55 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
-        <v>104.636</v>
+        <v>104.836</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C384">
         <v>1</v>
       </c>
       <c r="D384">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
-        <v>104.736</v>
+        <v>104.93600000000001</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385">
         <v>1</v>
       </c>
       <c r="D385">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
-        <v>104.836</v>
+        <v>105.23599999999999</v>
       </c>
       <c r="B386">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="C386">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D386">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
-        <v>104.93600000000001</v>
+        <v>105.33600000000001</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="C387">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D387">
         <v>1</v>
@@ -8545,24 +9016,24 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
-        <v>105.23599999999999</v>
+        <v>105.43600000000001</v>
       </c>
       <c r="B388">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="C388">
         <v>0.8</v>
       </c>
       <c r="D388">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
-        <v>105.33600000000001</v>
+        <v>105.536</v>
       </c>
       <c r="B389">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="C389">
         <v>0.8</v>
@@ -8573,10 +9044,10 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
-        <v>105.43600000000001</v>
+        <v>105.636</v>
       </c>
       <c r="B390">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C390">
         <v>0.8</v>
@@ -8587,24 +9058,24 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
-        <v>105.536</v>
+        <v>105.73599999999999</v>
       </c>
       <c r="B391">
-        <v>0.6</v>
+        <v>-1.2</v>
       </c>
       <c r="C391">
         <v>0.8</v>
       </c>
       <c r="D391">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
-        <v>105.636</v>
+        <v>105.83600000000001</v>
       </c>
       <c r="B392">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="C392">
         <v>0.8</v>
@@ -8615,24 +9086,24 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
-        <v>105.73599999999999</v>
+        <v>105.93600000000001</v>
       </c>
       <c r="B393">
-        <v>-1.2</v>
+        <v>0.1</v>
       </c>
       <c r="C393">
         <v>0.8</v>
       </c>
       <c r="D393">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
-        <v>105.83600000000001</v>
+        <v>106.036</v>
       </c>
       <c r="B394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394">
         <v>0.8</v>
@@ -8643,13 +9114,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
-        <v>105.93600000000001</v>
+        <v>106.236</v>
       </c>
       <c r="B395">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C395">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D395">
         <v>1</v>
@@ -8657,24 +9128,24 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
-        <v>106.036</v>
+        <v>106.43600000000001</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C396">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D396">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
-        <v>106.236</v>
+        <v>106.536</v>
       </c>
       <c r="B397">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -8685,10 +9156,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
-        <v>106.43600000000001</v>
+        <v>106.636</v>
       </c>
       <c r="B398">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -8699,10 +9170,10 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
-        <v>106.536</v>
+        <v>106.736</v>
       </c>
       <c r="B399">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -8713,38 +9184,38 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
-        <v>106.636</v>
+        <v>107.036</v>
       </c>
       <c r="B400">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="C400">
         <v>1</v>
       </c>
       <c r="D400">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401">
-        <v>106.736</v>
+        <v>107.336</v>
       </c>
       <c r="B401">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="C401">
         <v>1</v>
       </c>
       <c r="D401">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
-        <v>107.036</v>
+        <v>107.836</v>
       </c>
       <c r="B402">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -8755,10 +9226,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403">
-        <v>107.336</v>
+        <v>107.93600000000001</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -8769,10 +9240,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
-        <v>107.836</v>
+        <v>108.036</v>
       </c>
       <c r="B404">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -8783,10 +9254,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405">
-        <v>107.93600000000001</v>
+        <v>108.136</v>
       </c>
       <c r="B405">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -8797,10 +9268,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
-        <v>108.036</v>
+        <v>108.236</v>
       </c>
       <c r="B406">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -8811,10 +9282,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
-        <v>108.136</v>
+        <v>108.336</v>
       </c>
       <c r="B407">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -8825,13 +9296,13 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>108.236</v>
+        <v>108.43600000000001</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>-1.45</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D408">
         <v>17</v>
@@ -8839,13 +9310,13 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
-        <v>108.336</v>
+        <v>108.536</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>-1.0857142857142859</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D409">
         <v>17</v>
@@ -8853,13 +9324,13 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
-        <v>108.43600000000001</v>
+        <v>108.636</v>
       </c>
       <c r="B410">
-        <v>-1.45</v>
+        <v>-0.72142857142857197</v>
       </c>
       <c r="C410">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D410">
         <v>17</v>
@@ -8867,13 +9338,13 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
-        <v>108.536</v>
+        <v>108.736</v>
       </c>
       <c r="B411">
-        <v>-1.0857142857142859</v>
+        <v>-0.35714285714285787</v>
       </c>
       <c r="C411">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D411">
         <v>17</v>
@@ -8881,13 +9352,13 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
-        <v>108.636</v>
+        <v>108.836</v>
       </c>
       <c r="B412">
-        <v>-0.72142857142857197</v>
+        <v>7.1428571428560073E-3</v>
       </c>
       <c r="C412">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D412">
         <v>17</v>
@@ -8895,13 +9366,13 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
-        <v>108.736</v>
+        <v>108.93600000000001</v>
       </c>
       <c r="B413">
-        <v>-0.35714285714285787</v>
+        <v>0.37142857142856989</v>
       </c>
       <c r="C413">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D413">
         <v>17</v>
@@ -8909,13 +9380,13 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
-        <v>108.836</v>
+        <v>109.036</v>
       </c>
       <c r="B414">
-        <v>7.1428571428560073E-3</v>
+        <v>0.73571428571428421</v>
       </c>
       <c r="C414">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D414">
         <v>17</v>
@@ -8923,13 +9394,13 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
-        <v>108.93600000000001</v>
+        <v>109.136</v>
       </c>
       <c r="B415">
-        <v>0.37142857142856989</v>
+        <v>1.0999999999999981</v>
       </c>
       <c r="C415">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="D415">
         <v>17</v>
@@ -8937,35 +9408,35 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
-        <v>109.036</v>
+        <v>109.636</v>
       </c>
       <c r="B416">
-        <v>0.73571428571428421</v>
+        <v>0</v>
       </c>
       <c r="C416">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="D416">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
-        <v>109.136</v>
+        <v>109.736</v>
       </c>
       <c r="B417">
-        <v>1.0999999999999981</v>
+        <v>0</v>
       </c>
       <c r="C417">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="D417">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
-        <v>109.636</v>
+        <v>109.836</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -8979,7 +9450,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
-        <v>109.736</v>
+        <v>109.93600000000001</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -8993,13 +9464,13 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
-        <v>109.836</v>
+        <v>110.236</v>
       </c>
       <c r="B420">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C420">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -9007,13 +9478,13 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
-        <v>109.93600000000001</v>
+        <v>110.83600000000001</v>
       </c>
       <c r="B421">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="C421">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -9021,24 +9492,24 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
-        <v>110.236</v>
+        <v>110.93600000000001</v>
       </c>
       <c r="B422">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="C422">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D422">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
-        <v>110.83600000000001</v>
+        <v>111.036</v>
       </c>
       <c r="B423">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C423">
         <v>0.8</v>
@@ -9049,10 +9520,10 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
-        <v>110.93600000000001</v>
+        <v>111.136</v>
       </c>
       <c r="B424">
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="C424">
         <v>0.8</v>
@@ -9063,10 +9534,10 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425">
-        <v>111.036</v>
+        <v>111.23599999999999</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C425">
         <v>0.8</v>
@@ -9077,10 +9548,10 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
-        <v>111.136</v>
+        <v>111.33600000000001</v>
       </c>
       <c r="B426">
-        <v>-1</v>
+        <v>-1.6</v>
       </c>
       <c r="C426">
         <v>0.8</v>
@@ -9091,10 +9562,10 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
-        <v>111.23599999999999</v>
+        <v>111.43600000000001</v>
       </c>
       <c r="B427">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="C427">
         <v>0.8</v>
@@ -9105,10 +9576,10 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
-        <v>111.33600000000001</v>
+        <v>111.536</v>
       </c>
       <c r="B428">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="C428">
         <v>0.8</v>
@@ -9119,13 +9590,13 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
-        <v>111.43600000000001</v>
+        <v>112.836</v>
       </c>
       <c r="B429">
-        <v>0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="C429">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D429">
         <v>1</v>
@@ -9133,83 +9604,83 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430">
-        <v>111.536</v>
+        <v>112.93599999999999</v>
       </c>
       <c r="B430">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="C430">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D430">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431">
-        <v>112.836</v>
+        <v>113.036</v>
       </c>
       <c r="B431">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="C431">
         <v>1</v>
       </c>
       <c r="D431">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432">
-        <v>112.93599999999999</v>
+        <v>113.136</v>
       </c>
       <c r="B432">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="C432">
         <v>1</v>
       </c>
       <c r="D432">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
-        <v>113.036</v>
+        <v>113.43599999999999</v>
       </c>
       <c r="B433">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C433">
         <v>1</v>
       </c>
       <c r="D433">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
-        <v>113.136</v>
+        <v>113.736</v>
       </c>
       <c r="B434">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="C434">
         <v>1</v>
       </c>
       <c r="D434">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435">
-        <v>113.43599999999999</v>
+        <v>114.236</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D435">
         <v>1</v>
@@ -9217,13 +9688,13 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436">
-        <v>113.736</v>
+        <v>114.336</v>
       </c>
       <c r="B436">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C436">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D436">
         <v>1</v>
@@ -9231,10 +9702,10 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437">
-        <v>114.236</v>
+        <v>115.636</v>
       </c>
       <c r="B437">
-        <v>-1.2</v>
+        <v>1.5</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -9245,13 +9716,13 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>114.336</v>
+        <v>116.036</v>
       </c>
       <c r="B438">
-        <v>-1.2</v>
+        <v>0.5</v>
       </c>
       <c r="C438">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D438">
         <v>1</v>
@@ -9259,13 +9730,13 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439">
-        <v>114.43599999999999</v>
+        <v>116.136</v>
       </c>
       <c r="B439">
-        <v>-1.2</v>
+        <v>-0.5</v>
       </c>
       <c r="C439">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D439">
         <v>1</v>
@@ -9315,10 +9786,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443">
-        <v>115.636</v>
+        <v>116.636</v>
       </c>
       <c r="B443">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -9329,13 +9800,13 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444">
-        <v>116.036</v>
+        <v>117.036</v>
       </c>
       <c r="B444">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="C444">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D444">
         <v>1</v>
@@ -9343,94 +9814,94 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
-        <v>116.136</v>
+        <v>118.236</v>
       </c>
       <c r="B445">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C445">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D445">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446">
-        <v>116.636</v>
+        <v>118.636</v>
       </c>
       <c r="B446">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="C446">
         <v>1</v>
       </c>
       <c r="D446">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
-        <v>117.036</v>
+        <v>118.636</v>
       </c>
       <c r="B447">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="C447">
         <v>1</v>
       </c>
       <c r="D447">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
-        <v>118.236</v>
+        <v>118.836</v>
       </c>
       <c r="B448">
-        <v>0.8</v>
+        <v>-1.5</v>
       </c>
       <c r="C448">
         <v>1</v>
       </c>
       <c r="D448">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449">
-        <v>118.636</v>
+        <v>118.836</v>
       </c>
       <c r="B449">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="C449">
         <v>1</v>
       </c>
       <c r="D449">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450">
-        <v>118.636</v>
+        <v>119.236</v>
       </c>
       <c r="B450">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="C450">
         <v>1</v>
       </c>
       <c r="D450">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451">
-        <v>118.836</v>
+        <v>119.336</v>
       </c>
       <c r="B451">
-        <v>-1.5</v>
+        <v>0.8</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -9441,38 +9912,38 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452">
-        <v>118.836</v>
+        <v>119.43600000000001</v>
       </c>
       <c r="B452">
-        <v>1.5</v>
+        <v>-0.8</v>
       </c>
       <c r="C452">
         <v>1</v>
       </c>
       <c r="D452">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453">
-        <v>119.236</v>
+        <v>119.536</v>
       </c>
       <c r="B453">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="C453">
         <v>1</v>
       </c>
       <c r="D453">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>119.336</v>
+        <v>119.836</v>
       </c>
       <c r="B454">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -9483,10 +9954,10 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455">
-        <v>119.43600000000001</v>
+        <v>120.136</v>
       </c>
       <c r="B455">
-        <v>-0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -9497,10 +9968,10 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456">
-        <v>119.536</v>
+        <v>120.636</v>
       </c>
       <c r="B456">
-        <v>-0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -9511,66 +9982,66 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457">
-        <v>119.836</v>
+        <v>120.736</v>
       </c>
       <c r="B457">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="C457">
         <v>1</v>
       </c>
       <c r="D457">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458">
-        <v>120.136</v>
+        <v>120.836</v>
       </c>
       <c r="B458">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C458">
         <v>1</v>
       </c>
       <c r="D458">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459">
-        <v>120.636</v>
+        <v>120.93600000000001</v>
       </c>
       <c r="B459">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C459">
         <v>1</v>
       </c>
       <c r="D459">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460">
-        <v>120.736</v>
+        <v>121.036</v>
       </c>
       <c r="B460">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C460">
         <v>1</v>
       </c>
       <c r="D460">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461">
-        <v>120.836</v>
+        <v>121.136</v>
       </c>
       <c r="B461">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -9581,10 +10052,10 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462">
-        <v>120.93600000000001</v>
+        <v>122.43600000000001</v>
       </c>
       <c r="B462">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -9595,10 +10066,10 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463">
-        <v>121.036</v>
+        <v>122.536</v>
       </c>
       <c r="B463">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -9609,10 +10080,10 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464">
-        <v>121.136</v>
+        <v>122.636</v>
       </c>
       <c r="B464">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -9623,7 +10094,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465">
-        <v>122.43600000000001</v>
+        <v>122.736</v>
       </c>
       <c r="B465">
         <v>-1</v>
@@ -9637,13 +10108,13 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>122.536</v>
+        <v>122.836</v>
       </c>
       <c r="B466">
-        <v>-1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C466">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="D466">
         <v>1</v>
@@ -9651,13 +10122,13 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467">
-        <v>122.636</v>
+        <v>122.836</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C467">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="D467">
         <v>1</v>
@@ -9665,13 +10136,13 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468">
-        <v>122.736</v>
+        <v>123.652</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="C468">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D468">
         <v>1</v>
@@ -9679,13 +10150,13 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469">
-        <v>122.836</v>
+        <v>123.752</v>
       </c>
       <c r="B469">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C469">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="D469">
         <v>1</v>
@@ -9693,10 +10164,10 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470">
-        <v>123.652</v>
+        <v>123.952</v>
       </c>
       <c r="B470">
-        <v>1.6</v>
+        <v>-1.3</v>
       </c>
       <c r="C470">
         <v>0.6</v>
@@ -9707,10 +10178,10 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471">
-        <v>123.752</v>
+        <v>124.152</v>
       </c>
       <c r="B471">
-        <v>-0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C471">
         <v>0.6</v>
@@ -9721,10 +10192,10 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472">
-        <v>123.952</v>
+        <v>124.352</v>
       </c>
       <c r="B472">
-        <v>-1.3</v>
+        <v>-0.9</v>
       </c>
       <c r="C472">
         <v>0.6</v>
@@ -9735,10 +10206,10 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473">
-        <v>124.152</v>
+        <v>124.55200000000001</v>
       </c>
       <c r="B473">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="C473">
         <v>0.6</v>
@@ -9749,10 +10220,10 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474">
-        <v>124.352</v>
+        <v>124.752</v>
       </c>
       <c r="B474">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="C474">
         <v>0.6</v>
@@ -9763,10 +10234,10 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475">
-        <v>124.55200000000001</v>
+        <v>124.852</v>
       </c>
       <c r="B475">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C475">
         <v>0.6</v>
@@ -9777,10 +10248,10 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476">
-        <v>124.752</v>
+        <v>125.05200000000001</v>
       </c>
       <c r="B476">
-        <v>-0.7</v>
+        <v>1</v>
       </c>
       <c r="C476">
         <v>0.6</v>
@@ -9791,13 +10262,13 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477">
-        <v>124.852</v>
+        <v>136.43600000000001</v>
       </c>
       <c r="B477">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="C477">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D477">
         <v>1</v>
@@ -9805,13 +10276,13 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478">
-        <v>125.05200000000001</v>
+        <v>136.43600000000001</v>
       </c>
       <c r="B478">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C478">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -9819,32 +10290,816 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479">
-        <v>125.152</v>
+        <v>136.536</v>
       </c>
       <c r="B479">
-        <v>-0.3</v>
+        <v>-1</v>
       </c>
       <c r="C479">
+        <v>0.8</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>136.536</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+      <c r="C480">
+        <v>0.8</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>136.73599999999999</v>
+      </c>
+      <c r="B481">
+        <v>-1</v>
+      </c>
+      <c r="C481">
+        <v>0.8</v>
+      </c>
+      <c r="D481">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>136.73599999999999</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>0.8</v>
+      </c>
+      <c r="D482">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>136.93600000000001</v>
+      </c>
+      <c r="B483">
+        <v>-1</v>
+      </c>
+      <c r="C483">
+        <v>0.8</v>
+      </c>
+      <c r="D483">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>136.93600000000001</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>0.8</v>
+      </c>
+      <c r="D484">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>137.136</v>
+      </c>
+      <c r="B485">
+        <v>-1</v>
+      </c>
+      <c r="C485">
+        <v>0.8</v>
+      </c>
+      <c r="D485">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>137.136</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>0.8</v>
+      </c>
+      <c r="D486">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>137.23599999999999</v>
+      </c>
+      <c r="B487">
+        <v>-1</v>
+      </c>
+      <c r="C487">
+        <v>0.8</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>137.23599999999999</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488">
+        <v>0.8</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>137.636</v>
+      </c>
+      <c r="B489">
+        <v>1.6</v>
+      </c>
+      <c r="C489">
+        <v>0.8</v>
+      </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>138.636</v>
+      </c>
+      <c r="B490">
+        <v>-1.5</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>138.93600000000001</v>
+      </c>
+      <c r="B491">
+        <v>-1</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>139.23599999999999</v>
+      </c>
+      <c r="B492">
+        <v>-0.75</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>139.43600000000001</v>
+      </c>
+      <c r="B493">
+        <v>0.75</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>139.636</v>
+      </c>
+      <c r="B494">
+        <v>1.5</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>139.93600000000001</v>
+      </c>
+      <c r="B495">
+        <v>1.2</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>140.23599999999999</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496">
+        <v>0.8</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>140.33600000000001</v>
+      </c>
+      <c r="B497">
+        <v>-1.2</v>
+      </c>
+      <c r="C497">
+        <v>0.8</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>140.43600000000001</v>
+      </c>
+      <c r="B498">
+        <v>-0.5</v>
+      </c>
+      <c r="C498">
+        <v>0.8</v>
+      </c>
+      <c r="D498">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>140.536</v>
+      </c>
+      <c r="B499">
+        <v>0.5</v>
+      </c>
+      <c r="C499">
+        <v>0.8</v>
+      </c>
+      <c r="D499">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>140.636</v>
+      </c>
+      <c r="B500">
+        <v>-1.2</v>
+      </c>
+      <c r="C500">
+        <v>0.8</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>141.23599999999999</v>
+      </c>
+      <c r="B501">
+        <v>-1.5</v>
+      </c>
+      <c r="C501">
+        <v>0.8</v>
+      </c>
+      <c r="D501">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>141.536</v>
+      </c>
+      <c r="B502">
+        <v>-0.5</v>
+      </c>
+      <c r="C502">
+        <v>0.8</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>141.83600000000001</v>
+      </c>
+      <c r="B503">
+        <v>0.5</v>
+      </c>
+      <c r="C503">
+        <v>0.8</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>142.136</v>
+      </c>
+      <c r="B504">
+        <v>1.4</v>
+      </c>
+      <c r="C504">
+        <v>0.8</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>143.83600000000001</v>
+      </c>
+      <c r="B505">
+        <v>-1.6</v>
+      </c>
+      <c r="C505">
+        <v>0.8</v>
+      </c>
+      <c r="D505">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>143.83600000000001</v>
+      </c>
+      <c r="B506">
+        <v>0</v>
+      </c>
+      <c r="C506">
+        <v>0.8</v>
+      </c>
+      <c r="D506">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>144.036</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>0.8</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>144.036</v>
+      </c>
+      <c r="B508">
+        <v>1.6</v>
+      </c>
+      <c r="C508">
+        <v>0.8</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>144.23599999999999</v>
+      </c>
+      <c r="B509">
+        <v>-0.8</v>
+      </c>
+      <c r="C509">
+        <v>0.8</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>144.43600000000001</v>
+      </c>
+      <c r="B510">
+        <v>-1.6</v>
+      </c>
+      <c r="C510">
+        <v>0.8</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>144.636</v>
+      </c>
+      <c r="B511">
+        <v>1.6</v>
+      </c>
+      <c r="C511">
+        <v>0.8</v>
+      </c>
+      <c r="D511">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>144.73599999999999</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+      <c r="C512">
+        <v>0.8</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>145.036</v>
+      </c>
+      <c r="B513">
+        <v>-1</v>
+      </c>
+      <c r="C513">
+        <v>0.8</v>
+      </c>
+      <c r="D513">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>145.036</v>
+      </c>
+      <c r="B514">
+        <v>0.5</v>
+      </c>
+      <c r="C514">
+        <v>0.8</v>
+      </c>
+      <c r="D514">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>145.23599999999999</v>
+      </c>
+      <c r="B515">
+        <v>1.6</v>
+      </c>
+      <c r="C515">
+        <v>0.8</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>145.43600000000001</v>
+      </c>
+      <c r="B516">
+        <v>-1.6</v>
+      </c>
+      <c r="C516">
+        <v>0.8</v>
+      </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>145.536</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+      <c r="C517">
+        <v>0.8</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>145.83600000000001</v>
+      </c>
+      <c r="B518">
+        <v>-0.5</v>
+      </c>
+      <c r="C518">
+        <v>0.8</v>
+      </c>
+      <c r="D518">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>145.83600000000001</v>
+      </c>
+      <c r="B519">
+        <v>1</v>
+      </c>
+      <c r="C519">
+        <v>0.8</v>
+      </c>
+      <c r="D519">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>146.036</v>
+      </c>
+      <c r="B520">
+        <v>-1.6</v>
+      </c>
+      <c r="C520">
+        <v>0.8</v>
+      </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>146.23599999999999</v>
+      </c>
+      <c r="B521">
+        <v>1.6</v>
+      </c>
+      <c r="C521">
+        <v>0.8</v>
+      </c>
+      <c r="D521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>146.33600000000001</v>
+      </c>
+      <c r="B522">
+        <v>0</v>
+      </c>
+      <c r="C522">
+        <v>0.8</v>
+      </c>
+      <c r="D522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>146.636</v>
+      </c>
+      <c r="B523">
+        <v>1.6</v>
+      </c>
+      <c r="C523">
+        <v>0.8</v>
+      </c>
+      <c r="D523">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>146.73599999999999</v>
+      </c>
+      <c r="B524">
+        <v>-0.8</v>
+      </c>
+      <c r="C524">
+        <v>0.8</v>
+      </c>
+      <c r="D524">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>146.83600000000001</v>
+      </c>
+      <c r="B525">
+        <v>0.8</v>
+      </c>
+      <c r="C525">
+        <v>0.8</v>
+      </c>
+      <c r="D525">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>146.93600000000001</v>
+      </c>
+      <c r="B526">
+        <v>-1.6</v>
+      </c>
+      <c r="C526">
+        <v>0.8</v>
+      </c>
+      <c r="D526">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>147.036</v>
+      </c>
+      <c r="B527">
+        <v>1.6</v>
+      </c>
+      <c r="C527">
+        <v>0.8</v>
+      </c>
+      <c r="D527">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>147.136</v>
+      </c>
+      <c r="B528">
+        <v>-0.6</v>
+      </c>
+      <c r="C528">
+        <v>0.8</v>
+      </c>
+      <c r="D528">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>147.23599999999999</v>
+      </c>
+      <c r="B529">
         <v>0.6</v>
       </c>
-      <c r="D479">
-        <v>1</v>
+      <c r="C529">
+        <v>0.8</v>
+      </c>
+      <c r="D529">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>147.33600000000001</v>
+      </c>
+      <c r="B530">
+        <v>-1.6</v>
+      </c>
+      <c r="C530">
+        <v>0.8</v>
+      </c>
+      <c r="D530">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>147.43600000000001</v>
+      </c>
+      <c r="B531">
+        <v>1.6</v>
+      </c>
+      <c r="C531">
+        <v>0.8</v>
+      </c>
+      <c r="D531">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>147.636</v>
+      </c>
+      <c r="B532">
+        <v>0.6</v>
+      </c>
+      <c r="C532">
+        <v>0.8</v>
+      </c>
+      <c r="D532">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>147.93600000000001</v>
+      </c>
+      <c r="B533">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C533">
+        <v>0.8</v>
+      </c>
+      <c r="D533">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>148.23599999999999</v>
+      </c>
+      <c r="B534">
+        <v>1.6</v>
+      </c>
+      <c r="C534">
+        <v>0.8</v>
+      </c>
+      <c r="D534">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>148.33600000000001</v>
+      </c>
+      <c r="B535">
+        <v>-0.5</v>
+      </c>
+      <c r="C535">
+        <v>0.8</v>
+      </c>
+      <c r="D535">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J204"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="L219" sqref="L219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16374,6 +17629,486 @@
         <v>31</v>
       </c>
       <c r="J204" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205">
+        <v>163</v>
+      </c>
+      <c r="C205">
+        <v>137.636</v>
+      </c>
+      <c r="D205">
+        <v>-2</v>
+      </c>
+      <c r="E205">
+        <v>-1.2</v>
+      </c>
+      <c r="F205">
+        <v>138.036</v>
+      </c>
+      <c r="G205">
+        <v>1.2</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205" t="s">
+        <v>31</v>
+      </c>
+      <c r="J205" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>164</v>
+      </c>
+      <c r="C206">
+        <v>138.036</v>
+      </c>
+      <c r="D206">
+        <v>-1.2</v>
+      </c>
+      <c r="E206">
+        <v>-0.4</v>
+      </c>
+      <c r="F206">
+        <v>138.23599999999999</v>
+      </c>
+      <c r="G206">
+        <v>0.4</v>
+      </c>
+      <c r="H206">
+        <v>1.2</v>
+      </c>
+      <c r="I206" t="s">
+        <v>25</v>
+      </c>
+      <c r="J206" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>165</v>
+      </c>
+      <c r="C207">
+        <v>138.23599999999999</v>
+      </c>
+      <c r="D207">
+        <v>-2</v>
+      </c>
+      <c r="E207">
+        <v>-1.2</v>
+      </c>
+      <c r="F207">
+        <v>138.636</v>
+      </c>
+      <c r="G207">
+        <v>1.2</v>
+      </c>
+      <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207" t="s">
+        <v>31</v>
+      </c>
+      <c r="J207" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <v>165</v>
+      </c>
+      <c r="C208">
+        <v>138.636</v>
+      </c>
+      <c r="D208">
+        <v>1.2</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
+      </c>
+      <c r="F208">
+        <v>139.43600000000001</v>
+      </c>
+      <c r="G208">
+        <v>0.5</v>
+      </c>
+      <c r="H208">
+        <v>1.3</v>
+      </c>
+      <c r="I208" t="s">
+        <v>25</v>
+      </c>
+      <c r="J208" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>165</v>
+      </c>
+      <c r="C209">
+        <v>139.43600000000001</v>
+      </c>
+      <c r="D209">
+        <v>0.5</v>
+      </c>
+      <c r="E209">
+        <v>1.3</v>
+      </c>
+      <c r="F209">
+        <v>140.23599999999999</v>
+      </c>
+      <c r="G209">
+        <v>-1.6</v>
+      </c>
+      <c r="H209">
+        <v>-0.8</v>
+      </c>
+      <c r="I209" t="s">
+        <v>24</v>
+      </c>
+      <c r="J209" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>17</v>
+      </c>
+      <c r="B210">
+        <v>166</v>
+      </c>
+      <c r="C210">
+        <v>140.73599999999999</v>
+      </c>
+      <c r="D210">
+        <v>-1.2</v>
+      </c>
+      <c r="E210">
+        <v>-0.4</v>
+      </c>
+      <c r="F210">
+        <v>141.036</v>
+      </c>
+      <c r="G210">
+        <v>1.2</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210" t="s">
+        <v>25</v>
+      </c>
+      <c r="J210" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>17</v>
+      </c>
+      <c r="B211">
+        <v>167</v>
+      </c>
+      <c r="C211">
+        <v>141.036</v>
+      </c>
+      <c r="D211">
+        <v>-0.4</v>
+      </c>
+      <c r="E211">
+        <v>0.4</v>
+      </c>
+      <c r="F211">
+        <v>141.23599999999999</v>
+      </c>
+      <c r="G211">
+        <v>-1</v>
+      </c>
+      <c r="H211">
+        <v>-0.2</v>
+      </c>
+      <c r="I211" t="s">
+        <v>25</v>
+      </c>
+      <c r="J211" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>17</v>
+      </c>
+      <c r="B212">
+        <v>167</v>
+      </c>
+      <c r="C212">
+        <v>141.23599999999999</v>
+      </c>
+      <c r="D212">
+        <v>-1</v>
+      </c>
+      <c r="E212">
+        <v>-0.2</v>
+      </c>
+      <c r="F212">
+        <v>141.636</v>
+      </c>
+      <c r="G212">
+        <v>1.2</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212" t="s">
+        <v>31</v>
+      </c>
+      <c r="J212" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>17</v>
+      </c>
+      <c r="B213">
+        <v>167</v>
+      </c>
+      <c r="C213">
+        <v>141.636</v>
+      </c>
+      <c r="D213">
+        <v>1.2</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
+      </c>
+      <c r="F213">
+        <v>142.43600000000001</v>
+      </c>
+      <c r="G213">
+        <v>-1.6</v>
+      </c>
+      <c r="H213">
+        <v>-0.8</v>
+      </c>
+      <c r="I213" t="s">
+        <v>24</v>
+      </c>
+      <c r="J213" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>17</v>
+      </c>
+      <c r="B214">
+        <v>168</v>
+      </c>
+      <c r="C214">
+        <v>142.43600000000001</v>
+      </c>
+      <c r="D214">
+        <v>0.4</v>
+      </c>
+      <c r="E214">
+        <v>1.2</v>
+      </c>
+      <c r="F214">
+        <v>142.636</v>
+      </c>
+      <c r="G214">
+        <v>-1.2</v>
+      </c>
+      <c r="H214">
+        <v>-0.4</v>
+      </c>
+      <c r="I214" t="s">
+        <v>25</v>
+      </c>
+      <c r="J214" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>17</v>
+      </c>
+      <c r="B215">
+        <v>169</v>
+      </c>
+      <c r="C215">
+        <v>142.636</v>
+      </c>
+      <c r="D215">
+        <v>1.2</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <v>143.036</v>
+      </c>
+      <c r="G215">
+        <v>-2</v>
+      </c>
+      <c r="H215">
+        <v>-1.2</v>
+      </c>
+      <c r="I215" t="s">
+        <v>31</v>
+      </c>
+      <c r="J215" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>17</v>
+      </c>
+      <c r="B216">
+        <v>169</v>
+      </c>
+      <c r="C216">
+        <v>143.036</v>
+      </c>
+      <c r="D216">
+        <v>-2</v>
+      </c>
+      <c r="E216">
+        <v>-1.2</v>
+      </c>
+      <c r="F216">
+        <v>143.43600000000001</v>
+      </c>
+      <c r="G216">
+        <v>0.4</v>
+      </c>
+      <c r="H216">
+        <v>1.6</v>
+      </c>
+      <c r="I216" t="s">
+        <v>24</v>
+      </c>
+      <c r="J216" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>17</v>
+      </c>
+      <c r="B217">
+        <v>169</v>
+      </c>
+      <c r="C217">
+        <v>143.43600000000001</v>
+      </c>
+      <c r="D217">
+        <v>0.4</v>
+      </c>
+      <c r="E217">
+        <v>1.6</v>
+      </c>
+      <c r="F217">
+        <v>143.636</v>
+      </c>
+      <c r="G217">
+        <v>-0.4</v>
+      </c>
+      <c r="H217">
+        <v>0.4</v>
+      </c>
+      <c r="I217" t="s">
+        <v>31</v>
+      </c>
+      <c r="J217" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>17</v>
+      </c>
+      <c r="B218">
+        <v>170</v>
+      </c>
+      <c r="C218">
+        <v>143.036</v>
+      </c>
+      <c r="D218">
+        <v>1.2</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218">
+        <v>143.43600000000001</v>
+      </c>
+      <c r="G218">
+        <v>-1.6</v>
+      </c>
+      <c r="H218">
+        <v>-0.4</v>
+      </c>
+      <c r="I218" t="s">
+        <v>24</v>
+      </c>
+      <c r="J218" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>17</v>
+      </c>
+      <c r="B219">
+        <v>170</v>
+      </c>
+      <c r="C219">
+        <v>143.43600000000001</v>
+      </c>
+      <c r="D219">
+        <v>-1.6</v>
+      </c>
+      <c r="E219">
+        <v>-0.4</v>
+      </c>
+      <c r="F219">
+        <v>143.636</v>
+      </c>
+      <c r="G219">
+        <v>-0.4</v>
+      </c>
+      <c r="H219">
+        <v>0.4</v>
+      </c>
+      <c r="I219" t="s">
+        <v>24</v>
+      </c>
+      <c r="J219" t="s">
         <v>31</v>
       </c>
     </row>
@@ -16389,8 +18124,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="F202" sqref="F202"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19306,7 +21041,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20251,13 +21986,13 @@
         <v>101.636</v>
       </c>
       <c r="B56">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>17</v>
@@ -20268,13 +22003,13 @@
         <v>101.836</v>
       </c>
       <c r="B57">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E57">
         <v>17</v>
@@ -20302,13 +22037,13 @@
         <v>114.43599999999999</v>
       </c>
       <c r="B59">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -20319,13 +22054,13 @@
         <v>114.636</v>
       </c>
       <c r="B60">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -20375,10 +22110,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192095B2-1BEA-4365-B4DE-88EEBB6E4423}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21885,6 +23620,742 @@
       </c>
       <c r="J47" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>125.152</v>
+      </c>
+      <c r="D48">
+        <v>125.152</v>
+      </c>
+      <c r="E48">
+        <v>125.97199999999999</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1.5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>34</v>
+      </c>
+      <c r="C49">
+        <v>125.152</v>
+      </c>
+      <c r="D49">
+        <v>125.97199999999999</v>
+      </c>
+      <c r="E49">
+        <v>127.11</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1.5</v>
+      </c>
+      <c r="H49">
+        <v>-1.2</v>
+      </c>
+      <c r="I49">
+        <v>0.75</v>
+      </c>
+      <c r="J49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>125.152</v>
+      </c>
+      <c r="D50">
+        <v>127.11</v>
+      </c>
+      <c r="E50">
+        <v>128.24700000000001</v>
+      </c>
+      <c r="F50">
+        <v>-1.2</v>
+      </c>
+      <c r="G50">
+        <v>0.75</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>34</v>
+      </c>
+      <c r="C51">
+        <v>125.152</v>
+      </c>
+      <c r="D51">
+        <v>125.97199999999999</v>
+      </c>
+      <c r="E51">
+        <v>127.11</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1.5</v>
+      </c>
+      <c r="H51">
+        <v>1.2</v>
+      </c>
+      <c r="I51">
+        <v>0.75</v>
+      </c>
+      <c r="J51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>34</v>
+      </c>
+      <c r="C52">
+        <v>125.152</v>
+      </c>
+      <c r="D52">
+        <v>127.11</v>
+      </c>
+      <c r="E52">
+        <v>128.24700000000001</v>
+      </c>
+      <c r="F52">
+        <v>1.2</v>
+      </c>
+      <c r="G52">
+        <v>0.75</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>35</v>
+      </c>
+      <c r="C53">
+        <v>128.447</v>
+      </c>
+      <c r="D53">
+        <v>128.447</v>
+      </c>
+      <c r="E53">
+        <v>129.267</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>-1.2</v>
+      </c>
+      <c r="I53">
+        <v>1.2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>35</v>
+      </c>
+      <c r="C54">
+        <v>128.447</v>
+      </c>
+      <c r="D54">
+        <v>129.267</v>
+      </c>
+      <c r="E54">
+        <v>131.542</v>
+      </c>
+      <c r="F54">
+        <v>-1.2</v>
+      </c>
+      <c r="G54">
+        <v>1.2</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>35</v>
+      </c>
+      <c r="C55">
+        <v>128.447</v>
+      </c>
+      <c r="D55">
+        <v>129.267</v>
+      </c>
+      <c r="E55">
+        <v>131.542</v>
+      </c>
+      <c r="F55">
+        <v>-1.2</v>
+      </c>
+      <c r="G55">
+        <v>1.2</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>36</v>
+      </c>
+      <c r="C56">
+        <v>131.637</v>
+      </c>
+      <c r="D56">
+        <v>131.637</v>
+      </c>
+      <c r="E56">
+        <v>132.45699999999999</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1.2</v>
+      </c>
+      <c r="I56">
+        <v>1.2</v>
+      </c>
+      <c r="J56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>36</v>
+      </c>
+      <c r="C57">
+        <v>131.637</v>
+      </c>
+      <c r="D57">
+        <v>132.45699999999999</v>
+      </c>
+      <c r="E57">
+        <v>134.732</v>
+      </c>
+      <c r="F57">
+        <v>1.2</v>
+      </c>
+      <c r="G57">
+        <v>1.2</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>36</v>
+      </c>
+      <c r="C58">
+        <v>131.637</v>
+      </c>
+      <c r="D58">
+        <v>132.45699999999999</v>
+      </c>
+      <c r="E58">
+        <v>134.732</v>
+      </c>
+      <c r="F58">
+        <v>1.2</v>
+      </c>
+      <c r="G58">
+        <v>1.2</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>37</v>
+      </c>
+      <c r="C59">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="D59">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="E59">
+        <v>135.13600000000002</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1.2</v>
+      </c>
+      <c r="I59">
+        <v>0.75</v>
+      </c>
+      <c r="J59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>37</v>
+      </c>
+      <c r="C60">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="D60">
+        <v>135.13600000000002</v>
+      </c>
+      <c r="E60">
+        <v>135.43600000000004</v>
+      </c>
+      <c r="F60">
+        <v>1.2</v>
+      </c>
+      <c r="G60">
+        <v>0.75</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1.5</v>
+      </c>
+      <c r="J60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>37</v>
+      </c>
+      <c r="C61">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="D61">
+        <v>135.43600000000004</v>
+      </c>
+      <c r="E61">
+        <v>135.73600000000005</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1.5</v>
+      </c>
+      <c r="H61">
+        <v>-1.2</v>
+      </c>
+      <c r="I61">
+        <v>0.75</v>
+      </c>
+      <c r="J61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>37</v>
+      </c>
+      <c r="C62">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="D62">
+        <v>135.73600000000005</v>
+      </c>
+      <c r="E62">
+        <v>136.03600000000006</v>
+      </c>
+      <c r="F62">
+        <v>-1.2</v>
+      </c>
+      <c r="G62">
+        <v>0.75</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>37</v>
+      </c>
+      <c r="C63">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="D63">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="E63">
+        <v>135.73600000000005</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>1.5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>37</v>
+      </c>
+      <c r="C64">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="D64">
+        <v>135.73600000000005</v>
+      </c>
+      <c r="E64">
+        <v>136.03600000000006</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1.5</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>38</v>
+      </c>
+      <c r="C65">
+        <v>144.33600000000001</v>
+      </c>
+      <c r="D65">
+        <v>144.73599999999999</v>
+      </c>
+      <c r="E65">
+        <v>144.83600000000001</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0.6</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>39</v>
+      </c>
+      <c r="C66">
+        <v>145.23599999999999</v>
+      </c>
+      <c r="D66">
+        <v>145.536</v>
+      </c>
+      <c r="E66">
+        <v>145.636</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>-0.6</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>146.036</v>
+      </c>
+      <c r="D67">
+        <v>146.33600000000001</v>
+      </c>
+      <c r="E67">
+        <v>146.43600000000001</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0.6</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>17</v>
+      </c>
+      <c r="B68">
+        <v>41</v>
+      </c>
+      <c r="C68">
+        <v>147.536</v>
+      </c>
+      <c r="D68">
+        <v>147.73599999999999</v>
+      </c>
+      <c r="E68">
+        <v>147.83600000000001</v>
+      </c>
+      <c r="F68">
+        <v>-0.5</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>-1.2</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>17</v>
+      </c>
+      <c r="B69">
+        <v>42</v>
+      </c>
+      <c r="C69">
+        <v>147.73599999999999</v>
+      </c>
+      <c r="D69">
+        <v>148.036</v>
+      </c>
+      <c r="E69">
+        <v>148.136</v>
+      </c>
+      <c r="F69">
+        <v>-0.5</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>-0.5</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>17</v>
+      </c>
+      <c r="B70">
+        <v>43</v>
+      </c>
+      <c r="C70">
+        <v>148.036</v>
+      </c>
+      <c r="D70">
+        <v>148.33600000000001</v>
+      </c>
+      <c r="E70">
+        <v>148.43600000000001</v>
+      </c>
+      <c r="F70">
+        <v>-0.5</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0.2</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -21981,7 +24452,7 @@
       <c r="L5">
         <v>3.8359999999999999</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>61.735999999999997</v>
       </c>
       <c r="N5" s="1">
@@ -22001,7 +24472,7 @@
       <c r="L6">
         <v>4.3600000000000003</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>61.835999999999999</v>
       </c>
       <c r="N6" s="1">
@@ -22021,7 +24492,7 @@
       <c r="L7">
         <v>4.2359999999999998</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>61.936</v>
       </c>
       <c r="N7" s="1">

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AD529D-F14D-476E-A01A-D499FBA916EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA2CCA2-866A-4C26-9D7E-83C8F9AE77A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,10 +530,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA789EFB-BCA3-4FCA-98D4-565CD71AE543}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K146" sqref="K146"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>10000</v>
+        <v>151.036</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -3569,12 +3569,312 @@
         <v>1</v>
       </c>
       <c r="D152">
+        <v>151.036</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>151.036</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>151.43600000000001</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>151.43600000000001</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>152.036</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>152.036</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>152.23599999999999</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>152.23599999999999</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>161.636</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>17</v>
+      </c>
+      <c r="B157">
+        <v>151.036</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>151.43600000000001</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>17</v>
+      </c>
+      <c r="B158">
+        <v>151.43600000000001</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>152.036</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>17</v>
+      </c>
+      <c r="B159">
+        <v>152.036</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>152.23599999999999</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>17</v>
+      </c>
+      <c r="B160">
+        <v>152.23599999999999</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
         <v>10000</v>
       </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>161.636</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>161.83600000000001</v>
+      </c>
+      <c r="E161">
+        <v>1.2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>161.83600000000001</v>
+      </c>
+      <c r="C162">
+        <v>1.2</v>
+      </c>
+      <c r="D162">
+        <v>163.636</v>
+      </c>
+      <c r="E162">
+        <v>0.6</v>
+      </c>
+      <c r="F162" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>163.636</v>
+      </c>
+      <c r="C163">
+        <v>0.6</v>
+      </c>
+      <c r="D163">
+        <v>168.43600000000001</v>
+      </c>
+      <c r="E163">
+        <v>1.2</v>
+      </c>
+      <c r="F163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>168.43600000000001</v>
+      </c>
+      <c r="C164">
+        <v>1.2</v>
+      </c>
+      <c r="D164">
+        <v>170.036</v>
+      </c>
+      <c r="E164">
+        <v>1.2</v>
+      </c>
+      <c r="F164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>170.036</v>
+      </c>
+      <c r="C165">
+        <v>1.2</v>
+      </c>
+      <c r="D165">
+        <v>172.83600000000001</v>
+      </c>
+      <c r="E165">
+        <v>0.6</v>
+      </c>
+      <c r="F165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>172.83600000000001</v>
+      </c>
+      <c r="C166">
+        <v>0.6</v>
+      </c>
+      <c r="D166">
+        <v>173.23599999999999</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>173.23599999999999</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>10000</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3588,10 +3888,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D535"/>
+  <dimension ref="A1:D711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
-      <selection activeCell="F537" sqref="F537"/>
+    <sheetView tabSelected="1" topLeftCell="A677" workbookViewId="0">
+      <selection activeCell="I704" sqref="I704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11083,6 +11383,2470 @@
         <v>0.8</v>
       </c>
       <c r="D535">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>148.636</v>
+      </c>
+      <c r="B536">
+        <v>-1.2</v>
+      </c>
+      <c r="C536">
+        <v>0.8</v>
+      </c>
+      <c r="D536">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>148.636</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+      <c r="C537">
+        <v>0.8</v>
+      </c>
+      <c r="D537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>148.83600000000001</v>
+      </c>
+      <c r="B538">
+        <v>1.2</v>
+      </c>
+      <c r="C538">
+        <v>0.8</v>
+      </c>
+      <c r="D538">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>148.83600000000001</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+      <c r="C539">
+        <v>0.8</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>149.036</v>
+      </c>
+      <c r="B540">
+        <v>-1.2</v>
+      </c>
+      <c r="C540">
+        <v>0.8</v>
+      </c>
+      <c r="D540">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>149.036</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+      <c r="C541">
+        <v>0.8</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>149.23599999999999</v>
+      </c>
+      <c r="B542">
+        <v>1.2</v>
+      </c>
+      <c r="C542">
+        <v>0.8</v>
+      </c>
+      <c r="D542">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>149.536</v>
+      </c>
+      <c r="B543">
+        <v>-1.2</v>
+      </c>
+      <c r="C543">
+        <v>0.8</v>
+      </c>
+      <c r="D543">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>149.83600000000001</v>
+      </c>
+      <c r="B544">
+        <v>1.2</v>
+      </c>
+      <c r="C544">
+        <v>0.8</v>
+      </c>
+      <c r="D544">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>150.136</v>
+      </c>
+      <c r="B545">
+        <v>0.5</v>
+      </c>
+      <c r="C545">
+        <v>0.8</v>
+      </c>
+      <c r="D545">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>150.23599999999999</v>
+      </c>
+      <c r="B546">
+        <v>-1.4</v>
+      </c>
+      <c r="C546">
+        <v>0.8</v>
+      </c>
+      <c r="D546">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>150.33600000000001</v>
+      </c>
+      <c r="B547">
+        <v>-0.2</v>
+      </c>
+      <c r="C547">
+        <v>0.8</v>
+      </c>
+      <c r="D547">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>150.43600000000001</v>
+      </c>
+      <c r="B548">
+        <v>0.5</v>
+      </c>
+      <c r="C548">
+        <v>0.8</v>
+      </c>
+      <c r="D548">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>150.536</v>
+      </c>
+      <c r="B549">
+        <v>-1</v>
+      </c>
+      <c r="C549">
+        <v>0.8</v>
+      </c>
+      <c r="D549">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>150.636</v>
+      </c>
+      <c r="B550">
+        <v>1.4</v>
+      </c>
+      <c r="C550">
+        <v>0.8</v>
+      </c>
+      <c r="D550">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>150.73599999999999</v>
+      </c>
+      <c r="B551">
+        <v>-0.2</v>
+      </c>
+      <c r="C551">
+        <v>0.8</v>
+      </c>
+      <c r="D551">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>152.536</v>
+      </c>
+      <c r="B552">
+        <v>-1.6</v>
+      </c>
+      <c r="C552">
+        <v>0.8</v>
+      </c>
+      <c r="D552">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>152.636</v>
+      </c>
+      <c r="B553">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C553">
+        <v>0.8</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>152.73599999999999</v>
+      </c>
+      <c r="B554">
+        <v>-0.6</v>
+      </c>
+      <c r="C554">
+        <v>0.8</v>
+      </c>
+      <c r="D554">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>152.83600000000001</v>
+      </c>
+      <c r="B555">
+        <v>-0.1</v>
+      </c>
+      <c r="C555">
+        <v>0.8</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>152.93600000000001</v>
+      </c>
+      <c r="B556">
+        <v>0.4</v>
+      </c>
+      <c r="C556">
+        <v>0.8</v>
+      </c>
+      <c r="D556">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>153.036</v>
+      </c>
+      <c r="B557">
+        <v>0.9</v>
+      </c>
+      <c r="C557">
+        <v>0.8</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>153.136</v>
+      </c>
+      <c r="B558">
+        <v>1.4</v>
+      </c>
+      <c r="C558">
+        <v>0.8</v>
+      </c>
+      <c r="D558">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>153.43600000000001</v>
+      </c>
+      <c r="B559">
+        <v>0.2</v>
+      </c>
+      <c r="C559">
+        <v>0.8</v>
+      </c>
+      <c r="D559">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>153.536</v>
+      </c>
+      <c r="B560">
+        <v>1.6</v>
+      </c>
+      <c r="C560">
+        <v>0.8</v>
+      </c>
+      <c r="D560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>153.636</v>
+      </c>
+      <c r="B561">
+        <v>-0.6</v>
+      </c>
+      <c r="C561">
+        <v>0.8</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>153.73599999999999</v>
+      </c>
+      <c r="B562">
+        <v>0.6</v>
+      </c>
+      <c r="C562">
+        <v>0.8</v>
+      </c>
+      <c r="D562">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>153.83600000000001</v>
+      </c>
+      <c r="B563">
+        <v>-1.4</v>
+      </c>
+      <c r="C563">
+        <v>0.8</v>
+      </c>
+      <c r="D563">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>153.93600000000001</v>
+      </c>
+      <c r="B564">
+        <v>0.6</v>
+      </c>
+      <c r="C564">
+        <v>0.8</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>154.036</v>
+      </c>
+      <c r="B565">
+        <v>-0.5</v>
+      </c>
+      <c r="C565">
+        <v>0.8</v>
+      </c>
+      <c r="D565">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>154.136</v>
+      </c>
+      <c r="B566">
+        <v>1.6</v>
+      </c>
+      <c r="C566">
+        <v>0.8</v>
+      </c>
+      <c r="D566">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>154.23599999999999</v>
+      </c>
+      <c r="B567">
+        <v>-1.5</v>
+      </c>
+      <c r="C567">
+        <v>0.8</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>154.33600000000001</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+      <c r="C568">
+        <v>0.8</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>154.43600000000001</v>
+      </c>
+      <c r="B569">
+        <v>-0.7</v>
+      </c>
+      <c r="C569">
+        <v>0.8</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>154.536</v>
+      </c>
+      <c r="B570">
+        <v>1.2</v>
+      </c>
+      <c r="C570">
+        <v>0.8</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>154.636</v>
+      </c>
+      <c r="B571">
+        <v>-0.5</v>
+      </c>
+      <c r="C571">
+        <v>0.8</v>
+      </c>
+      <c r="D571">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>154.73599999999999</v>
+      </c>
+      <c r="B572">
+        <v>1.6</v>
+      </c>
+      <c r="C572">
+        <v>0.8</v>
+      </c>
+      <c r="D572">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>154.83600000000001</v>
+      </c>
+      <c r="B573">
+        <v>-1.5</v>
+      </c>
+      <c r="C573">
+        <v>0.8</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>154.93600000000001</v>
+      </c>
+      <c r="B574">
+        <v>0</v>
+      </c>
+      <c r="C574">
+        <v>0.8</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>155.036</v>
+      </c>
+      <c r="B575">
+        <v>-0.7</v>
+      </c>
+      <c r="C575">
+        <v>0.8</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>155.136</v>
+      </c>
+      <c r="B576">
+        <v>1.3</v>
+      </c>
+      <c r="C576">
+        <v>0.8</v>
+      </c>
+      <c r="D576">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>155.18600000000001</v>
+      </c>
+      <c r="B577">
+        <v>0</v>
+      </c>
+      <c r="C577">
+        <v>0.8</v>
+      </c>
+      <c r="D577">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>155.23599999999999</v>
+      </c>
+      <c r="B578">
+        <v>1.3</v>
+      </c>
+      <c r="C578">
+        <v>0.8</v>
+      </c>
+      <c r="D578">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>155.43600000000001</v>
+      </c>
+      <c r="B579">
+        <v>-1</v>
+      </c>
+      <c r="C579">
+        <v>0.8</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>155.536</v>
+      </c>
+      <c r="B580">
+        <v>0.4</v>
+      </c>
+      <c r="C580">
+        <v>0.8</v>
+      </c>
+      <c r="D580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>155.73599999999999</v>
+      </c>
+      <c r="B581">
+        <v>-1.5</v>
+      </c>
+      <c r="C581">
+        <v>0.8</v>
+      </c>
+      <c r="D581">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>155.83600000000001</v>
+      </c>
+      <c r="B582">
+        <v>0.5</v>
+      </c>
+      <c r="C582">
+        <v>0.8</v>
+      </c>
+      <c r="D582">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>155.93600000000001</v>
+      </c>
+      <c r="B583">
+        <v>-0.5</v>
+      </c>
+      <c r="C583">
+        <v>0.8</v>
+      </c>
+      <c r="D583">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>156.83600000000001</v>
+      </c>
+      <c r="B584">
+        <v>-0.7</v>
+      </c>
+      <c r="C584">
+        <v>0.8</v>
+      </c>
+      <c r="D584">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>156.93600000000001</v>
+      </c>
+      <c r="B585">
+        <v>1</v>
+      </c>
+      <c r="C585">
+        <v>0.8</v>
+      </c>
+      <c r="D585">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>157.036</v>
+      </c>
+      <c r="B586">
+        <v>-0.7</v>
+      </c>
+      <c r="C586">
+        <v>0.8</v>
+      </c>
+      <c r="D586">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>157.136</v>
+      </c>
+      <c r="B587">
+        <v>0.5</v>
+      </c>
+      <c r="C587">
+        <v>0.8</v>
+      </c>
+      <c r="D587">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>157.23599999999999</v>
+      </c>
+      <c r="B588">
+        <v>-1.5</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+      <c r="D588">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>157.43600000000001</v>
+      </c>
+      <c r="B589">
+        <v>0.15</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+      <c r="D589">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>157.636</v>
+      </c>
+      <c r="B590">
+        <v>-0.5</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+      <c r="D590">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>157.83600000000001</v>
+      </c>
+      <c r="B591">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+      <c r="D591">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>158.036</v>
+      </c>
+      <c r="B592">
+        <v>0.15</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+      <c r="D592">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>158.23599999999999</v>
+      </c>
+      <c r="B593">
+        <v>1.5</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+      <c r="D593">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>158.43600000000001</v>
+      </c>
+      <c r="B594">
+        <v>-0.85</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+      <c r="D594">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>158.636</v>
+      </c>
+      <c r="B595">
+        <v>0</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+      <c r="D595">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>158.83600000000001</v>
+      </c>
+      <c r="B596">
+        <v>-1</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+      <c r="D596">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>159.036</v>
+      </c>
+      <c r="B597">
+        <v>0.3</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+      <c r="D597">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>159.43600000000001</v>
+      </c>
+      <c r="B598">
+        <v>0.2</v>
+      </c>
+      <c r="C598">
+        <v>0.8</v>
+      </c>
+      <c r="D598">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>159.536</v>
+      </c>
+      <c r="B599">
+        <v>-0.7</v>
+      </c>
+      <c r="C599">
+        <v>0.8</v>
+      </c>
+      <c r="D599">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>159.636</v>
+      </c>
+      <c r="B600">
+        <v>-1.5</v>
+      </c>
+      <c r="C600">
+        <v>0.8</v>
+      </c>
+      <c r="D600">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>159.73599999999999</v>
+      </c>
+      <c r="B601">
+        <v>0.5</v>
+      </c>
+      <c r="C601">
+        <v>0.8</v>
+      </c>
+      <c r="D601">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>159.83600000000001</v>
+      </c>
+      <c r="B602">
+        <v>-0.5</v>
+      </c>
+      <c r="C602">
+        <v>0.8</v>
+      </c>
+      <c r="D602">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>159.93600000000001</v>
+      </c>
+      <c r="B603">
+        <v>1.5</v>
+      </c>
+      <c r="C603">
+        <v>0.8</v>
+      </c>
+      <c r="D603">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>160.036</v>
+      </c>
+      <c r="B604">
+        <v>0.5</v>
+      </c>
+      <c r="C604">
+        <v>0.8</v>
+      </c>
+      <c r="D604">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>160.136</v>
+      </c>
+      <c r="B605">
+        <v>-0.5</v>
+      </c>
+      <c r="C605">
+        <v>0.8</v>
+      </c>
+      <c r="D605">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>160.23599999999999</v>
+      </c>
+      <c r="B606">
+        <v>1.6</v>
+      </c>
+      <c r="C606">
+        <v>0.8</v>
+      </c>
+      <c r="D606">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>160.33600000000001</v>
+      </c>
+      <c r="B607">
+        <v>-1.3</v>
+      </c>
+      <c r="C607">
+        <v>0.8</v>
+      </c>
+      <c r="D607">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>160.73599999999999</v>
+      </c>
+      <c r="B608">
+        <v>1</v>
+      </c>
+      <c r="C608">
+        <v>0.8</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>161.036</v>
+      </c>
+      <c r="B609">
+        <v>0</v>
+      </c>
+      <c r="C609">
+        <v>0.8</v>
+      </c>
+      <c r="D609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>161.33600000000001</v>
+      </c>
+      <c r="B610">
+        <v>-1</v>
+      </c>
+      <c r="C610">
+        <v>0.8</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>161.536</v>
+      </c>
+      <c r="B611">
+        <v>-1</v>
+      </c>
+      <c r="C611">
+        <v>0.8</v>
+      </c>
+      <c r="D611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>161.636</v>
+      </c>
+      <c r="B612">
+        <v>0</v>
+      </c>
+      <c r="C612">
+        <v>0.8</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>161.83600000000001</v>
+      </c>
+      <c r="B613">
+        <v>-1.6</v>
+      </c>
+      <c r="C613">
+        <v>0.8</v>
+      </c>
+      <c r="D613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>163.636</v>
+      </c>
+      <c r="B614">
+        <v>-1.5</v>
+      </c>
+      <c r="C614">
+        <v>0.8</v>
+      </c>
+      <c r="D614">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>163.73599999999999</v>
+      </c>
+      <c r="B615">
+        <v>0</v>
+      </c>
+      <c r="C615">
+        <v>0.8</v>
+      </c>
+      <c r="D615">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>163.83600000000001</v>
+      </c>
+      <c r="B616">
+        <v>-1</v>
+      </c>
+      <c r="C616">
+        <v>0.8</v>
+      </c>
+      <c r="D616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>163.93600000000001</v>
+      </c>
+      <c r="B617">
+        <v>0.5</v>
+      </c>
+      <c r="C617">
+        <v>0.8</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>164.23599999999999</v>
+      </c>
+      <c r="B618">
+        <v>-1.5</v>
+      </c>
+      <c r="C618">
+        <v>0.8</v>
+      </c>
+      <c r="D618">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>164.33600000000001</v>
+      </c>
+      <c r="B619">
+        <v>0</v>
+      </c>
+      <c r="C619">
+        <v>0.8</v>
+      </c>
+      <c r="D619">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>164.43600000000001</v>
+      </c>
+      <c r="B620">
+        <v>-0.5</v>
+      </c>
+      <c r="C620">
+        <v>0.8</v>
+      </c>
+      <c r="D620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>164.536</v>
+      </c>
+      <c r="B621">
+        <v>1</v>
+      </c>
+      <c r="C621">
+        <v>0.8</v>
+      </c>
+      <c r="D621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>164.83600000000001</v>
+      </c>
+      <c r="B622">
+        <v>-1.5</v>
+      </c>
+      <c r="C622">
+        <v>0.8</v>
+      </c>
+      <c r="D622">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>164.93600000000001</v>
+      </c>
+      <c r="B623">
+        <v>0</v>
+      </c>
+      <c r="C623">
+        <v>0.8</v>
+      </c>
+      <c r="D623">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>165.036</v>
+      </c>
+      <c r="B624">
+        <v>0</v>
+      </c>
+      <c r="C624">
+        <v>0.8</v>
+      </c>
+      <c r="D624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>165.136</v>
+      </c>
+      <c r="B625">
+        <v>1.5</v>
+      </c>
+      <c r="C625">
+        <v>0.8</v>
+      </c>
+      <c r="D625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>165.23599999999999</v>
+      </c>
+      <c r="B626">
+        <v>0</v>
+      </c>
+      <c r="C626">
+        <v>0.8</v>
+      </c>
+      <c r="D626">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>165.33600000000001</v>
+      </c>
+      <c r="B627">
+        <v>1.5</v>
+      </c>
+      <c r="C627">
+        <v>0.8</v>
+      </c>
+      <c r="D627">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>165.43600000000001</v>
+      </c>
+      <c r="B628">
+        <v>-0.5</v>
+      </c>
+      <c r="C628">
+        <v>0.8</v>
+      </c>
+      <c r="D628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>165.536</v>
+      </c>
+      <c r="B629">
+        <v>1</v>
+      </c>
+      <c r="C629">
+        <v>0.8</v>
+      </c>
+      <c r="D629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>165.83600000000001</v>
+      </c>
+      <c r="B630">
+        <v>0</v>
+      </c>
+      <c r="C630">
+        <v>0.8</v>
+      </c>
+      <c r="D630">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>165.93600000000001</v>
+      </c>
+      <c r="B631">
+        <v>1.5</v>
+      </c>
+      <c r="C631">
+        <v>0.8</v>
+      </c>
+      <c r="D631">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>166.036</v>
+      </c>
+      <c r="B632">
+        <v>-1</v>
+      </c>
+      <c r="C632">
+        <v>0.8</v>
+      </c>
+      <c r="D632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>166.136</v>
+      </c>
+      <c r="B633">
+        <v>0.5</v>
+      </c>
+      <c r="C633">
+        <v>0.8</v>
+      </c>
+      <c r="D633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>166.43600000000001</v>
+      </c>
+      <c r="B634">
+        <v>0</v>
+      </c>
+      <c r="C634">
+        <v>0.8</v>
+      </c>
+      <c r="D634">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>166.536</v>
+      </c>
+      <c r="B635">
+        <v>1.5</v>
+      </c>
+      <c r="C635">
+        <v>0.8</v>
+      </c>
+      <c r="D635">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>166.636</v>
+      </c>
+      <c r="B636">
+        <v>-1.5</v>
+      </c>
+      <c r="C636">
+        <v>0.8</v>
+      </c>
+      <c r="D636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>166.73599999999999</v>
+      </c>
+      <c r="B637">
+        <v>0</v>
+      </c>
+      <c r="C637">
+        <v>0.8</v>
+      </c>
+      <c r="D637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>166.83599999999998</v>
+      </c>
+      <c r="B638">
+        <v>-1.5</v>
+      </c>
+      <c r="C638">
+        <v>0.8</v>
+      </c>
+      <c r="D638">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>166.93599999999998</v>
+      </c>
+      <c r="B639">
+        <v>0</v>
+      </c>
+      <c r="C639">
+        <v>0.8</v>
+      </c>
+      <c r="D639">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>167.036</v>
+      </c>
+      <c r="B640">
+        <v>-1</v>
+      </c>
+      <c r="C640">
+        <v>0.8</v>
+      </c>
+      <c r="D640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>167.136</v>
+      </c>
+      <c r="B641">
+        <v>0.5</v>
+      </c>
+      <c r="C641">
+        <v>0.8</v>
+      </c>
+      <c r="D641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>167.43599999999998</v>
+      </c>
+      <c r="B642">
+        <v>-1.5</v>
+      </c>
+      <c r="C642">
+        <v>0.8</v>
+      </c>
+      <c r="D642">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>167.536</v>
+      </c>
+      <c r="B643">
+        <v>0</v>
+      </c>
+      <c r="C643">
+        <v>0.8</v>
+      </c>
+      <c r="D643">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>167.636</v>
+      </c>
+      <c r="B644">
+        <v>-0.5</v>
+      </c>
+      <c r="C644">
+        <v>0.8</v>
+      </c>
+      <c r="D644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>167.73599999999999</v>
+      </c>
+      <c r="B645">
+        <v>1</v>
+      </c>
+      <c r="C645">
+        <v>0.8</v>
+      </c>
+      <c r="D645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>168.036</v>
+      </c>
+      <c r="B646">
+        <v>-1.5</v>
+      </c>
+      <c r="C646">
+        <v>0.8</v>
+      </c>
+      <c r="D646">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>168.136</v>
+      </c>
+      <c r="B647">
+        <v>0</v>
+      </c>
+      <c r="C647">
+        <v>0.8</v>
+      </c>
+      <c r="D647">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>168.23599999999999</v>
+      </c>
+      <c r="B648">
+        <v>0</v>
+      </c>
+      <c r="C648">
+        <v>0.8</v>
+      </c>
+      <c r="D648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>168.33599999999998</v>
+      </c>
+      <c r="B649">
+        <v>1.5</v>
+      </c>
+      <c r="C649">
+        <v>0.8</v>
+      </c>
+      <c r="D649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>168.43599999999998</v>
+      </c>
+      <c r="B650">
+        <v>0</v>
+      </c>
+      <c r="C650">
+        <v>0.8</v>
+      </c>
+      <c r="D650">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>168.536</v>
+      </c>
+      <c r="B651">
+        <v>1.5</v>
+      </c>
+      <c r="C651">
+        <v>0.8</v>
+      </c>
+      <c r="D651">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>168.636</v>
+      </c>
+      <c r="B652">
+        <v>-1.5</v>
+      </c>
+      <c r="C652">
+        <v>0.8</v>
+      </c>
+      <c r="D652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>168.73599999999999</v>
+      </c>
+      <c r="B653">
+        <v>0</v>
+      </c>
+      <c r="C653">
+        <v>0.8</v>
+      </c>
+      <c r="D653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>169.23599999999999</v>
+      </c>
+      <c r="B654">
+        <v>-0.4</v>
+      </c>
+      <c r="C654">
+        <v>0.7</v>
+      </c>
+      <c r="D654">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>169.286</v>
+      </c>
+      <c r="B655">
+        <v>0.4</v>
+      </c>
+      <c r="C655">
+        <v>0.7</v>
+      </c>
+      <c r="D655">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>169.33600000000001</v>
+      </c>
+      <c r="B656">
+        <v>-0.4</v>
+      </c>
+      <c r="C656">
+        <v>0.7</v>
+      </c>
+      <c r="D656">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>169.43600000000001</v>
+      </c>
+      <c r="B657">
+        <v>1.6</v>
+      </c>
+      <c r="C657">
+        <v>0.8</v>
+      </c>
+      <c r="D657">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>169.536</v>
+      </c>
+      <c r="B658">
+        <v>-1.6</v>
+      </c>
+      <c r="C658">
+        <v>0.8</v>
+      </c>
+      <c r="D658">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>169.636</v>
+      </c>
+      <c r="B659">
+        <v>0.8</v>
+      </c>
+      <c r="C659">
+        <v>0.8</v>
+      </c>
+      <c r="D659">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>169.73599999999999</v>
+      </c>
+      <c r="B660">
+        <v>-0.8</v>
+      </c>
+      <c r="C660">
+        <v>0.8</v>
+      </c>
+      <c r="D660">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>169.83600000000001</v>
+      </c>
+      <c r="B661">
+        <v>0</v>
+      </c>
+      <c r="C661">
+        <v>0.8</v>
+      </c>
+      <c r="D661">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>169.93600000000001</v>
+      </c>
+      <c r="B662">
+        <v>-1.6</v>
+      </c>
+      <c r="C662">
+        <v>0.8</v>
+      </c>
+      <c r="D662">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>170.036</v>
+      </c>
+      <c r="B663">
+        <v>1.5</v>
+      </c>
+      <c r="C663">
+        <v>0.8</v>
+      </c>
+      <c r="D663">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>170.136</v>
+      </c>
+      <c r="B664">
+        <v>0</v>
+      </c>
+      <c r="C664">
+        <v>0.8</v>
+      </c>
+      <c r="D664">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>170.23600000000002</v>
+      </c>
+      <c r="B665">
+        <v>1</v>
+      </c>
+      <c r="C665">
+        <v>0.8</v>
+      </c>
+      <c r="D665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>170.33600000000001</v>
+      </c>
+      <c r="B666">
+        <v>-0.5</v>
+      </c>
+      <c r="C666">
+        <v>0.8</v>
+      </c>
+      <c r="D666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>170.636</v>
+      </c>
+      <c r="B667">
+        <v>1.5</v>
+      </c>
+      <c r="C667">
+        <v>0.8</v>
+      </c>
+      <c r="D667">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>170.73600000000002</v>
+      </c>
+      <c r="B668">
+        <v>0</v>
+      </c>
+      <c r="C668">
+        <v>0.8</v>
+      </c>
+      <c r="D668">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>170.83600000000001</v>
+      </c>
+      <c r="B669">
+        <v>0.5</v>
+      </c>
+      <c r="C669">
+        <v>0.8</v>
+      </c>
+      <c r="D669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>170.93600000000001</v>
+      </c>
+      <c r="B670">
+        <v>-1</v>
+      </c>
+      <c r="C670">
+        <v>0.8</v>
+      </c>
+      <c r="D670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>171.23600000000002</v>
+      </c>
+      <c r="B671">
+        <v>1.5</v>
+      </c>
+      <c r="C671">
+        <v>0.8</v>
+      </c>
+      <c r="D671">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>171.33600000000001</v>
+      </c>
+      <c r="B672">
+        <v>0</v>
+      </c>
+      <c r="C672">
+        <v>0.8</v>
+      </c>
+      <c r="D672">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>171.43600000000001</v>
+      </c>
+      <c r="B673">
+        <v>0</v>
+      </c>
+      <c r="C673">
+        <v>0.8</v>
+      </c>
+      <c r="D673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>171.536</v>
+      </c>
+      <c r="B674">
+        <v>-1.5</v>
+      </c>
+      <c r="C674">
+        <v>0.8</v>
+      </c>
+      <c r="D674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>171.636</v>
+      </c>
+      <c r="B675">
+        <v>0</v>
+      </c>
+      <c r="C675">
+        <v>0.8</v>
+      </c>
+      <c r="D675">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>171.73600000000002</v>
+      </c>
+      <c r="B676">
+        <v>-1.5</v>
+      </c>
+      <c r="C676">
+        <v>0.8</v>
+      </c>
+      <c r="D676">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>171.83600000000001</v>
+      </c>
+      <c r="B677">
+        <v>0.5</v>
+      </c>
+      <c r="C677">
+        <v>0.8</v>
+      </c>
+      <c r="D677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>171.93600000000001</v>
+      </c>
+      <c r="B678">
+        <v>-1</v>
+      </c>
+      <c r="C678">
+        <v>0.8</v>
+      </c>
+      <c r="D678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>172.23599999999999</v>
+      </c>
+      <c r="B679">
+        <v>0</v>
+      </c>
+      <c r="C679">
+        <v>0.8</v>
+      </c>
+      <c r="D679">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>172.33600000000001</v>
+      </c>
+      <c r="B680">
+        <v>-1.5</v>
+      </c>
+      <c r="C680">
+        <v>0.8</v>
+      </c>
+      <c r="D680">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>172.43600000000001</v>
+      </c>
+      <c r="B681">
+        <v>1</v>
+      </c>
+      <c r="C681">
+        <v>0.8</v>
+      </c>
+      <c r="D681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>172.536</v>
+      </c>
+      <c r="B682">
+        <v>-0.5</v>
+      </c>
+      <c r="C682">
+        <v>0.8</v>
+      </c>
+      <c r="D682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>173.23599999999999</v>
+      </c>
+      <c r="B683">
+        <v>-1.7</v>
+      </c>
+      <c r="C683">
+        <v>0.6</v>
+      </c>
+      <c r="D683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>173.303</v>
+      </c>
+      <c r="B684">
+        <v>-0.2</v>
+      </c>
+      <c r="C684">
+        <v>0.62</v>
+      </c>
+      <c r="D684">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>173.37</v>
+      </c>
+      <c r="B685">
+        <v>-1.2</v>
+      </c>
+      <c r="C685">
+        <v>0.64</v>
+      </c>
+      <c r="D685">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A686">
+        <v>173.43700000000001</v>
+      </c>
+      <c r="B686">
+        <v>0.3</v>
+      </c>
+      <c r="C686">
+        <v>0.66</v>
+      </c>
+      <c r="D686">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A687">
+        <v>173.50400000000002</v>
+      </c>
+      <c r="B687">
+        <v>-0.7</v>
+      </c>
+      <c r="C687">
+        <v>0.68</v>
+      </c>
+      <c r="D687">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A688">
+        <v>173.57100000000003</v>
+      </c>
+      <c r="B688">
+        <v>1.6</v>
+      </c>
+      <c r="C688">
+        <v>0.7</v>
+      </c>
+      <c r="D688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A689">
+        <v>173.63800000000003</v>
+      </c>
+      <c r="B689">
+        <v>-0.3</v>
+      </c>
+      <c r="C689">
+        <v>0.72</v>
+      </c>
+      <c r="D689">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A690">
+        <v>173.70500000000004</v>
+      </c>
+      <c r="B690">
+        <v>1</v>
+      </c>
+      <c r="C690">
+        <v>0.74</v>
+      </c>
+      <c r="D690">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A691">
+        <v>173.77200000000005</v>
+      </c>
+      <c r="B691">
+        <v>0.3</v>
+      </c>
+      <c r="C691">
+        <v>0.76</v>
+      </c>
+      <c r="D691">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A692">
+        <v>173.83900000000006</v>
+      </c>
+      <c r="B692">
+        <v>1.6</v>
+      </c>
+      <c r="C692">
+        <v>0.78</v>
+      </c>
+      <c r="D692">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A693">
+        <v>173.90600000000006</v>
+      </c>
+      <c r="B693">
+        <v>-0.9</v>
+      </c>
+      <c r="C693">
+        <v>0.8</v>
+      </c>
+      <c r="D693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>173.97300000000007</v>
+      </c>
+      <c r="B694">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C694">
+        <v>0.82</v>
+      </c>
+      <c r="D694">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>174.04000000000008</v>
+      </c>
+      <c r="B695">
+        <v>-0.5</v>
+      </c>
+      <c r="C695">
+        <v>0.84</v>
+      </c>
+      <c r="D695">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>174.10700000000008</v>
+      </c>
+      <c r="B696">
+        <v>0.4</v>
+      </c>
+      <c r="C696">
+        <v>0.86</v>
+      </c>
+      <c r="D696">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A697">
+        <v>174.17400000000009</v>
+      </c>
+      <c r="B697">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C697">
+        <v>0.88</v>
+      </c>
+      <c r="D697">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A698">
+        <v>174.2410000000001</v>
+      </c>
+      <c r="B698">
+        <v>1.5</v>
+      </c>
+      <c r="C698">
+        <v>0.9</v>
+      </c>
+      <c r="D698">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>174.34100000000001</v>
+      </c>
+      <c r="B699">
+        <v>0</v>
+      </c>
+      <c r="C699">
+        <v>0.9</v>
+      </c>
+      <c r="D699">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>174.441</v>
+      </c>
+      <c r="B700">
+        <v>0.9</v>
+      </c>
+      <c r="C700">
+        <v>0.9</v>
+      </c>
+      <c r="D700">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>174.541</v>
+      </c>
+      <c r="B701">
+        <v>-0.6</v>
+      </c>
+      <c r="C701">
+        <v>0.9</v>
+      </c>
+      <c r="D701">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>174.64099999999999</v>
+      </c>
+      <c r="B702">
+        <v>0.3</v>
+      </c>
+      <c r="C702">
+        <v>0.9</v>
+      </c>
+      <c r="D702">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A703">
+        <v>174.74100000000001</v>
+      </c>
+      <c r="B703">
+        <v>-1.2</v>
+      </c>
+      <c r="C703">
+        <v>0.9</v>
+      </c>
+      <c r="D703">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A704">
+        <v>175.73599999999999</v>
+      </c>
+      <c r="B704">
+        <v>1</v>
+      </c>
+      <c r="C704">
+        <v>1</v>
+      </c>
+      <c r="D704">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A705">
+        <v>175.83600000000001</v>
+      </c>
+      <c r="B705">
+        <v>-1</v>
+      </c>
+      <c r="C705">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="D705">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A706">
+        <v>175.93600000000001</v>
+      </c>
+      <c r="B706">
+        <v>1</v>
+      </c>
+      <c r="C706">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="D706">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A707">
+        <v>176.036</v>
+      </c>
+      <c r="B707">
+        <v>-1</v>
+      </c>
+      <c r="C707">
+        <v>1.4285714285714288</v>
+      </c>
+      <c r="D707">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A708">
+        <v>176.136</v>
+      </c>
+      <c r="B708">
+        <v>1</v>
+      </c>
+      <c r="C708">
+        <v>1.5714285714285721</v>
+      </c>
+      <c r="D708">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A709">
+        <v>176.23599999999999</v>
+      </c>
+      <c r="B709">
+        <v>-1</v>
+      </c>
+      <c r="C709">
+        <v>1.7142857142857149</v>
+      </c>
+      <c r="D709">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A710">
+        <v>176.33600000000001</v>
+      </c>
+      <c r="B710">
+        <v>1</v>
+      </c>
+      <c r="C710">
+        <v>1.8571428571428579</v>
+      </c>
+      <c r="D710">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A711">
+        <v>176.43600000000001</v>
+      </c>
+      <c r="B711">
+        <v>-1</v>
+      </c>
+      <c r="C711">
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="D711">
         <v>17</v>
       </c>
     </row>
@@ -11096,10 +13860,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J219"/>
+  <dimension ref="A1:J239"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="L219" sqref="L219"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="G242" sqref="G242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18110,6 +20874,646 @@
       </c>
       <c r="J219" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220">
+        <v>171</v>
+      </c>
+      <c r="C220">
+        <v>150.83600000000001</v>
+      </c>
+      <c r="D220">
+        <v>0.4</v>
+      </c>
+      <c r="E220">
+        <v>1.2</v>
+      </c>
+      <c r="F220">
+        <v>151.036</v>
+      </c>
+      <c r="G220">
+        <v>-0.4</v>
+      </c>
+      <c r="H220">
+        <v>0.4</v>
+      </c>
+      <c r="I220" t="s">
+        <v>25</v>
+      </c>
+      <c r="J220" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>171</v>
+      </c>
+      <c r="C221">
+        <v>151.036</v>
+      </c>
+      <c r="D221">
+        <v>-0.4</v>
+      </c>
+      <c r="E221">
+        <v>0.4</v>
+      </c>
+      <c r="F221">
+        <v>151.43600000000001</v>
+      </c>
+      <c r="G221">
+        <v>1.2</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221" t="s">
+        <v>31</v>
+      </c>
+      <c r="J221" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>171</v>
+      </c>
+      <c r="C222">
+        <v>151.43600000000001</v>
+      </c>
+      <c r="D222">
+        <v>1.2</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="F222">
+        <v>152.036</v>
+      </c>
+      <c r="G222">
+        <v>-2</v>
+      </c>
+      <c r="H222">
+        <v>-1.2</v>
+      </c>
+      <c r="I222" t="s">
+        <v>25</v>
+      </c>
+      <c r="J222" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <v>171</v>
+      </c>
+      <c r="C223">
+        <v>152.036</v>
+      </c>
+      <c r="D223">
+        <v>-2</v>
+      </c>
+      <c r="E223">
+        <v>-1.2</v>
+      </c>
+      <c r="F223">
+        <v>152.23599999999999</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0.8</v>
+      </c>
+      <c r="I223" t="s">
+        <v>25</v>
+      </c>
+      <c r="J223" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224">
+        <v>171</v>
+      </c>
+      <c r="C224">
+        <v>152.23599999999999</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0.8</v>
+      </c>
+      <c r="F224">
+        <v>152.43600000000001</v>
+      </c>
+      <c r="G224">
+        <v>-2</v>
+      </c>
+      <c r="H224">
+        <v>-1.2</v>
+      </c>
+      <c r="I224" t="s">
+        <v>25</v>
+      </c>
+      <c r="J224" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>17</v>
+      </c>
+      <c r="B225">
+        <v>172</v>
+      </c>
+      <c r="C225">
+        <v>151.43600000000001</v>
+      </c>
+      <c r="D225">
+        <v>1.2</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
+      </c>
+      <c r="F225">
+        <v>152.036</v>
+      </c>
+      <c r="G225">
+        <v>-2</v>
+      </c>
+      <c r="H225">
+        <v>-1.2</v>
+      </c>
+      <c r="I225" t="s">
+        <v>25</v>
+      </c>
+      <c r="J225" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>17</v>
+      </c>
+      <c r="B226">
+        <v>172</v>
+      </c>
+      <c r="C226">
+        <v>152.036</v>
+      </c>
+      <c r="D226">
+        <v>-2</v>
+      </c>
+      <c r="E226">
+        <v>-1.2</v>
+      </c>
+      <c r="F226">
+        <v>152.23599999999999</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0.8</v>
+      </c>
+      <c r="I226" t="s">
+        <v>25</v>
+      </c>
+      <c r="J226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>17</v>
+      </c>
+      <c r="B227">
+        <v>172</v>
+      </c>
+      <c r="C227">
+        <v>152.23599999999999</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0.8</v>
+      </c>
+      <c r="F227">
+        <v>152.43600000000001</v>
+      </c>
+      <c r="G227">
+        <v>-2</v>
+      </c>
+      <c r="H227">
+        <v>-1.2</v>
+      </c>
+      <c r="I227" t="s">
+        <v>25</v>
+      </c>
+      <c r="J227" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>173</v>
+      </c>
+      <c r="C228">
+        <v>153.23599999999999</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1.8</v>
+      </c>
+      <c r="F228">
+        <v>153.286</v>
+      </c>
+      <c r="G228">
+        <v>1.4</v>
+      </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="I228" t="s">
+        <v>25</v>
+      </c>
+      <c r="J228" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>173</v>
+      </c>
+      <c r="C229">
+        <v>153.286</v>
+      </c>
+      <c r="D229">
+        <v>1.4</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229">
+        <v>153.43600000000001</v>
+      </c>
+      <c r="G229">
+        <v>1.4</v>
+      </c>
+      <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229" t="s">
+        <v>25</v>
+      </c>
+      <c r="J229" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>17</v>
+      </c>
+      <c r="B230">
+        <v>174</v>
+      </c>
+      <c r="C230">
+        <v>156.036</v>
+      </c>
+      <c r="D230">
+        <v>1.2</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="F230">
+        <v>156.23599999999999</v>
+      </c>
+      <c r="G230">
+        <v>1.2</v>
+      </c>
+      <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230" t="s">
+        <v>25</v>
+      </c>
+      <c r="J230" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>17</v>
+      </c>
+      <c r="B231">
+        <v>175</v>
+      </c>
+      <c r="C231">
+        <v>156.23599999999999</v>
+      </c>
+      <c r="D231">
+        <v>-0.4</v>
+      </c>
+      <c r="E231">
+        <v>0.4</v>
+      </c>
+      <c r="F231">
+        <v>156.636</v>
+      </c>
+      <c r="G231">
+        <v>-0.4</v>
+      </c>
+      <c r="H231">
+        <v>0.4</v>
+      </c>
+      <c r="I231" t="s">
+        <v>25</v>
+      </c>
+      <c r="J231" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>17</v>
+      </c>
+      <c r="B232">
+        <v>176</v>
+      </c>
+      <c r="C232">
+        <v>156.636</v>
+      </c>
+      <c r="D232">
+        <v>0.6</v>
+      </c>
+      <c r="E232">
+        <v>1.4</v>
+      </c>
+      <c r="F232">
+        <v>156.83600000000001</v>
+      </c>
+      <c r="G232">
+        <v>0.6</v>
+      </c>
+      <c r="H232">
+        <v>1.4</v>
+      </c>
+      <c r="I232" t="s">
+        <v>25</v>
+      </c>
+      <c r="J232" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>17</v>
+      </c>
+      <c r="B233">
+        <v>177</v>
+      </c>
+      <c r="C233">
+        <v>168.83600000000001</v>
+      </c>
+      <c r="D233">
+        <v>-1.2</v>
+      </c>
+      <c r="E233">
+        <v>-0.4</v>
+      </c>
+      <c r="F233">
+        <v>169.036</v>
+      </c>
+      <c r="G233">
+        <v>-1.2</v>
+      </c>
+      <c r="H233">
+        <v>-0.4</v>
+      </c>
+      <c r="I233" t="s">
+        <v>25</v>
+      </c>
+      <c r="J233" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>17</v>
+      </c>
+      <c r="B234">
+        <v>178</v>
+      </c>
+      <c r="C234">
+        <v>169.036</v>
+      </c>
+      <c r="D234">
+        <v>0.4</v>
+      </c>
+      <c r="E234">
+        <v>1.2</v>
+      </c>
+      <c r="F234">
+        <v>169.23599999999999</v>
+      </c>
+      <c r="G234">
+        <v>0.4</v>
+      </c>
+      <c r="H234">
+        <v>1.2</v>
+      </c>
+      <c r="I234" t="s">
+        <v>25</v>
+      </c>
+      <c r="J234" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>17</v>
+      </c>
+      <c r="B235">
+        <v>179</v>
+      </c>
+      <c r="C235">
+        <v>174.83600000000001</v>
+      </c>
+      <c r="D235">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235">
+        <v>175.136</v>
+      </c>
+      <c r="G235">
+        <v>-0.3</v>
+      </c>
+      <c r="H235">
+        <v>0.3</v>
+      </c>
+      <c r="I235" t="s">
+        <v>31</v>
+      </c>
+      <c r="J235" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>17</v>
+      </c>
+      <c r="B236">
+        <v>179</v>
+      </c>
+      <c r="C236">
+        <v>175.136</v>
+      </c>
+      <c r="D236">
+        <v>-0.3</v>
+      </c>
+      <c r="E236">
+        <v>0.3</v>
+      </c>
+      <c r="F236">
+        <v>176.43600000000001</v>
+      </c>
+      <c r="G236">
+        <v>-0.3</v>
+      </c>
+      <c r="H236">
+        <v>0.3</v>
+      </c>
+      <c r="I236" t="s">
+        <v>25</v>
+      </c>
+      <c r="J236" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>17</v>
+      </c>
+      <c r="B237">
+        <v>180</v>
+      </c>
+      <c r="C237">
+        <v>175.136</v>
+      </c>
+      <c r="D237">
+        <v>-2</v>
+      </c>
+      <c r="E237">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="F237">
+        <v>175.43600000000001</v>
+      </c>
+      <c r="G237">
+        <v>-0.3</v>
+      </c>
+      <c r="H237">
+        <v>0.3</v>
+      </c>
+      <c r="I237" t="s">
+        <v>31</v>
+      </c>
+      <c r="J237" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>17</v>
+      </c>
+      <c r="B238">
+        <v>180</v>
+      </c>
+      <c r="C238">
+        <v>175.43600000000001</v>
+      </c>
+      <c r="D238">
+        <v>-0.3</v>
+      </c>
+      <c r="E238">
+        <v>0.3</v>
+      </c>
+      <c r="F238">
+        <v>176.43600000000001</v>
+      </c>
+      <c r="G238">
+        <v>-0.3</v>
+      </c>
+      <c r="H238">
+        <v>0.3</v>
+      </c>
+      <c r="I238" t="s">
+        <v>25</v>
+      </c>
+      <c r="J238" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>17</v>
+      </c>
+      <c r="B239">
+        <v>181</v>
+      </c>
+      <c r="C239">
+        <v>175.43600000000001</v>
+      </c>
+      <c r="D239">
+        <v>-2</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239">
+        <v>176.43600000000001</v>
+      </c>
+      <c r="G239">
+        <v>-2</v>
+      </c>
+      <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239" t="s">
+        <v>25</v>
+      </c>
+      <c r="J239" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -18122,10 +21526,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76DC57-EF49-44CE-8A21-D4353938F627}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21026,6 +24430,90 @@
       </c>
       <c r="D207">
         <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>172.83600000000001</v>
+      </c>
+      <c r="B208">
+        <v>0.9</v>
+      </c>
+      <c r="C208">
+        <v>0.6</v>
+      </c>
+      <c r="D208">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>172.90300000000002</v>
+      </c>
+      <c r="B209">
+        <v>0.4</v>
+      </c>
+      <c r="C209">
+        <v>0.6</v>
+      </c>
+      <c r="D209">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>172.97000000000003</v>
+      </c>
+      <c r="B210">
+        <v>-0.1</v>
+      </c>
+      <c r="C210">
+        <v>0.6</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>173.03700000000003</v>
+      </c>
+      <c r="B211">
+        <v>-0.6</v>
+      </c>
+      <c r="C211">
+        <v>0.6</v>
+      </c>
+      <c r="D211">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>173.10400000000004</v>
+      </c>
+      <c r="B212">
+        <v>0.1</v>
+      </c>
+      <c r="C212">
+        <v>0.6</v>
+      </c>
+      <c r="D212">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>173.17100000000005</v>
+      </c>
+      <c r="B213">
+        <v>0.8</v>
+      </c>
+      <c r="C213">
+        <v>0.6</v>
+      </c>
+      <c r="D213">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -21038,10 +24526,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F96158-71D4-4C19-99F5-47E7932AF572}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22098,6 +25586,516 @@
       </c>
       <c r="E62">
         <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>157.33599999999998</v>
+      </c>
+      <c r="B63">
+        <v>-1</v>
+      </c>
+      <c r="C63">
+        <v>0.7</v>
+      </c>
+      <c r="D63">
+        <v>0.125</v>
+      </c>
+      <c r="E63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>157.536</v>
+      </c>
+      <c r="B64">
+        <v>0.65</v>
+      </c>
+      <c r="C64">
+        <v>0.7</v>
+      </c>
+      <c r="D64">
+        <v>0.125</v>
+      </c>
+      <c r="E64">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>157.73599999999999</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0.7</v>
+      </c>
+      <c r="D65">
+        <v>0.125</v>
+      </c>
+      <c r="E65">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>157.93600000000001</v>
+      </c>
+      <c r="B66">
+        <v>1.65</v>
+      </c>
+      <c r="C66">
+        <v>0.7</v>
+      </c>
+      <c r="D66">
+        <v>0.125</v>
+      </c>
+      <c r="E66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>158.136</v>
+      </c>
+      <c r="B67">
+        <v>-0.35</v>
+      </c>
+      <c r="C67">
+        <v>0.7</v>
+      </c>
+      <c r="D67">
+        <v>0.875</v>
+      </c>
+      <c r="E67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>158.33599999999998</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0.7</v>
+      </c>
+      <c r="D68">
+        <v>0.875</v>
+      </c>
+      <c r="E68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>158.536</v>
+      </c>
+      <c r="B69">
+        <v>-1.35</v>
+      </c>
+      <c r="C69">
+        <v>0.7</v>
+      </c>
+      <c r="D69">
+        <v>0.875</v>
+      </c>
+      <c r="E69">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>158.73599999999999</v>
+      </c>
+      <c r="B70">
+        <v>-0.5</v>
+      </c>
+      <c r="C70">
+        <v>0.7</v>
+      </c>
+      <c r="D70">
+        <v>0.875</v>
+      </c>
+      <c r="E70">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>158.93600000000001</v>
+      </c>
+      <c r="B71">
+        <v>-0.5</v>
+      </c>
+      <c r="C71">
+        <v>0.7</v>
+      </c>
+      <c r="D71">
+        <v>0.125</v>
+      </c>
+      <c r="E71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>159.136</v>
+      </c>
+      <c r="B72">
+        <v>0.8</v>
+      </c>
+      <c r="C72">
+        <v>0.7</v>
+      </c>
+      <c r="D72">
+        <v>0.125</v>
+      </c>
+      <c r="E72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>164.036</v>
+      </c>
+      <c r="B73">
+        <v>-1</v>
+      </c>
+      <c r="C73">
+        <v>0.8</v>
+      </c>
+      <c r="D73">
+        <v>0.75</v>
+      </c>
+      <c r="E73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>164.136</v>
+      </c>
+      <c r="B74">
+        <v>0.5</v>
+      </c>
+      <c r="C74">
+        <v>0.8</v>
+      </c>
+      <c r="D74">
+        <v>0.75</v>
+      </c>
+      <c r="E74">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>164.636</v>
+      </c>
+      <c r="B75">
+        <v>-0.5</v>
+      </c>
+      <c r="C75">
+        <v>0.8</v>
+      </c>
+      <c r="D75">
+        <v>0.75</v>
+      </c>
+      <c r="E75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>164.73599999999999</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0.8</v>
+      </c>
+      <c r="D76">
+        <v>0.75</v>
+      </c>
+      <c r="E76">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>165.636</v>
+      </c>
+      <c r="B77">
+        <v>-0.5</v>
+      </c>
+      <c r="C77">
+        <v>0.8</v>
+      </c>
+      <c r="D77">
+        <v>0.25</v>
+      </c>
+      <c r="E77">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>165.73599999999999</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0.8</v>
+      </c>
+      <c r="D78">
+        <v>0.25</v>
+      </c>
+      <c r="E78">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>166.23599999999999</v>
+      </c>
+      <c r="B79">
+        <v>-1</v>
+      </c>
+      <c r="C79">
+        <v>0.8</v>
+      </c>
+      <c r="D79">
+        <v>0.25</v>
+      </c>
+      <c r="E79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>166.33600000000001</v>
+      </c>
+      <c r="B80">
+        <v>0.5</v>
+      </c>
+      <c r="C80">
+        <v>0.8</v>
+      </c>
+      <c r="D80">
+        <v>0.25</v>
+      </c>
+      <c r="E80">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>167.23599999999999</v>
+      </c>
+      <c r="B81">
+        <v>-1</v>
+      </c>
+      <c r="C81">
+        <v>0.8</v>
+      </c>
+      <c r="D81">
+        <v>0.75</v>
+      </c>
+      <c r="E81">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>167.33599999999998</v>
+      </c>
+      <c r="B82">
+        <v>0.5</v>
+      </c>
+      <c r="C82">
+        <v>0.8</v>
+      </c>
+      <c r="D82">
+        <v>0.75</v>
+      </c>
+      <c r="E82">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>167.83599999999998</v>
+      </c>
+      <c r="B83">
+        <v>-0.5</v>
+      </c>
+      <c r="C83">
+        <v>0.8</v>
+      </c>
+      <c r="D83">
+        <v>0.75</v>
+      </c>
+      <c r="E83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>167.93599999999998</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0.8</v>
+      </c>
+      <c r="D84">
+        <v>0.75</v>
+      </c>
+      <c r="E84">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>170.43600000000001</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>0.8</v>
+      </c>
+      <c r="D85">
+        <v>0.25</v>
+      </c>
+      <c r="E85">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>170.536</v>
+      </c>
+      <c r="B86">
+        <v>-0.5</v>
+      </c>
+      <c r="C86">
+        <v>0.8</v>
+      </c>
+      <c r="D86">
+        <v>0.25</v>
+      </c>
+      <c r="E86">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>171.036</v>
+      </c>
+      <c r="B87">
+        <v>0.5</v>
+      </c>
+      <c r="C87">
+        <v>0.8</v>
+      </c>
+      <c r="D87">
+        <v>0.25</v>
+      </c>
+      <c r="E87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>171.136</v>
+      </c>
+      <c r="B88">
+        <v>-1</v>
+      </c>
+      <c r="C88">
+        <v>0.8</v>
+      </c>
+      <c r="D88">
+        <v>0.25</v>
+      </c>
+      <c r="E88">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>172.036</v>
+      </c>
+      <c r="B89">
+        <v>0.5</v>
+      </c>
+      <c r="C89">
+        <v>0.8</v>
+      </c>
+      <c r="D89">
+        <v>0.75</v>
+      </c>
+      <c r="E89">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>172.136</v>
+      </c>
+      <c r="B90">
+        <v>-1</v>
+      </c>
+      <c r="C90">
+        <v>0.8</v>
+      </c>
+      <c r="D90">
+        <v>0.75</v>
+      </c>
+      <c r="E90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>172.636</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>0.8</v>
+      </c>
+      <c r="D91">
+        <v>0.75</v>
+      </c>
+      <c r="E91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>172.73599999999999</v>
+      </c>
+      <c r="B92">
+        <v>-0.5</v>
+      </c>
+      <c r="C92">
+        <v>0.8</v>
+      </c>
+      <c r="D92">
+        <v>0.75</v>
+      </c>
+      <c r="E92">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -22110,10 +26108,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192095B2-1BEA-4365-B4DE-88EEBB6E4423}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24356,6 +28354,486 @@
       </c>
       <c r="J70" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>44</v>
+      </c>
+      <c r="C71">
+        <v>149.036</v>
+      </c>
+      <c r="D71">
+        <v>149.23599999999999</v>
+      </c>
+      <c r="E71">
+        <v>149.33600000000001</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0.6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>45</v>
+      </c>
+      <c r="C72">
+        <v>149.23599999999999</v>
+      </c>
+      <c r="D72">
+        <v>149.536</v>
+      </c>
+      <c r="E72">
+        <v>149.636</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>-0.6</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>46</v>
+      </c>
+      <c r="C73">
+        <v>149.536</v>
+      </c>
+      <c r="D73">
+        <v>149.83600000000001</v>
+      </c>
+      <c r="E73">
+        <v>149.93600000000001</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>47</v>
+      </c>
+      <c r="C74">
+        <v>160.43600000000001</v>
+      </c>
+      <c r="D74">
+        <v>160.73599999999999</v>
+      </c>
+      <c r="E74">
+        <v>160.83600000000001</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1.8</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>48</v>
+      </c>
+      <c r="C75">
+        <v>160.636</v>
+      </c>
+      <c r="D75">
+        <v>161.036</v>
+      </c>
+      <c r="E75">
+        <v>161.136</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0.8</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>49</v>
+      </c>
+      <c r="C76">
+        <v>160.93600000000001</v>
+      </c>
+      <c r="D76">
+        <v>161.33600000000001</v>
+      </c>
+      <c r="E76">
+        <v>161.43600000000001</v>
+      </c>
+      <c r="F76">
+        <v>-1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>-0.2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>161.23599999999999</v>
+      </c>
+      <c r="D77">
+        <v>161.636</v>
+      </c>
+      <c r="E77">
+        <v>161.73599999999999</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0.8</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>51</v>
+      </c>
+      <c r="C78">
+        <v>162.036</v>
+      </c>
+      <c r="D78">
+        <v>162.036</v>
+      </c>
+      <c r="E78">
+        <v>162.43600000000001</v>
+      </c>
+      <c r="F78">
+        <v>-1.6</v>
+      </c>
+      <c r="G78">
+        <v>1.2</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>51</v>
+      </c>
+      <c r="C79">
+        <v>162.036</v>
+      </c>
+      <c r="D79">
+        <v>162.43600000000001</v>
+      </c>
+      <c r="E79">
+        <v>162.636</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0.8</v>
+      </c>
+      <c r="I79">
+        <v>0.6</v>
+      </c>
+      <c r="J79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>51</v>
+      </c>
+      <c r="C80">
+        <v>162.036</v>
+      </c>
+      <c r="D80">
+        <v>162.636</v>
+      </c>
+      <c r="E80">
+        <v>162.83600000000001</v>
+      </c>
+      <c r="F80">
+        <v>0.8</v>
+      </c>
+      <c r="G80">
+        <v>0.6</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>1.2</v>
+      </c>
+      <c r="J80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>51</v>
+      </c>
+      <c r="C81">
+        <v>162.036</v>
+      </c>
+      <c r="D81">
+        <v>162.83600000000001</v>
+      </c>
+      <c r="E81">
+        <v>163.23599999999999</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>1.2</v>
+      </c>
+      <c r="H81">
+        <v>1.6</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>17</v>
+      </c>
+      <c r="B82">
+        <v>52</v>
+      </c>
+      <c r="C82">
+        <v>161.93600000000001</v>
+      </c>
+      <c r="D82">
+        <v>162.036</v>
+      </c>
+      <c r="E82">
+        <v>162.43600000000001</v>
+      </c>
+      <c r="F82">
+        <v>1.6</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>1.2</v>
+      </c>
+      <c r="J82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>17</v>
+      </c>
+      <c r="B83">
+        <v>52</v>
+      </c>
+      <c r="C83">
+        <v>162.036</v>
+      </c>
+      <c r="D83">
+        <v>162.43600000000001</v>
+      </c>
+      <c r="E83">
+        <v>162.636</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1.2</v>
+      </c>
+      <c r="H83">
+        <v>-0.8</v>
+      </c>
+      <c r="I83">
+        <v>0.6</v>
+      </c>
+      <c r="J83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>17</v>
+      </c>
+      <c r="B84">
+        <v>52</v>
+      </c>
+      <c r="C84">
+        <v>162.036</v>
+      </c>
+      <c r="D84">
+        <v>162.636</v>
+      </c>
+      <c r="E84">
+        <v>162.83600000000001</v>
+      </c>
+      <c r="F84">
+        <v>-0.8</v>
+      </c>
+      <c r="G84">
+        <v>0.6</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="B85">
+        <v>52</v>
+      </c>
+      <c r="C85">
+        <v>162.036</v>
+      </c>
+      <c r="D85">
+        <v>162.83600000000001</v>
+      </c>
+      <c r="E85">
+        <v>163.23599999999999</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>-1.6</v>
+      </c>
+      <c r="I85">
+        <v>1.2</v>
+      </c>
+      <c r="J85" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzh\Xenody-master\Assets\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA2CCA2-866A-4C26-9D7E-83C8F9AE77A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9A0A12-C613-45AE-819E-5EF56BCEC4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,10 +530,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA789EFB-BCA3-4FCA-98D4-565CD71AE543}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>10000</v>
+        <v>187.83600000000001</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -3869,12 +3869,612 @@
         <v>1</v>
       </c>
       <c r="D167">
+        <v>187.83600000000001</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>17</v>
+      </c>
+      <c r="B168">
+        <v>187.83600000000001</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>188.036</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>187.83600000000001</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>188.036</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>17</v>
+      </c>
+      <c r="B170">
+        <v>188.036</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>188.23599999999999</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>188.036</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>188.23599999999999</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>17</v>
+      </c>
+      <c r="B172">
+        <v>188.23599999999999</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>188.43600000000001</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>188.23599999999999</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>188.43600000000001</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>19</v>
+      </c>
+      <c r="B174">
+        <v>188.23599999999999</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>188.43600000000001</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>17</v>
+      </c>
+      <c r="B175">
+        <v>188.43600000000001</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>188.63600000000002</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>19</v>
+      </c>
+      <c r="B176">
+        <v>188.43600000000001</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>188.63600000000002</v>
+      </c>
+      <c r="E176">
+        <v>0.5</v>
+      </c>
+      <c r="F176" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>17</v>
+      </c>
+      <c r="B177">
+        <v>188.63600000000002</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>188.83600000000001</v>
+      </c>
+      <c r="E177">
+        <v>0.5</v>
+      </c>
+      <c r="F177" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>19</v>
+      </c>
+      <c r="B178">
+        <v>188.63600000000002</v>
+      </c>
+      <c r="C178">
+        <v>0.5</v>
+      </c>
+      <c r="D178">
+        <v>188.83600000000001</v>
+      </c>
+      <c r="E178">
+        <v>0.5</v>
+      </c>
+      <c r="F178" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>17</v>
+      </c>
+      <c r="B179">
+        <v>188.83600000000001</v>
+      </c>
+      <c r="C179">
+        <v>0.5</v>
+      </c>
+      <c r="D179">
+        <v>189.23599999999999</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>19</v>
+      </c>
+      <c r="B180">
+        <v>188.83600000000001</v>
+      </c>
+      <c r="C180">
+        <v>0.5</v>
+      </c>
+      <c r="D180">
+        <v>189.036</v>
+      </c>
+      <c r="E180">
+        <v>1.3</v>
+      </c>
+      <c r="F180" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>19</v>
+      </c>
+      <c r="B181">
+        <v>189.036</v>
+      </c>
+      <c r="C181">
+        <v>1.3</v>
+      </c>
+      <c r="D181">
+        <v>189.23599999999999</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>17</v>
+      </c>
+      <c r="B182">
+        <v>189.23599999999999</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>194.83600000000001</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>19</v>
+      </c>
+      <c r="B183">
+        <v>189.23599999999999</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>194.83600000000001</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>17</v>
+      </c>
+      <c r="B184">
+        <v>194.83600000000001</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>195.136</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>19</v>
+      </c>
+      <c r="B185">
+        <v>194.83600000000001</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>195.136</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>17</v>
+      </c>
+      <c r="B186">
+        <v>195.136</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>195.43600000000001</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>19</v>
+      </c>
+      <c r="B187">
+        <v>195.136</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>195.43600000000001</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>17</v>
+      </c>
+      <c r="B188">
+        <v>195.43600000000001</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>195.636</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>19</v>
+      </c>
+      <c r="B189">
+        <v>195.43600000000001</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>195.636</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>17</v>
+      </c>
+      <c r="B190">
+        <v>195.636</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>195.93600000000001</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>19</v>
+      </c>
+      <c r="B191">
+        <v>195.636</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>195.93600000000001</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>17</v>
+      </c>
+      <c r="B192">
+        <v>195.93600000000001</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>196.23599999999999</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>19</v>
+      </c>
+      <c r="B193">
+        <v>195.93600000000001</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>196.23599999999999</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>17</v>
+      </c>
+      <c r="B194">
+        <v>196.23599999999999</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>196.43600000000001</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>19</v>
+      </c>
+      <c r="B195">
+        <v>196.23599999999999</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>196.43600000000001</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>17</v>
+      </c>
+      <c r="B196">
+        <v>196.43600000000001</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
         <v>10000</v>
       </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>19</v>
+      </c>
+      <c r="B197">
+        <v>196.43600000000001</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>10000</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3888,10 +4488,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D711"/>
+  <dimension ref="A1:D826"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A677" workbookViewId="0">
-      <selection activeCell="I704" sqref="I704"/>
+    <sheetView tabSelected="1" topLeftCell="A791" workbookViewId="0">
+      <selection activeCell="H821" sqref="H821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13848,6 +14448,1616 @@
       </c>
       <c r="D711">
         <v>17</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A712">
+        <v>176.83600000000001</v>
+      </c>
+      <c r="B712">
+        <v>1.5</v>
+      </c>
+      <c r="C712">
+        <v>0.6</v>
+      </c>
+      <c r="D712">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A713">
+        <v>176.9</v>
+      </c>
+      <c r="B713">
+        <v>-0.3</v>
+      </c>
+      <c r="C713">
+        <v>0.6</v>
+      </c>
+      <c r="D713">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A714">
+        <v>176.96700000000001</v>
+      </c>
+      <c r="B714">
+        <v>0.7</v>
+      </c>
+      <c r="C714">
+        <v>0.6</v>
+      </c>
+      <c r="D714">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A715">
+        <v>177.036</v>
+      </c>
+      <c r="B715">
+        <v>-1.2</v>
+      </c>
+      <c r="C715">
+        <v>0.6</v>
+      </c>
+      <c r="D715">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A716">
+        <v>177.136</v>
+      </c>
+      <c r="B716">
+        <v>0</v>
+      </c>
+      <c r="C716">
+        <v>0.6</v>
+      </c>
+      <c r="D716">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A717">
+        <v>177.536</v>
+      </c>
+      <c r="B717">
+        <v>1.5</v>
+      </c>
+      <c r="C717">
+        <v>0.7</v>
+      </c>
+      <c r="D717">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A718">
+        <v>177.83600000000001</v>
+      </c>
+      <c r="B718">
+        <v>0.5</v>
+      </c>
+      <c r="C718">
+        <v>0.7</v>
+      </c>
+      <c r="D718">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A719">
+        <v>178.036</v>
+      </c>
+      <c r="B719">
+        <v>-0.2</v>
+      </c>
+      <c r="C719">
+        <v>0.7</v>
+      </c>
+      <c r="D719">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A720">
+        <v>178.33600000000001</v>
+      </c>
+      <c r="B720">
+        <v>1.3</v>
+      </c>
+      <c r="C720">
+        <v>0.7</v>
+      </c>
+      <c r="D720">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A721">
+        <v>178.83600000000001</v>
+      </c>
+      <c r="B721">
+        <v>0</v>
+      </c>
+      <c r="C721">
+        <v>0.7</v>
+      </c>
+      <c r="D721">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A722">
+        <v>179.036</v>
+      </c>
+      <c r="B722">
+        <v>-0.8</v>
+      </c>
+      <c r="C722">
+        <v>1</v>
+      </c>
+      <c r="D722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A723">
+        <v>179.136</v>
+      </c>
+      <c r="B723">
+        <v>-0.8</v>
+      </c>
+      <c r="C723">
+        <v>1</v>
+      </c>
+      <c r="D723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A724">
+        <v>179.33600000000001</v>
+      </c>
+      <c r="B724">
+        <v>0.8</v>
+      </c>
+      <c r="C724">
+        <v>1</v>
+      </c>
+      <c r="D724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>179.43600000000001</v>
+      </c>
+      <c r="B725">
+        <v>0.8</v>
+      </c>
+      <c r="C725">
+        <v>1</v>
+      </c>
+      <c r="D725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A726">
+        <v>179.63600000000002</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
+      <c r="C726">
+        <v>1.5</v>
+      </c>
+      <c r="D726">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A727">
+        <v>179.63600000000002</v>
+      </c>
+      <c r="B727">
+        <v>-1</v>
+      </c>
+      <c r="C727">
+        <v>1.5</v>
+      </c>
+      <c r="D727">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A728">
+        <v>180.036</v>
+      </c>
+      <c r="B728">
+        <v>0.3</v>
+      </c>
+      <c r="C728">
+        <v>0.7</v>
+      </c>
+      <c r="D728">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>180.13600000000002</v>
+      </c>
+      <c r="B729">
+        <v>-1.3</v>
+      </c>
+      <c r="C729">
+        <v>0.7</v>
+      </c>
+      <c r="D729">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>180.23599999999999</v>
+      </c>
+      <c r="B730">
+        <v>1</v>
+      </c>
+      <c r="C730">
+        <v>0.7</v>
+      </c>
+      <c r="D730">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>180.33600000000001</v>
+      </c>
+      <c r="B731">
+        <v>-0.1</v>
+      </c>
+      <c r="C731">
+        <v>0.7</v>
+      </c>
+      <c r="D731">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A732">
+        <v>180.73599999999999</v>
+      </c>
+      <c r="B732">
+        <v>0.2</v>
+      </c>
+      <c r="C732">
+        <v>0.7</v>
+      </c>
+      <c r="D732">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A733">
+        <v>181.036</v>
+      </c>
+      <c r="B733">
+        <v>-0.5</v>
+      </c>
+      <c r="C733">
+        <v>0.7</v>
+      </c>
+      <c r="D733">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>181.23599999999999</v>
+      </c>
+      <c r="B734">
+        <v>-1.5</v>
+      </c>
+      <c r="C734">
+        <v>0.7</v>
+      </c>
+      <c r="D734">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>181.536</v>
+      </c>
+      <c r="B735">
+        <v>0.2</v>
+      </c>
+      <c r="C735">
+        <v>0.7</v>
+      </c>
+      <c r="D735">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>181.83600000000001</v>
+      </c>
+      <c r="B736">
+        <v>-0.5</v>
+      </c>
+      <c r="C736">
+        <v>0.7</v>
+      </c>
+      <c r="D736">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>182.036</v>
+      </c>
+      <c r="B737">
+        <v>-1.5</v>
+      </c>
+      <c r="C737">
+        <v>0.7</v>
+      </c>
+      <c r="D737">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>182.036</v>
+      </c>
+      <c r="B738">
+        <v>0.2</v>
+      </c>
+      <c r="C738">
+        <v>0.7</v>
+      </c>
+      <c r="D738">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>182.43600000000001</v>
+      </c>
+      <c r="B739">
+        <v>1.5</v>
+      </c>
+      <c r="C739">
+        <v>0.7</v>
+      </c>
+      <c r="D739">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>182.43600000000001</v>
+      </c>
+      <c r="B740">
+        <v>-0.2</v>
+      </c>
+      <c r="C740">
+        <v>0.7</v>
+      </c>
+      <c r="D740">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>182.83600000000001</v>
+      </c>
+      <c r="B741">
+        <v>-1.4</v>
+      </c>
+      <c r="C741">
+        <v>1.2</v>
+      </c>
+      <c r="D741">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>182.93600000000001</v>
+      </c>
+      <c r="B742">
+        <v>1.4</v>
+      </c>
+      <c r="C742">
+        <v>0.7</v>
+      </c>
+      <c r="D742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A743">
+        <v>183.036</v>
+      </c>
+      <c r="B743">
+        <v>-0.5</v>
+      </c>
+      <c r="C743">
+        <v>0.7</v>
+      </c>
+      <c r="D743">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A744">
+        <v>183.13600000000002</v>
+      </c>
+      <c r="B744">
+        <v>0.5</v>
+      </c>
+      <c r="C744">
+        <v>0.7</v>
+      </c>
+      <c r="D744">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A745">
+        <v>183.23599999999999</v>
+      </c>
+      <c r="B745">
+        <v>1.35</v>
+      </c>
+      <c r="C745">
+        <v>1.3</v>
+      </c>
+      <c r="D745">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>183.33600000000001</v>
+      </c>
+      <c r="B746">
+        <v>-1.2</v>
+      </c>
+      <c r="C746">
+        <v>0.7</v>
+      </c>
+      <c r="D746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>183.43600000000001</v>
+      </c>
+      <c r="B747">
+        <v>0.6</v>
+      </c>
+      <c r="C747">
+        <v>0.7</v>
+      </c>
+      <c r="D747">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>183.536</v>
+      </c>
+      <c r="B748">
+        <v>-0.4</v>
+      </c>
+      <c r="C748">
+        <v>0.7</v>
+      </c>
+      <c r="D748">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>183.63600000000002</v>
+      </c>
+      <c r="B749">
+        <v>-1.3</v>
+      </c>
+      <c r="C749">
+        <v>1.4</v>
+      </c>
+      <c r="D749">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>183.73599999999999</v>
+      </c>
+      <c r="B750">
+        <v>1</v>
+      </c>
+      <c r="C750">
+        <v>0.7</v>
+      </c>
+      <c r="D750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>183.83600000000001</v>
+      </c>
+      <c r="B751">
+        <v>-0.7</v>
+      </c>
+      <c r="C751">
+        <v>0.7</v>
+      </c>
+      <c r="D751">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>183.93600000000001</v>
+      </c>
+      <c r="B752">
+        <v>0.3</v>
+      </c>
+      <c r="C752">
+        <v>0.7</v>
+      </c>
+      <c r="D752">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>184.036</v>
+      </c>
+      <c r="B753">
+        <v>1.25</v>
+      </c>
+      <c r="C753">
+        <v>1.5</v>
+      </c>
+      <c r="D753">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>184.13600000000002</v>
+      </c>
+      <c r="B754">
+        <v>-0.8</v>
+      </c>
+      <c r="C754">
+        <v>0.7</v>
+      </c>
+      <c r="D754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>184.23599999999999</v>
+      </c>
+      <c r="B755">
+        <v>0.8</v>
+      </c>
+      <c r="C755">
+        <v>0.7</v>
+      </c>
+      <c r="D755">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>184.33600000000001</v>
+      </c>
+      <c r="B756">
+        <v>-0.2</v>
+      </c>
+      <c r="C756">
+        <v>0.7</v>
+      </c>
+      <c r="D756">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>184.43600000000001</v>
+      </c>
+      <c r="B757">
+        <v>-1.2</v>
+      </c>
+      <c r="C757">
+        <v>1.6</v>
+      </c>
+      <c r="D757">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>184.536</v>
+      </c>
+      <c r="B758">
+        <v>0.6</v>
+      </c>
+      <c r="C758">
+        <v>0.8</v>
+      </c>
+      <c r="D758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>184.63600000000002</v>
+      </c>
+      <c r="B759">
+        <v>-0.9</v>
+      </c>
+      <c r="C759">
+        <v>0.8</v>
+      </c>
+      <c r="D759">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>184.73599999999999</v>
+      </c>
+      <c r="B760">
+        <v>0.1</v>
+      </c>
+      <c r="C760">
+        <v>0.8</v>
+      </c>
+      <c r="D760">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>184.83600000000001</v>
+      </c>
+      <c r="B761">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C761">
+        <v>1.7</v>
+      </c>
+      <c r="D761">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>184.93600000000001</v>
+      </c>
+      <c r="B762">
+        <v>-0.4</v>
+      </c>
+      <c r="C762">
+        <v>0.8</v>
+      </c>
+      <c r="D762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>185.036</v>
+      </c>
+      <c r="B763">
+        <v>1</v>
+      </c>
+      <c r="C763">
+        <v>0.8</v>
+      </c>
+      <c r="D763">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>185.13600000000002</v>
+      </c>
+      <c r="B764">
+        <v>0</v>
+      </c>
+      <c r="C764">
+        <v>0.8</v>
+      </c>
+      <c r="D764">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>185.23599999999999</v>
+      </c>
+      <c r="B765">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C765">
+        <v>1.8</v>
+      </c>
+      <c r="D765">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>185.33600000000001</v>
+      </c>
+      <c r="B766">
+        <v>0.2</v>
+      </c>
+      <c r="C766">
+        <v>0.8</v>
+      </c>
+      <c r="D766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>185.43600000000001</v>
+      </c>
+      <c r="B767">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C767">
+        <v>0.8</v>
+      </c>
+      <c r="D767">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>185.536</v>
+      </c>
+      <c r="B768">
+        <v>-0.1</v>
+      </c>
+      <c r="C768">
+        <v>0.8</v>
+      </c>
+      <c r="D768">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>185.63600000000002</v>
+      </c>
+      <c r="B769">
+        <v>1.05</v>
+      </c>
+      <c r="C769">
+        <v>1.9</v>
+      </c>
+      <c r="D769">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>185.73599999999999</v>
+      </c>
+      <c r="B770">
+        <v>0</v>
+      </c>
+      <c r="C770">
+        <v>0.8</v>
+      </c>
+      <c r="D770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>185.83600000000001</v>
+      </c>
+      <c r="B771">
+        <v>1.2</v>
+      </c>
+      <c r="C771">
+        <v>0.8</v>
+      </c>
+      <c r="D771">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>185.93600000000001</v>
+      </c>
+      <c r="B772">
+        <v>-0.2</v>
+      </c>
+      <c r="C772">
+        <v>0.8</v>
+      </c>
+      <c r="D772">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>186.036</v>
+      </c>
+      <c r="B773">
+        <v>-1</v>
+      </c>
+      <c r="C773">
+        <v>2</v>
+      </c>
+      <c r="D773">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>186.23599999999999</v>
+      </c>
+      <c r="B774">
+        <v>-0.33300000000000002</v>
+      </c>
+      <c r="C774">
+        <v>2</v>
+      </c>
+      <c r="D774">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>186.43600000000001</v>
+      </c>
+      <c r="B775">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C775">
+        <v>2</v>
+      </c>
+      <c r="D775">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>186.63600000000002</v>
+      </c>
+      <c r="B776">
+        <v>1</v>
+      </c>
+      <c r="C776">
+        <v>2</v>
+      </c>
+      <c r="D776">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>186.83600000000001</v>
+      </c>
+      <c r="B777">
+        <v>1</v>
+      </c>
+      <c r="C777">
+        <v>2</v>
+      </c>
+      <c r="D777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>187.036</v>
+      </c>
+      <c r="B778">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C778">
+        <v>2</v>
+      </c>
+      <c r="D778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A779">
+        <v>187.23599999999999</v>
+      </c>
+      <c r="B779">
+        <v>-0.33300000000000002</v>
+      </c>
+      <c r="C779">
+        <v>2</v>
+      </c>
+      <c r="D779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A780">
+        <v>187.43600000000001</v>
+      </c>
+      <c r="B780">
+        <v>-1</v>
+      </c>
+      <c r="C780">
+        <v>2</v>
+      </c>
+      <c r="D780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A781">
+        <v>189.636</v>
+      </c>
+      <c r="B781">
+        <v>1.5</v>
+      </c>
+      <c r="C781">
+        <v>1</v>
+      </c>
+      <c r="D781">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A782">
+        <v>189.73599999999999</v>
+      </c>
+      <c r="B782">
+        <v>1.5</v>
+      </c>
+      <c r="C782">
+        <v>1</v>
+      </c>
+      <c r="D782">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A783">
+        <v>189.83600000000001</v>
+      </c>
+      <c r="B783">
+        <v>-1.5</v>
+      </c>
+      <c r="C783">
+        <v>1</v>
+      </c>
+      <c r="D783">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A784">
+        <v>189.93600000000001</v>
+      </c>
+      <c r="B784">
+        <v>-1.5</v>
+      </c>
+      <c r="C784">
+        <v>1</v>
+      </c>
+      <c r="D784">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A785">
+        <v>190.43600000000001</v>
+      </c>
+      <c r="B785">
+        <v>-1.2</v>
+      </c>
+      <c r="C785">
+        <v>1.6</v>
+      </c>
+      <c r="D785">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A786">
+        <v>190.536</v>
+      </c>
+      <c r="B786">
+        <v>0.6</v>
+      </c>
+      <c r="C786">
+        <v>1.2</v>
+      </c>
+      <c r="D786">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A787">
+        <v>190.636</v>
+      </c>
+      <c r="B787">
+        <v>0.4</v>
+      </c>
+      <c r="C787">
+        <v>1.2</v>
+      </c>
+      <c r="D787">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A788">
+        <v>190.73599999999999</v>
+      </c>
+      <c r="B788">
+        <v>0.2</v>
+      </c>
+      <c r="C788">
+        <v>1.2</v>
+      </c>
+      <c r="D788">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A789">
+        <v>190.83600000000001</v>
+      </c>
+      <c r="B789">
+        <v>0</v>
+      </c>
+      <c r="C789">
+        <v>1.2</v>
+      </c>
+      <c r="D789">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A790">
+        <v>190.93600000000001</v>
+      </c>
+      <c r="B790">
+        <v>-0.2</v>
+      </c>
+      <c r="C790">
+        <v>1.2</v>
+      </c>
+      <c r="D790">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A791">
+        <v>191.036</v>
+      </c>
+      <c r="B791">
+        <v>-0.4</v>
+      </c>
+      <c r="C791">
+        <v>1.2</v>
+      </c>
+      <c r="D791">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A792">
+        <v>191.136</v>
+      </c>
+      <c r="B792">
+        <v>-0.6</v>
+      </c>
+      <c r="C792">
+        <v>1.2</v>
+      </c>
+      <c r="D792">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A793">
+        <v>191.23599999999999</v>
+      </c>
+      <c r="B793">
+        <v>-0.8</v>
+      </c>
+      <c r="C793">
+        <v>1.2</v>
+      </c>
+      <c r="D793">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A794">
+        <v>191.33600000000001</v>
+      </c>
+      <c r="B794">
+        <v>-1</v>
+      </c>
+      <c r="C794">
+        <v>1.2</v>
+      </c>
+      <c r="D794">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A795">
+        <v>192.536</v>
+      </c>
+      <c r="B795">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C795">
+        <v>1.2</v>
+      </c>
+      <c r="D795">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A796">
+        <v>192.636</v>
+      </c>
+      <c r="B796">
+        <v>0.9</v>
+      </c>
+      <c r="C796">
+        <v>1.2</v>
+      </c>
+      <c r="D796">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A797">
+        <v>192.73599999999999</v>
+      </c>
+      <c r="B797">
+        <v>0.7</v>
+      </c>
+      <c r="C797">
+        <v>1.2</v>
+      </c>
+      <c r="D797">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A798">
+        <v>192.83600000000001</v>
+      </c>
+      <c r="B798">
+        <v>0.5</v>
+      </c>
+      <c r="C798">
+        <v>1.2</v>
+      </c>
+      <c r="D798">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A799">
+        <v>192.93600000000001</v>
+      </c>
+      <c r="B799">
+        <v>0.3</v>
+      </c>
+      <c r="C799">
+        <v>1.2</v>
+      </c>
+      <c r="D799">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A800">
+        <v>193.036</v>
+      </c>
+      <c r="B800">
+        <v>0.1</v>
+      </c>
+      <c r="C800">
+        <v>1.2</v>
+      </c>
+      <c r="D800">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A801">
+        <v>193.136</v>
+      </c>
+      <c r="B801">
+        <v>-9.9999999999999895E-2</v>
+      </c>
+      <c r="C801">
+        <v>1.2</v>
+      </c>
+      <c r="D801">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A802">
+        <v>193.73599999999999</v>
+      </c>
+      <c r="B802">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C802">
+        <v>1.2</v>
+      </c>
+      <c r="D802">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A803">
+        <v>193.83599999999998</v>
+      </c>
+      <c r="B803">
+        <v>-0.9</v>
+      </c>
+      <c r="C803">
+        <v>1.2</v>
+      </c>
+      <c r="D803">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A804">
+        <v>193.93599999999998</v>
+      </c>
+      <c r="B804">
+        <v>-0.7</v>
+      </c>
+      <c r="C804">
+        <v>1.2</v>
+      </c>
+      <c r="D804">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A805">
+        <v>194.036</v>
+      </c>
+      <c r="B805">
+        <v>-0.5</v>
+      </c>
+      <c r="C805">
+        <v>1.2</v>
+      </c>
+      <c r="D805">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A806">
+        <v>194.136</v>
+      </c>
+      <c r="B806">
+        <v>-0.3</v>
+      </c>
+      <c r="C806">
+        <v>1.2</v>
+      </c>
+      <c r="D806">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A807">
+        <v>194.23599999999999</v>
+      </c>
+      <c r="B807">
+        <v>-0.1</v>
+      </c>
+      <c r="C807">
+        <v>1.2</v>
+      </c>
+      <c r="D807">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A808">
+        <v>194.33599999999998</v>
+      </c>
+      <c r="B808">
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="C808">
+        <v>1.2</v>
+      </c>
+      <c r="D808">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A809">
+        <v>194.43600000000001</v>
+      </c>
+      <c r="B809">
+        <v>0.3</v>
+      </c>
+      <c r="C809">
+        <v>1.2</v>
+      </c>
+      <c r="D809">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A810">
+        <v>195.43600000000001</v>
+      </c>
+      <c r="B810">
+        <v>0</v>
+      </c>
+      <c r="C810">
+        <v>1</v>
+      </c>
+      <c r="D810">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A811">
+        <v>195.636</v>
+      </c>
+      <c r="B811">
+        <v>-1.5</v>
+      </c>
+      <c r="C811">
+        <v>1</v>
+      </c>
+      <c r="D811">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A812">
+        <v>196.83600000000001</v>
+      </c>
+      <c r="B812">
+        <v>-1</v>
+      </c>
+      <c r="C812">
+        <v>1.6</v>
+      </c>
+      <c r="D812">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A813">
+        <v>196.83600000000001</v>
+      </c>
+      <c r="B813">
+        <v>1</v>
+      </c>
+      <c r="C813">
+        <v>1.6</v>
+      </c>
+      <c r="D813">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A814">
+        <v>196.93600000000001</v>
+      </c>
+      <c r="B814">
+        <v>1.5</v>
+      </c>
+      <c r="C814">
+        <v>0.7</v>
+      </c>
+      <c r="D814">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A815">
+        <v>197.036</v>
+      </c>
+      <c r="B815">
+        <v>-0.5</v>
+      </c>
+      <c r="C815">
+        <v>0.7</v>
+      </c>
+      <c r="D815">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A816">
+        <v>197.136</v>
+      </c>
+      <c r="B816">
+        <v>0.5</v>
+      </c>
+      <c r="C816">
+        <v>0.7</v>
+      </c>
+      <c r="D816">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A817">
+        <v>197.23599999999999</v>
+      </c>
+      <c r="B817">
+        <v>-1.5</v>
+      </c>
+      <c r="C817">
+        <v>0.7</v>
+      </c>
+      <c r="D817">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>197.33600000000001</v>
+      </c>
+      <c r="B818">
+        <v>0.5</v>
+      </c>
+      <c r="C818">
+        <v>0.7</v>
+      </c>
+      <c r="D818">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>197.43600000000001</v>
+      </c>
+      <c r="B819">
+        <v>-0.5</v>
+      </c>
+      <c r="C819">
+        <v>0.7</v>
+      </c>
+      <c r="D819">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>197.536</v>
+      </c>
+      <c r="B820">
+        <v>1.5</v>
+      </c>
+      <c r="C820">
+        <v>0.7</v>
+      </c>
+      <c r="D820">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A821">
+        <v>197.636</v>
+      </c>
+      <c r="B821">
+        <v>-1.5</v>
+      </c>
+      <c r="C821">
+        <v>0.7</v>
+      </c>
+      <c r="D821">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A822">
+        <v>197.73599999999999</v>
+      </c>
+      <c r="B822">
+        <v>0.5</v>
+      </c>
+      <c r="C822">
+        <v>0.7</v>
+      </c>
+      <c r="D822">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A823">
+        <v>197.83600000000001</v>
+      </c>
+      <c r="B823">
+        <v>-0.5</v>
+      </c>
+      <c r="C823">
+        <v>0.7</v>
+      </c>
+      <c r="D823">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A824">
+        <v>197.93600000000001</v>
+      </c>
+      <c r="B824">
+        <v>1.5</v>
+      </c>
+      <c r="C824">
+        <v>0.7</v>
+      </c>
+      <c r="D824">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A825">
+        <v>198.036</v>
+      </c>
+      <c r="B825">
+        <v>1.2</v>
+      </c>
+      <c r="C825">
+        <v>1.6</v>
+      </c>
+      <c r="D825">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A826">
+        <v>198.036</v>
+      </c>
+      <c r="B826">
+        <v>0.3</v>
+      </c>
+      <c r="C826">
+        <v>1.6</v>
+      </c>
+      <c r="D826">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -13860,10 +16070,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J239"/>
+  <dimension ref="A1:J265"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="G242" sqref="G242"/>
+    <sheetView topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="N250" sqref="N250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21514,6 +23724,838 @@
       </c>
       <c r="J239" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240">
+        <v>182</v>
+      </c>
+      <c r="C240">
+        <v>186.13600000000002</v>
+      </c>
+      <c r="D240">
+        <v>-1.8</v>
+      </c>
+      <c r="E240">
+        <v>-1</v>
+      </c>
+      <c r="F240">
+        <v>186.23600000000002</v>
+      </c>
+      <c r="G240">
+        <v>-1.8</v>
+      </c>
+      <c r="H240">
+        <v>-1</v>
+      </c>
+      <c r="I240" t="s">
+        <v>25</v>
+      </c>
+      <c r="J240" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>183</v>
+      </c>
+      <c r="C241">
+        <v>186.33600000000001</v>
+      </c>
+      <c r="D241">
+        <v>-0.86699999999999999</v>
+      </c>
+      <c r="E241">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="F241">
+        <v>186.43600000000001</v>
+      </c>
+      <c r="G241">
+        <v>-0.86699999999999999</v>
+      </c>
+      <c r="H241">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="I241" t="s">
+        <v>25</v>
+      </c>
+      <c r="J241" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242">
+        <v>184</v>
+      </c>
+      <c r="C242">
+        <v>186.536</v>
+      </c>
+      <c r="D242">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E242">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F242">
+        <v>186.636</v>
+      </c>
+      <c r="G242">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H242">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I242" t="s">
+        <v>25</v>
+      </c>
+      <c r="J242" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>185</v>
+      </c>
+      <c r="C243">
+        <v>186.73599999999999</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>1.8</v>
+      </c>
+      <c r="F243">
+        <v>186.83599999999998</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>1.8</v>
+      </c>
+      <c r="I243" t="s">
+        <v>25</v>
+      </c>
+      <c r="J243" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>17</v>
+      </c>
+      <c r="B244">
+        <v>186</v>
+      </c>
+      <c r="C244">
+        <v>186.93600000000001</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>1.8</v>
+      </c>
+      <c r="F244">
+        <v>187.036</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>1.8</v>
+      </c>
+      <c r="I244" t="s">
+        <v>25</v>
+      </c>
+      <c r="J244" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>17</v>
+      </c>
+      <c r="B245">
+        <v>187</v>
+      </c>
+      <c r="C245">
+        <v>187.13600000000002</v>
+      </c>
+      <c r="D245">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E245">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F245">
+        <v>187.23599999999999</v>
+      </c>
+      <c r="G245">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H245">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I245" t="s">
+        <v>25</v>
+      </c>
+      <c r="J245" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>17</v>
+      </c>
+      <c r="B246">
+        <v>188</v>
+      </c>
+      <c r="C246">
+        <v>187.33600000000001</v>
+      </c>
+      <c r="D246">
+        <v>-0.86699999999999999</v>
+      </c>
+      <c r="E246">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="F246">
+        <v>187.43600000000001</v>
+      </c>
+      <c r="G246">
+        <v>-0.86699999999999999</v>
+      </c>
+      <c r="H246">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="I246" t="s">
+        <v>25</v>
+      </c>
+      <c r="J246" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>17</v>
+      </c>
+      <c r="B247">
+        <v>189</v>
+      </c>
+      <c r="C247">
+        <v>187.536</v>
+      </c>
+      <c r="D247">
+        <v>-1.8</v>
+      </c>
+      <c r="E247">
+        <v>-1</v>
+      </c>
+      <c r="F247">
+        <v>187.63600000000002</v>
+      </c>
+      <c r="G247">
+        <v>-1.8</v>
+      </c>
+      <c r="H247">
+        <v>-1</v>
+      </c>
+      <c r="I247" t="s">
+        <v>25</v>
+      </c>
+      <c r="J247" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>17</v>
+      </c>
+      <c r="B248">
+        <v>190</v>
+      </c>
+      <c r="C248">
+        <v>189.23599999999999</v>
+      </c>
+      <c r="D248">
+        <v>-1.6</v>
+      </c>
+      <c r="E248">
+        <v>0.4</v>
+      </c>
+      <c r="F248">
+        <v>189.386</v>
+      </c>
+      <c r="G248">
+        <v>1.2</v>
+      </c>
+      <c r="H248">
+        <v>2</v>
+      </c>
+      <c r="I248" t="s">
+        <v>25</v>
+      </c>
+      <c r="J248" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>17</v>
+      </c>
+      <c r="B249">
+        <v>190</v>
+      </c>
+      <c r="C249">
+        <v>189.386</v>
+      </c>
+      <c r="D249">
+        <v>1.2</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>189.536</v>
+      </c>
+      <c r="G249">
+        <v>1.2</v>
+      </c>
+      <c r="H249">
+        <v>2</v>
+      </c>
+      <c r="I249" t="s">
+        <v>25</v>
+      </c>
+      <c r="J249" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>19</v>
+      </c>
+      <c r="B250">
+        <v>191</v>
+      </c>
+      <c r="C250">
+        <v>189.23599999999999</v>
+      </c>
+      <c r="D250">
+        <v>-0.4</v>
+      </c>
+      <c r="E250">
+        <v>1.6</v>
+      </c>
+      <c r="F250">
+        <v>189.386</v>
+      </c>
+      <c r="G250">
+        <v>-2</v>
+      </c>
+      <c r="H250">
+        <v>-1.2</v>
+      </c>
+      <c r="I250" t="s">
+        <v>25</v>
+      </c>
+      <c r="J250" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>19</v>
+      </c>
+      <c r="B251">
+        <v>191</v>
+      </c>
+      <c r="C251">
+        <v>189.386</v>
+      </c>
+      <c r="D251">
+        <v>-2</v>
+      </c>
+      <c r="E251">
+        <v>-1.2</v>
+      </c>
+      <c r="F251">
+        <v>189.73599999999999</v>
+      </c>
+      <c r="G251">
+        <v>-2</v>
+      </c>
+      <c r="H251">
+        <v>-1.2</v>
+      </c>
+      <c r="I251" t="s">
+        <v>25</v>
+      </c>
+      <c r="J251" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>19</v>
+      </c>
+      <c r="B252">
+        <v>192</v>
+      </c>
+      <c r="C252">
+        <v>190.036</v>
+      </c>
+      <c r="D252">
+        <v>1.4</v>
+      </c>
+      <c r="E252">
+        <v>2</v>
+      </c>
+      <c r="F252">
+        <v>190.23599999999999</v>
+      </c>
+      <c r="G252">
+        <v>-2</v>
+      </c>
+      <c r="H252">
+        <v>-0.5</v>
+      </c>
+      <c r="I252" t="s">
+        <v>31</v>
+      </c>
+      <c r="J252" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>19</v>
+      </c>
+      <c r="B253">
+        <v>192</v>
+      </c>
+      <c r="C253">
+        <v>190.23599999999999</v>
+      </c>
+      <c r="D253">
+        <v>-2</v>
+      </c>
+      <c r="E253">
+        <v>-0.5</v>
+      </c>
+      <c r="F253">
+        <v>190.43600000000001</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>2</v>
+      </c>
+      <c r="I253" t="s">
+        <v>24</v>
+      </c>
+      <c r="J253" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>19</v>
+      </c>
+      <c r="B254">
+        <v>192</v>
+      </c>
+      <c r="C254">
+        <v>190.43600000000001</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>2</v>
+      </c>
+      <c r="F254">
+        <v>191.33600000000001</v>
+      </c>
+      <c r="G254">
+        <v>-0.8</v>
+      </c>
+      <c r="H254">
+        <v>0.2</v>
+      </c>
+      <c r="I254" t="s">
+        <v>25</v>
+      </c>
+      <c r="J254" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>17</v>
+      </c>
+      <c r="B255">
+        <v>193</v>
+      </c>
+      <c r="C255">
+        <v>191.43600000000001</v>
+      </c>
+      <c r="D255">
+        <v>-2</v>
+      </c>
+      <c r="E255">
+        <v>-0.7</v>
+      </c>
+      <c r="F255">
+        <v>191.636</v>
+      </c>
+      <c r="G255">
+        <v>-1.3</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255" t="s">
+        <v>31</v>
+      </c>
+      <c r="J255" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>19</v>
+      </c>
+      <c r="B256">
+        <v>194</v>
+      </c>
+      <c r="C256">
+        <v>192.43600000000001</v>
+      </c>
+      <c r="D256">
+        <v>0.2</v>
+      </c>
+      <c r="E256">
+        <v>2</v>
+      </c>
+      <c r="F256">
+        <v>192.536</v>
+      </c>
+      <c r="G256">
+        <v>-0.6</v>
+      </c>
+      <c r="H256">
+        <v>0.4</v>
+      </c>
+      <c r="I256" t="s">
+        <v>25</v>
+      </c>
+      <c r="J256" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>19</v>
+      </c>
+      <c r="B257">
+        <v>194</v>
+      </c>
+      <c r="C257">
+        <v>192.536</v>
+      </c>
+      <c r="D257">
+        <v>-0.6</v>
+      </c>
+      <c r="E257">
+        <v>0.4</v>
+      </c>
+      <c r="F257">
+        <v>193.23599999999999</v>
+      </c>
+      <c r="G257">
+        <v>-2</v>
+      </c>
+      <c r="H257">
+        <v>-1</v>
+      </c>
+      <c r="I257" t="s">
+        <v>25</v>
+      </c>
+      <c r="J257" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>19</v>
+      </c>
+      <c r="B258">
+        <v>195</v>
+      </c>
+      <c r="C258">
+        <v>193.636</v>
+      </c>
+      <c r="D258">
+        <v>-2</v>
+      </c>
+      <c r="E258">
+        <v>-0.2</v>
+      </c>
+      <c r="F258">
+        <v>193.73599999999999</v>
+      </c>
+      <c r="G258">
+        <v>-0.4</v>
+      </c>
+      <c r="H258">
+        <v>0.6</v>
+      </c>
+      <c r="I258" t="s">
+        <v>25</v>
+      </c>
+      <c r="J258" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>19</v>
+      </c>
+      <c r="B259">
+        <v>195</v>
+      </c>
+      <c r="C259">
+        <v>193.73599999999999</v>
+      </c>
+      <c r="D259">
+        <v>-0.4</v>
+      </c>
+      <c r="E259">
+        <v>0.6</v>
+      </c>
+      <c r="F259">
+        <v>194.43599999999998</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>2</v>
+      </c>
+      <c r="I259" t="s">
+        <v>25</v>
+      </c>
+      <c r="J259" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>17</v>
+      </c>
+      <c r="B260">
+        <v>196</v>
+      </c>
+      <c r="C260">
+        <v>194.636</v>
+      </c>
+      <c r="D260">
+        <v>0.7</v>
+      </c>
+      <c r="E260">
+        <v>2</v>
+      </c>
+      <c r="F260">
+        <v>194.83600000000001</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>1.3</v>
+      </c>
+      <c r="I260" t="s">
+        <v>24</v>
+      </c>
+      <c r="J260" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>19</v>
+      </c>
+      <c r="B261">
+        <v>197</v>
+      </c>
+      <c r="C261">
+        <v>194.83600000000001</v>
+      </c>
+      <c r="D261">
+        <v>-2</v>
+      </c>
+      <c r="E261">
+        <v>-1.2</v>
+      </c>
+      <c r="F261">
+        <v>195.136</v>
+      </c>
+      <c r="G261">
+        <v>0.8</v>
+      </c>
+      <c r="H261">
+        <v>2</v>
+      </c>
+      <c r="I261" t="s">
+        <v>31</v>
+      </c>
+      <c r="J261" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>17</v>
+      </c>
+      <c r="B262">
+        <v>198</v>
+      </c>
+      <c r="C262">
+        <v>195.136</v>
+      </c>
+      <c r="D262">
+        <v>-2</v>
+      </c>
+      <c r="E262">
+        <v>-1.2</v>
+      </c>
+      <c r="F262">
+        <v>195.43600000000001</v>
+      </c>
+      <c r="G262">
+        <v>0.8</v>
+      </c>
+      <c r="H262">
+        <v>2</v>
+      </c>
+      <c r="I262" t="s">
+        <v>31</v>
+      </c>
+      <c r="J262" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>19</v>
+      </c>
+      <c r="B263">
+        <v>199</v>
+      </c>
+      <c r="C263">
+        <v>195.636</v>
+      </c>
+      <c r="D263">
+        <v>1.2</v>
+      </c>
+      <c r="E263">
+        <v>2</v>
+      </c>
+      <c r="F263">
+        <v>195.93600000000001</v>
+      </c>
+      <c r="G263">
+        <v>-2</v>
+      </c>
+      <c r="H263">
+        <v>-0.8</v>
+      </c>
+      <c r="I263" t="s">
+        <v>31</v>
+      </c>
+      <c r="J263" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>17</v>
+      </c>
+      <c r="B264">
+        <v>200</v>
+      </c>
+      <c r="C264">
+        <v>195.93600000000001</v>
+      </c>
+      <c r="D264">
+        <v>1.2</v>
+      </c>
+      <c r="E264">
+        <v>2</v>
+      </c>
+      <c r="F264">
+        <v>196.23599999999999</v>
+      </c>
+      <c r="G264">
+        <v>-2</v>
+      </c>
+      <c r="H264">
+        <v>-0.8</v>
+      </c>
+      <c r="I264" t="s">
+        <v>31</v>
+      </c>
+      <c r="J264" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>19</v>
+      </c>
+      <c r="B265">
+        <v>201</v>
+      </c>
+      <c r="C265">
+        <v>196.23599999999999</v>
+      </c>
+      <c r="D265">
+        <v>1.2</v>
+      </c>
+      <c r="E265">
+        <v>2</v>
+      </c>
+      <c r="F265">
+        <v>196.43600000000001</v>
+      </c>
+      <c r="G265">
+        <v>-0.7</v>
+      </c>
+      <c r="H265">
+        <v>0.3</v>
+      </c>
+      <c r="I265" t="s">
+        <v>31</v>
+      </c>
+      <c r="J265" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -21526,10 +24568,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76DC57-EF49-44CE-8A21-D4353938F627}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="H231" sqref="H231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24513,6 +27555,230 @@
         <v>0.6</v>
       </c>
       <c r="D213">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>177.566</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>0.6</v>
+      </c>
+      <c r="D214">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>178.499</v>
+      </c>
+      <c r="B215">
+        <v>1.7</v>
+      </c>
+      <c r="C215">
+        <v>0.6</v>
+      </c>
+      <c r="D215">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>178.54300000000001</v>
+      </c>
+      <c r="B216">
+        <v>1.4</v>
+      </c>
+      <c r="C216">
+        <v>0.6</v>
+      </c>
+      <c r="D216">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>178.636</v>
+      </c>
+      <c r="B217">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C217">
+        <v>0.6</v>
+      </c>
+      <c r="D217">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>191.636</v>
+      </c>
+      <c r="B218">
+        <v>0.3</v>
+      </c>
+      <c r="C218">
+        <v>0.5</v>
+      </c>
+      <c r="D218">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>191.703</v>
+      </c>
+      <c r="B219">
+        <v>-0.3</v>
+      </c>
+      <c r="C219">
+        <v>0.8</v>
+      </c>
+      <c r="D219">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>191.77</v>
+      </c>
+      <c r="B220">
+        <v>-1</v>
+      </c>
+      <c r="C220">
+        <v>0.5</v>
+      </c>
+      <c r="D220">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>191.83700000000002</v>
+      </c>
+      <c r="B221">
+        <v>-1.5</v>
+      </c>
+      <c r="C221">
+        <v>0.8</v>
+      </c>
+      <c r="D221">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>191.90400000000002</v>
+      </c>
+      <c r="B222">
+        <v>-1.2</v>
+      </c>
+      <c r="C222">
+        <v>0.5</v>
+      </c>
+      <c r="D222">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>191.97100000000003</v>
+      </c>
+      <c r="B223">
+        <v>-0.85</v>
+      </c>
+      <c r="C223">
+        <v>0.8</v>
+      </c>
+      <c r="D223">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>192.03800000000004</v>
+      </c>
+      <c r="B224">
+        <v>-0.45</v>
+      </c>
+      <c r="C224">
+        <v>0.5</v>
+      </c>
+      <c r="D224">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>192.10500000000005</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0.8</v>
+      </c>
+      <c r="D225">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>192.17200000000005</v>
+      </c>
+      <c r="B226">
+        <v>0.4</v>
+      </c>
+      <c r="C226">
+        <v>0.5</v>
+      </c>
+      <c r="D226">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>192.23900000000006</v>
+      </c>
+      <c r="B227">
+        <v>0.8</v>
+      </c>
+      <c r="C227">
+        <v>0.8</v>
+      </c>
+      <c r="D227">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>192.30600000000007</v>
+      </c>
+      <c r="B228">
+        <v>1.2</v>
+      </c>
+      <c r="C228">
+        <v>0.5</v>
+      </c>
+      <c r="D228">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>192.37300000000008</v>
+      </c>
+      <c r="B229">
+        <v>1.6</v>
+      </c>
+      <c r="C229">
+        <v>0.8</v>
+      </c>
+      <c r="D229">
         <v>17</v>
       </c>
     </row>
@@ -24526,10 +27792,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F96158-71D4-4C19-99F5-47E7932AF572}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26096,6 +29362,261 @@
       </c>
       <c r="E92">
         <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>177.23599999999999</v>
+      </c>
+      <c r="B93">
+        <v>-1.5</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0.375</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>177.636</v>
+      </c>
+      <c r="B94">
+        <v>-1.5</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0.375</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>178.036</v>
+      </c>
+      <c r="B95">
+        <v>-1.5</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0.375</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>178.43600000000001</v>
+      </c>
+      <c r="B96">
+        <v>-1.5</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0.375</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>178.83600000000001</v>
+      </c>
+      <c r="B97">
+        <v>-1.5</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0.375</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>180.43600000000001</v>
+      </c>
+      <c r="B98">
+        <v>1.5</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0.625</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>180.83600000000001</v>
+      </c>
+      <c r="B99">
+        <v>1.5</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0.625</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>181.23599999999999</v>
+      </c>
+      <c r="B100">
+        <v>1.5</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0.625</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>181.63600000000002</v>
+      </c>
+      <c r="B101">
+        <v>1.5</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0.625</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>189.23599999999999</v>
+      </c>
+      <c r="B102">
+        <v>-0.6</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>0.25</v>
+      </c>
+      <c r="E102">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>189.23599999999999</v>
+      </c>
+      <c r="B103">
+        <v>0.6</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>0.75</v>
+      </c>
+      <c r="E103">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>192.43600000000001</v>
+      </c>
+      <c r="B104">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C104">
+        <v>1.8</v>
+      </c>
+      <c r="D104">
+        <v>0.75</v>
+      </c>
+      <c r="E104">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>193.23599999999999</v>
+      </c>
+      <c r="B105">
+        <v>-0.3</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>193.636</v>
+      </c>
+      <c r="B106">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C106">
+        <v>1.8</v>
+      </c>
+      <c r="D106">
+        <v>0.25</v>
+      </c>
+      <c r="E106">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>196.43600000000001</v>
+      </c>
+      <c r="B107">
+        <v>1.2</v>
+      </c>
+      <c r="C107">
+        <v>1.6</v>
+      </c>
+      <c r="D107">
+        <v>0.875</v>
+      </c>
+      <c r="E107">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161E5BE-3883-440B-9630-D9FDC8872138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D8C971-1739-4427-86C8-B2C108C58535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="planes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,61 @@
     <t>UpperCir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00b2ee</t>
+  </si>
+  <si>
+    <t>#ff6347</t>
+  </si>
+  <si>
+    <t>#ff6348</t>
+  </si>
+  <si>
+    <t>#ff6349</t>
+  </si>
+  <si>
+    <t>#ff6350</t>
+  </si>
+  <si>
+    <t>#ff6351</t>
+  </si>
+  <si>
+    <t>#ff6352</t>
+  </si>
+  <si>
+    <t>#ff6353</t>
+  </si>
+  <si>
+    <t>#ff6354</t>
+  </si>
+  <si>
+    <t>#ff6355</t>
+  </si>
+  <si>
+    <t>#ff6356</t>
+  </si>
+  <si>
+    <t>#ff6357</t>
+  </si>
+  <si>
+    <t>#ff6358</t>
+  </si>
+  <si>
+    <t>#ff6359</t>
+  </si>
+  <si>
+    <t>#ff6360</t>
+  </si>
+  <si>
+    <t>#ff6361</t>
+  </si>
+  <si>
+    <t>#e066ff</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +239,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5F5F5F"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,11 +269,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,4878 +594,5658 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA789EFB-BCA3-4FCA-98D4-565CD71AE543}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F243"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
-    <sheetView topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="I246" sqref="I246"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.42699999999999999</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
         <v>0.42699999999999999</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>1.246</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
         <v>1.246</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>3.246</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
         <v>3.246</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>6.4450000000000003</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
         <v>1.246</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>6.4450000000000003</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
         <v>6.4450000000000003</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>8.0259999999999998</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
         <v>6.4450000000000003</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>8.0259999999999998</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
         <v>8.0259999999999998</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>10.036</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
         <v>8.0259999999999998</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>10.036</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
         <v>10.036</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>10.135999999999999</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
         <v>10.036</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>10.135999999999999</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
         <v>10.135999999999999</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>13.236000000000001</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
         <v>10.135999999999999</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>13.236000000000001</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
         <v>13.236000000000001</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>13.336</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
         <v>13.236000000000001</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>13.336</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
         <v>13.336</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>16.436</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
         <v>13.336</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>16.436</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
         <v>16.436</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>16.536000000000001</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
         <v>16.436</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>16.536000000000001</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
         <v>16.536000000000001</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>19.635999999999999</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
         <v>16.536000000000001</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>19.635999999999999</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
         <v>19.635999999999999</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>20.036000000000001</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
         <v>19.635999999999999</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>20.036000000000001</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
         <v>20.036000000000001</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>20.436</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.5</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
         <v>20.036000000000001</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>20.436</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.5</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
         <v>20.436</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.5</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>20.835999999999999</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.25</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
         <v>20.436</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.5</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>20.835999999999999</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.25</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
         <v>20.835999999999999</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.25</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>21.236000000000001</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
         <v>20.835999999999999</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.25</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>21.236000000000001</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
         <v>21.236000000000001</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
       <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>72.635999999999996</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
         <v>35.636000000000003</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
       <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>36.036000000000001</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
         <v>36.036000000000001</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
       <c r="D33">
-        <v>66.036000000000001</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
+        <v>72.635999999999996</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>36.436</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>36.835999999999999</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>37.235999999999997</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>37.636000000000003</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>38.036000000000001</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>38.436</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>38.835999999999999</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>39.235999999999997</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>39.636000000000003</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>40.036000000000001</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>40.436</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>40.835999999999999</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>41.235999999999997</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>41.636000000000003</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>42.036000000000001</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>42.436</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>42.835999999999999</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>43.235999999999997</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>43.636000000000003</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>44.036000000000001</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>44.436</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>44.835999999999999</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>45.235999999999997</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>45.636000000000003</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>46.036000000000001</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>46.436</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47">
+        <v>72.635999999999996</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>72.835999999999999</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>3</v>
       </c>
-      <c r="B34">
-        <v>66.036000000000001</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>66.635999999999996</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48">
+        <v>72.635999999999996</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>72.835999999999999</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>72.835999999999999</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>73.036000000000001</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>3</v>
       </c>
-      <c r="B35">
-        <v>66.635999999999996</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>70.835999999999999</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>72.835999999999999</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>73.036000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51">
+        <v>73.036000000000001</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>73.236000000000004</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>3</v>
       </c>
-      <c r="B36">
-        <v>70.835999999999999</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>72.635999999999996</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52">
+        <v>73.036000000000001</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>73.236000000000004</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37">
-        <v>36.436</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>36.835999999999999</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>73.036000000000001</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>73.236000000000004</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54">
+        <v>73.236000000000004</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>73.436000000000007</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>73.236000000000004</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>73.436000000000007</v>
+      </c>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56">
+        <v>73.436000000000007</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>73.635999999999996</v>
+      </c>
+      <c r="F56">
+        <v>0.5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <v>73.436000000000007</v>
+      </c>
+      <c r="D57">
+        <v>0.5</v>
+      </c>
+      <c r="E57">
+        <v>73.635999999999996</v>
+      </c>
+      <c r="F57">
+        <v>0.5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58">
+        <v>73.635999999999996</v>
+      </c>
+      <c r="D58">
+        <v>0.5</v>
+      </c>
+      <c r="E58">
+        <v>74.036000000000001</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38">
-        <v>37.235999999999997</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>37.636000000000003</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59">
+        <v>73.635999999999996</v>
+      </c>
+      <c r="D59">
+        <v>0.5</v>
+      </c>
+      <c r="E59">
+        <v>73.835999999999999</v>
+      </c>
+      <c r="F59">
+        <v>1.3</v>
+      </c>
+      <c r="G59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>6</v>
-      </c>
-      <c r="B39">
-        <v>38.036000000000001</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>38.436</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>73.835999999999999</v>
+      </c>
+      <c r="D60">
+        <v>1.3</v>
+      </c>
+      <c r="E60">
+        <v>74.036000000000001</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61">
+        <v>74.036000000000001</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>76.436000000000007</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>74.036000000000001</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>76.436000000000007</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63">
+        <v>76.436000000000007</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>76.835999999999999</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64">
+        <v>76.436000000000007</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>76.835999999999999</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65">
+        <v>76.835999999999999</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>7</v>
-      </c>
-      <c r="B40">
-        <v>38.835999999999999</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>39.235999999999997</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>76.835999999999999</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>39.636000000000003</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>40.036000000000001</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>82.835999999999999</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>82.835999999999999</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69">
+        <v>82.835999999999999</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>83.236000000000004</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <v>82.835999999999999</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>83.236000000000004</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71">
+        <v>83.236000000000004</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>83.635999999999996</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>40.436</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>40.835999999999999</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>83.236000000000004</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>83.635999999999996</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43">
-        <v>41.235999999999997</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>41.636000000000003</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73">
+        <v>83.635999999999996</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>86.036000000000001</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74">
+        <v>83.635999999999996</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>85.236000000000004</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75">
+        <v>85.236000000000004</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>86.036000000000001</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76">
+        <v>86.036000000000001</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>86.436000000000007</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>11</v>
-      </c>
-      <c r="B44">
-        <v>42.036000000000001</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>42.436</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>86.036000000000001</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>86.436000000000007</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>12</v>
-      </c>
-      <c r="B45">
-        <v>42.835999999999999</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>43.235999999999997</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78">
+        <v>86.436000000000007</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>86.835999999999999</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>13</v>
-      </c>
-      <c r="B46">
-        <v>43.636000000000003</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>44.036000000000001</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79">
+        <v>86.835999999999999</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>89.236000000000004</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80">
+        <v>86.436000000000007</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>89.236000000000004</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81">
+        <v>89.236000000000004</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>89.635999999999996</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82">
+        <v>89.236000000000004</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>89.635999999999996</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83">
+        <v>89.635999999999996</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>90.036000000000001</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>14</v>
-      </c>
-      <c r="B47">
-        <v>44.436</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>44.835999999999999</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84">
+        <v>89.635999999999996</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>90.036000000000001</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>15</v>
-      </c>
-      <c r="B48">
-        <v>45.235999999999997</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>45.636000000000003</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85">
+        <v>90.036000000000001</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>95.635999999999996</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86">
+        <v>90.036000000000001</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>95.635999999999996</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87">
+        <v>95.63600000000001</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>96.036000000000001</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88">
+        <v>95.63600000000001</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>96.036000000000001</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89">
+        <v>96.036000000000001</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>96.436000000000007</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>16</v>
-      </c>
-      <c r="B49">
-        <v>46.036000000000001</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>46.436</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90">
+        <v>96.036000000000001</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>96.436000000000007</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>72.635999999999996</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>72.835999999999999</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91">
+        <v>96.436000000000007</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>97.236000000000004</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51">
-        <v>72.635999999999996</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>72.835999999999999</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92">
+        <v>96.436000000000007</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>97.236000000000004</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
-        <v>72.835999999999999</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>73.036000000000001</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93">
+        <v>97.236000000000004</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>97.536000000000001</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94">
+        <v>97.236000000000004</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>97.536000000000001</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95">
+        <v>97.536000000000001</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>97.835999999999999</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96">
+        <v>97.536000000000001</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>97.835999999999999</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97">
+        <v>97.835999999999999</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>98.135999999999996</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>3</v>
-      </c>
-      <c r="B53">
-        <v>72.835999999999999</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>73.036000000000001</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98">
+        <v>97.835999999999999</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>98.135999999999996</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99">
+        <v>98.135999999999996</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>98.835999999999999</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100">
+        <v>98.135999999999996</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>98.835999999999999</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101">
+        <v>98.835999999999999</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>99.034999999999997</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102">
+        <v>99.034999999999997</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>99.036000000000001</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103">
+        <v>99.036000000000001</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>99.234999999999999</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104">
+        <v>99.234999999999999</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>99.236000000000004</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105">
+        <v>99.236000000000004</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>99.435000000000002</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106">
+        <v>99.435000000000002</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>99.436000000000007</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107">
+        <v>99.436000000000007</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>99.635999999999996</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108">
+        <v>98.835999999999999</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>99.635999999999996</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109">
+        <v>99.635999999999996</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>99.736000000000004</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110">
+        <v>99.635999999999996</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>99.736000000000004</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111">
+        <v>99.736000000000004</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>109.236</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112">
+        <v>99.736000000000004</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>108.43600000000001</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113">
+        <v>108.43600000000001</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>109.236</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114">
+        <v>109.236</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>109.336</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115">
+        <v>109.336</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>111.636</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116">
+        <v>109.236</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>110.836</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>17</v>
+      </c>
+      <c r="B117" t="s">
+        <v>50</v>
+      </c>
+      <c r="C117">
+        <v>110.83600000000001</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>111.636</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <v>73.036000000000001</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>73.236000000000004</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118">
+        <v>111.636</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>112.036</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119">
+        <v>111.636</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>112.036</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120">
+        <v>112.036</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>112.43600000000001</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121">
+        <v>112.43600000000001</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>121.236</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>3</v>
-      </c>
-      <c r="B55">
-        <v>73.036000000000001</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>73.236000000000004</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>50</v>
+      </c>
+      <c r="C122">
+        <v>112.036</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>123.652</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>17</v>
-      </c>
-      <c r="B56">
-        <v>73.036000000000001</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>73.236000000000004</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123">
+        <v>121.236</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>122.036</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124">
+        <v>122.036</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>122.43600000000001</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125">
+        <v>122.43600000000001</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>137.636</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57">
-        <v>73.236000000000004</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>73.436000000000007</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>17</v>
+      </c>
+      <c r="B126" t="s">
+        <v>50</v>
+      </c>
+      <c r="C126">
+        <v>123.652</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>125.152</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>17</v>
-      </c>
-      <c r="B58">
-        <v>73.236000000000004</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>73.436000000000007</v>
-      </c>
-      <c r="E58">
-        <v>0.5</v>
-      </c>
-      <c r="F58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59">
-        <v>73.436000000000007</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>73.635999999999996</v>
-      </c>
-      <c r="E59">
-        <v>0.5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>17</v>
-      </c>
-      <c r="B60">
-        <v>73.436000000000007</v>
-      </c>
-      <c r="C60">
-        <v>0.5</v>
-      </c>
-      <c r="D60">
-        <v>73.635999999999996</v>
-      </c>
-      <c r="E60">
-        <v>0.5</v>
-      </c>
-      <c r="F60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61">
-        <v>73.635999999999996</v>
-      </c>
-      <c r="C61">
-        <v>0.5</v>
-      </c>
-      <c r="D61">
-        <v>74.036000000000001</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>17</v>
+      </c>
+      <c r="B127" t="s">
+        <v>50</v>
+      </c>
+      <c r="C127">
+        <v>125.152</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>125.97199999999999</v>
+      </c>
+      <c r="F127">
+        <v>1.5</v>
+      </c>
+      <c r="G127" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>17</v>
-      </c>
-      <c r="B62">
-        <v>73.635999999999996</v>
-      </c>
-      <c r="C62">
-        <v>0.5</v>
-      </c>
-      <c r="D62">
-        <v>73.835999999999999</v>
-      </c>
-      <c r="E62">
-        <v>1.3</v>
-      </c>
-      <c r="F62" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>50</v>
+      </c>
+      <c r="C128">
+        <v>125.97199999999999</v>
+      </c>
+      <c r="D128">
+        <v>1.5</v>
+      </c>
+      <c r="E128">
+        <v>128.447</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>51</v>
+      </c>
+      <c r="C129">
+        <v>125.152</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>125.97199999999999</v>
+      </c>
+      <c r="F129">
+        <v>0.75</v>
+      </c>
+      <c r="G129" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>17</v>
-      </c>
-      <c r="B63">
-        <v>73.835999999999999</v>
-      </c>
-      <c r="C63">
-        <v>1.3</v>
-      </c>
-      <c r="D63">
-        <v>74.036000000000001</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>18</v>
+      </c>
+      <c r="B130" t="s">
+        <v>51</v>
+      </c>
+      <c r="C130">
+        <v>125.97199999999999</v>
+      </c>
+      <c r="D130">
+        <v>0.75</v>
+      </c>
+      <c r="E130">
+        <v>128.447</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64">
-        <v>74.036000000000001</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>76.436000000000007</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>17</v>
-      </c>
-      <c r="B65">
-        <v>74.036000000000001</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>76.436000000000007</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>76.436000000000007</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>76.835999999999999</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>50</v>
+      </c>
+      <c r="C131">
+        <v>128.447</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>129.267</v>
+      </c>
+      <c r="F131">
+        <v>1.2</v>
+      </c>
+      <c r="G131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>50</v>
+      </c>
+      <c r="C132">
+        <v>129.267</v>
+      </c>
+      <c r="D132">
+        <v>1.2</v>
+      </c>
+      <c r="E132">
+        <v>131.637</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>17</v>
-      </c>
-      <c r="B67">
-        <v>76.436000000000007</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>76.835999999999999</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68">
-        <v>76.835999999999999</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>77.236000000000004</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>17</v>
-      </c>
-      <c r="B69">
-        <v>76.835999999999999</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>77.236000000000004</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70">
-        <v>77.236000000000004</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>82.835999999999999</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>17</v>
-      </c>
-      <c r="B71">
-        <v>77.236000000000004</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>82.835999999999999</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72">
-        <v>82.835999999999999</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>83.236000000000004</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>17</v>
-      </c>
-      <c r="B73">
-        <v>82.835999999999999</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>83.236000000000004</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74">
-        <v>83.236000000000004</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>83.635999999999996</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>17</v>
-      </c>
-      <c r="B75">
-        <v>83.236000000000004</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>83.635999999999996</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76">
-        <v>83.635999999999996</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>86.036000000000001</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>17</v>
-      </c>
-      <c r="B77">
-        <v>83.635999999999996</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>85.236000000000004</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>17</v>
-      </c>
-      <c r="B78">
-        <v>85.236000000000004</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>86.036000000000001</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79">
-        <v>86.036000000000001</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>86.436000000000007</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>17</v>
-      </c>
-      <c r="B80">
-        <v>86.036000000000001</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>86.436000000000007</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81">
-        <v>86.436000000000007</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>86.835999999999999</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82">
-        <v>86.835999999999999</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>89.236000000000004</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>17</v>
-      </c>
-      <c r="B83">
-        <v>86.436000000000007</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>89.236000000000004</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84">
-        <v>89.236000000000004</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>89.635999999999996</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>17</v>
-      </c>
-      <c r="B85">
-        <v>89.236000000000004</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>89.635999999999996</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>89.635999999999996</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>90.036000000000001</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>17</v>
-      </c>
-      <c r="B87">
-        <v>89.635999999999996</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>90.036000000000001</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88">
-        <v>90.036000000000001</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>95.635999999999996</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>17</v>
-      </c>
-      <c r="B89">
-        <v>90.036000000000001</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>95.635999999999996</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90">
-        <v>95.63600000000001</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>96.036000000000001</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>17</v>
-      </c>
-      <c r="B91">
-        <v>95.63600000000001</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>96.036000000000001</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <v>96.036000000000001</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>96.436000000000007</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>17</v>
-      </c>
-      <c r="B93">
-        <v>96.036000000000001</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>96.436000000000007</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94">
-        <v>96.436000000000007</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>97.236000000000004</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>17</v>
-      </c>
-      <c r="B95">
-        <v>96.436000000000007</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>97.236000000000004</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96">
-        <v>97.236000000000004</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>97.536000000000001</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>17</v>
-      </c>
-      <c r="B97">
-        <v>97.236000000000004</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>97.536000000000001</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98">
-        <v>97.536000000000001</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>97.835999999999999</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>17</v>
-      </c>
-      <c r="B99">
-        <v>97.536000000000001</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>97.835999999999999</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100">
-        <v>97.835999999999999</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>98.135999999999996</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>17</v>
-      </c>
-      <c r="B101">
-        <v>97.835999999999999</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>98.135999999999996</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102">
-        <v>98.135999999999996</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>98.835999999999999</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>17</v>
-      </c>
-      <c r="B103">
-        <v>98.135999999999996</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>98.835999999999999</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>1</v>
-      </c>
-      <c r="B104">
-        <v>98.835999999999999</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>99.034999999999997</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>99.034999999999997</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>99.036000000000001</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106">
-        <v>99.036000000000001</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>99.234999999999999</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107">
-        <v>99.234999999999999</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>99.236000000000004</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108">
-        <v>99.236000000000004</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>99.435000000000002</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>1</v>
-      </c>
-      <c r="B109">
-        <v>99.435000000000002</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>99.436000000000007</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110">
-        <v>99.436000000000007</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>99.635999999999996</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>17</v>
-      </c>
-      <c r="B111">
-        <v>98.835999999999999</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>99.635999999999996</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>1</v>
-      </c>
-      <c r="B112">
-        <v>99.635999999999996</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>99.736000000000004</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>17</v>
-      </c>
-      <c r="B113">
-        <v>99.635999999999996</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>99.736000000000004</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>1</v>
-      </c>
-      <c r="B114">
-        <v>99.736000000000004</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>109.236</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>17</v>
-      </c>
-      <c r="B115">
-        <v>99.736000000000004</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>108.43600000000001</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>17</v>
-      </c>
-      <c r="B116">
-        <v>108.43600000000001</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>109.236</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117">
-        <v>109.236</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>109.336</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>1</v>
-      </c>
-      <c r="B118">
-        <v>109.336</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>111.636</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>17</v>
-      </c>
-      <c r="B119">
-        <v>109.236</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>110.836</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>17</v>
-      </c>
-      <c r="B120">
-        <v>110.83600000000001</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>111.636</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>1</v>
-      </c>
-      <c r="B121">
-        <v>111.636</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <v>112.036</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>17</v>
-      </c>
-      <c r="B122">
-        <v>111.636</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>112.036</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>1</v>
-      </c>
-      <c r="B123">
-        <v>112.036</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>112.43600000000001</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124">
-        <v>112.43600000000001</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>121.236</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>17</v>
-      </c>
-      <c r="B125">
-        <v>112.036</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>123.652</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-      <c r="F125" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126">
-        <v>121.236</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>122.036</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>1</v>
-      </c>
-      <c r="B127">
-        <v>122.036</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127">
-        <v>122.43600000000001</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128">
-        <v>122.43600000000001</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>137.636</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>17</v>
-      </c>
-      <c r="B129">
-        <v>123.652</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129">
-        <v>125.152</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>17</v>
-      </c>
-      <c r="B130">
-        <v>125.152</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>125.97199999999999</v>
-      </c>
-      <c r="E130">
-        <v>1.5</v>
-      </c>
-      <c r="F130" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>17</v>
-      </c>
-      <c r="B131">
-        <v>125.97199999999999</v>
-      </c>
-      <c r="C131">
-        <v>1.5</v>
-      </c>
-      <c r="D131">
-        <v>128.447</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>18</v>
-      </c>
-      <c r="B132">
-        <v>125.152</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>125.97199999999999</v>
-      </c>
-      <c r="E132">
-        <v>0.75</v>
-      </c>
-      <c r="F132" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>18</v>
       </c>
-      <c r="B133">
-        <v>125.97199999999999</v>
+      <c r="B133" t="s">
+        <v>51</v>
       </c>
       <c r="C133">
-        <v>0.75</v>
+        <v>128.447</v>
       </c>
       <c r="D133">
-        <v>128.447</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133" t="s">
+        <v>129.267</v>
+      </c>
+      <c r="F133">
+        <v>0.6</v>
+      </c>
+      <c r="G133" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>18</v>
+      </c>
+      <c r="B134" t="s">
+        <v>51</v>
+      </c>
+      <c r="C134">
+        <v>129.267</v>
+      </c>
+      <c r="D134">
+        <v>0.6</v>
+      </c>
+      <c r="E134">
+        <v>131.637</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>17</v>
-      </c>
-      <c r="B134">
-        <v>128.447</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>129.267</v>
-      </c>
-      <c r="E134">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s">
+        <v>50</v>
+      </c>
+      <c r="C135">
+        <v>131.637</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>132.45699999999999</v>
+      </c>
+      <c r="F135">
         <v>1.2</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G135" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>17</v>
-      </c>
-      <c r="B135">
-        <v>129.267</v>
-      </c>
-      <c r="C135">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
+        <v>50</v>
+      </c>
+      <c r="C136">
+        <v>132.45699999999999</v>
+      </c>
+      <c r="D136">
         <v>1.2</v>
       </c>
-      <c r="D135">
-        <v>131.637</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="E136">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>18</v>
-      </c>
-      <c r="B136">
-        <v>128.447</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>129.267</v>
-      </c>
-      <c r="E136">
-        <v>0.6</v>
-      </c>
-      <c r="F136" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>18</v>
       </c>
-      <c r="B137">
-        <v>129.267</v>
+      <c r="B137" t="s">
+        <v>51</v>
       </c>
       <c r="C137">
+        <v>131.637</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>132.45699999999999</v>
+      </c>
+      <c r="F137">
         <v>0.6</v>
       </c>
-      <c r="D137">
-        <v>131.637</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>18</v>
+      </c>
+      <c r="B138" t="s">
+        <v>51</v>
+      </c>
+      <c r="C138">
+        <v>132.45699999999999</v>
+      </c>
+      <c r="D138">
+        <v>0.6</v>
+      </c>
+      <c r="E138">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>17</v>
-      </c>
-      <c r="B138">
-        <v>131.637</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>132.45699999999999</v>
-      </c>
-      <c r="E138">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>17</v>
+      </c>
+      <c r="B139" t="s">
+        <v>50</v>
+      </c>
+      <c r="C139">
+        <v>134.83600000000001</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>135.43600000000004</v>
+      </c>
+      <c r="F139">
+        <v>1.5</v>
+      </c>
+      <c r="G139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140">
+        <v>135.43600000000004</v>
+      </c>
+      <c r="D140">
+        <v>1.5</v>
+      </c>
+      <c r="E140">
+        <v>136.03600000000006</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>17</v>
+      </c>
+      <c r="B141" t="s">
+        <v>50</v>
+      </c>
+      <c r="C141">
+        <v>136.03600000000006</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>141.23599999999999</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142">
+        <v>137.636</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>138.036</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>35</v>
+      </c>
+      <c r="C143">
+        <v>138.036</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>138.23599999999999</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144">
+        <v>138.23599999999999</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>138.636</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145">
+        <v>138.636</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>141.23599999999999</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>17</v>
+      </c>
+      <c r="B146" t="s">
+        <v>50</v>
+      </c>
+      <c r="C146">
+        <v>141.23599999999999</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>141.636</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>35</v>
+      </c>
+      <c r="C147">
+        <v>141.23599999999999</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>141.636</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>17</v>
+      </c>
+      <c r="B148" t="s">
+        <v>50</v>
+      </c>
+      <c r="C148">
+        <v>141.636</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>151.036</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>35</v>
+      </c>
+      <c r="C149">
+        <v>141.636</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>151.036</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>35</v>
+      </c>
+      <c r="C150">
+        <v>151.036</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>151.43600000000001</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>35</v>
+      </c>
+      <c r="C151">
+        <v>151.43600000000001</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>152.036</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152">
+        <v>152.036</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>152.23599999999999</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>35</v>
+      </c>
+      <c r="C153">
+        <v>152.23599999999999</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>161.636</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>17</v>
+      </c>
+      <c r="B154" t="s">
+        <v>50</v>
+      </c>
+      <c r="C154">
+        <v>151.036</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>151.43600000000001</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>17</v>
+      </c>
+      <c r="B155" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155">
+        <v>151.43600000000001</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>152.036</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>17</v>
+      </c>
+      <c r="B156" t="s">
+        <v>50</v>
+      </c>
+      <c r="C156">
+        <v>152.036</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>152.23599999999999</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>17</v>
+      </c>
+      <c r="B157" t="s">
+        <v>50</v>
+      </c>
+      <c r="C157">
+        <v>152.23599999999999</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>187.83600000000001</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>35</v>
+      </c>
+      <c r="C158">
+        <v>161.636</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>161.83600000000001</v>
+      </c>
+      <c r="F158">
         <v>1.2</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>35</v>
+      </c>
+      <c r="C159">
+        <v>161.83600000000001</v>
+      </c>
+      <c r="D159">
+        <v>1.2</v>
+      </c>
+      <c r="E159">
+        <v>163.636</v>
+      </c>
+      <c r="F159">
+        <v>0.6</v>
+      </c>
+      <c r="G159" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>35</v>
+      </c>
+      <c r="C160">
+        <v>163.636</v>
+      </c>
+      <c r="D160">
+        <v>0.6</v>
+      </c>
+      <c r="E160">
+        <v>168.43600000000001</v>
+      </c>
+      <c r="F160">
+        <v>1.2</v>
+      </c>
+      <c r="G160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161" t="s">
+        <v>35</v>
+      </c>
+      <c r="C161">
+        <v>168.43600000000001</v>
+      </c>
+      <c r="D161">
+        <v>1.2</v>
+      </c>
+      <c r="E161">
+        <v>170.036</v>
+      </c>
+      <c r="F161">
+        <v>1.2</v>
+      </c>
+      <c r="G161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>35</v>
+      </c>
+      <c r="C162">
+        <v>170.036</v>
+      </c>
+      <c r="D162">
+        <v>1.2</v>
+      </c>
+      <c r="E162">
+        <v>172.83600000000001</v>
+      </c>
+      <c r="F162">
+        <v>0.6</v>
+      </c>
+      <c r="G162" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
+        <v>35</v>
+      </c>
+      <c r="C163">
+        <v>172.83600000000001</v>
+      </c>
+      <c r="D163">
+        <v>0.6</v>
+      </c>
+      <c r="E163">
+        <v>173.23599999999999</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>35</v>
+      </c>
+      <c r="C164">
+        <v>173.23599999999999</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>187.83600000000001</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>17</v>
+      </c>
+      <c r="B165" t="s">
+        <v>50</v>
+      </c>
+      <c r="C165">
+        <v>187.83600000000001</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>188.036</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>35</v>
+      </c>
+      <c r="C166">
+        <v>187.83600000000001</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>188.036</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>17</v>
+      </c>
+      <c r="B167" t="s">
+        <v>50</v>
+      </c>
+      <c r="C167">
+        <v>188.036</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>188.23599999999999</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168">
+        <v>188.036</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>188.23599999999999</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>17</v>
+      </c>
+      <c r="B169" t="s">
+        <v>50</v>
+      </c>
+      <c r="C169">
+        <v>188.23599999999999</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>188.43600000000001</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>35</v>
+      </c>
+      <c r="C170">
+        <v>188.23599999999999</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>188.43600000000001</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>19</v>
+      </c>
+      <c r="B171" t="s">
+        <v>35</v>
+      </c>
+      <c r="C171">
+        <v>188.23599999999999</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>188.43600000000001</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>17</v>
+      </c>
+      <c r="B172" t="s">
+        <v>50</v>
+      </c>
+      <c r="C172">
+        <v>188.43600000000001</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>188.63600000000002</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>19</v>
+      </c>
+      <c r="B173" t="s">
+        <v>35</v>
+      </c>
+      <c r="C173">
+        <v>188.43600000000001</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>188.63600000000002</v>
+      </c>
+      <c r="F173">
+        <v>0.5</v>
+      </c>
+      <c r="G173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>17</v>
+      </c>
+      <c r="B174" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174">
+        <v>188.63600000000002</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>188.83600000000001</v>
+      </c>
+      <c r="F174">
+        <v>0.5</v>
+      </c>
+      <c r="G174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>19</v>
+      </c>
+      <c r="B175" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175">
+        <v>188.63600000000002</v>
+      </c>
+      <c r="D175">
+        <v>0.5</v>
+      </c>
+      <c r="E175">
+        <v>188.83600000000001</v>
+      </c>
+      <c r="F175">
+        <v>0.5</v>
+      </c>
+      <c r="G175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>17</v>
+      </c>
+      <c r="B176" t="s">
+        <v>50</v>
+      </c>
+      <c r="C176">
+        <v>188.83600000000001</v>
+      </c>
+      <c r="D176">
+        <v>0.5</v>
+      </c>
+      <c r="E176">
+        <v>189.23599999999999</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>17</v>
-      </c>
-      <c r="B139">
-        <v>132.45699999999999</v>
-      </c>
-      <c r="C139">
-        <v>1.2</v>
-      </c>
-      <c r="D139">
-        <v>134.83600000000001</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>18</v>
-      </c>
-      <c r="B140">
-        <v>131.637</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>132.45699999999999</v>
-      </c>
-      <c r="E140">
-        <v>0.6</v>
-      </c>
-      <c r="F140" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>19</v>
+      </c>
+      <c r="B177" t="s">
+        <v>35</v>
+      </c>
+      <c r="C177">
+        <v>188.83600000000001</v>
+      </c>
+      <c r="D177">
+        <v>0.5</v>
+      </c>
+      <c r="E177">
+        <v>189.036</v>
+      </c>
+      <c r="F177">
+        <v>1.3</v>
+      </c>
+      <c r="G177" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>18</v>
-      </c>
-      <c r="B141">
-        <v>132.45699999999999</v>
-      </c>
-      <c r="C141">
-        <v>0.6</v>
-      </c>
-      <c r="D141">
-        <v>134.83600000000001</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>17</v>
-      </c>
-      <c r="B142">
-        <v>134.83600000000001</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>135.43600000000004</v>
-      </c>
-      <c r="E142">
-        <v>1.5</v>
-      </c>
-      <c r="F142" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>17</v>
-      </c>
-      <c r="B143">
-        <v>135.43600000000004</v>
-      </c>
-      <c r="C143">
-        <v>1.5</v>
-      </c>
-      <c r="D143">
-        <v>136.03600000000006</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>17</v>
-      </c>
-      <c r="B144">
-        <v>136.03600000000006</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <v>141.23599999999999</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>1</v>
-      </c>
-      <c r="B145">
-        <v>137.636</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>138.036</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>1</v>
-      </c>
-      <c r="B146">
-        <v>138.036</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <v>138.23599999999999</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>1</v>
-      </c>
-      <c r="B147">
-        <v>138.23599999999999</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147">
-        <v>138.636</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>1</v>
-      </c>
-      <c r="B148">
-        <v>138.636</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>141.23599999999999</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>17</v>
-      </c>
-      <c r="B149">
-        <v>141.23599999999999</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149">
-        <v>141.636</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>1</v>
-      </c>
-      <c r="B150">
-        <v>141.23599999999999</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>141.636</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>17</v>
-      </c>
-      <c r="B151">
-        <v>141.636</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>151.036</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>1</v>
-      </c>
-      <c r="B152">
-        <v>141.636</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152">
-        <v>151.036</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="F152" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>1</v>
-      </c>
-      <c r="B153">
-        <v>151.036</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153">
-        <v>151.43600000000001</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>1</v>
-      </c>
-      <c r="B154">
-        <v>151.43600000000001</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>152.036</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>1</v>
-      </c>
-      <c r="B155">
-        <v>152.036</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>152.23599999999999</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>1</v>
-      </c>
-      <c r="B156">
-        <v>152.23599999999999</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156">
-        <v>161.636</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>17</v>
-      </c>
-      <c r="B157">
-        <v>151.036</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <v>151.43600000000001</v>
-      </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>17</v>
-      </c>
-      <c r="B158">
-        <v>151.43600000000001</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>152.036</v>
-      </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-      <c r="F158" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>17</v>
-      </c>
-      <c r="B159">
-        <v>152.036</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159">
-        <v>152.23599999999999</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>17</v>
-      </c>
-      <c r="B160">
-        <v>152.23599999999999</v>
-      </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>187.83600000000001</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>1</v>
-      </c>
-      <c r="B161">
-        <v>161.636</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161">
-        <v>161.83600000000001</v>
-      </c>
-      <c r="E161">
-        <v>1.2</v>
-      </c>
-      <c r="F161" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>1</v>
-      </c>
-      <c r="B162">
-        <v>161.83600000000001</v>
-      </c>
-      <c r="C162">
-        <v>1.2</v>
-      </c>
-      <c r="D162">
-        <v>163.636</v>
-      </c>
-      <c r="E162">
-        <v>0.6</v>
-      </c>
-      <c r="F162" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>1</v>
-      </c>
-      <c r="B163">
-        <v>163.636</v>
-      </c>
-      <c r="C163">
-        <v>0.6</v>
-      </c>
-      <c r="D163">
-        <v>168.43600000000001</v>
-      </c>
-      <c r="E163">
-        <v>1.2</v>
-      </c>
-      <c r="F163" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>1</v>
-      </c>
-      <c r="B164">
-        <v>168.43600000000001</v>
-      </c>
-      <c r="C164">
-        <v>1.2</v>
-      </c>
-      <c r="D164">
-        <v>170.036</v>
-      </c>
-      <c r="E164">
-        <v>1.2</v>
-      </c>
-      <c r="F164" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>1</v>
-      </c>
-      <c r="B165">
-        <v>170.036</v>
-      </c>
-      <c r="C165">
-        <v>1.2</v>
-      </c>
-      <c r="D165">
-        <v>172.83600000000001</v>
-      </c>
-      <c r="E165">
-        <v>0.6</v>
-      </c>
-      <c r="F165" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>1</v>
-      </c>
-      <c r="B166">
-        <v>172.83600000000001</v>
-      </c>
-      <c r="C166">
-        <v>0.6</v>
-      </c>
-      <c r="D166">
-        <v>173.23599999999999</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
-      </c>
-      <c r="F166" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>1</v>
-      </c>
-      <c r="B167">
-        <v>173.23599999999999</v>
-      </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-      <c r="D167">
-        <v>187.83600000000001</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>17</v>
-      </c>
-      <c r="B168">
-        <v>187.83600000000001</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>188.036</v>
-      </c>
-      <c r="E168">
-        <v>1</v>
-      </c>
-      <c r="F168" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169">
-        <v>187.83600000000001</v>
-      </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-      <c r="D169">
-        <v>188.036</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="F169" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>17</v>
-      </c>
-      <c r="B170">
-        <v>188.036</v>
-      </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-      <c r="D170">
-        <v>188.23599999999999</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="F170" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>1</v>
-      </c>
-      <c r="B171">
-        <v>188.036</v>
-      </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171">
-        <v>188.23599999999999</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>17</v>
-      </c>
-      <c r="B172">
-        <v>188.23599999999999</v>
-      </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-      <c r="D172">
-        <v>188.43600000000001</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>1</v>
-      </c>
-      <c r="B173">
-        <v>188.23599999999999</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173">
-        <v>188.43600000000001</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>19</v>
-      </c>
-      <c r="B174">
-        <v>188.23599999999999</v>
-      </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-      <c r="D174">
-        <v>188.43600000000001</v>
-      </c>
-      <c r="E174">
-        <v>1</v>
-      </c>
-      <c r="F174" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>17</v>
-      </c>
-      <c r="B175">
-        <v>188.43600000000001</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175">
-        <v>188.63600000000002</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>19</v>
-      </c>
-      <c r="B176">
-        <v>188.43600000000001</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-      <c r="D176">
-        <v>188.63600000000002</v>
-      </c>
-      <c r="E176">
-        <v>0.5</v>
-      </c>
-      <c r="F176" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>17</v>
-      </c>
-      <c r="B177">
-        <v>188.63600000000002</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177">
-        <v>188.83600000000001</v>
-      </c>
-      <c r="E177">
-        <v>0.5</v>
-      </c>
-      <c r="F177" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>19</v>
       </c>
-      <c r="B178">
-        <v>188.63600000000002</v>
+      <c r="B178" t="s">
+        <v>35</v>
       </c>
       <c r="C178">
-        <v>0.5</v>
+        <v>189.036</v>
       </c>
       <c r="D178">
-        <v>188.83600000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E178">
-        <v>0.5</v>
-      </c>
-      <c r="F178" t="s">
+        <v>189.23599999999999</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>17</v>
+      </c>
+      <c r="B179" t="s">
+        <v>50</v>
+      </c>
+      <c r="C179">
+        <v>189.23599999999999</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>194.83600000000001</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>17</v>
-      </c>
-      <c r="B179">
-        <v>188.83600000000001</v>
-      </c>
-      <c r="C179">
-        <v>0.5</v>
-      </c>
-      <c r="D179">
-        <v>189.23599999999999</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>19</v>
       </c>
-      <c r="B180">
-        <v>188.83600000000001</v>
+      <c r="B180" t="s">
+        <v>35</v>
       </c>
       <c r="C180">
-        <v>0.5</v>
+        <v>189.23599999999999</v>
       </c>
       <c r="D180">
-        <v>189.036</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>1.3</v>
-      </c>
-      <c r="F180" t="s">
+        <v>194.83600000000001</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>17</v>
+      </c>
+      <c r="B181" t="s">
+        <v>50</v>
+      </c>
+      <c r="C181">
+        <v>194.83600000000001</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>195.136</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
         <v>19</v>
       </c>
-      <c r="B181">
-        <v>189.036</v>
-      </c>
-      <c r="C181">
-        <v>1.3</v>
-      </c>
-      <c r="D181">
-        <v>189.23599999999999</v>
-      </c>
-      <c r="E181">
-        <v>1</v>
-      </c>
-      <c r="F181" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>17</v>
-      </c>
-      <c r="B182">
-        <v>189.23599999999999</v>
+      <c r="B182" t="s">
+        <v>35</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>194.83600000000001</v>
       </c>
       <c r="D182">
-        <v>194.83600000000001</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182" t="s">
+        <v>195.136</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>17</v>
+      </c>
+      <c r="B183" t="s">
+        <v>50</v>
+      </c>
+      <c r="C183">
+        <v>195.136</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>195.43600000000001</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>19</v>
+      </c>
+      <c r="B184" t="s">
+        <v>35</v>
+      </c>
+      <c r="C184">
+        <v>195.136</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>195.43600000000001</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>17</v>
+      </c>
+      <c r="B185" t="s">
+        <v>50</v>
+      </c>
+      <c r="C185">
+        <v>195.43600000000001</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>195.636</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186">
         <v>19</v>
       </c>
-      <c r="B183">
-        <v>189.23599999999999</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-      <c r="D183">
-        <v>194.83600000000001</v>
-      </c>
-      <c r="E183">
-        <v>1</v>
-      </c>
-      <c r="F183" t="s">
+      <c r="B186" t="s">
+        <v>35</v>
+      </c>
+      <c r="C186">
+        <v>195.43600000000001</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>195.636</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>17</v>
-      </c>
-      <c r="B184">
-        <v>194.83600000000001</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184">
-        <v>195.136</v>
-      </c>
-      <c r="E184">
-        <v>1</v>
-      </c>
-      <c r="F184" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>17</v>
+      </c>
+      <c r="B187" t="s">
+        <v>50</v>
+      </c>
+      <c r="C187">
+        <v>195.636</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>195.93600000000001</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188">
         <v>19</v>
       </c>
-      <c r="B185">
-        <v>194.83600000000001</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185">
-        <v>195.136</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185" t="s">
+      <c r="B188" t="s">
+        <v>35</v>
+      </c>
+      <c r="C188">
+        <v>195.636</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>195.93600000000001</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>17</v>
-      </c>
-      <c r="B186">
-        <v>195.136</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186">
-        <v>195.43600000000001</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186" t="s">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>17</v>
+      </c>
+      <c r="B189" t="s">
+        <v>50</v>
+      </c>
+      <c r="C189">
+        <v>195.93600000000001</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>196.23599999999999</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190">
         <v>19</v>
       </c>
-      <c r="B187">
-        <v>195.136</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187">
-        <v>195.43600000000001</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-      <c r="F187" t="s">
+      <c r="B190" t="s">
+        <v>35</v>
+      </c>
+      <c r="C190">
+        <v>195.93600000000001</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>196.23599999999999</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>17</v>
-      </c>
-      <c r="B188">
-        <v>195.43600000000001</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188">
-        <v>195.636</v>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188" t="s">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>17</v>
+      </c>
+      <c r="B191" t="s">
+        <v>50</v>
+      </c>
+      <c r="C191">
+        <v>196.23599999999999</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>196.43600000000001</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>19</v>
+      </c>
+      <c r="B192" t="s">
+        <v>35</v>
+      </c>
+      <c r="C192">
+        <v>196.23599999999999</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>196.43600000000001</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>17</v>
+      </c>
+      <c r="B193" t="s">
+        <v>50</v>
+      </c>
+      <c r="C193">
+        <v>196.43600000000001</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>200.23599999999999</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194">
         <v>19</v>
       </c>
-      <c r="B189">
-        <v>195.43600000000001</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-      <c r="D189">
-        <v>195.636</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189" t="s">
+      <c r="B194" t="s">
+        <v>35</v>
+      </c>
+      <c r="C194">
+        <v>196.43600000000001</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>201.636</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>17</v>
-      </c>
-      <c r="B190">
-        <v>195.636</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190">
-        <v>195.93600000000001</v>
-      </c>
-      <c r="E190">
-        <v>1</v>
-      </c>
-      <c r="F190" t="s">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>17</v>
+      </c>
+      <c r="B195" t="s">
+        <v>50</v>
+      </c>
+      <c r="C195">
+        <v>200.23599999999999</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>200.83600000000001</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>19</v>
-      </c>
-      <c r="B191">
-        <v>195.636</v>
-      </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-      <c r="D191">
-        <v>195.93600000000001</v>
-      </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>17</v>
-      </c>
-      <c r="B192">
-        <v>195.93600000000001</v>
-      </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="D192">
-        <v>196.23599999999999</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>19</v>
-      </c>
-      <c r="B193">
-        <v>195.93600000000001</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="D193">
-        <v>196.23599999999999</v>
-      </c>
-      <c r="E193">
-        <v>1</v>
-      </c>
-      <c r="F193" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>17</v>
-      </c>
-      <c r="B194">
-        <v>196.23599999999999</v>
-      </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
-        <v>196.43600000000001</v>
-      </c>
-      <c r="E194">
-        <v>1</v>
-      </c>
-      <c r="F194" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>19</v>
-      </c>
-      <c r="B195">
-        <v>196.23599999999999</v>
-      </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-      <c r="D195">
-        <v>196.43600000000001</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>17</v>
       </c>
-      <c r="B196">
-        <v>196.43600000000001</v>
+      <c r="B196" t="s">
+        <v>50</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>200.83600000000001</v>
       </c>
       <c r="D196">
-        <v>200.23599999999999</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>1</v>
-      </c>
-      <c r="F196" t="s">
+        <v>207.63600000000002</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>19</v>
       </c>
-      <c r="B197">
-        <v>196.43600000000001</v>
+      <c r="B197" t="s">
+        <v>35</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>201.636</v>
       </c>
       <c r="D197">
-        <v>201.636</v>
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="F197" t="s">
+        <v>201.73599999999999</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>17</v>
-      </c>
-      <c r="B198">
-        <v>200.23599999999999</v>
+        <v>19</v>
+      </c>
+      <c r="B198" t="s">
+        <v>35</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>201.73599999999999</v>
       </c>
       <c r="D198">
-        <v>200.83600000000001</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198" t="s">
+        <v>207.63600000000002</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>17</v>
+      </c>
+      <c r="B199" t="s">
+        <v>50</v>
+      </c>
+      <c r="C199">
+        <v>207.63600000000002</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>207.93600000000001</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>17</v>
-      </c>
-      <c r="B199">
-        <v>200.83600000000001</v>
-      </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
-      <c r="D199">
-        <v>207.63600000000002</v>
-      </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>19</v>
       </c>
-      <c r="B200">
-        <v>201.636</v>
+      <c r="B200" t="s">
+        <v>35</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>207.63600000000002</v>
       </c>
       <c r="D200">
-        <v>201.73599999999999</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>1</v>
-      </c>
-      <c r="F200" t="s">
+        <v>207.93600000000001</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>17</v>
+      </c>
+      <c r="B201" t="s">
+        <v>50</v>
+      </c>
+      <c r="C201">
+        <v>207.93600000000001</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>208.23600000000002</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>19</v>
+      </c>
+      <c r="B202" t="s">
+        <v>35</v>
+      </c>
+      <c r="C202">
+        <v>207.93600000000001</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>208.23600000000002</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>17</v>
+      </c>
+      <c r="B203" t="s">
+        <v>50</v>
+      </c>
+      <c r="C203">
+        <v>208.23600000000002</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>208.43600000000001</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204">
         <v>19</v>
       </c>
-      <c r="B201">
-        <v>201.73599999999999</v>
-      </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-      <c r="D201">
-        <v>207.63600000000002</v>
-      </c>
-      <c r="E201">
-        <v>1</v>
-      </c>
-      <c r="F201" t="s">
+      <c r="B204" t="s">
+        <v>35</v>
+      </c>
+      <c r="C204">
+        <v>208.23600000000002</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>208.43600000000001</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>17</v>
-      </c>
-      <c r="B202">
-        <v>207.63600000000002</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202">
-        <v>207.93600000000001</v>
-      </c>
-      <c r="E202">
-        <v>1</v>
-      </c>
-      <c r="F202" t="s">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>17</v>
+      </c>
+      <c r="B205" t="s">
+        <v>50</v>
+      </c>
+      <c r="C205">
+        <v>208.43600000000001</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>208.73600000000002</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206">
         <v>19</v>
       </c>
-      <c r="B203">
-        <v>207.63600000000002</v>
-      </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-      <c r="D203">
-        <v>207.93600000000001</v>
-      </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-      <c r="F203" t="s">
+      <c r="B206" t="s">
+        <v>35</v>
+      </c>
+      <c r="C206">
+        <v>208.43600000000001</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>208.73600000000002</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>17</v>
-      </c>
-      <c r="B204">
-        <v>207.93600000000001</v>
-      </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-      <c r="D204">
-        <v>208.23600000000002</v>
-      </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-      <c r="F204" t="s">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>17</v>
+      </c>
+      <c r="B207" t="s">
+        <v>50</v>
+      </c>
+      <c r="C207">
+        <v>208.73600000000002</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>209.036</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208">
         <v>19</v>
       </c>
-      <c r="B205">
-        <v>207.93600000000001</v>
-      </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
-      <c r="D205">
-        <v>208.23600000000002</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
-      </c>
-      <c r="F205" t="s">
+      <c r="B208" t="s">
+        <v>35</v>
+      </c>
+      <c r="C208">
+        <v>208.73600000000002</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>209.036</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>17</v>
-      </c>
-      <c r="B206">
-        <v>208.23600000000002</v>
-      </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-      <c r="D206">
-        <v>208.43600000000001</v>
-      </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-      <c r="F206" t="s">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>17</v>
+      </c>
+      <c r="B209" t="s">
+        <v>50</v>
+      </c>
+      <c r="C209">
+        <v>209.036</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>209.23600000000002</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>19</v>
+      </c>
+      <c r="B210" t="s">
+        <v>35</v>
+      </c>
+      <c r="C210">
+        <v>209.036</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>209.23600000000002</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>17</v>
+      </c>
+      <c r="B211" t="s">
+        <v>50</v>
+      </c>
+      <c r="C211">
+        <v>209.23600000000002</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>219.23599999999999</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212">
         <v>19</v>
       </c>
-      <c r="B207">
-        <v>208.23600000000002</v>
-      </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-      <c r="D207">
-        <v>208.43600000000001</v>
-      </c>
-      <c r="E207">
-        <v>1</v>
-      </c>
-      <c r="F207" t="s">
+      <c r="B212" t="s">
+        <v>35</v>
+      </c>
+      <c r="C212">
+        <v>209.23600000000002</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>219.23599999999999</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>17</v>
-      </c>
-      <c r="B208">
-        <v>208.43600000000001</v>
-      </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-      <c r="D208">
-        <v>208.73600000000002</v>
-      </c>
-      <c r="E208">
-        <v>1</v>
-      </c>
-      <c r="F208" t="s">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>17</v>
+      </c>
+      <c r="B213" t="s">
+        <v>50</v>
+      </c>
+      <c r="C213">
+        <v>219.23599999999999</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>219.536</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214">
         <v>19</v>
       </c>
-      <c r="B209">
-        <v>208.43600000000001</v>
-      </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-      <c r="D209">
-        <v>208.73600000000002</v>
-      </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-      <c r="F209" t="s">
+      <c r="B214" t="s">
+        <v>35</v>
+      </c>
+      <c r="C214">
+        <v>219.23599999999999</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>219.536</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>17</v>
-      </c>
-      <c r="B210">
-        <v>208.73600000000002</v>
-      </c>
-      <c r="C210">
-        <v>1</v>
-      </c>
-      <c r="D210">
-        <v>209.036</v>
-      </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-      <c r="F210" t="s">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>17</v>
+      </c>
+      <c r="B215" t="s">
+        <v>50</v>
+      </c>
+      <c r="C215">
+        <v>219.536</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>219.83600000000001</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216">
         <v>19</v>
       </c>
-      <c r="B211">
-        <v>208.73600000000002</v>
-      </c>
-      <c r="C211">
-        <v>0</v>
-      </c>
-      <c r="D211">
-        <v>209.036</v>
-      </c>
-      <c r="E211">
-        <v>1</v>
-      </c>
-      <c r="F211" t="s">
+      <c r="B216" t="s">
+        <v>35</v>
+      </c>
+      <c r="C216">
+        <v>219.536</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>219.83600000000001</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>17</v>
-      </c>
-      <c r="B212">
-        <v>209.036</v>
-      </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-      <c r="D212">
-        <v>209.23600000000002</v>
-      </c>
-      <c r="E212">
-        <v>1</v>
-      </c>
-      <c r="F212" t="s">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>17</v>
+      </c>
+      <c r="B217" t="s">
+        <v>50</v>
+      </c>
+      <c r="C217">
+        <v>219.83600000000001</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>220.136</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218">
         <v>19</v>
       </c>
-      <c r="B213">
-        <v>209.036</v>
-      </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-      <c r="D213">
-        <v>209.23600000000002</v>
-      </c>
-      <c r="E213">
-        <v>0</v>
-      </c>
-      <c r="F213" t="s">
+      <c r="B218" t="s">
+        <v>35</v>
+      </c>
+      <c r="C218">
+        <v>219.83600000000001</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>220.136</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>17</v>
-      </c>
-      <c r="B214">
-        <v>209.23600000000002</v>
-      </c>
-      <c r="C214">
-        <v>1</v>
-      </c>
-      <c r="D214">
-        <v>219.23599999999999</v>
-      </c>
-      <c r="E214">
-        <v>1</v>
-      </c>
-      <c r="F214" t="s">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>17</v>
+      </c>
+      <c r="B219" t="s">
+        <v>50</v>
+      </c>
+      <c r="C219">
+        <v>220.136</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>220.43600000000001</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>19</v>
+      </c>
+      <c r="B220" t="s">
+        <v>35</v>
+      </c>
+      <c r="C220">
+        <v>220.136</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>220.43600000000001</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>17</v>
+      </c>
+      <c r="B221" t="s">
+        <v>50</v>
+      </c>
+      <c r="C221">
+        <v>220.43600000000001</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>232.036</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222">
         <v>19</v>
       </c>
-      <c r="B215">
-        <v>209.23600000000002</v>
-      </c>
-      <c r="C215">
-        <v>0</v>
-      </c>
-      <c r="D215">
-        <v>219.23599999999999</v>
-      </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-      <c r="F215" t="s">
+      <c r="B222" t="s">
+        <v>35</v>
+      </c>
+      <c r="C222">
+        <v>220.43600000000001</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>232.036</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>17</v>
-      </c>
-      <c r="B216">
-        <v>219.23599999999999</v>
-      </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>219.536</v>
-      </c>
-      <c r="E216">
-        <v>0</v>
-      </c>
-      <c r="F216" t="s">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>17</v>
+      </c>
+      <c r="B223" t="s">
+        <v>50</v>
+      </c>
+      <c r="C223">
+        <v>232.036</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>232.33600000000001</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224">
         <v>19</v>
       </c>
-      <c r="B217">
-        <v>219.23599999999999</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-      <c r="D217">
-        <v>219.536</v>
-      </c>
-      <c r="E217">
-        <v>1</v>
-      </c>
-      <c r="F217" t="s">
+      <c r="B224" t="s">
+        <v>35</v>
+      </c>
+      <c r="C224">
+        <v>232.036</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>232.33600000000001</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>17</v>
-      </c>
-      <c r="B218">
-        <v>219.536</v>
-      </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-      <c r="D218">
-        <v>219.83600000000001</v>
-      </c>
-      <c r="E218">
-        <v>1</v>
-      </c>
-      <c r="F218" t="s">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>17</v>
+      </c>
+      <c r="B225" t="s">
+        <v>50</v>
+      </c>
+      <c r="C225">
+        <v>232.33600000000001</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>232.63600000000002</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226">
         <v>19</v>
       </c>
-      <c r="B219">
-        <v>219.536</v>
-      </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-      <c r="D219">
-        <v>219.83600000000001</v>
-      </c>
-      <c r="E219">
-        <v>0</v>
-      </c>
-      <c r="F219" t="s">
+      <c r="B226" t="s">
+        <v>35</v>
+      </c>
+      <c r="C226">
+        <v>232.33600000000001</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>232.63600000000002</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>17</v>
-      </c>
-      <c r="B220">
-        <v>219.83600000000001</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-      <c r="D220">
-        <v>220.136</v>
-      </c>
-      <c r="E220">
-        <v>0</v>
-      </c>
-      <c r="F220" t="s">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>17</v>
+      </c>
+      <c r="B227" t="s">
+        <v>50</v>
+      </c>
+      <c r="C227">
+        <v>232.63600000000002</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>232.93600000000001</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228">
         <v>19</v>
       </c>
-      <c r="B221">
-        <v>219.83600000000001</v>
-      </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-      <c r="D221">
-        <v>220.136</v>
-      </c>
-      <c r="E221">
-        <v>1</v>
-      </c>
-      <c r="F221" t="s">
+      <c r="B228" t="s">
+        <v>35</v>
+      </c>
+      <c r="C228">
+        <v>232.63600000000002</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>232.93600000000001</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>17</v>
-      </c>
-      <c r="B222">
-        <v>220.136</v>
-      </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222">
-        <v>220.43600000000001</v>
-      </c>
-      <c r="E222">
-        <v>1</v>
-      </c>
-      <c r="F222" t="s">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>17</v>
+      </c>
+      <c r="B229" t="s">
+        <v>50</v>
+      </c>
+      <c r="C229">
+        <v>232.93600000000001</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>233.23600000000002</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230">
         <v>19</v>
       </c>
-      <c r="B223">
-        <v>220.136</v>
-      </c>
-      <c r="C223">
-        <v>1</v>
-      </c>
-      <c r="D223">
-        <v>220.43600000000001</v>
-      </c>
-      <c r="E223">
-        <v>0</v>
-      </c>
-      <c r="F223" t="s">
+      <c r="B230" t="s">
+        <v>35</v>
+      </c>
+      <c r="C230">
+        <v>232.93600000000001</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>233.23600000000002</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>17</v>
-      </c>
-      <c r="B224">
-        <v>220.43600000000001</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224">
-        <v>232.036</v>
-      </c>
-      <c r="E224">
-        <v>1</v>
-      </c>
-      <c r="F224" t="s">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>17</v>
+      </c>
+      <c r="B231" t="s">
+        <v>50</v>
+      </c>
+      <c r="C231">
+        <v>233.23600000000002</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>238.43600000000001</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232">
         <v>19</v>
       </c>
-      <c r="B225">
-        <v>220.43600000000001</v>
-      </c>
-      <c r="C225">
-        <v>0</v>
-      </c>
-      <c r="D225">
-        <v>232.036</v>
-      </c>
-      <c r="E225">
-        <v>0</v>
-      </c>
-      <c r="F225" t="s">
+      <c r="B232" t="s">
+        <v>35</v>
+      </c>
+      <c r="C232">
+        <v>233.23600000000002</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>238.43600000000001</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>17</v>
-      </c>
-      <c r="B226">
-        <v>232.036</v>
-      </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-      <c r="D226">
-        <v>232.33600000000001</v>
-      </c>
-      <c r="E226">
-        <v>0</v>
-      </c>
-      <c r="F226" t="s">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>17</v>
+      </c>
+      <c r="B233" t="s">
+        <v>50</v>
+      </c>
+      <c r="C233">
+        <v>238.43600000000001</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>238.83600000000001</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234">
         <v>19</v>
       </c>
-      <c r="B227">
-        <v>232.036</v>
-      </c>
-      <c r="C227">
-        <v>0</v>
-      </c>
-      <c r="D227">
-        <v>232.33600000000001</v>
-      </c>
-      <c r="E227">
-        <v>1</v>
-      </c>
-      <c r="F227" t="s">
+      <c r="B234" t="s">
+        <v>35</v>
+      </c>
+      <c r="C234">
+        <v>238.43600000000001</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>238.83600000000001</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <v>17</v>
-      </c>
-      <c r="B228">
-        <v>232.33600000000001</v>
-      </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-      <c r="D228">
-        <v>232.63600000000002</v>
-      </c>
-      <c r="E228">
-        <v>1</v>
-      </c>
-      <c r="F228" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>17</v>
+      </c>
+      <c r="B235" t="s">
+        <v>50</v>
+      </c>
+      <c r="C235">
+        <v>238.83600000000001</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>240.43600000000001</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236">
         <v>19</v>
       </c>
-      <c r="B229">
-        <v>232.33600000000001</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229">
-        <v>232.63600000000002</v>
-      </c>
-      <c r="E229">
-        <v>0</v>
-      </c>
-      <c r="F229" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230">
-        <v>17</v>
-      </c>
-      <c r="B230">
-        <v>232.63600000000002</v>
-      </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-      <c r="D230">
-        <v>232.93600000000001</v>
-      </c>
-      <c r="E230">
-        <v>0</v>
-      </c>
-      <c r="F230" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231">
+      <c r="B236" t="s">
+        <v>35</v>
+      </c>
+      <c r="C236">
+        <v>238.83600000000001</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>240.43600000000001</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>17</v>
+      </c>
+      <c r="B237" t="s">
+        <v>50</v>
+      </c>
+      <c r="C237">
+        <v>240.43600000000001</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>245.23599999999999</v>
+      </c>
+      <c r="F237">
+        <v>1.2</v>
+      </c>
+      <c r="G237" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238">
         <v>19</v>
       </c>
-      <c r="B231">
-        <v>232.63600000000002</v>
-      </c>
-      <c r="C231">
-        <v>0</v>
-      </c>
-      <c r="D231">
-        <v>232.93600000000001</v>
-      </c>
-      <c r="E231">
-        <v>1</v>
-      </c>
-      <c r="F231" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232">
-        <v>17</v>
-      </c>
-      <c r="B232">
-        <v>232.93600000000001</v>
-      </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-      <c r="D232">
-        <v>233.23600000000002</v>
-      </c>
-      <c r="E232">
-        <v>1</v>
-      </c>
-      <c r="F232" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233">
+      <c r="B238" t="s">
+        <v>35</v>
+      </c>
+      <c r="C238">
+        <v>240.43600000000001</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>245.23599999999999</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>17</v>
+      </c>
+      <c r="B239" t="s">
+        <v>50</v>
+      </c>
+      <c r="C239">
+        <v>245.23599999999999</v>
+      </c>
+      <c r="D239">
+        <v>1.2</v>
+      </c>
+      <c r="E239">
+        <v>248.82</v>
+      </c>
+      <c r="F239">
+        <v>1.2</v>
+      </c>
+      <c r="G239" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240">
         <v>19</v>
       </c>
-      <c r="B233">
-        <v>232.93600000000001</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-      <c r="D233">
-        <v>233.23600000000002</v>
-      </c>
-      <c r="E233">
-        <v>0</v>
-      </c>
-      <c r="F233" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234">
-        <v>17</v>
-      </c>
-      <c r="B234">
-        <v>233.23600000000002</v>
-      </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-      <c r="D234">
-        <v>238.43600000000001</v>
-      </c>
-      <c r="E234">
-        <v>1</v>
-      </c>
-      <c r="F234" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235">
-        <v>19</v>
-      </c>
-      <c r="B235">
-        <v>233.23600000000002</v>
-      </c>
-      <c r="C235">
-        <v>0</v>
-      </c>
-      <c r="D235">
-        <v>238.43600000000001</v>
-      </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
-      <c r="F235" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236">
-        <v>17</v>
-      </c>
-      <c r="B236">
-        <v>238.43600000000001</v>
-      </c>
-      <c r="C236">
-        <v>1</v>
-      </c>
-      <c r="D236">
-        <v>238.83600000000001</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="F236" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <v>19</v>
-      </c>
-      <c r="B237">
-        <v>238.43600000000001</v>
-      </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-      <c r="D237">
-        <v>238.83600000000001</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238">
-        <v>17</v>
-      </c>
-      <c r="B238">
-        <v>238.83600000000001</v>
-      </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-      <c r="D238">
-        <v>240.43600000000001</v>
-      </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-      <c r="F238" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <v>19</v>
-      </c>
-      <c r="B239">
-        <v>238.83600000000001</v>
-      </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-      <c r="D239">
-        <v>240.43600000000001</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240">
-        <v>17</v>
-      </c>
-      <c r="B240">
-        <v>240.43600000000001</v>
+      <c r="B240" t="s">
+        <v>35</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>245.23599999999999</v>
       </c>
       <c r="D240">
-        <v>245.23599999999999</v>
+        <v>0</v>
       </c>
       <c r="E240">
-        <v>1.2</v>
-      </c>
-      <c r="F240" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241">
-        <v>19</v>
-      </c>
-      <c r="B241">
-        <v>240.43600000000001</v>
-      </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-      <c r="D241">
-        <v>245.23599999999999</v>
-      </c>
-      <c r="E241">
-        <v>0</v>
-      </c>
-      <c r="F241" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242">
-        <v>17</v>
-      </c>
-      <c r="B242">
-        <v>245.23599999999999</v>
-      </c>
-      <c r="C242">
-        <v>1.2</v>
-      </c>
-      <c r="D242">
         <v>248.82</v>
       </c>
-      <c r="E242">
-        <v>1.2</v>
-      </c>
-      <c r="F242" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243">
-        <v>19</v>
-      </c>
-      <c r="B243">
-        <v>245.23599999999999</v>
-      </c>
-      <c r="C243">
-        <v>0</v>
-      </c>
-      <c r="D243">
-        <v>248.82</v>
-      </c>
-      <c r="E243">
-        <v>0</v>
-      </c>
-      <c r="F243" t="s">
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5410,7 +6254,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+    <sheetView topLeftCell="A430" workbookViewId="0">
       <selection activeCell="K496" sqref="K496"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D8C971-1739-4427-86C8-B2C108C58535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD581C71-1D6E-4017-9131-683A265F9B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,55 +166,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#00b2ee</t>
+    <t>#63b8ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#ff6347</t>
+    <t>#8ee5ee</t>
   </si>
   <si>
-    <t>#ff6348</t>
-  </si>
-  <si>
-    <t>#ff6349</t>
-  </si>
-  <si>
-    <t>#ff6350</t>
-  </si>
-  <si>
-    <t>#ff6351</t>
-  </si>
-  <si>
-    <t>#ff6352</t>
-  </si>
-  <si>
-    <t>#ff6353</t>
-  </si>
-  <si>
-    <t>#ff6354</t>
-  </si>
-  <si>
-    <t>#ff6355</t>
-  </si>
-  <si>
-    <t>#ff6356</t>
-  </si>
-  <si>
-    <t>#ff6357</t>
-  </si>
-  <si>
-    <t>#ff6358</t>
-  </si>
-  <si>
-    <t>#ff6359</t>
-  </si>
-  <si>
-    <t>#ff6360</t>
-  </si>
-  <si>
-    <t>#ff6361</t>
-  </si>
-  <si>
-    <t>#e066ff</t>
+    <t>#dda0dd</t>
   </si>
 </sst>
 </file>
@@ -597,7 +556,7 @@
   <dimension ref="A1:L240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,8 +594,9 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
+      <c r="B2" t="str">
+        <f>VLOOKUP(A2,$K$1:$L$20,2,FALSE)</f>
+        <v>#63b8ff</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -664,8 +624,9 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>35</v>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">VLOOKUP(A3,$K$1:$L$20,2,FALSE)</f>
+        <v>#63b8ff</v>
       </c>
       <c r="C3">
         <v>0.42699999999999999</v>
@@ -693,8 +654,9 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C4">
         <v>1.246</v>
@@ -722,8 +684,9 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C5">
         <v>3.246</v>
@@ -744,15 +707,16 @@
         <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>36</v>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C6">
         <v>1.246</v>
@@ -773,15 +737,16 @@
         <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C7">
         <v>6.4450000000000003</v>
@@ -802,15 +767,16 @@
         <v>6</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C8">
         <v>6.4450000000000003</v>
@@ -831,15 +797,16 @@
         <v>7</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>35</v>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C9">
         <v>8.0259999999999998</v>
@@ -860,15 +827,16 @@
         <v>8</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>36</v>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C10">
         <v>8.0259999999999998</v>
@@ -889,15 +857,16 @@
         <v>9</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C11">
         <v>10.036</v>
@@ -918,15 +887,16 @@
         <v>10</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C12">
         <v>10.036</v>
@@ -947,15 +917,16 @@
         <v>11</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>35</v>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C13">
         <v>10.135999999999999</v>
@@ -976,15 +947,16 @@
         <v>12</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C14">
         <v>10.135999999999999</v>
@@ -1005,15 +977,16 @@
         <v>13</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>35</v>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C15">
         <v>13.236000000000001</v>
@@ -1034,15 +1007,16 @@
         <v>14</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>36</v>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C16">
         <v>13.236000000000001</v>
@@ -1063,15 +1037,16 @@
         <v>15</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C17">
         <v>13.336</v>
@@ -1092,15 +1067,16 @@
         <v>16</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C18">
         <v>13.336</v>
@@ -1121,15 +1097,16 @@
         <v>17</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>35</v>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C19">
         <v>16.436</v>
@@ -1150,15 +1127,16 @@
         <v>18</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C20">
         <v>16.436</v>
@@ -1186,8 +1164,9 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
-        <v>35</v>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C21">
         <v>16.536000000000001</v>
@@ -1209,8 +1188,9 @@
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C22">
         <v>16.536000000000001</v>
@@ -1232,8 +1212,9 @@
       <c r="A23">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
-        <v>35</v>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C23">
         <v>19.635999999999999</v>
@@ -1255,8 +1236,9 @@
       <c r="A24">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
-        <v>36</v>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C24">
         <v>19.635999999999999</v>
@@ -1278,8 +1260,9 @@
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" t="s">
-        <v>35</v>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C25">
         <v>20.036000000000001</v>
@@ -1301,8 +1284,9 @@
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" t="s">
-        <v>36</v>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C26">
         <v>20.036000000000001</v>
@@ -1324,8 +1308,9 @@
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
-        <v>35</v>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C27">
         <v>20.436</v>
@@ -1347,8 +1332,9 @@
       <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28" t="s">
-        <v>36</v>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C28">
         <v>20.436</v>
@@ -1370,8 +1356,9 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C29">
         <v>20.835999999999999</v>
@@ -1393,8 +1380,9 @@
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C30">
         <v>20.835999999999999</v>
@@ -1416,8 +1404,9 @@
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" t="s">
-        <v>35</v>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C31">
         <v>21.236000000000001</v>
@@ -1439,8 +1428,9 @@
       <c r="A32">
         <v>3</v>
       </c>
-      <c r="B32" t="s">
-        <v>36</v>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C32">
         <v>35.636000000000003</v>
@@ -1462,8 +1452,9 @@
       <c r="A33">
         <v>3</v>
       </c>
-      <c r="B33" t="s">
-        <v>36</v>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C33">
         <v>36.036000000000001</v>
@@ -1485,8 +1476,9 @@
       <c r="A34">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
-        <v>37</v>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C34">
         <v>36.436</v>
@@ -1508,8 +1500,9 @@
       <c r="A35">
         <v>5</v>
       </c>
-      <c r="B35" t="s">
-        <v>38</v>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C35">
         <v>37.235999999999997</v>
@@ -1531,8 +1524,9 @@
       <c r="A36">
         <v>6</v>
       </c>
-      <c r="B36" t="s">
-        <v>39</v>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C36">
         <v>38.036000000000001</v>
@@ -1554,8 +1548,9 @@
       <c r="A37">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
-        <v>40</v>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C37">
         <v>38.835999999999999</v>
@@ -1577,8 +1572,9 @@
       <c r="A38">
         <v>8</v>
       </c>
-      <c r="B38" t="s">
-        <v>41</v>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C38">
         <v>39.636000000000003</v>
@@ -1600,8 +1596,9 @@
       <c r="A39">
         <v>9</v>
       </c>
-      <c r="B39" t="s">
-        <v>42</v>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C39">
         <v>40.436</v>
@@ -1623,8 +1620,9 @@
       <c r="A40">
         <v>10</v>
       </c>
-      <c r="B40" t="s">
-        <v>43</v>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C40">
         <v>41.235999999999997</v>
@@ -1646,8 +1644,9 @@
       <c r="A41">
         <v>11</v>
       </c>
-      <c r="B41" t="s">
-        <v>44</v>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C41">
         <v>42.036000000000001</v>
@@ -1669,8 +1668,9 @@
       <c r="A42">
         <v>12</v>
       </c>
-      <c r="B42" t="s">
-        <v>45</v>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C42">
         <v>42.835999999999999</v>
@@ -1692,8 +1692,9 @@
       <c r="A43">
         <v>13</v>
       </c>
-      <c r="B43" t="s">
-        <v>46</v>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C43">
         <v>43.636000000000003</v>
@@ -1715,8 +1716,9 @@
       <c r="A44">
         <v>14</v>
       </c>
-      <c r="B44" t="s">
-        <v>47</v>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C44">
         <v>44.436</v>
@@ -1738,8 +1740,9 @@
       <c r="A45">
         <v>15</v>
       </c>
-      <c r="B45" t="s">
-        <v>48</v>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C45">
         <v>45.235999999999997</v>
@@ -1761,8 +1764,9 @@
       <c r="A46">
         <v>16</v>
       </c>
-      <c r="B46" t="s">
-        <v>49</v>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C46">
         <v>46.036000000000001</v>
@@ -1784,8 +1788,9 @@
       <c r="A47">
         <v>1</v>
       </c>
-      <c r="B47" t="s">
-        <v>35</v>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C47">
         <v>72.635999999999996</v>
@@ -1807,8 +1812,9 @@
       <c r="A48">
         <v>3</v>
       </c>
-      <c r="B48" t="s">
-        <v>36</v>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C48">
         <v>72.635999999999996</v>
@@ -1830,8 +1836,9 @@
       <c r="A49">
         <v>1</v>
       </c>
-      <c r="B49" t="s">
-        <v>35</v>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C49">
         <v>72.835999999999999</v>
@@ -1853,8 +1860,9 @@
       <c r="A50">
         <v>3</v>
       </c>
-      <c r="B50" t="s">
-        <v>36</v>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C50">
         <v>72.835999999999999</v>
@@ -1876,8 +1884,9 @@
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" t="s">
-        <v>35</v>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C51">
         <v>73.036000000000001</v>
@@ -1899,8 +1908,9 @@
       <c r="A52">
         <v>3</v>
       </c>
-      <c r="B52" t="s">
-        <v>36</v>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C52">
         <v>73.036000000000001</v>
@@ -1922,8 +1932,9 @@
       <c r="A53">
         <v>17</v>
       </c>
-      <c r="B53" t="s">
-        <v>50</v>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C53">
         <v>73.036000000000001</v>
@@ -1945,8 +1956,9 @@
       <c r="A54">
         <v>1</v>
       </c>
-      <c r="B54" t="s">
-        <v>35</v>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C54">
         <v>73.236000000000004</v>
@@ -1968,8 +1980,9 @@
       <c r="A55">
         <v>17</v>
       </c>
-      <c r="B55" t="s">
-        <v>50</v>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C55">
         <v>73.236000000000004</v>
@@ -1991,8 +2004,9 @@
       <c r="A56">
         <v>1</v>
       </c>
-      <c r="B56" t="s">
-        <v>35</v>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C56">
         <v>73.436000000000007</v>
@@ -2014,8 +2028,9 @@
       <c r="A57">
         <v>17</v>
       </c>
-      <c r="B57" t="s">
-        <v>50</v>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C57">
         <v>73.436000000000007</v>
@@ -2037,8 +2052,9 @@
       <c r="A58">
         <v>1</v>
       </c>
-      <c r="B58" t="s">
-        <v>35</v>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C58">
         <v>73.635999999999996</v>
@@ -2060,8 +2076,9 @@
       <c r="A59">
         <v>17</v>
       </c>
-      <c r="B59" t="s">
-        <v>50</v>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C59">
         <v>73.635999999999996</v>
@@ -2083,8 +2100,9 @@
       <c r="A60">
         <v>17</v>
       </c>
-      <c r="B60" t="s">
-        <v>50</v>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C60">
         <v>73.835999999999999</v>
@@ -2106,8 +2124,9 @@
       <c r="A61">
         <v>1</v>
       </c>
-      <c r="B61" t="s">
-        <v>35</v>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C61">
         <v>74.036000000000001</v>
@@ -2129,8 +2148,9 @@
       <c r="A62">
         <v>17</v>
       </c>
-      <c r="B62" t="s">
-        <v>50</v>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C62">
         <v>74.036000000000001</v>
@@ -2152,8 +2172,9 @@
       <c r="A63">
         <v>1</v>
       </c>
-      <c r="B63" t="s">
-        <v>35</v>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C63">
         <v>76.436000000000007</v>
@@ -2175,8 +2196,9 @@
       <c r="A64">
         <v>17</v>
       </c>
-      <c r="B64" t="s">
-        <v>50</v>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C64">
         <v>76.436000000000007</v>
@@ -2198,8 +2220,9 @@
       <c r="A65">
         <v>1</v>
       </c>
-      <c r="B65" t="s">
-        <v>35</v>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C65">
         <v>76.835999999999999</v>
@@ -2221,8 +2244,9 @@
       <c r="A66">
         <v>17</v>
       </c>
-      <c r="B66" t="s">
-        <v>50</v>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C66">
         <v>76.835999999999999</v>
@@ -2244,8 +2268,9 @@
       <c r="A67">
         <v>1</v>
       </c>
-      <c r="B67" t="s">
-        <v>35</v>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B130" si="1">VLOOKUP(A67,$K$1:$L$20,2,FALSE)</f>
+        <v>#63b8ff</v>
       </c>
       <c r="C67">
         <v>77.236000000000004</v>
@@ -2267,8 +2292,9 @@
       <c r="A68">
         <v>17</v>
       </c>
-      <c r="B68" t="s">
-        <v>50</v>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C68">
         <v>77.236000000000004</v>
@@ -2290,8 +2316,9 @@
       <c r="A69">
         <v>1</v>
       </c>
-      <c r="B69" t="s">
-        <v>35</v>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C69">
         <v>82.835999999999999</v>
@@ -2313,8 +2340,9 @@
       <c r="A70">
         <v>17</v>
       </c>
-      <c r="B70" t="s">
-        <v>50</v>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C70">
         <v>82.835999999999999</v>
@@ -2336,8 +2364,9 @@
       <c r="A71">
         <v>1</v>
       </c>
-      <c r="B71" t="s">
-        <v>35</v>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C71">
         <v>83.236000000000004</v>
@@ -2359,8 +2388,9 @@
       <c r="A72">
         <v>17</v>
       </c>
-      <c r="B72" t="s">
-        <v>50</v>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C72">
         <v>83.236000000000004</v>
@@ -2382,8 +2412,9 @@
       <c r="A73">
         <v>1</v>
       </c>
-      <c r="B73" t="s">
-        <v>35</v>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C73">
         <v>83.635999999999996</v>
@@ -2405,8 +2436,9 @@
       <c r="A74">
         <v>17</v>
       </c>
-      <c r="B74" t="s">
-        <v>50</v>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C74">
         <v>83.635999999999996</v>
@@ -2428,8 +2460,9 @@
       <c r="A75">
         <v>17</v>
       </c>
-      <c r="B75" t="s">
-        <v>50</v>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C75">
         <v>85.236000000000004</v>
@@ -2451,8 +2484,9 @@
       <c r="A76">
         <v>1</v>
       </c>
-      <c r="B76" t="s">
-        <v>35</v>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C76">
         <v>86.036000000000001</v>
@@ -2474,8 +2508,9 @@
       <c r="A77">
         <v>17</v>
       </c>
-      <c r="B77" t="s">
-        <v>50</v>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C77">
         <v>86.036000000000001</v>
@@ -2497,8 +2532,9 @@
       <c r="A78">
         <v>1</v>
       </c>
-      <c r="B78" t="s">
-        <v>35</v>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C78">
         <v>86.436000000000007</v>
@@ -2520,8 +2556,9 @@
       <c r="A79">
         <v>1</v>
       </c>
-      <c r="B79" t="s">
-        <v>35</v>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C79">
         <v>86.835999999999999</v>
@@ -2543,8 +2580,9 @@
       <c r="A80">
         <v>17</v>
       </c>
-      <c r="B80" t="s">
-        <v>50</v>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C80">
         <v>86.436000000000007</v>
@@ -2566,8 +2604,9 @@
       <c r="A81">
         <v>1</v>
       </c>
-      <c r="B81" t="s">
-        <v>35</v>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C81">
         <v>89.236000000000004</v>
@@ -2589,8 +2628,9 @@
       <c r="A82">
         <v>17</v>
       </c>
-      <c r="B82" t="s">
-        <v>50</v>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C82">
         <v>89.236000000000004</v>
@@ -2612,8 +2652,9 @@
       <c r="A83">
         <v>1</v>
       </c>
-      <c r="B83" t="s">
-        <v>35</v>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C83">
         <v>89.635999999999996</v>
@@ -2635,8 +2676,9 @@
       <c r="A84">
         <v>17</v>
       </c>
-      <c r="B84" t="s">
-        <v>50</v>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C84">
         <v>89.635999999999996</v>
@@ -2658,8 +2700,9 @@
       <c r="A85">
         <v>1</v>
       </c>
-      <c r="B85" t="s">
-        <v>35</v>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C85">
         <v>90.036000000000001</v>
@@ -2681,8 +2724,9 @@
       <c r="A86">
         <v>17</v>
       </c>
-      <c r="B86" t="s">
-        <v>50</v>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C86">
         <v>90.036000000000001</v>
@@ -2704,8 +2748,9 @@
       <c r="A87">
         <v>1</v>
       </c>
-      <c r="B87" t="s">
-        <v>35</v>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C87">
         <v>95.63600000000001</v>
@@ -2727,8 +2772,9 @@
       <c r="A88">
         <v>17</v>
       </c>
-      <c r="B88" t="s">
-        <v>50</v>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C88">
         <v>95.63600000000001</v>
@@ -2750,8 +2796,9 @@
       <c r="A89">
         <v>1</v>
       </c>
-      <c r="B89" t="s">
-        <v>35</v>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C89">
         <v>96.036000000000001</v>
@@ -2773,8 +2820,9 @@
       <c r="A90">
         <v>17</v>
       </c>
-      <c r="B90" t="s">
-        <v>50</v>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C90">
         <v>96.036000000000001</v>
@@ -2796,8 +2844,9 @@
       <c r="A91">
         <v>1</v>
       </c>
-      <c r="B91" t="s">
-        <v>35</v>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C91">
         <v>96.436000000000007</v>
@@ -2819,8 +2868,9 @@
       <c r="A92">
         <v>17</v>
       </c>
-      <c r="B92" t="s">
-        <v>50</v>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C92">
         <v>96.436000000000007</v>
@@ -2842,8 +2892,9 @@
       <c r="A93">
         <v>1</v>
       </c>
-      <c r="B93" t="s">
-        <v>35</v>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C93">
         <v>97.236000000000004</v>
@@ -2865,8 +2916,9 @@
       <c r="A94">
         <v>17</v>
       </c>
-      <c r="B94" t="s">
-        <v>50</v>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C94">
         <v>97.236000000000004</v>
@@ -2888,8 +2940,9 @@
       <c r="A95">
         <v>1</v>
       </c>
-      <c r="B95" t="s">
-        <v>35</v>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C95">
         <v>97.536000000000001</v>
@@ -2911,8 +2964,9 @@
       <c r="A96">
         <v>17</v>
       </c>
-      <c r="B96" t="s">
-        <v>50</v>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C96">
         <v>97.536000000000001</v>
@@ -2934,8 +2988,9 @@
       <c r="A97">
         <v>1</v>
       </c>
-      <c r="B97" t="s">
-        <v>35</v>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C97">
         <v>97.835999999999999</v>
@@ -2957,8 +3012,9 @@
       <c r="A98">
         <v>17</v>
       </c>
-      <c r="B98" t="s">
-        <v>50</v>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C98">
         <v>97.835999999999999</v>
@@ -2980,8 +3036,9 @@
       <c r="A99">
         <v>1</v>
       </c>
-      <c r="B99" t="s">
-        <v>35</v>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C99">
         <v>98.135999999999996</v>
@@ -3003,8 +3060,9 @@
       <c r="A100">
         <v>17</v>
       </c>
-      <c r="B100" t="s">
-        <v>50</v>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C100">
         <v>98.135999999999996</v>
@@ -3026,8 +3084,9 @@
       <c r="A101">
         <v>1</v>
       </c>
-      <c r="B101" t="s">
-        <v>35</v>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C101">
         <v>98.835999999999999</v>
@@ -3049,8 +3108,9 @@
       <c r="A102">
         <v>1</v>
       </c>
-      <c r="B102" t="s">
-        <v>35</v>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C102">
         <v>99.034999999999997</v>
@@ -3072,8 +3132,9 @@
       <c r="A103">
         <v>1</v>
       </c>
-      <c r="B103" t="s">
-        <v>35</v>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C103">
         <v>99.036000000000001</v>
@@ -3095,8 +3156,9 @@
       <c r="A104">
         <v>1</v>
       </c>
-      <c r="B104" t="s">
-        <v>35</v>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C104">
         <v>99.234999999999999</v>
@@ -3118,8 +3180,9 @@
       <c r="A105">
         <v>1</v>
       </c>
-      <c r="B105" t="s">
-        <v>35</v>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C105">
         <v>99.236000000000004</v>
@@ -3141,8 +3204,9 @@
       <c r="A106">
         <v>1</v>
       </c>
-      <c r="B106" t="s">
-        <v>35</v>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C106">
         <v>99.435000000000002</v>
@@ -3164,8 +3228,9 @@
       <c r="A107">
         <v>1</v>
       </c>
-      <c r="B107" t="s">
-        <v>35</v>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C107">
         <v>99.436000000000007</v>
@@ -3187,8 +3252,9 @@
       <c r="A108">
         <v>17</v>
       </c>
-      <c r="B108" t="s">
-        <v>50</v>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C108">
         <v>98.835999999999999</v>
@@ -3210,8 +3276,9 @@
       <c r="A109">
         <v>1</v>
       </c>
-      <c r="B109" t="s">
-        <v>35</v>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C109">
         <v>99.635999999999996</v>
@@ -3233,8 +3300,9 @@
       <c r="A110">
         <v>17</v>
       </c>
-      <c r="B110" t="s">
-        <v>50</v>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C110">
         <v>99.635999999999996</v>
@@ -3256,8 +3324,9 @@
       <c r="A111">
         <v>1</v>
       </c>
-      <c r="B111" t="s">
-        <v>35</v>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C111">
         <v>99.736000000000004</v>
@@ -3279,8 +3348,9 @@
       <c r="A112">
         <v>17</v>
       </c>
-      <c r="B112" t="s">
-        <v>50</v>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C112">
         <v>99.736000000000004</v>
@@ -3302,8 +3372,9 @@
       <c r="A113">
         <v>17</v>
       </c>
-      <c r="B113" t="s">
-        <v>50</v>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C113">
         <v>108.43600000000001</v>
@@ -3325,8 +3396,9 @@
       <c r="A114">
         <v>1</v>
       </c>
-      <c r="B114" t="s">
-        <v>35</v>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C114">
         <v>109.236</v>
@@ -3348,8 +3420,9 @@
       <c r="A115">
         <v>1</v>
       </c>
-      <c r="B115" t="s">
-        <v>35</v>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C115">
         <v>109.336</v>
@@ -3371,8 +3444,9 @@
       <c r="A116">
         <v>17</v>
       </c>
-      <c r="B116" t="s">
-        <v>50</v>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C116">
         <v>109.236</v>
@@ -3394,8 +3468,9 @@
       <c r="A117">
         <v>17</v>
       </c>
-      <c r="B117" t="s">
-        <v>50</v>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C117">
         <v>110.83600000000001</v>
@@ -3417,8 +3492,9 @@
       <c r="A118">
         <v>1</v>
       </c>
-      <c r="B118" t="s">
-        <v>35</v>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C118">
         <v>111.636</v>
@@ -3440,8 +3516,9 @@
       <c r="A119">
         <v>17</v>
       </c>
-      <c r="B119" t="s">
-        <v>50</v>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C119">
         <v>111.636</v>
@@ -3463,8 +3540,9 @@
       <c r="A120">
         <v>1</v>
       </c>
-      <c r="B120" t="s">
-        <v>35</v>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C120">
         <v>112.036</v>
@@ -3486,8 +3564,9 @@
       <c r="A121">
         <v>1</v>
       </c>
-      <c r="B121" t="s">
-        <v>35</v>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C121">
         <v>112.43600000000001</v>
@@ -3509,8 +3588,9 @@
       <c r="A122">
         <v>17</v>
       </c>
-      <c r="B122" t="s">
-        <v>50</v>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C122">
         <v>112.036</v>
@@ -3532,8 +3612,9 @@
       <c r="A123">
         <v>1</v>
       </c>
-      <c r="B123" t="s">
-        <v>35</v>
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C123">
         <v>121.236</v>
@@ -3555,8 +3636,9 @@
       <c r="A124">
         <v>1</v>
       </c>
-      <c r="B124" t="s">
-        <v>35</v>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C124">
         <v>122.036</v>
@@ -3578,8 +3660,9 @@
       <c r="A125">
         <v>1</v>
       </c>
-      <c r="B125" t="s">
-        <v>35</v>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C125">
         <v>122.43600000000001</v>
@@ -3601,8 +3684,9 @@
       <c r="A126">
         <v>17</v>
       </c>
-      <c r="B126" t="s">
-        <v>50</v>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C126">
         <v>123.652</v>
@@ -3624,8 +3708,9 @@
       <c r="A127">
         <v>17</v>
       </c>
-      <c r="B127" t="s">
-        <v>50</v>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C127">
         <v>125.152</v>
@@ -3647,8 +3732,9 @@
       <c r="A128">
         <v>17</v>
       </c>
-      <c r="B128" t="s">
-        <v>50</v>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C128">
         <v>125.97199999999999</v>
@@ -3670,8 +3756,9 @@
       <c r="A129">
         <v>18</v>
       </c>
-      <c r="B129" t="s">
-        <v>51</v>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>#dda0dd</v>
       </c>
       <c r="C129">
         <v>125.152</v>
@@ -3693,8 +3780,9 @@
       <c r="A130">
         <v>18</v>
       </c>
-      <c r="B130" t="s">
-        <v>51</v>
+      <c r="B130" t="str">
+        <f t="shared" si="1"/>
+        <v>#dda0dd</v>
       </c>
       <c r="C130">
         <v>125.97199999999999</v>
@@ -3716,8 +3804,9 @@
       <c r="A131">
         <v>17</v>
       </c>
-      <c r="B131" t="s">
-        <v>50</v>
+      <c r="B131" t="str">
+        <f t="shared" ref="B131:B194" si="2">VLOOKUP(A131,$K$1:$L$20,2,FALSE)</f>
+        <v>#8ee5ee</v>
       </c>
       <c r="C131">
         <v>128.447</v>
@@ -3739,8 +3828,9 @@
       <c r="A132">
         <v>17</v>
       </c>
-      <c r="B132" t="s">
-        <v>50</v>
+      <c r="B132" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C132">
         <v>129.267</v>
@@ -3762,8 +3852,9 @@
       <c r="A133">
         <v>18</v>
       </c>
-      <c r="B133" t="s">
-        <v>51</v>
+      <c r="B133" t="str">
+        <f t="shared" si="2"/>
+        <v>#dda0dd</v>
       </c>
       <c r="C133">
         <v>128.447</v>
@@ -3785,8 +3876,9 @@
       <c r="A134">
         <v>18</v>
       </c>
-      <c r="B134" t="s">
-        <v>51</v>
+      <c r="B134" t="str">
+        <f t="shared" si="2"/>
+        <v>#dda0dd</v>
       </c>
       <c r="C134">
         <v>129.267</v>
@@ -3808,8 +3900,9 @@
       <c r="A135">
         <v>17</v>
       </c>
-      <c r="B135" t="s">
-        <v>50</v>
+      <c r="B135" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C135">
         <v>131.637</v>
@@ -3831,8 +3924,9 @@
       <c r="A136">
         <v>17</v>
       </c>
-      <c r="B136" t="s">
-        <v>50</v>
+      <c r="B136" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C136">
         <v>132.45699999999999</v>
@@ -3854,8 +3948,9 @@
       <c r="A137">
         <v>18</v>
       </c>
-      <c r="B137" t="s">
-        <v>51</v>
+      <c r="B137" t="str">
+        <f t="shared" si="2"/>
+        <v>#dda0dd</v>
       </c>
       <c r="C137">
         <v>131.637</v>
@@ -3877,8 +3972,9 @@
       <c r="A138">
         <v>18</v>
       </c>
-      <c r="B138" t="s">
-        <v>51</v>
+      <c r="B138" t="str">
+        <f t="shared" si="2"/>
+        <v>#dda0dd</v>
       </c>
       <c r="C138">
         <v>132.45699999999999</v>
@@ -3900,8 +3996,9 @@
       <c r="A139">
         <v>17</v>
       </c>
-      <c r="B139" t="s">
-        <v>50</v>
+      <c r="B139" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C139">
         <v>134.83600000000001</v>
@@ -3923,8 +4020,9 @@
       <c r="A140">
         <v>17</v>
       </c>
-      <c r="B140" t="s">
-        <v>50</v>
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C140">
         <v>135.43600000000004</v>
@@ -3946,8 +4044,9 @@
       <c r="A141">
         <v>17</v>
       </c>
-      <c r="B141" t="s">
-        <v>50</v>
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C141">
         <v>136.03600000000006</v>
@@ -3969,8 +4068,9 @@
       <c r="A142">
         <v>1</v>
       </c>
-      <c r="B142" t="s">
-        <v>35</v>
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C142">
         <v>137.636</v>
@@ -3992,8 +4092,9 @@
       <c r="A143">
         <v>1</v>
       </c>
-      <c r="B143" t="s">
-        <v>35</v>
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C143">
         <v>138.036</v>
@@ -4015,8 +4116,9 @@
       <c r="A144">
         <v>1</v>
       </c>
-      <c r="B144" t="s">
-        <v>35</v>
+      <c r="B144" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C144">
         <v>138.23599999999999</v>
@@ -4038,8 +4140,9 @@
       <c r="A145">
         <v>1</v>
       </c>
-      <c r="B145" t="s">
-        <v>35</v>
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C145">
         <v>138.636</v>
@@ -4061,8 +4164,9 @@
       <c r="A146">
         <v>17</v>
       </c>
-      <c r="B146" t="s">
-        <v>50</v>
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C146">
         <v>141.23599999999999</v>
@@ -4084,8 +4188,9 @@
       <c r="A147">
         <v>1</v>
       </c>
-      <c r="B147" t="s">
-        <v>35</v>
+      <c r="B147" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C147">
         <v>141.23599999999999</v>
@@ -4107,8 +4212,9 @@
       <c r="A148">
         <v>17</v>
       </c>
-      <c r="B148" t="s">
-        <v>50</v>
+      <c r="B148" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C148">
         <v>141.636</v>
@@ -4130,8 +4236,9 @@
       <c r="A149">
         <v>1</v>
       </c>
-      <c r="B149" t="s">
-        <v>35</v>
+      <c r="B149" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C149">
         <v>141.636</v>
@@ -4153,8 +4260,9 @@
       <c r="A150">
         <v>1</v>
       </c>
-      <c r="B150" t="s">
-        <v>35</v>
+      <c r="B150" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C150">
         <v>151.036</v>
@@ -4176,8 +4284,9 @@
       <c r="A151">
         <v>1</v>
       </c>
-      <c r="B151" t="s">
-        <v>35</v>
+      <c r="B151" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C151">
         <v>151.43600000000001</v>
@@ -4199,8 +4308,9 @@
       <c r="A152">
         <v>1</v>
       </c>
-      <c r="B152" t="s">
-        <v>35</v>
+      <c r="B152" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C152">
         <v>152.036</v>
@@ -4222,8 +4332,9 @@
       <c r="A153">
         <v>1</v>
       </c>
-      <c r="B153" t="s">
-        <v>35</v>
+      <c r="B153" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C153">
         <v>152.23599999999999</v>
@@ -4245,8 +4356,9 @@
       <c r="A154">
         <v>17</v>
       </c>
-      <c r="B154" t="s">
-        <v>50</v>
+      <c r="B154" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C154">
         <v>151.036</v>
@@ -4268,8 +4380,9 @@
       <c r="A155">
         <v>17</v>
       </c>
-      <c r="B155" t="s">
-        <v>50</v>
+      <c r="B155" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C155">
         <v>151.43600000000001</v>
@@ -4291,8 +4404,9 @@
       <c r="A156">
         <v>17</v>
       </c>
-      <c r="B156" t="s">
-        <v>50</v>
+      <c r="B156" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C156">
         <v>152.036</v>
@@ -4314,8 +4428,9 @@
       <c r="A157">
         <v>17</v>
       </c>
-      <c r="B157" t="s">
-        <v>50</v>
+      <c r="B157" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C157">
         <v>152.23599999999999</v>
@@ -4337,8 +4452,9 @@
       <c r="A158">
         <v>1</v>
       </c>
-      <c r="B158" t="s">
-        <v>35</v>
+      <c r="B158" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C158">
         <v>161.636</v>
@@ -4360,8 +4476,9 @@
       <c r="A159">
         <v>1</v>
       </c>
-      <c r="B159" t="s">
-        <v>35</v>
+      <c r="B159" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C159">
         <v>161.83600000000001</v>
@@ -4383,8 +4500,9 @@
       <c r="A160">
         <v>1</v>
       </c>
-      <c r="B160" t="s">
-        <v>35</v>
+      <c r="B160" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C160">
         <v>163.636</v>
@@ -4406,8 +4524,9 @@
       <c r="A161">
         <v>1</v>
       </c>
-      <c r="B161" t="s">
-        <v>35</v>
+      <c r="B161" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C161">
         <v>168.43600000000001</v>
@@ -4429,8 +4548,9 @@
       <c r="A162">
         <v>1</v>
       </c>
-      <c r="B162" t="s">
-        <v>35</v>
+      <c r="B162" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C162">
         <v>170.036</v>
@@ -4452,8 +4572,9 @@
       <c r="A163">
         <v>1</v>
       </c>
-      <c r="B163" t="s">
-        <v>35</v>
+      <c r="B163" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C163">
         <v>172.83600000000001</v>
@@ -4475,8 +4596,9 @@
       <c r="A164">
         <v>1</v>
       </c>
-      <c r="B164" t="s">
-        <v>35</v>
+      <c r="B164" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C164">
         <v>173.23599999999999</v>
@@ -4498,8 +4620,9 @@
       <c r="A165">
         <v>17</v>
       </c>
-      <c r="B165" t="s">
-        <v>50</v>
+      <c r="B165" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C165">
         <v>187.83600000000001</v>
@@ -4521,8 +4644,9 @@
       <c r="A166">
         <v>1</v>
       </c>
-      <c r="B166" t="s">
-        <v>35</v>
+      <c r="B166" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C166">
         <v>187.83600000000001</v>
@@ -4544,8 +4668,9 @@
       <c r="A167">
         <v>17</v>
       </c>
-      <c r="B167" t="s">
-        <v>50</v>
+      <c r="B167" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C167">
         <v>188.036</v>
@@ -4567,8 +4692,9 @@
       <c r="A168">
         <v>1</v>
       </c>
-      <c r="B168" t="s">
-        <v>35</v>
+      <c r="B168" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C168">
         <v>188.036</v>
@@ -4590,8 +4716,9 @@
       <c r="A169">
         <v>17</v>
       </c>
-      <c r="B169" t="s">
-        <v>50</v>
+      <c r="B169" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C169">
         <v>188.23599999999999</v>
@@ -4613,8 +4740,9 @@
       <c r="A170">
         <v>1</v>
       </c>
-      <c r="B170" t="s">
-        <v>35</v>
+      <c r="B170" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C170">
         <v>188.23599999999999</v>
@@ -4636,8 +4764,9 @@
       <c r="A171">
         <v>19</v>
       </c>
-      <c r="B171" t="s">
-        <v>35</v>
+      <c r="B171" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C171">
         <v>188.23599999999999</v>
@@ -4659,8 +4788,9 @@
       <c r="A172">
         <v>17</v>
       </c>
-      <c r="B172" t="s">
-        <v>50</v>
+      <c r="B172" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C172">
         <v>188.43600000000001</v>
@@ -4682,8 +4812,9 @@
       <c r="A173">
         <v>19</v>
       </c>
-      <c r="B173" t="s">
-        <v>35</v>
+      <c r="B173" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C173">
         <v>188.43600000000001</v>
@@ -4705,8 +4836,9 @@
       <c r="A174">
         <v>17</v>
       </c>
-      <c r="B174" t="s">
-        <v>50</v>
+      <c r="B174" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C174">
         <v>188.63600000000002</v>
@@ -4728,8 +4860,9 @@
       <c r="A175">
         <v>19</v>
       </c>
-      <c r="B175" t="s">
-        <v>35</v>
+      <c r="B175" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C175">
         <v>188.63600000000002</v>
@@ -4751,8 +4884,9 @@
       <c r="A176">
         <v>17</v>
       </c>
-      <c r="B176" t="s">
-        <v>50</v>
+      <c r="B176" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C176">
         <v>188.83600000000001</v>
@@ -4774,8 +4908,9 @@
       <c r="A177">
         <v>19</v>
       </c>
-      <c r="B177" t="s">
-        <v>35</v>
+      <c r="B177" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C177">
         <v>188.83600000000001</v>
@@ -4797,8 +4932,9 @@
       <c r="A178">
         <v>19</v>
       </c>
-      <c r="B178" t="s">
-        <v>35</v>
+      <c r="B178" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C178">
         <v>189.036</v>
@@ -4820,8 +4956,9 @@
       <c r="A179">
         <v>17</v>
       </c>
-      <c r="B179" t="s">
-        <v>50</v>
+      <c r="B179" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C179">
         <v>189.23599999999999</v>
@@ -4843,8 +4980,9 @@
       <c r="A180">
         <v>19</v>
       </c>
-      <c r="B180" t="s">
-        <v>35</v>
+      <c r="B180" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C180">
         <v>189.23599999999999</v>
@@ -4866,8 +5004,9 @@
       <c r="A181">
         <v>17</v>
       </c>
-      <c r="B181" t="s">
-        <v>50</v>
+      <c r="B181" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C181">
         <v>194.83600000000001</v>
@@ -4889,8 +5028,9 @@
       <c r="A182">
         <v>19</v>
       </c>
-      <c r="B182" t="s">
-        <v>35</v>
+      <c r="B182" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C182">
         <v>194.83600000000001</v>
@@ -4912,8 +5052,9 @@
       <c r="A183">
         <v>17</v>
       </c>
-      <c r="B183" t="s">
-        <v>50</v>
+      <c r="B183" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C183">
         <v>195.136</v>
@@ -4935,8 +5076,9 @@
       <c r="A184">
         <v>19</v>
       </c>
-      <c r="B184" t="s">
-        <v>35</v>
+      <c r="B184" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C184">
         <v>195.136</v>
@@ -4958,8 +5100,9 @@
       <c r="A185">
         <v>17</v>
       </c>
-      <c r="B185" t="s">
-        <v>50</v>
+      <c r="B185" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C185">
         <v>195.43600000000001</v>
@@ -4981,8 +5124,9 @@
       <c r="A186">
         <v>19</v>
       </c>
-      <c r="B186" t="s">
-        <v>35</v>
+      <c r="B186" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C186">
         <v>195.43600000000001</v>
@@ -5004,8 +5148,9 @@
       <c r="A187">
         <v>17</v>
       </c>
-      <c r="B187" t="s">
-        <v>50</v>
+      <c r="B187" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C187">
         <v>195.636</v>
@@ -5027,8 +5172,9 @@
       <c r="A188">
         <v>19</v>
       </c>
-      <c r="B188" t="s">
-        <v>35</v>
+      <c r="B188" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C188">
         <v>195.636</v>
@@ -5050,8 +5196,9 @@
       <c r="A189">
         <v>17</v>
       </c>
-      <c r="B189" t="s">
-        <v>50</v>
+      <c r="B189" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C189">
         <v>195.93600000000001</v>
@@ -5073,8 +5220,9 @@
       <c r="A190">
         <v>19</v>
       </c>
-      <c r="B190" t="s">
-        <v>35</v>
+      <c r="B190" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C190">
         <v>195.93600000000001</v>
@@ -5096,8 +5244,9 @@
       <c r="A191">
         <v>17</v>
       </c>
-      <c r="B191" t="s">
-        <v>50</v>
+      <c r="B191" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C191">
         <v>196.23599999999999</v>
@@ -5119,8 +5268,9 @@
       <c r="A192">
         <v>19</v>
       </c>
-      <c r="B192" t="s">
-        <v>35</v>
+      <c r="B192" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C192">
         <v>196.23599999999999</v>
@@ -5142,8 +5292,9 @@
       <c r="A193">
         <v>17</v>
       </c>
-      <c r="B193" t="s">
-        <v>50</v>
+      <c r="B193" t="str">
+        <f t="shared" si="2"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C193">
         <v>196.43600000000001</v>
@@ -5165,8 +5316,9 @@
       <c r="A194">
         <v>19</v>
       </c>
-      <c r="B194" t="s">
-        <v>35</v>
+      <c r="B194" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C194">
         <v>196.43600000000001</v>
@@ -5188,8 +5340,9 @@
       <c r="A195">
         <v>17</v>
       </c>
-      <c r="B195" t="s">
-        <v>50</v>
+      <c r="B195" t="str">
+        <f t="shared" ref="B195:B240" si="3">VLOOKUP(A195,$K$1:$L$20,2,FALSE)</f>
+        <v>#8ee5ee</v>
       </c>
       <c r="C195">
         <v>200.23599999999999</v>
@@ -5211,8 +5364,9 @@
       <c r="A196">
         <v>17</v>
       </c>
-      <c r="B196" t="s">
-        <v>50</v>
+      <c r="B196" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C196">
         <v>200.83600000000001</v>
@@ -5234,8 +5388,9 @@
       <c r="A197">
         <v>19</v>
       </c>
-      <c r="B197" t="s">
-        <v>35</v>
+      <c r="B197" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C197">
         <v>201.636</v>
@@ -5257,8 +5412,9 @@
       <c r="A198">
         <v>19</v>
       </c>
-      <c r="B198" t="s">
-        <v>35</v>
+      <c r="B198" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C198">
         <v>201.73599999999999</v>
@@ -5280,8 +5436,9 @@
       <c r="A199">
         <v>17</v>
       </c>
-      <c r="B199" t="s">
-        <v>50</v>
+      <c r="B199" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C199">
         <v>207.63600000000002</v>
@@ -5303,8 +5460,9 @@
       <c r="A200">
         <v>19</v>
       </c>
-      <c r="B200" t="s">
-        <v>35</v>
+      <c r="B200" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C200">
         <v>207.63600000000002</v>
@@ -5326,8 +5484,9 @@
       <c r="A201">
         <v>17</v>
       </c>
-      <c r="B201" t="s">
-        <v>50</v>
+      <c r="B201" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C201">
         <v>207.93600000000001</v>
@@ -5349,8 +5508,9 @@
       <c r="A202">
         <v>19</v>
       </c>
-      <c r="B202" t="s">
-        <v>35</v>
+      <c r="B202" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C202">
         <v>207.93600000000001</v>
@@ -5372,8 +5532,9 @@
       <c r="A203">
         <v>17</v>
       </c>
-      <c r="B203" t="s">
-        <v>50</v>
+      <c r="B203" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C203">
         <v>208.23600000000002</v>
@@ -5395,8 +5556,9 @@
       <c r="A204">
         <v>19</v>
       </c>
-      <c r="B204" t="s">
-        <v>35</v>
+      <c r="B204" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C204">
         <v>208.23600000000002</v>
@@ -5418,8 +5580,9 @@
       <c r="A205">
         <v>17</v>
       </c>
-      <c r="B205" t="s">
-        <v>50</v>
+      <c r="B205" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C205">
         <v>208.43600000000001</v>
@@ -5441,8 +5604,9 @@
       <c r="A206">
         <v>19</v>
       </c>
-      <c r="B206" t="s">
-        <v>35</v>
+      <c r="B206" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C206">
         <v>208.43600000000001</v>
@@ -5464,8 +5628,9 @@
       <c r="A207">
         <v>17</v>
       </c>
-      <c r="B207" t="s">
-        <v>50</v>
+      <c r="B207" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C207">
         <v>208.73600000000002</v>
@@ -5487,8 +5652,9 @@
       <c r="A208">
         <v>19</v>
       </c>
-      <c r="B208" t="s">
-        <v>35</v>
+      <c r="B208" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C208">
         <v>208.73600000000002</v>
@@ -5510,8 +5676,9 @@
       <c r="A209">
         <v>17</v>
       </c>
-      <c r="B209" t="s">
-        <v>50</v>
+      <c r="B209" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C209">
         <v>209.036</v>
@@ -5533,8 +5700,9 @@
       <c r="A210">
         <v>19</v>
       </c>
-      <c r="B210" t="s">
-        <v>35</v>
+      <c r="B210" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C210">
         <v>209.036</v>
@@ -5556,8 +5724,9 @@
       <c r="A211">
         <v>17</v>
       </c>
-      <c r="B211" t="s">
-        <v>50</v>
+      <c r="B211" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C211">
         <v>209.23600000000002</v>
@@ -5579,8 +5748,9 @@
       <c r="A212">
         <v>19</v>
       </c>
-      <c r="B212" t="s">
-        <v>35</v>
+      <c r="B212" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C212">
         <v>209.23600000000002</v>
@@ -5602,8 +5772,9 @@
       <c r="A213">
         <v>17</v>
       </c>
-      <c r="B213" t="s">
-        <v>50</v>
+      <c r="B213" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C213">
         <v>219.23599999999999</v>
@@ -5625,8 +5796,9 @@
       <c r="A214">
         <v>19</v>
       </c>
-      <c r="B214" t="s">
-        <v>35</v>
+      <c r="B214" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C214">
         <v>219.23599999999999</v>
@@ -5648,8 +5820,9 @@
       <c r="A215">
         <v>17</v>
       </c>
-      <c r="B215" t="s">
-        <v>50</v>
+      <c r="B215" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C215">
         <v>219.536</v>
@@ -5671,8 +5844,9 @@
       <c r="A216">
         <v>19</v>
       </c>
-      <c r="B216" t="s">
-        <v>35</v>
+      <c r="B216" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C216">
         <v>219.536</v>
@@ -5694,8 +5868,9 @@
       <c r="A217">
         <v>17</v>
       </c>
-      <c r="B217" t="s">
-        <v>50</v>
+      <c r="B217" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C217">
         <v>219.83600000000001</v>
@@ -5717,8 +5892,9 @@
       <c r="A218">
         <v>19</v>
       </c>
-      <c r="B218" t="s">
-        <v>35</v>
+      <c r="B218" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C218">
         <v>219.83600000000001</v>
@@ -5740,8 +5916,9 @@
       <c r="A219">
         <v>17</v>
       </c>
-      <c r="B219" t="s">
-        <v>50</v>
+      <c r="B219" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C219">
         <v>220.136</v>
@@ -5763,8 +5940,9 @@
       <c r="A220">
         <v>19</v>
       </c>
-      <c r="B220" t="s">
-        <v>35</v>
+      <c r="B220" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C220">
         <v>220.136</v>
@@ -5786,8 +5964,9 @@
       <c r="A221">
         <v>17</v>
       </c>
-      <c r="B221" t="s">
-        <v>50</v>
+      <c r="B221" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C221">
         <v>220.43600000000001</v>
@@ -5809,8 +5988,9 @@
       <c r="A222">
         <v>19</v>
       </c>
-      <c r="B222" t="s">
-        <v>35</v>
+      <c r="B222" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C222">
         <v>220.43600000000001</v>
@@ -5832,8 +6012,9 @@
       <c r="A223">
         <v>17</v>
       </c>
-      <c r="B223" t="s">
-        <v>50</v>
+      <c r="B223" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C223">
         <v>232.036</v>
@@ -5855,8 +6036,9 @@
       <c r="A224">
         <v>19</v>
       </c>
-      <c r="B224" t="s">
-        <v>35</v>
+      <c r="B224" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C224">
         <v>232.036</v>
@@ -5878,8 +6060,9 @@
       <c r="A225">
         <v>17</v>
       </c>
-      <c r="B225" t="s">
-        <v>50</v>
+      <c r="B225" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C225">
         <v>232.33600000000001</v>
@@ -5901,8 +6084,9 @@
       <c r="A226">
         <v>19</v>
       </c>
-      <c r="B226" t="s">
-        <v>35</v>
+      <c r="B226" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C226">
         <v>232.33600000000001</v>
@@ -5924,8 +6108,9 @@
       <c r="A227">
         <v>17</v>
       </c>
-      <c r="B227" t="s">
-        <v>50</v>
+      <c r="B227" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C227">
         <v>232.63600000000002</v>
@@ -5947,8 +6132,9 @@
       <c r="A228">
         <v>19</v>
       </c>
-      <c r="B228" t="s">
-        <v>35</v>
+      <c r="B228" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C228">
         <v>232.63600000000002</v>
@@ -5970,8 +6156,9 @@
       <c r="A229">
         <v>17</v>
       </c>
-      <c r="B229" t="s">
-        <v>50</v>
+      <c r="B229" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C229">
         <v>232.93600000000001</v>
@@ -5993,8 +6180,9 @@
       <c r="A230">
         <v>19</v>
       </c>
-      <c r="B230" t="s">
-        <v>35</v>
+      <c r="B230" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C230">
         <v>232.93600000000001</v>
@@ -6016,8 +6204,9 @@
       <c r="A231">
         <v>17</v>
       </c>
-      <c r="B231" t="s">
-        <v>50</v>
+      <c r="B231" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C231">
         <v>233.23600000000002</v>
@@ -6039,8 +6228,9 @@
       <c r="A232">
         <v>19</v>
       </c>
-      <c r="B232" t="s">
-        <v>35</v>
+      <c r="B232" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C232">
         <v>233.23600000000002</v>
@@ -6062,8 +6252,9 @@
       <c r="A233">
         <v>17</v>
       </c>
-      <c r="B233" t="s">
-        <v>50</v>
+      <c r="B233" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C233">
         <v>238.43600000000001</v>
@@ -6085,8 +6276,9 @@
       <c r="A234">
         <v>19</v>
       </c>
-      <c r="B234" t="s">
-        <v>35</v>
+      <c r="B234" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C234">
         <v>238.43600000000001</v>
@@ -6108,8 +6300,9 @@
       <c r="A235">
         <v>17</v>
       </c>
-      <c r="B235" t="s">
-        <v>50</v>
+      <c r="B235" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C235">
         <v>238.83600000000001</v>
@@ -6131,8 +6324,9 @@
       <c r="A236">
         <v>19</v>
       </c>
-      <c r="B236" t="s">
-        <v>35</v>
+      <c r="B236" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C236">
         <v>238.83600000000001</v>
@@ -6154,8 +6348,9 @@
       <c r="A237">
         <v>17</v>
       </c>
-      <c r="B237" t="s">
-        <v>50</v>
+      <c r="B237" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C237">
         <v>240.43600000000001</v>
@@ -6177,8 +6372,9 @@
       <c r="A238">
         <v>19</v>
       </c>
-      <c r="B238" t="s">
-        <v>35</v>
+      <c r="B238" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C238">
         <v>240.43600000000001</v>
@@ -6200,8 +6396,9 @@
       <c r="A239">
         <v>17</v>
       </c>
-      <c r="B239" t="s">
-        <v>50</v>
+      <c r="B239" t="str">
+        <f t="shared" si="3"/>
+        <v>#8ee5ee</v>
       </c>
       <c r="C239">
         <v>245.23599999999999</v>
@@ -6223,8 +6420,9 @@
       <c r="A240">
         <v>19</v>
       </c>
-      <c r="B240" t="s">
-        <v>35</v>
+      <c r="B240" t="str">
+        <f t="shared" si="3"/>
+        <v>#63b8ff</v>
       </c>
       <c r="C240">
         <v>245.23599999999999</v>

--- a/Assets/Scripts/Chart示例.xlsx
+++ b/Assets/Scripts/Chart示例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Xenody-master\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD581C71-1D6E-4017-9131-683A265F9B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E9E021-61A1-412C-A8B2-97F08DF8F785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="planes" sheetId="1" r:id="rId1"/>
@@ -555,8 +555,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6452,8 +6452,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D1026"/>
   <sheetViews>
-    <sheetView topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="K496" sqref="K496"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="F620" sqref="F620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15073,7 +15073,7 @@
         <v>161.83600000000001</v>
       </c>
       <c r="B616">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="C616">
         <v>0.8</v>
@@ -31666,10 +31666,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76DC57-EF49-44CE-8A21-D4353938F627}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D317"/>
+  <dimension ref="A1:D316"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="F249" sqref="F249"/>
+    <sheetView topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="J197" sqref="J197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34350,13 +34350,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>116.336</v>
+        <v>115.836</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="C192">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -34364,13 +34364,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>115.836</v>
+        <v>115.886</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="C193">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -34378,13 +34378,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>115.886</v>
+        <v>115.93599999999999</v>
       </c>
       <c r="B194">
-        <v>-0.6</v>
+        <v>-1.4</v>
       </c>
       <c r="C194">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -34392,13 +34392,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>115.93599999999999</v>
+        <v>116.236</v>
       </c>
       <c r="B195">
-        <v>-1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C195">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -34406,13 +34406,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>116.236</v>
+        <v>116.286</v>
       </c>
       <c r="B196">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="C196">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -34420,13 +34420,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>116.286</v>
+        <v>116.336</v>
       </c>
       <c r="B197">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C197">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -34434,13 +34434,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>116.336</v>
+        <v>123.036</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C198">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -34448,13 +34448,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>123.036</v>
+        <v>123.11583333333334</v>
       </c>
       <c r="B199">
-        <v>-1.5</v>
+        <v>-1.1625000000000001</v>
       </c>
       <c r="C199">
-        <v>0.8</v>
+        <v>0.76250000000000007</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -34462,13 +34462,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>123.11583333333334</v>
+        <v>123.19566666666667</v>
       </c>
       <c r="B200">
-        <v>-1.1625000000000001</v>
+        <v>-0.82499999999999996</v>
       </c>
       <c r="C200">
-        <v>0.76250000000000007</v>
+        <v>0.72500000000000009</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -34476,13 +34476,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>123.19566666666667</v>
+        <v>123.27549999999999</v>
       </c>
       <c r="B201">
-        <v>-0.82499999999999996</v>
+        <v>-0.48749999999999982</v>
       </c>
       <c r="C201">
-        <v>0.72500000000000009</v>
+        <v>0.6875</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -34490,13 +34490,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>123.27549999999999</v>
+        <v>123.35533333333333</v>
       </c>
       <c r="B202">
-        <v>-0.48749999999999982</v>
+        <v>-0.14999999999999991</v>
       </c>
       <c r="C202">
-        <v>0.6875</v>
+        <v>0.65</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -34504,13 +34504,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>123.35533333333333</v>
+        <v>123.43516666666667</v>
       </c>
       <c r="B203">
-        <v>-0.14999999999999991</v>
+        <v>0.1875</v>
       </c>
       <c r="C203">
-        <v>0.65</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -34518,13 +34518,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>123.43516666666667</v>
+        <v>123.515</v>
       </c>
       <c r="B204">
-        <v>0.1875</v>
+        <v>0.52500000000000036</v>
       </c>
       <c r="C204">
-        <v>0.61250000000000004</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -34532,13 +34532,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>123.515</v>
+        <v>123.56166666666667</v>
       </c>
       <c r="B205">
-        <v>0.52500000000000036</v>
+        <v>0.86250000000000027</v>
       </c>
       <c r="C205">
-        <v>0.57500000000000007</v>
+        <v>0.53750000000000009</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -34546,13 +34546,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>123.56166666666667</v>
+        <v>123.60833333333333</v>
       </c>
       <c r="B206">
-        <v>0.86250000000000027</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="C206">
-        <v>0.53750000000000009</v>
+        <v>0.5</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -34560,24 +34560,24 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>123.60833333333333</v>
+        <v>172.83600000000001</v>
       </c>
       <c r="B207">
-        <v>1.2000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="C207">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>172.83600000000001</v>
+        <v>172.90300000000002</v>
       </c>
       <c r="B208">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="C208">
         <v>0.6</v>
@@ -34588,10 +34588,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>172.90300000000002</v>
+        <v>172.97000000000003</v>
       </c>
       <c r="B209">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="C209">
         <v>0.6</v>
@@ -34602,10 +34602,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>172.97000000000003</v>
+        <v>173.03700000000003</v>
       </c>
       <c r="B210">
-        <v>-0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="C210">
         <v>0.6</v>
@@ -34616,10 +34616,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>173.03700000000003</v>
+        <v>173.10400000000004</v>
       </c>
       <c r="B211">
-        <v>-0.6</v>
+        <v>0.1</v>
       </c>
       <c r="C211">
         <v>0.6</v>
@@ -34630,10 +34630,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>173.10400000000004</v>
+        <v>173.17100000000005</v>
       </c>
       <c r="B212">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="C212">
         <v>0.6</v>
@@ -34644,10 +34644,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>173.17100000000005</v>
+        <v>177.566</v>
       </c>
       <c r="B213">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C213">
         <v>0.6</v>
@@ -34658,10 +34658,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>177.566</v>
+        <v>178.499</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="C214">
         <v>0.6</v>
@@ -34672,10 +34672,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>178.499</v>
+        <v>178.54300000000001</v>
       </c>
       <c r="B215">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="C215">
         <v>0.6</v>
@@ -34686,10 +34686,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>178.54300000000001</v>
+        <v>178.636</v>
       </c>
       <c r="B216">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C216">
         <v>0.6</v>
@@ -34700,13 +34700,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>178.636</v>
+        <v>191.636</v>
       </c>
       <c r="B217">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C217">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D217">
         <v>17</v>
@@ -34714,13 +34714,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>191.636</v>
+        <v>191.703</v>
       </c>
       <c r="B218">
-        <v>0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="C218">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D218">
         <v>17</v>
@@ -34728,13 +34728,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>191.703</v>
+        <v>191.77</v>
       </c>
       <c r="B219">
-        <v>-0.3</v>
+        <v>-1</v>
       </c>
       <c r="C219">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D219">
         <v>17</v>
@@ -34742,13 +34742,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>191.77</v>
+        <v>191.83700000000002</v>
       </c>
       <c r="B220">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="C220">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D220">
         <v>17</v>
@@ -34756,13 +34756,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>191.83700000000002</v>
+        <v>191.90400000000002</v>
       </c>
       <c r="B221">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="C221">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D221">
         <v>17</v>
@@ -34770,13 +34770,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>191.90400000000002</v>
+        <v>191.97100000000003</v>
       </c>
       <c r="B222">
-        <v>-1.2</v>
+        <v>-0.85</v>
       </c>
       <c r="C222">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D222">
         <v>17</v>
@@ -34784,13 +34784,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>191.97100000000003</v>
+        <v>192.03800000000004</v>
       </c>
       <c r="B223">
-        <v>-0.85</v>
+        <v>-0.45</v>
       </c>
       <c r="C223">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D223">
         <v>17</v>
@@ -34798,13 +34798,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>192.03800000000004</v>
+        <v>192.10500000000005</v>
       </c>
       <c r="B224">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D224">
         <v>17</v>
@@ -34812,13 +34812,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>192.10500000000005</v>
+        <v>192.17200000000005</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C225">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D225">
         <v>17</v>
@@ -34826,13 +34826,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>192.17200000000005</v>
+        <v>192.23900000000006</v>
       </c>
       <c r="B226">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C226">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D226">
         <v>17</v>
@@ -34840,13 +34840,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>192.23900000000006</v>
+        <v>192.30600000000007</v>
       </c>
       <c r="B227">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="C227">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D227">
         <v>17</v>
@@ -34854,13 +34854,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>192.30600000000007</v>
+        <v>192.37300000000008</v>
       </c>
       <c r="B228">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="C228">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D228">
         <v>17</v>
@@ -34868,13 +34868,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>192.37300000000008</v>
+        <v>204.43600000000001</v>
       </c>
       <c r="B229">
-        <v>1.6</v>
+        <v>-0.5</v>
       </c>
       <c r="C229">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D229">
         <v>17</v>
@@ -34882,13 +34882,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>204.43600000000001</v>
+        <v>204.50300000000001</v>
       </c>
       <c r="B230">
-        <v>-0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C230">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D230">
         <v>17</v>
@@ -34896,13 +34896,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>204.50300000000001</v>
+        <v>204.57000000000002</v>
       </c>
       <c r="B231">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C231">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D231">
         <v>17</v>
@@ -34910,13 +34910,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>204.57000000000002</v>
+        <v>204.63700000000003</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C232">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D232">
         <v>17</v>
@@ -34924,13 +34924,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>204.63700000000003</v>
+        <v>204.70400000000004</v>
       </c>
       <c r="B233">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C233">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D233">
         <v>17</v>
@@ -34938,13 +34938,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>204.70400000000004</v>
+        <v>204.77100000000004</v>
       </c>
       <c r="B234">
-        <v>1.2</v>
+        <v>0.85</v>
       </c>
       <c r="C234">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D234">
         <v>17</v>
@@ -34952,13 +34952,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>204.77100000000004</v>
+        <v>204.83800000000005</v>
       </c>
       <c r="B235">
-        <v>0.85</v>
+        <v>0.45</v>
       </c>
       <c r="C235">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D235">
         <v>17</v>
@@ -34966,13 +34966,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>204.83800000000005</v>
+        <v>204.90500000000006</v>
       </c>
       <c r="B236">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C236">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D236">
         <v>17</v>
@@ -34980,13 +34980,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>204.90500000000006</v>
+        <v>204.97200000000007</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="C237">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D237">
         <v>17</v>
@@ -34994,13 +34994,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>204.97200000000007</v>
+        <v>205.03900000000007</v>
       </c>
       <c r="B238">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="C238">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D238">
         <v>17</v>
@@ -35008,13 +35008,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>205.03900000000007</v>
+        <v>205.10600000000008</v>
       </c>
       <c r="B239">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="C239">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D239">
         <v>17</v>
@@ -35022,13 +35022,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>205.10600000000008</v>
+        <v>205.17300000000009</v>
       </c>
       <c r="B240">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="C240">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D240">
         <v>17</v>
@@ -35036,21 +35036,21 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>205.17300000000009</v>
+        <v>218.93600000000001</v>
       </c>
       <c r="B241">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="C241">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D241">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>218.93600000000001</v>
+        <v>219.036</v>
       </c>
       <c r="B242">
         <v>-1</v>
@@ -35064,7 +35064,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>219.036</v>
+        <v>219.10300000000001</v>
       </c>
       <c r="B243">
         <v>-1</v>
@@ -35078,7 +35078,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>219.10300000000001</v>
+        <v>219.17000000000002</v>
       </c>
       <c r="B244">
         <v>-1</v>
@@ -35092,13 +35092,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>219.17000000000002</v>
+        <v>220.565</v>
       </c>
       <c r="B245">
-        <v>-1</v>
+        <v>0.6</v>
       </c>
       <c r="C245">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D245">
         <v>19</v>
@@ -35106,10 +35106,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>220.565</v>
+        <v>220.61500000000001</v>
       </c>
       <c r="B246">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C246">
         <v>0.6</v>
@@ -35120,10 +35120,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>220.61500000000001</v>
+        <v>220.66499999999999</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="C247">
         <v>0.6</v>
@@ -35134,13 +35134,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>220.66499999999999</v>
+        <v>222.43600000000001</v>
       </c>
       <c r="B248">
-        <v>-0.6</v>
+        <v>1.5</v>
       </c>
       <c r="C248">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D248">
         <v>19</v>
@@ -35148,10 +35148,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>222.43600000000001</v>
+        <v>222.536</v>
       </c>
       <c r="B249">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C249">
         <v>0.7</v>
@@ -35162,10 +35162,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>222.536</v>
+        <v>222.636</v>
       </c>
       <c r="B250">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C250">
         <v>0.7</v>
@@ -35176,10 +35176,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>222.636</v>
+        <v>222.73599999999999</v>
       </c>
       <c r="B251">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="C251">
         <v>0.7</v>
@@ -35190,10 +35190,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>222.73599999999999</v>
+        <v>222.83600000000001</v>
       </c>
       <c r="B252">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="C252">
         <v>0.7</v>
@@ -35204,10 +35204,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>222.83600000000001</v>
+        <v>222.93600000000001</v>
       </c>
       <c r="B253">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C253">
         <v>0.7</v>
@@ -35218,10 +35218,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>222.93600000000001</v>
+        <v>223.036</v>
       </c>
       <c r="B254">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C254">
         <v>0.7</v>
@@ -35232,10 +35232,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>223.036</v>
+        <v>223.136</v>
       </c>
       <c r="B255">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="C255">
         <v>0.7</v>
@@ -35246,10 +35246,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>223.136</v>
+        <v>223.23599999999999</v>
       </c>
       <c r="B256">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C256">
         <v>0.7</v>
@@ -35260,10 +35260,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>223.23599999999999</v>
+        <v>223.33600000000001</v>
       </c>
       <c r="B257">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="C257">
         <v>0.7</v>
@@ -35274,10 +35274,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>223.33600000000001</v>
+        <v>223.43600000000001</v>
       </c>
       <c r="B258">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C258">
         <v>0.7</v>
@@ -35288,10 +35288,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>223.43600000000001</v>
+        <v>223.536</v>
       </c>
       <c r="B259">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C259">
         <v>0.7</v>
@@ -35302,10 +35302,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>223.536</v>
+        <v>223.636</v>
       </c>
       <c r="B260">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C260">
         <v>0.7</v>
@@ -35316,10 +35316,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>223.636</v>
+        <v>223.73599999999999</v>
       </c>
       <c r="B261">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="C261">
         <v>0.7</v>
@@ -35330,10 +35330,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>223.73599999999999</v>
+        <v>223.83600000000001</v>
       </c>
       <c r="B262">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C262">
         <v>0.7</v>
@@ -35344,10 +35344,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>223.83600000000001</v>
+        <v>223.93600000000001</v>
       </c>
       <c r="B263">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="C263">
         <v>0.7</v>
@@ -35358,10 +35358,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>223.93600000000001</v>
+        <v>224.036</v>
       </c>
       <c r="B264">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C264">
         <v>0.7</v>
@@ -35372,10 +35372,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>224.036</v>
+        <v>224.136</v>
       </c>
       <c r="B265">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C265">
         <v>0.7</v>
@@ -35386,10 +35386,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>224.136</v>
+        <v>224.23599999999999</v>
       </c>
       <c r="B266">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C266">
         <v>0.7</v>
@@ -35400,10 +35400,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>224.23599999999999</v>
+        <v>224.33600000000001</v>
       </c>
       <c r="B267">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="C267">
         <v>0.7</v>
@@ -35414,10 +35414,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>224.33600000000001</v>
+        <v>224.43600000000001</v>
       </c>
       <c r="B268">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="C268">
         <v>0.7</v>
@@ -35428,10 +35428,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>224.43600000000001</v>
+        <v>224.536</v>
       </c>
       <c r="B269">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C269">
         <v>0.7</v>
@@ -35442,10 +35442,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>224.536</v>
+        <v>224.636</v>
       </c>
       <c r="B270">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C270">
         <v>0.7</v>
@@ -35456,10 +35456,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>224.636</v>
+        <v>224.73599999999999</v>
       </c>
       <c r="B271">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="C271">
         <v>0.7</v>
@@ -35470,10 +35470,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>224.73599999999999</v>
+        <v>224.83600000000001</v>
       </c>
       <c r="B272">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C272">
         <v>0.7</v>
@@ -35484,10 +35484,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>224.83600000000001</v>
+        <v>224.93600000000001</v>
       </c>
       <c r="B273">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="C273">
         <v>0.7</v>
@@ -35498,10 +35498,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>224.93600000000001</v>
+        <v>225.036</v>
       </c>
       <c r="B274">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C274">
         <v>0.7</v>
@@ -35512,10 +35512,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>225.036</v>
+        <v>225.136</v>
       </c>
       <c r="B275">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="C275">
         <v>0.7</v>
@@ -35526,10 +35526,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>225.136</v>
+        <v>225.23599999999999</v>
       </c>
       <c r="B276">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C276">
         <v>0.7</v>
@@ -35540,10 +35540,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>225.23599999999999</v>
+        <v>225.33600000000001</v>
       </c>
       <c r="B277">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="C277">
         <v>0.7</v>
@@ -35554,10 +35554,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>225.33600000000001</v>
+        <v>225.43600000000001</v>
       </c>
       <c r="B278">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C278">
         <v>0.7</v>
@@ -35568,10 +35568,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>225.43600000000001</v>
+        <v>225.536</v>
       </c>
       <c r="B279">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="C279">
         <v>0.7</v>
@@ -35582,10 +35582,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>225.536</v>
+        <v>225.636</v>
       </c>
       <c r="B280">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C280">
         <v>0.7</v>
@@ -35596,10 +35596,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>225.636</v>
+        <v>225.79900000000001</v>
       </c>
       <c r="B281">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C281">
         <v>0.7</v>
@@ -35610,10 +35610,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>225.79900000000001</v>
+        <v>225.86500000000001</v>
       </c>
       <c r="B282">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="C282">
         <v>0.7</v>
@@ -35624,10 +35624,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>225.86500000000001</v>
+        <v>225.93199999999999</v>
       </c>
       <c r="B283">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="C283">
         <v>0.7</v>
@@ -35638,10 +35638,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>225.93199999999999</v>
+        <v>225.999</v>
       </c>
       <c r="B284">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="C284">
         <v>0.7</v>
@@ -35652,10 +35652,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>225.999</v>
+        <v>226.065</v>
       </c>
       <c r="B285">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C285">
         <v>0.7</v>
@@ -35666,10 +35666,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>226.065</v>
+        <v>226.13200000000001</v>
       </c>
       <c r="B286">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="C286">
         <v>0.7</v>
@@ -35680,10 +35680,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>226.13200000000001</v>
+        <v>226.19900000000001</v>
       </c>
       <c r="B287">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C287">
         <v>0.7</v>
@@ -35694,10 +35694,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>226.19900000000001</v>
+        <v>226.26499999999999</v>
       </c>
       <c r="B288">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="C288">
         <v>0.7</v>
@@ -35708,10 +35708,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>226.26499999999999</v>
+        <v>226.315</v>
       </c>
       <c r="B289">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="C289">
         <v>0.7</v>
@@ -35722,10 +35722,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>226.315</v>
+        <v>226.36500000000001</v>
       </c>
       <c r="B290">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="C290">
         <v>0.7</v>
@@ -35736,10 +35736,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>226.36500000000001</v>
+        <v>226.41499999999999</v>
       </c>
       <c r="B291">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="C291">
         <v>0.7</v>
@@ -35750,13 +35750,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>226.41499999999999</v>
+        <v>231.73600000000002</v>
       </c>
       <c r="B292">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="C292">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D292">
         <v>19</v>
@@ -35764,7 +35764,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>231.73600000000002</v>
+        <v>231.83600000000001</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -35778,7 +35778,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>231.83600000000001</v>
+        <v>231.90300000000002</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -35792,7 +35792,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>231.90300000000002</v>
+        <v>231.97000000000003</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -35806,13 +35806,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>231.97000000000003</v>
+        <v>233.36500000000001</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>-0.6</v>
       </c>
       <c r="C296">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D296">
         <v>19</v>
@@ -35820,10 +35820,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>233.36500000000001</v>
+        <v>233.41500000000002</v>
       </c>
       <c r="B297">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="C297">
         <v>0.6</v>
@@ -35834,10 +35834,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>233.41500000000002</v>
+        <v>233.465</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C298">
         <v>0.6</v>
@@ -35848,13 +35848,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>233.465</v>
+        <v>238.036</v>
       </c>
       <c r="B299">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="C299">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D299">
         <v>19</v>
@@ -35862,10 +35862,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>238.036</v>
+        <v>238.08600000000001</v>
       </c>
       <c r="B300">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="C300">
         <v>0.8</v>
@@ -35876,10 +35876,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>238.08600000000001</v>
+        <v>238.136</v>
       </c>
       <c r="B301">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="C301">
         <v>0.8</v>
@@ -35890,13 +35890,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>238.136</v>
+        <v>244.83600000000001</v>
       </c>
       <c r="B302">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C302">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="D302">
         <v>19</v>
@@ -35904,13 +35904,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>244.83600000000001</v>
+        <v>244.93600000000001</v>
       </c>
       <c r="B303">
         <v>0</v>
       </c>
       <c r="C303">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="D303">
         <v>19</v>
@@ -35918,13 +35918,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>244.93600000000001</v>
+        <v>245.036</v>
       </c>
       <c r="B304">
         <v>0</v>
       </c>
       <c r="C304">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="D304">
         <v>19</v>
@@ -35932,13 +35932,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>245.036</v>
+        <v>245.136</v>
       </c>
       <c r="B305">
         <v>0</v>
       </c>
       <c r="C305">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D305">
         <v>19</v>
@@ -35946,13 +35946,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>245.136</v>
+        <v>245.23599999999999</v>
       </c>
       <c r="B306">
         <v>0</v>
       </c>
       <c r="C306">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="D306">
         <v>19</v>
@@ -35960,27 +35960,27 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>245.23599999999999</v>
+        <v>244.83600000000001</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>-1.05</v>
       </c>
       <c r="C307">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D307">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>244.83600000000001</v>
+        <v>244.93600000000001</v>
       </c>
       <c r="B308">
-        <v>-1.05</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C308">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="D308">
         <v>17</v>
@@ -35988,13 +35988,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>244.93600000000001</v>
+        <v>245.036</v>
       </c>
       <c r="B309">
-        <v>-1.1000000000000001</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="C309">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="D309">
         <v>17</v>
@@ -36002,13 +36002,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>245.036</v>
+        <v>245.136</v>
       </c>
       <c r="B310">
-        <v>-1.1499999999999999</v>
+        <v>-1.2</v>
       </c>
       <c r="C310">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D310">
         <v>17</v>
@@ -36016,13 +36016,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>245.136</v>
+        <v>245.23599999999999</v>
       </c>
       <c r="B311">
-        <v>-1.2</v>
+        <v>-1.25</v>
       </c>
       <c r="C311">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="D311">
         <v>17</v>
@@ -36030,13 +36030,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>245.23599999999999</v>
+        <v>244.83600000000001</v>
       </c>
       <c r="B312">
-        <v>-1.25</v>
+        <v>1.05</v>
       </c>
       <c r="C312">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D312">
         <v>17</v>
@@ -36044,13 +36044,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>244.83600000000001</v>
+        <v>244.93600000000001</v>
       </c>
       <c r="B313">
-        <v>1.05</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C313">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="D313">
         <v>17</v>
@@ -36058,13 +36058,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>244.93600000000001</v>
+        <v>245.036</v>
       </c>
       <c r="B314">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C314">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="D314">
         <v>17</v>
@@ -36072,13 +36072,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>245.036</v>
+        <v>245.136</v>
       </c>
       <c r="B315">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="C315">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D315">
         <v>17</v>
@@ -36086,29 +36086,15 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>245.136</v>
+        <v>245.23599999999999</v>
       </c>
       <c r="B316">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="C316">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="D316">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317">
-        <v>245.23599999999999</v>
-      </c>
-      <c r="B317">
-        <v>1.25</v>
-      </c>
-      <c r="C317">
-        <v>1.5</v>
-      </c>
-      <c r="D317">
         <v>17</v>
       </c>
     </row>
@@ -38369,8 +38355,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38808,7 +38794,7 @@
         <v>37.636000000000003</v>
       </c>
       <c r="F14">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -38846,7 +38832,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -38872,7 +38858,7 @@
         <v>39.235999999999997</v>
       </c>
       <c r="F16">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -38904,7 +38890,7 @@
         <v>40.036000000000001</v>
       </c>
       <c r="F17">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -38942,7 +38928,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -39614,7 +39600,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -39640,7 +39626,7 @@
         <v>55.835999999999999</v>
       </c>
       <c r="F40">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -39678,7 +39664,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -39704,7 +39690,7 @@
         <v>57.436</v>
       </c>
       <c r="F42">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -39742,7 +39728,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -39768,7 +39754,7 @@
         <v>59.036000000000001</v>
       </c>
       <c r="F44">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -39838,7 +39824,7 @@
         <v>1.5</v>
       </c>
       <c r="H46">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="I46">
         <v>0.75</v>
@@ -39864,7 +39850,7 @@
         <v>128.24700000000001</v>
       </c>
       <c r="F47">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="G47">
         <v>0.75</v>
@@ -39902,7 +39888,7 @@
         <v>1.5</v>
       </c>
       <c r="H48">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0.75</v>
@@ -39928,7 +39914,7 @@
         <v>128.24700000000001</v>
       </c>
       <c r="F49">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>0.75</v>
@@ -40158,7 +40144,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>0.75</v>
@@ -40184,7 +40170,7 @@
         <v>135.43600000000004</v>
       </c>
       <c r="F57">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>0.75</v>
@@ -40222,7 +40208,7 @@
         <v>1.5</v>
       </c>
       <c r="H58">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="I58">
         <v>0.75</v>
@@ -40248,7 +40234,7 @@
         <v>136.03600000000006</v>
       </c>
       <c r="F59">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="G59">
         <v>0.75</v>
@@ -40760,7 +40746,7 @@
         <v>162.43600000000001</v>
       </c>
       <c r="F75">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="G75">
         <v>1.2</v>
@@ -40798,7 +40784,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I76">
         <v>0.6</v>
@@ -40824,7 +40810,7 @@
         <v>162.83600000000001</v>
       </c>
       <c r="F77">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G77">
         <v>0.6</v>
@@ -40862,7 +40848,7 @@
         <v>1.2</v>
       </c>
       <c r="H78">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -40888,7 +40874,7 @@
         <v>162.43600000000001</v>
       </c>
       <c r="F79">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -40926,7 +40912,7 @@
         <v>1.2</v>
       </c>
       <c r="H80">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="I80">
         <v>0.6</v>
@@ -40952,7 +40938,7 @@
         <v>162.83600000000001</v>
       </c>
       <c r="F81">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="G81">
         <v>0.6</v>
@@ -40990,7 +40976,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="I82">
         <v>1.2</v>
